--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F43E0-E6F8-DE43-B8B2-F156F04958DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249815A-F41C-BF42-8F85-E5FDFA445D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="44580" windowHeight="24700" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
+    <workbookView xWindow="8960" yWindow="2200" windowWidth="44580" windowHeight="24700" activeTab="1" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="B S Common" sheetId="8" r:id="rId4"/>
     <sheet name="IS Common" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3C8013-9F59-6546-8AA7-191A6CA15E5B}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="400" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2089,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>1515.2</v>
+        <v>1570.61</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="3" t="s">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G6" s="4">
         <f>+G4*G5</f>
-        <v>42003028.902400002</v>
+        <v>43539055.718319997</v>
       </c>
       <c r="J6" s="4"/>
       <c r="L6" s="3" t="s">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G9" s="4">
         <f>+G6-G7+G8</f>
-        <v>41162811.902400002</v>
+        <v>42698838.718319997</v>
       </c>
       <c r="J9" s="4"/>
       <c r="L9" s="3" t="s">
@@ -3298,11 +3298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B3FB4-BD2A-5E41-95A2-2CC4EACD5DFD}">
   <dimension ref="A1:IM151"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG22" sqref="BG22"/>
+      <selection pane="bottomRight" activeCell="BH41" sqref="BH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -6531,47 +6531,47 @@
         <v>10033.907827986932</v>
       </c>
       <c r="AU24" s="88">
-        <f>+AT40*$BH$34</f>
+        <f t="shared" ref="AU24:BE24" si="57">+AT40*$BH$34</f>
         <v>12574.95</v>
       </c>
       <c r="AV24" s="88">
-        <f>+AU40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>22087.524773340683</v>
       </c>
       <c r="AW24" s="88">
-        <f>+AV40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>33209.605800695397</v>
       </c>
       <c r="AX24" s="88">
-        <f>+AW40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>46061.248114189038</v>
       </c>
       <c r="AY24" s="88">
-        <f>+AX40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>60769.584798395859</v>
       </c>
       <c r="AZ24" s="88">
-        <f>+AY40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>77469.201512933199</v>
       </c>
       <c r="BA24" s="88">
-        <f>+AZ40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>96302.529654727055</v>
       </c>
       <c r="BB24" s="88">
-        <f>+BA40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>117420.25905190804</v>
       </c>
       <c r="BC24" s="88">
-        <f>+BB40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>140981.77112282862</v>
       </c>
       <c r="BD24" s="88">
-        <f>+BC40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>167155.59347712316</v>
       </c>
       <c r="BE24" s="88">
-        <f>+BD40*$BH$34</f>
+        <f t="shared" si="57"/>
         <v>196119.87698113947</v>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
         <v>239554</v>
       </c>
       <c r="V25" s="35">
-        <f t="shared" ref="V25" si="57">+V23+V24</f>
+        <f t="shared" ref="V25" si="58">+V23+V24</f>
         <v>167559</v>
       </c>
       <c r="W25" s="35">
@@ -6673,98 +6673,98 @@
         <v>339965</v>
       </c>
       <c r="Z25" s="35">
-        <f t="shared" ref="Z25" si="58">+Z23+Z24</f>
+        <f t="shared" ref="Z25" si="59">+Z23+Z24</f>
         <v>190218.90427131657</v>
       </c>
       <c r="AA25" s="72"/>
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
       <c r="AJ25" s="35">
-        <f t="shared" ref="AJ25:AT25" si="59">+AJ23+AJ24</f>
+        <f t="shared" ref="AJ25:AT25" si="60">+AJ23+AJ24</f>
         <v>349705</v>
       </c>
       <c r="AK25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>457685</v>
       </c>
       <c r="AL25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>534471</v>
       </c>
       <c r="AM25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>714300</v>
       </c>
       <c r="AN25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>769867</v>
       </c>
       <c r="AO25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>38739</v>
       </c>
       <c r="AP25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>275743</v>
       </c>
       <c r="AQ25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>268436</v>
       </c>
       <c r="AR25" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>458735</v>
       </c>
       <c r="AS25" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>293781</v>
       </c>
       <c r="AT25" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>814976.90782798699</v>
       </c>
       <c r="AU25" s="88">
-        <f t="shared" ref="AU25:BC25" si="60">+AU23+AU24</f>
+        <f t="shared" ref="AU25:BC25" si="61">+AU23+AU24</f>
         <v>1268343.3031120913</v>
       </c>
       <c r="AV25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1482944.1369806286</v>
       </c>
       <c r="AW25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1713552.3084658196</v>
       </c>
       <c r="AX25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1961111.5578942429</v>
       </c>
       <c r="AY25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2226615.5619383119</v>
       </c>
       <c r="AZ25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2511110.4189058491</v>
       </c>
       <c r="BA25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2815697.2529574619</v>
       </c>
       <c r="BB25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3141534.942789413</v>
       </c>
       <c r="BC25" s="88">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3489842.9805726041</v>
       </c>
       <c r="BD25" s="88">
-        <f t="shared" ref="BD25:BE25" si="61">+BD23+BD24</f>
+        <f t="shared" ref="BD25:BE25" si="62">+BD23+BD24</f>
         <v>3861904.4672021759</v>
       </c>
       <c r="BE25" s="88">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4259069.2501883656</v>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
         <v>-82827</v>
       </c>
       <c r="Z26" s="35">
-        <f t="shared" ref="Z26" si="62">+Z25*(Y26/Y25)</f>
+        <f t="shared" ref="Z26" si="63">+Z25*(Y26/Y25)</f>
         <v>-46343.774165223884</v>
       </c>
       <c r="AA26" s="72"/>
@@ -6892,43 +6892,43 @@
         <v>317085.82577802282</v>
       </c>
       <c r="AV26" s="88">
-        <f t="shared" ref="AV26:BC26" si="63">+AV25*(AU26/AU25)</f>
+        <f t="shared" ref="AV26:BC26" si="64">+AV25*(AU26/AU25)</f>
         <v>370736.03424515715</v>
       </c>
       <c r="AW26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>428388.07711645489</v>
       </c>
       <c r="AX26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>490277.88947356073</v>
       </c>
       <c r="AY26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>556653.89048457798</v>
       </c>
       <c r="AZ26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>627777.60472646228</v>
       </c>
       <c r="BA26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>703924.31323936547</v>
       </c>
       <c r="BB26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>785383.73569735326</v>
       </c>
       <c r="BC26" s="88">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>872460.74514315103</v>
       </c>
       <c r="BD26" s="88">
-        <f t="shared" ref="BD26" si="64">+BD25*(BC26/BC25)</f>
+        <f t="shared" ref="BD26" si="65">+BD25*(BC26/BC25)</f>
         <v>965476.11680054397</v>
       </c>
       <c r="BE26" s="88">
-        <f t="shared" ref="BE26" si="65">+BE25*(BD26/BD25)</f>
+        <f t="shared" ref="BE26" si="66">+BE25*(BD26/BD25)</f>
         <v>1064767.3125470914</v>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
         <v>204434</v>
       </c>
       <c r="V27" s="34">
-        <f t="shared" ref="V27" si="66">+V25+V26</f>
+        <f t="shared" ref="V27" si="67">+V25+V26</f>
         <v>133475</v>
       </c>
       <c r="W27" s="34">
@@ -7030,50 +7030,50 @@
         <v>257138</v>
       </c>
       <c r="Z27" s="34">
-        <f t="shared" ref="Z27" si="67">+Z25+Z26</f>
+        <f t="shared" ref="Z27" si="68">+Z25+Z26</f>
         <v>143875.13010609269</v>
       </c>
       <c r="AA27" s="73"/>
       <c r="AB27" s="33"/>
       <c r="AC27" s="33"/>
       <c r="AJ27" s="34">
-        <f t="shared" ref="AJ27:AS27" si="68">+AJ25+AJ26</f>
+        <f t="shared" ref="AJ27:AS27" si="69">+AJ25+AJ26</f>
         <v>214945</v>
       </c>
       <c r="AK27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>278000</v>
       </c>
       <c r="AL27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>327438</v>
       </c>
       <c r="AM27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>445371</v>
       </c>
       <c r="AN27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>475602</v>
       </c>
       <c r="AO27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>22938</v>
       </c>
       <c r="AP27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>375233</v>
       </c>
       <c r="AQ27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>176553</v>
       </c>
       <c r="AR27" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>350608</v>
       </c>
       <c r="AS27" s="89">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>355466</v>
       </c>
       <c r="AT27" s="89">
@@ -7085,43 +7085,43 @@
         <v>951257.47733406839</v>
       </c>
       <c r="AV27" s="89">
-        <f t="shared" ref="AV27:BE27" si="69">+AV25-AV26</f>
+        <f t="shared" ref="AV27:BE27" si="70">+AV25-AV26</f>
         <v>1112208.1027354714</v>
       </c>
       <c r="AW27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1285164.2313493646</v>
       </c>
       <c r="AX27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1470833.6684206822</v>
       </c>
       <c r="AY27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1669961.6714537339</v>
       </c>
       <c r="AZ27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1883332.8141793869</v>
       </c>
       <c r="BA27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2111772.9397180965</v>
       </c>
       <c r="BB27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2356151.2070920598</v>
       </c>
       <c r="BC27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2617382.2354294532</v>
       </c>
       <c r="BD27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2896428.350401632</v>
       </c>
       <c r="BE27" s="89">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3194301.9376412742</v>
       </c>
       <c r="BF27" s="34">
@@ -7129,759 +7129,759 @@
         <v>3258187.9763940996</v>
       </c>
       <c r="BG27" s="34">
-        <f>+BF27*(1+$BH$35)</f>
+        <f t="shared" ref="BG27:CL27" si="71">+BF27*(1+$BH$35)</f>
         <v>3323351.7359219817</v>
       </c>
       <c r="BH27" s="34">
-        <f>+BG27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3389818.7706404217</v>
       </c>
       <c r="BI27" s="34">
-        <f>+BH27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3457615.1460532299</v>
       </c>
       <c r="BJ27" s="34">
-        <f>+BI27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3526767.4489742946</v>
       </c>
       <c r="BK27" s="34">
-        <f>+BJ27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3597302.7979537807</v>
       </c>
       <c r="BL27" s="34">
-        <f>+BK27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3669248.8539128564</v>
       </c>
       <c r="BM27" s="34">
-        <f>+BL27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3742633.8309911136</v>
       </c>
       <c r="BN27" s="34">
-        <f>+BM27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3817486.5076109357</v>
       </c>
       <c r="BO27" s="34">
-        <f>+BN27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3893836.2377631543</v>
       </c>
       <c r="BP27" s="34">
-        <f>+BO27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>3971712.9625184173</v>
       </c>
       <c r="BQ27" s="34">
-        <f>+BP27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4051147.2217687857</v>
       </c>
       <c r="BR27" s="34">
-        <f>+BQ27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4132170.1662041615</v>
       </c>
       <c r="BS27" s="34">
-        <f>+BR27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4214813.5695282444</v>
       </c>
       <c r="BT27" s="34">
-        <f>+BS27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4299109.8409188092</v>
       </c>
       <c r="BU27" s="34">
-        <f>+BT27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4385092.0377371851</v>
       </c>
       <c r="BV27" s="34">
-        <f>+BU27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4472793.8784919288</v>
       </c>
       <c r="BW27" s="34">
-        <f>+BV27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4562249.7560617672</v>
       </c>
       <c r="BX27" s="34">
-        <f>+BW27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4653494.7511830023</v>
       </c>
       <c r="BY27" s="34">
-        <f>+BX27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4746564.6462066621</v>
       </c>
       <c r="BZ27" s="34">
-        <f>+BY27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4841495.9391307952</v>
       </c>
       <c r="CA27" s="34">
-        <f>+BZ27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>4938325.8579134112</v>
       </c>
       <c r="CB27" s="34">
-        <f>+CA27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5037092.3750716792</v>
       </c>
       <c r="CC27" s="34">
-        <f>+CB27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5137834.2225731127</v>
       </c>
       <c r="CD27" s="34">
-        <f>+CC27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5240590.9070245754</v>
       </c>
       <c r="CE27" s="34">
-        <f>+CD27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5345402.7251650672</v>
       </c>
       <c r="CF27" s="34">
-        <f>+CE27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5452310.7796683684</v>
       </c>
       <c r="CG27" s="34">
-        <f>+CF27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5561356.9952617362</v>
       </c>
       <c r="CH27" s="34">
-        <f>+CG27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5672584.135166971</v>
       </c>
       <c r="CI27" s="34">
-        <f>+CH27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5786035.8178703105</v>
       </c>
       <c r="CJ27" s="34">
-        <f>+CI27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>5901756.5342277167</v>
       </c>
       <c r="CK27" s="34">
-        <f>+CJ27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>6019791.6649122713</v>
       </c>
       <c r="CL27" s="34">
-        <f>+CK27*(1+$BH$35)</f>
+        <f t="shared" si="71"/>
         <v>6140187.4982105168</v>
       </c>
       <c r="CM27" s="34">
-        <f>+CL27*(1+$BH$35)</f>
+        <f t="shared" ref="CM27:DR27" si="72">+CL27*(1+$BH$35)</f>
         <v>6262991.248174727</v>
       </c>
       <c r="CN27" s="34">
-        <f>+CM27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>6388251.0731382212</v>
       </c>
       <c r="CO27" s="34">
-        <f>+CN27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>6516016.0946009858</v>
       </c>
       <c r="CP27" s="34">
-        <f>+CO27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>6646336.4164930061</v>
       </c>
       <c r="CQ27" s="34">
-        <f>+CP27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>6779263.1448228667</v>
       </c>
       <c r="CR27" s="34">
-        <f>+CQ27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>6914848.4077193243</v>
       </c>
       <c r="CS27" s="34">
-        <f>+CR27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7053145.375873711</v>
       </c>
       <c r="CT27" s="34">
-        <f>+CS27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7194208.2833911851</v>
       </c>
       <c r="CU27" s="34">
-        <f>+CT27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7338092.4490590086</v>
       </c>
       <c r="CV27" s="34">
-        <f>+CU27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7484854.2980401888</v>
       </c>
       <c r="CW27" s="34">
-        <f>+CV27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7634551.3840009924</v>
       </c>
       <c r="CX27" s="34">
-        <f>+CW27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7787242.4116810123</v>
       </c>
       <c r="CY27" s="34">
-        <f>+CX27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>7942987.2599146329</v>
       </c>
       <c r="CZ27" s="34">
-        <f>+CY27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8101847.0051129255</v>
       </c>
       <c r="DA27" s="34">
-        <f>+CZ27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8263883.9452151842</v>
       </c>
       <c r="DB27" s="34">
-        <f>+DA27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8429161.6241194885</v>
       </c>
       <c r="DC27" s="34">
-        <f>+DB27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8597744.856601879</v>
       </c>
       <c r="DD27" s="34">
-        <f>+DC27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8769699.7537339162</v>
       </c>
       <c r="DE27" s="34">
-        <f>+DD27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>8945093.7488085944</v>
       </c>
       <c r="DF27" s="34">
-        <f>+DE27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>9123995.6237847656</v>
       </c>
       <c r="DG27" s="34">
-        <f>+DF27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>9306475.5362604614</v>
       </c>
       <c r="DH27" s="34">
-        <f>+DG27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>9492605.0469856709</v>
       </c>
       <c r="DI27" s="34">
-        <f>+DH27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>9682457.1479253843</v>
       </c>
       <c r="DJ27" s="34">
-        <f>+DI27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>9876106.2908838913</v>
       </c>
       <c r="DK27" s="34">
-        <f>+DJ27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>10073628.41670157</v>
       </c>
       <c r="DL27" s="34">
-        <f>+DK27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>10275100.985035602</v>
       </c>
       <c r="DM27" s="34">
-        <f>+DL27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>10480603.004736314</v>
       </c>
       <c r="DN27" s="34">
-        <f>+DM27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>10690215.064831041</v>
       </c>
       <c r="DO27" s="34">
-        <f>+DN27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>10904019.366127662</v>
       </c>
       <c r="DP27" s="34">
-        <f>+DO27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>11122099.753450217</v>
       </c>
       <c r="DQ27" s="34">
-        <f>+DP27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>11344541.748519221</v>
       </c>
       <c r="DR27" s="34">
-        <f>+DQ27*(1+$BH$35)</f>
+        <f t="shared" si="72"/>
         <v>11571432.583489606</v>
       </c>
       <c r="DS27" s="34">
-        <f>+DR27*(1+$BH$35)</f>
+        <f t="shared" ref="DS27:EX27" si="73">+DR27*(1+$BH$35)</f>
         <v>11802861.235159399</v>
       </c>
       <c r="DT27" s="34">
-        <f>+DS27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>12038918.459862588</v>
       </c>
       <c r="DU27" s="34">
-        <f>+DT27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>12279696.829059839</v>
       </c>
       <c r="DV27" s="34">
-        <f>+DU27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>12525290.765641036</v>
       </c>
       <c r="DW27" s="34">
-        <f>+DV27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>12775796.580953857</v>
       </c>
       <c r="DX27" s="34">
-        <f>+DW27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>13031312.512572935</v>
       </c>
       <c r="DY27" s="34">
-        <f>+DX27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>13291938.762824394</v>
       </c>
       <c r="DZ27" s="34">
-        <f>+DY27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>13557777.538080882</v>
       </c>
       <c r="EA27" s="34">
-        <f>+DZ27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>13828933.0888425</v>
       </c>
       <c r="EB27" s="34">
-        <f>+EA27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>14105511.75061935</v>
       </c>
       <c r="EC27" s="34">
-        <f>+EB27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>14387621.985631738</v>
       </c>
       <c r="ED27" s="34">
-        <f>+EC27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>14675374.425344372</v>
       </c>
       <c r="EE27" s="34">
-        <f>+ED27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>14968881.913851259</v>
       </c>
       <c r="EF27" s="34">
-        <f>+EE27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>15268259.552128285</v>
       </c>
       <c r="EG27" s="34">
-        <f>+EF27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>15573624.743170852</v>
       </c>
       <c r="EH27" s="34">
-        <f>+EG27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>15885097.238034269</v>
       </c>
       <c r="EI27" s="34">
-        <f>+EH27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>16202799.182794955</v>
       </c>
       <c r="EJ27" s="34">
-        <f>+EI27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>16526855.166450854</v>
       </c>
       <c r="EK27" s="34">
-        <f>+EJ27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>16857392.269779872</v>
       </c>
       <c r="EL27" s="34">
-        <f>+EK27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>17194540.115175471</v>
       </c>
       <c r="EM27" s="34">
-        <f>+EL27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>17538430.917478979</v>
       </c>
       <c r="EN27" s="34">
-        <f>+EM27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>17889199.535828557</v>
       </c>
       <c r="EO27" s="34">
-        <f>+EN27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>18246983.52654513</v>
       </c>
       <c r="EP27" s="34">
-        <f>+EO27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>18611923.197076034</v>
       </c>
       <c r="EQ27" s="34">
-        <f>+EP27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>18984161.661017556</v>
       </c>
       <c r="ER27" s="34">
-        <f>+EQ27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>19363844.894237906</v>
       </c>
       <c r="ES27" s="34">
-        <f>+ER27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>19751121.792122666</v>
       </c>
       <c r="ET27" s="34">
-        <f>+ES27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>20146144.22796512</v>
       </c>
       <c r="EU27" s="34">
-        <f>+ET27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>20549067.112524424</v>
       </c>
       <c r="EV27" s="34">
-        <f>+EU27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>20960048.454774912</v>
       </c>
       <c r="EW27" s="34">
-        <f>+EV27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>21379249.423870411</v>
       </c>
       <c r="EX27" s="34">
-        <f>+EW27*(1+$BH$35)</f>
+        <f t="shared" si="73"/>
         <v>21806834.41234782</v>
       </c>
       <c r="EY27" s="34">
-        <f>+EX27*(1+$BH$35)</f>
+        <f t="shared" ref="EY27:GD27" si="74">+EX27*(1+$BH$35)</f>
         <v>22242971.100594778</v>
       </c>
       <c r="EZ27" s="34">
-        <f>+EY27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>22687830.522606675</v>
       </c>
       <c r="FA27" s="34">
-        <f>+EZ27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>23141587.133058809</v>
       </c>
       <c r="FB27" s="34">
-        <f>+FA27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>23604418.875719987</v>
       </c>
       <c r="FC27" s="34">
-        <f>+FB27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>24076507.253234386</v>
       </c>
       <c r="FD27" s="34">
-        <f>+FC27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>24558037.398299076</v>
       </c>
       <c r="FE27" s="34">
-        <f>+FD27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>25049198.146265056</v>
       </c>
       <c r="FF27" s="34">
-        <f>+FE27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>25550182.109190356</v>
       </c>
       <c r="FG27" s="34">
-        <f>+FF27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>26061185.751374163</v>
       </c>
       <c r="FH27" s="34">
-        <f>+FG27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>26582409.466401648</v>
       </c>
       <c r="FI27" s="34">
-        <f>+FH27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>27114057.655729681</v>
       </c>
       <c r="FJ27" s="34">
-        <f>+FI27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>27656338.808844276</v>
       </c>
       <c r="FK27" s="34">
-        <f>+FJ27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>28209465.585021161</v>
       </c>
       <c r="FL27" s="34">
-        <f>+FK27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>28773654.896721583</v>
       </c>
       <c r="FM27" s="34">
-        <f>+FL27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>29349127.994656015</v>
       </c>
       <c r="FN27" s="34">
-        <f>+FM27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>29936110.554549135</v>
       </c>
       <c r="FO27" s="34">
-        <f>+FN27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>30534832.765640117</v>
       </c>
       <c r="FP27" s="34">
-        <f>+FO27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>31145529.42095292</v>
       </c>
       <c r="FQ27" s="34">
-        <f>+FP27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>31768440.009371977</v>
       </c>
       <c r="FR27" s="34">
-        <f>+FQ27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>32403808.809559416</v>
       </c>
       <c r="FS27" s="34">
-        <f>+FR27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>33051884.985750604</v>
       </c>
       <c r="FT27" s="34">
-        <f>+FS27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>33712922.685465619</v>
       </c>
       <c r="FU27" s="34">
-        <f>+FT27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>34387181.139174931</v>
       </c>
       <c r="FV27" s="34">
-        <f>+FU27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>35074924.761958428</v>
       </c>
       <c r="FW27" s="34">
-        <f>+FV27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>35776423.257197596</v>
       </c>
       <c r="FX27" s="34">
-        <f>+FW27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>36491951.722341552</v>
       </c>
       <c r="FY27" s="34">
-        <f>+FX27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>37221790.75678838</v>
       </c>
       <c r="FZ27" s="34">
-        <f>+FY27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>37966226.57192415</v>
       </c>
       <c r="GA27" s="34">
-        <f>+FZ27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>38725551.103362635</v>
       </c>
       <c r="GB27" s="34">
-        <f>+GA27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>39500062.125429891</v>
       </c>
       <c r="GC27" s="34">
-        <f>+GB27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>40290063.367938489</v>
       </c>
       <c r="GD27" s="34">
-        <f>+GC27*(1+$BH$35)</f>
+        <f t="shared" si="74"/>
         <v>41095864.635297261</v>
       </c>
       <c r="GE27" s="34">
-        <f>+GD27*(1+$BH$35)</f>
+        <f t="shared" ref="GE27:HJ27" si="75">+GD27*(1+$BH$35)</f>
         <v>41917781.928003207</v>
       </c>
       <c r="GF27" s="34">
-        <f>+GE27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>42756137.566563271</v>
       </c>
       <c r="GG27" s="34">
-        <f>+GF27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>43611260.317894541</v>
       </c>
       <c r="GH27" s="34">
-        <f>+GG27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>44483485.52425243</v>
       </c>
       <c r="GI27" s="34">
-        <f>+GH27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>45373155.234737478</v>
       </c>
       <c r="GJ27" s="34">
-        <f>+GI27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>46280618.339432232</v>
       </c>
       <c r="GK27" s="34">
-        <f>+GJ27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>47206230.70622088</v>
       </c>
       <c r="GL27" s="34">
-        <f>+GK27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>48150355.320345297</v>
       </c>
       <c r="GM27" s="34">
-        <f>+GL27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>49113362.426752202</v>
       </c>
       <c r="GN27" s="34">
-        <f>+GM27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>50095629.675287247</v>
       </c>
       <c r="GO27" s="34">
-        <f>+GN27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>51097542.268792994</v>
       </c>
       <c r="GP27" s="34">
-        <f>+GO27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>52119493.114168853</v>
       </c>
       <c r="GQ27" s="34">
-        <f>+GP27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>53161882.976452231</v>
       </c>
       <c r="GR27" s="34">
-        <f>+GQ27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>54225120.635981277</v>
       </c>
       <c r="GS27" s="34">
-        <f>+GR27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>55309623.048700906</v>
       </c>
       <c r="GT27" s="34">
-        <f>+GS27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>56415815.509674929</v>
       </c>
       <c r="GU27" s="34">
-        <f>+GT27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>57544131.81986843</v>
       </c>
       <c r="GV27" s="34">
-        <f>+GU27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>58695014.4562658</v>
       </c>
       <c r="GW27" s="34">
-        <f>+GV27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>59868914.745391116</v>
       </c>
       <c r="GX27" s="34">
-        <f>+GW27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>61066293.040298939</v>
       </c>
       <c r="GY27" s="34">
-        <f>+GX27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>62287618.90110492</v>
       </c>
       <c r="GZ27" s="34">
-        <f>+GY27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>63533371.279127017</v>
       </c>
       <c r="HA27" s="34">
-        <f>+GZ27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>64804038.70470956</v>
       </c>
       <c r="HB27" s="34">
-        <f>+HA27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>66100119.478803754</v>
       </c>
       <c r="HC27" s="34">
-        <f>+HB27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>67422121.868379831</v>
       </c>
       <c r="HD27" s="34">
-        <f>+HC27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>68770564.305747434</v>
       </c>
       <c r="HE27" s="34">
-        <f>+HD27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>70145975.591862381</v>
       </c>
       <c r="HF27" s="34">
-        <f>+HE27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>71548895.103699625</v>
       </c>
       <c r="HG27" s="34">
-        <f>+HF27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>72979873.005773619</v>
       </c>
       <c r="HH27" s="34">
-        <f>+HG27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>74439470.465889096</v>
       </c>
       <c r="HI27" s="34">
-        <f>+HH27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>75928259.875206873</v>
       </c>
       <c r="HJ27" s="34">
-        <f>+HI27*(1+$BH$35)</f>
+        <f t="shared" si="75"/>
         <v>77446825.072711006</v>
       </c>
       <c r="HK27" s="34">
-        <f>+HJ27*(1+$BH$35)</f>
+        <f t="shared" ref="HK27:IM27" si="76">+HJ27*(1+$BH$35)</f>
         <v>78995761.574165225</v>
       </c>
       <c r="HL27" s="34">
-        <f>+HK27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>80575676.805648535</v>
       </c>
       <c r="HM27" s="34">
-        <f>+HL27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>82187190.341761515</v>
       </c>
       <c r="HN27" s="34">
-        <f>+HM27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>83830934.148596749</v>
       </c>
       <c r="HO27" s="34">
-        <f>+HN27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>85507552.831568688</v>
       </c>
       <c r="HP27" s="34">
-        <f>+HO27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>87217703.88820006</v>
       </c>
       <c r="HQ27" s="34">
-        <f>+HP27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>88962057.965964064</v>
       </c>
       <c r="HR27" s="34">
-        <f>+HQ27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>90741299.125283346</v>
       </c>
       <c r="HS27" s="34">
-        <f>+HR27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>92556125.10778901</v>
       </c>
       <c r="HT27" s="34">
-        <f>+HS27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>94407247.609944791</v>
       </c>
       <c r="HU27" s="34">
-        <f>+HT27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>96295392.562143683</v>
       </c>
       <c r="HV27" s="34">
-        <f>+HU27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>98221300.413386554</v>
       </c>
       <c r="HW27" s="34">
-        <f>+HV27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>100185726.42165428</v>
       </c>
       <c r="HX27" s="34">
-        <f>+HW27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>102189440.95008737</v>
       </c>
       <c r="HY27" s="34">
-        <f>+HX27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>104233229.76908912</v>
       </c>
       <c r="HZ27" s="34">
-        <f>+HY27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>106317894.3644709</v>
       </c>
       <c r="IA27" s="34">
-        <f>+HZ27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>108444252.25176032</v>
       </c>
       <c r="IB27" s="34">
-        <f>+IA27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>110613137.29679553</v>
       </c>
       <c r="IC27" s="34">
-        <f>+IB27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>112825400.04273145</v>
       </c>
       <c r="ID27" s="34">
-        <f>+IC27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>115081908.04358608</v>
       </c>
       <c r="IE27" s="34">
-        <f>+ID27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>117383546.2044578</v>
       </c>
       <c r="IF27" s="34">
-        <f>+IE27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>119731217.12854697</v>
       </c>
       <c r="IG27" s="34">
-        <f>+IF27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>122125841.47111791</v>
       </c>
       <c r="IH27" s="34">
-        <f>+IG27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>124568358.30054027</v>
       </c>
       <c r="II27" s="34">
-        <f>+IH27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>127059725.46655108</v>
       </c>
       <c r="IJ27" s="34">
-        <f>+II27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>129600919.9758821</v>
       </c>
       <c r="IK27" s="34">
-        <f>+IJ27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>132192938.37539974</v>
       </c>
       <c r="IL27" s="34">
-        <f>+IK27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>134836797.14290774</v>
       </c>
       <c r="IM27" s="34">
-        <f>+IL27*(1+$BH$35)</f>
+        <f t="shared" si="76"/>
         <v>137533533.0857659</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
         <v>7.1794205443371375</v>
       </c>
       <c r="V28" s="37">
-        <f t="shared" ref="V28" si="70">+V27/V29</f>
+        <f t="shared" ref="V28" si="77">+V27/V29</f>
         <v>4.6857995436194484</v>
       </c>
       <c r="W28" s="37">
@@ -7968,7 +7968,7 @@
         <v>9.1979539276005156</v>
       </c>
       <c r="Z28" s="37">
-        <f t="shared" ref="Z28" si="71">+Z27/Z29</f>
+        <f t="shared" ref="Z28" si="78">+Z27/Z29</f>
         <v>5.1464848371044747</v>
       </c>
       <c r="AA28" s="74"/>
@@ -8017,39 +8017,39 @@
         <v>39.173494641535626</v>
       </c>
       <c r="AW28" s="90">
-        <f t="shared" ref="AW28:BC28" si="72">+AW27/AW29</f>
+        <f t="shared" ref="AW28:BC28" si="79">+AW27/AW29</f>
         <v>45.265246680397127</v>
       </c>
       <c r="AX28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>51.804778877943157</v>
       </c>
       <c r="AY28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>58.818340225508905</v>
       </c>
       <c r="AZ28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>66.333564485846537</v>
       </c>
       <c r="BA28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>74.379538986205631</v>
       </c>
       <c r="BB28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>82.986876699297795</v>
       </c>
       <c r="BC28" s="90">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>92.187791765110461</v>
       </c>
       <c r="BD28" s="90">
-        <f t="shared" ref="BD28:BE28" si="73">+BD27/BD29</f>
+        <f t="shared" ref="BD28:BE28" si="80">+BD27/BD29</f>
         <v>102.01617861350574</v>
       </c>
       <c r="BE28" s="90">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>112.50769485483494</v>
       </c>
     </row>
@@ -8059,15 +8059,15 @@
         <v>33</v>
       </c>
       <c r="C29" s="35">
-        <f t="shared" ref="C29" si="74">+C27/C28</f>
+        <f t="shared" ref="C29" si="81">+C27/C28</f>
         <v>28825</v>
       </c>
       <c r="D29" s="35">
-        <f t="shared" ref="D29" si="75">+D27/D28</f>
+        <f t="shared" ref="D29" si="82">+D27/D28</f>
         <v>28762.931034482761</v>
       </c>
       <c r="E29" s="35">
-        <f t="shared" ref="E29" si="76">+E27/E28</f>
+        <f t="shared" ref="E29" si="83">+E27/E28</f>
         <v>28420.289855072468</v>
       </c>
       <c r="F29" s="35">
@@ -8075,15 +8075,15 @@
         <v>155623.71794871791</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" ref="G29" si="77">+G27/G28</f>
+        <f t="shared" ref="G29" si="84">+G27/G28</f>
         <v>27908.920187793428</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" ref="H29" si="78">+H27/H28</f>
+        <f t="shared" ref="H29" si="85">+H27/H28</f>
         <v>27907.142857142859</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" ref="I29" si="79">+I27/I28</f>
+        <f t="shared" ref="I29" si="86">+I27/I28</f>
         <v>27886.131386861311</v>
       </c>
       <c r="J29" s="35">
@@ -8091,39 +8091,39 @@
         <v>28335.3982300885</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" ref="K29:S29" si="80">+K27/K28</f>
+        <f t="shared" ref="K29:S29" si="87">+K27/K28</f>
         <v>28157.188498402556</v>
       </c>
       <c r="L29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28269.565217391304</v>
       </c>
       <c r="M29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28409.79827089337</v>
       </c>
       <c r="N29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28463.281249999993</v>
       </c>
       <c r="O29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28291.85185185185</v>
       </c>
       <c r="P29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28189.655172413793</v>
       </c>
       <c r="Q29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28455.319148936171</v>
       </c>
       <c r="R29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28414.15797317437</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>28562.02247191011</v>
       </c>
       <c r="T29" s="35">
@@ -8145,50 +8145,50 @@
         <v>27956</v>
       </c>
       <c r="Z29" s="35">
-        <f t="shared" ref="Z29" si="81">+Y29</f>
+        <f t="shared" ref="Z29" si="88">+Y29</f>
         <v>27956</v>
       </c>
       <c r="AA29" s="72"/>
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
       <c r="AJ29" s="35">
-        <f t="shared" ref="AJ29:AS29" si="82">+AJ27/AJ28</f>
+        <f t="shared" ref="AJ29:AS29" si="89">+AJ27/AJ28</f>
         <v>31796.597633136094</v>
       </c>
       <c r="AK29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>31771.428571428572</v>
       </c>
       <c r="AL29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>31273.925501432663</v>
       </c>
       <c r="AM29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>31519.532908704881</v>
       </c>
       <c r="AN29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>31496.821192052979</v>
       </c>
       <c r="AO29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>29789.610389610389</v>
       </c>
       <c r="AP29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>60815.721231766613</v>
       </c>
       <c r="AQ29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>27979.873217115692</v>
       </c>
       <c r="AR29" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>28320.516962843292</v>
       </c>
       <c r="AS29" s="88">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>28391.853035143769</v>
       </c>
       <c r="AT29" s="88">
@@ -8196,47 +8196,47 @@
         <v>28391.853035143769</v>
       </c>
       <c r="AU29" s="88">
-        <f t="shared" ref="AU29:BC29" si="83">+AT29</f>
+        <f t="shared" ref="AU29:BC29" si="90">+AT29</f>
         <v>28391.853035143769</v>
       </c>
       <c r="AV29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="AW29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="AX29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="AY29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="AZ29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="BA29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="BB29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="BC29" s="88">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>28391.853035143769</v>
       </c>
       <c r="BD29" s="88">
-        <f t="shared" ref="BD29" si="84">+BC29</f>
+        <f t="shared" ref="BD29" si="91">+BC29</f>
         <v>28391.853035143769</v>
       </c>
       <c r="BE29" s="88">
-        <f t="shared" ref="BE29" si="85">+BD29</f>
+        <f t="shared" ref="BE29" si="92">+BD29</f>
         <v>28391.853035143769</v>
       </c>
     </row>
@@ -8265,99 +8265,99 @@
         <v>35</v>
       </c>
       <c r="C31" s="46">
-        <f t="shared" ref="C31:Q31" si="86">+C23/C14</f>
+        <f t="shared" ref="C31:Q31" si="93">+C23/C14</f>
         <v>6.8460904410340667E-2</v>
       </c>
       <c r="D31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>9.1264048763093159E-2</v>
       </c>
       <c r="E31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>2.7362566640131765E-2</v>
       </c>
       <c r="F31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>5.4075308530762992E-2</v>
       </c>
       <c r="G31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>8.0815258138082907E-2</v>
       </c>
       <c r="H31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>5.3656476013012031E-2</v>
       </c>
       <c r="I31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>4.7339321326327115E-2</v>
       </c>
       <c r="J31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>3.2334716393714269E-2</v>
       </c>
       <c r="K31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>8.420697789434016E-2</v>
       </c>
       <c r="L31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>8.3682475138244811E-2</v>
       </c>
       <c r="M31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>8.2368915798779932E-2</v>
       </c>
       <c r="N31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>6.846573866287467E-2</v>
       </c>
       <c r="O31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>5.0412823617140119E-2</v>
       </c>
       <c r="P31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>-3.619009656065853E-3</v>
       </c>
       <c r="Q31" s="46">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>6.6875898424767113E-2</v>
       </c>
       <c r="R31" s="46">
-        <f t="shared" ref="R31:Z31" si="87">+R23/R14</f>
+        <f t="shared" ref="R31:Z31" si="94">+R23/R14</f>
         <v>7.2703410440937727E-2</v>
       </c>
       <c r="S31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>9.269885017871754E-2</v>
       </c>
       <c r="T31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>0.12973319426082858</v>
       </c>
       <c r="U31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>0.12276707396091308</v>
       </c>
       <c r="V31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>8.0737190488990029E-2</v>
       </c>
       <c r="W31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>9.4143691361562434E-2</v>
       </c>
       <c r="X31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>0.15252882635692047</v>
       </c>
       <c r="Y31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>0.15145337642302972</v>
       </c>
       <c r="Z31" s="46">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>8.0737190488990015E-2</v>
       </c>
       <c r="AA31" s="75"/>
@@ -8370,31 +8370,31 @@
       <c r="AH31" s="46"/>
       <c r="AI31" s="46"/>
       <c r="AJ31" s="46">
-        <f t="shared" ref="AJ31:AS31" si="88">+AJ23/AJ14</f>
+        <f t="shared" ref="AJ31:AS31" si="95">+AJ23/AJ14</f>
         <v>0.15446335569902025</v>
       </c>
       <c r="AK31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>0.16690868270050352</v>
       </c>
       <c r="AL31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>0.16571937145347573</v>
       </c>
       <c r="AM31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>0.17301617785982368</v>
       </c>
       <c r="AN31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>0.16964033996982597</v>
       </c>
       <c r="AO31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>8.8533812247975612E-3</v>
       </c>
       <c r="AP31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>6.0493538128304547E-2</v>
       </c>
       <c r="AQ31" s="46">
@@ -8402,15 +8402,15 @@
         <v>5.3107666313462427E-2</v>
       </c>
       <c r="AR31" s="46">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>7.9552210031238538E-2</v>
       </c>
       <c r="AS31" s="92">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>4.8484836332514235E-2</v>
       </c>
       <c r="AT31" s="92">
-        <f t="shared" ref="AT31:BC31" si="89">+AT23/AT14</f>
+        <f t="shared" ref="AT31:BC31" si="96">+AT23/AT14</f>
         <v>0.10665648521987565</v>
       </c>
       <c r="AU31" s="92">
@@ -8418,43 +8418,43 @@
         <v>0.14295511855542184</v>
       </c>
       <c r="AV31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542165</v>
       </c>
       <c r="AW31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542176</v>
       </c>
       <c r="AX31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542173</v>
       </c>
       <c r="AY31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.1429551185554219</v>
       </c>
       <c r="AZ31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542176</v>
       </c>
       <c r="BA31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542187</v>
       </c>
       <c r="BB31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542167</v>
       </c>
       <c r="BC31" s="92">
-        <f t="shared" si="89"/>
+        <f t="shared" si="96"/>
         <v>0.14295511855542162</v>
       </c>
       <c r="BD31" s="92">
-        <f t="shared" ref="BD31:BE31" si="90">+BD23/BD14</f>
+        <f t="shared" ref="BD31:BE31" si="97">+BD23/BD14</f>
         <v>0.14295511855542178</v>
       </c>
       <c r="BE31" s="92">
-        <f t="shared" si="90"/>
+        <f t="shared" si="97"/>
         <v>0.1429551185554217</v>
       </c>
     </row>
@@ -8467,67 +8467,67 @@
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="41">
-        <f t="shared" ref="G32" si="91">+G14/C14-1</f>
+        <f t="shared" ref="G32" si="98">+G14/C14-1</f>
         <v>7.4444087875609632E-2</v>
       </c>
       <c r="H32" s="41">
-        <f t="shared" ref="H32" si="92">+H14/D14-1</f>
+        <f t="shared" ref="H32" si="99">+H14/D14-1</f>
         <v>8.3042801962358803E-2</v>
       </c>
       <c r="I32" s="41">
-        <f t="shared" ref="I32" si="93">+I14/E14-1</f>
+        <f t="shared" ref="I32" si="100">+I14/E14-1</f>
         <v>8.5927873526027598E-2</v>
       </c>
       <c r="J32" s="41">
-        <f t="shared" ref="J32" si="94">+J14/F14-1</f>
+        <f t="shared" ref="J32" si="101">+J14/F14-1</f>
         <v>0.10355913881632284</v>
       </c>
       <c r="K32" s="41">
-        <f t="shared" ref="K32" si="95">+K14/G14-1</f>
+        <f t="shared" ref="K32" si="102">+K14/G14-1</f>
         <v>0.13916790099590992</v>
       </c>
       <c r="L32" s="41">
-        <f t="shared" ref="L32" si="96">+L14/H14-1</f>
+        <f t="shared" ref="L32" si="103">+L14/H14-1</f>
         <v>0.13241875375043421</v>
       </c>
       <c r="M32" s="41">
-        <f t="shared" ref="M32" si="97">+M14/I14-1</f>
+        <f t="shared" ref="M32" si="104">+M14/I14-1</f>
         <v>0.14586855422050649</v>
       </c>
       <c r="N32" s="41">
-        <f t="shared" ref="N32" si="98">+N14/J14-1</f>
+        <f t="shared" ref="N32" si="105">+N14/J14-1</f>
         <v>0.17563451942393082</v>
       </c>
       <c r="O32" s="41">
-        <f t="shared" ref="O32:T32" si="99">+O14/K14-1</f>
+        <f t="shared" ref="O32:T32" si="106">+O14/K14-1</f>
         <v>7.8392957743248948E-2</v>
       </c>
       <c r="P32" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>-4.8453143182653258E-2</v>
       </c>
       <c r="Q32" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.14085447215460323</v>
       </c>
       <c r="R32" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.11629163241273588</v>
       </c>
       <c r="S32" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.23448367276923565</v>
       </c>
       <c r="T32" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>0.38674089825299807</v>
       </c>
       <c r="U32" s="41">
-        <f t="shared" ref="U32" si="100">+U14/Q14-1</f>
+        <f t="shared" ref="U32" si="107">+U14/Q14-1</f>
         <v>0.21911947816117516</v>
       </c>
       <c r="V32" s="41">
-        <f t="shared" ref="V32" si="101">+V14/R14-1</f>
+        <f t="shared" ref="V32" si="108">+V14/R14-1</f>
         <v>0.21951906749351568</v>
       </c>
       <c r="W32" s="41">
@@ -8535,15 +8535,15 @@
         <v>0.1601791481848327</v>
       </c>
       <c r="X32" s="41">
-        <f t="shared" ref="X32:Y32" si="102">+X14/T14-1</f>
+        <f t="shared" ref="X32:Y32" si="109">+X14/T14-1</f>
         <v>0.16950835333293179</v>
       </c>
       <c r="Y32" s="41">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>0.13720122008999569</v>
       </c>
       <c r="Z32" s="41">
-        <f t="shared" ref="Z32" si="103">+Z14/V14-1</f>
+        <f t="shared" ref="Z32" si="110">+Z14/V14-1</f>
         <v>0.18854517869184084</v>
       </c>
       <c r="AA32" s="76"/>
@@ -8551,43 +8551,43 @@
       <c r="AC32" s="36"/>
       <c r="AD32" s="26"/>
       <c r="AE32" s="41">
-        <f t="shared" ref="AE32" si="104">+AE14/AD14-1</f>
+        <f t="shared" ref="AE32" si="111">+AE14/AD14-1</f>
         <v>0.31103481786536458</v>
       </c>
       <c r="AF32" s="41">
-        <f t="shared" ref="AF32" si="105">+AF14/AE14-1</f>
+        <f t="shared" ref="AF32" si="112">+AF14/AE14-1</f>
         <v>0.31940991335836588</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" ref="AG32" si="106">+AG14/AF14-1</f>
+        <f t="shared" ref="AG32" si="113">+AG14/AF14-1</f>
         <v>0.22673612198397097</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" ref="AH32" si="107">+AH14/AG14-1</f>
+        <f t="shared" ref="AH32" si="114">+AH14/AG14-1</f>
         <v>0.13998008961176245</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" ref="AI32" si="108">+AI14/AH14-1</f>
+        <f t="shared" ref="AI32" si="115">+AI14/AH14-1</f>
         <v>0.20910263781293281</v>
       </c>
       <c r="AJ32" s="41">
-        <f t="shared" ref="AJ32" si="109">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ32" si="116">+AJ14/AI14-1</f>
         <v>0.23618977276812414</v>
       </c>
       <c r="AK32" s="41">
-        <f t="shared" ref="AK32:BC32" si="110">+AK14/AJ14-1</f>
+        <f t="shared" ref="AK32:BC32" si="117">+AK14/AJ14-1</f>
         <v>0.2034220029715168</v>
       </c>
       <c r="AL32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.17697816070743366</v>
       </c>
       <c r="AM32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.27800675109212958</v>
       </c>
       <c r="AN32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>9.5649530252279069E-2</v>
       </c>
       <c r="AO32" s="41">
@@ -8595,15 +8595,15 @@
         <v>-0.13259485255451686</v>
       </c>
       <c r="AP32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.14650915483722904</v>
       </c>
       <c r="AQ32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>8.6804565799573519E-2</v>
       </c>
       <c r="AR32" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.14828082717623992</v>
       </c>
       <c r="AS32" s="93">
@@ -8611,51 +8611,51 @@
         <v>7.1292283055415684E-2</v>
       </c>
       <c r="AT32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.26107310823017738</v>
       </c>
       <c r="AU32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.1639436728196737</v>
       </c>
       <c r="AV32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.16331695140026525</v>
       </c>
       <c r="AW32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.15024478694469634</v>
       </c>
       <c r="AX32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.13967841604136444</v>
       </c>
       <c r="AY32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.13096035445077381</v>
       </c>
       <c r="AZ32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.12364463728239605</v>
       </c>
       <c r="BA32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.11741809099368217</v>
       </c>
       <c r="BB32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.11205433246729579</v>
       </c>
       <c r="BC32" s="93">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.10738565156230018</v>
       </c>
       <c r="BD32" s="93">
-        <f t="shared" ref="BD32" si="111">+BD14/BC14-1</f>
+        <f t="shared" ref="BD32" si="118">+BD14/BC14-1</f>
         <v>0.10328515953400874</v>
       </c>
       <c r="BE32" s="93">
-        <f t="shared" ref="BE32" si="112">+BE14/BD14-1</f>
+        <f t="shared" ref="BE32" si="119">+BE14/BD14-1</f>
         <v>9.9655081323823502E-2</v>
       </c>
     </row>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="X34" s="67">
         <f>+BH42</f>
-        <v>1515.2</v>
+        <v>1570.61</v>
       </c>
       <c r="Y34" s="67"/>
       <c r="Z34" s="67"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="X35" s="67">
         <f>+Main!G6/1000</f>
-        <v>42003.028902400001</v>
+        <v>43539.05571832</v>
       </c>
       <c r="Y35" s="67"/>
       <c r="Z35" s="67"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="X36" s="67">
         <f>+Main!G9/1000</f>
-        <v>41162.811902400004</v>
+        <v>42698.838718319996</v>
       </c>
       <c r="Y36" s="67"/>
       <c r="Z36" s="67"/>
@@ -9011,71 +9011,71 @@
         <v>577040</v>
       </c>
       <c r="D40" s="34">
-        <f t="shared" ref="D40:N40" si="113">+D41+D49+D50+D46</f>
+        <f t="shared" ref="D40:N40" si="120">+D41+D49+D50+D46</f>
         <v>569603</v>
       </c>
       <c r="E40" s="34">
-        <f t="shared" ref="E40:F40" si="114">+E41+E49+E50+E46</f>
+        <f t="shared" ref="E40:F40" si="121">+E41+E49+E50+E46</f>
         <v>548357</v>
       </c>
       <c r="F40" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>538552</v>
       </c>
       <c r="G40" s="34">
-        <f t="shared" ref="G40:H40" si="115">+G41+G49+G50+G46</f>
+        <f t="shared" ref="G40:H40" si="122">+G41+G49+G50+G46</f>
         <v>579977</v>
       </c>
       <c r="H40" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>573927</v>
       </c>
       <c r="I40" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>700395</v>
       </c>
       <c r="J40" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>706997</v>
       </c>
       <c r="K40" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>763406</v>
       </c>
       <c r="L40" s="34">
-        <f t="shared" ref="L40:M40" si="116">+L41+L49+L50+L46</f>
+        <f t="shared" ref="L40:M40" si="123">+L41+L49+L50+L46</f>
         <v>746323</v>
       </c>
       <c r="M40" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>844058</v>
       </c>
       <c r="N40" s="34">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>908637</v>
       </c>
       <c r="O40" s="34">
-        <f t="shared" ref="O40:T40" si="117">+O41+O49+O50+O46</f>
+        <f t="shared" ref="O40:T40" si="124">+O41+O49+O50+O46</f>
         <v>909249</v>
       </c>
       <c r="P40" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>934642</v>
       </c>
       <c r="Q40" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1094285</v>
       </c>
       <c r="R40" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1081780</v>
       </c>
       <c r="S40" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1197152</v>
       </c>
       <c r="T40" s="34">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1169420</v>
       </c>
       <c r="U40" s="34">
@@ -9083,11 +9083,11 @@
         <v>1238878</v>
       </c>
       <c r="V40" s="34">
-        <f t="shared" ref="V40:Z40" si="118">+V41+V49+V50+V46</f>
+        <f t="shared" ref="V40:Z40" si="125">+V41+V49+V50+V46</f>
         <v>1381486</v>
       </c>
       <c r="W40" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>1220202</v>
       </c>
       <c r="X40" s="34">
@@ -9095,11 +9095,11 @@
         <v>1152423</v>
       </c>
       <c r="Y40" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>1257495</v>
       </c>
       <c r="Z40" s="34">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA40" s="73"/>
@@ -9115,43 +9115,43 @@
         <v>2208752.4773340682</v>
       </c>
       <c r="AV40" s="89">
-        <f t="shared" ref="AV40:BE40" si="119">+AU40+AV27</f>
+        <f t="shared" ref="AV40:BE40" si="126">+AU40+AV27</f>
         <v>3320960.5800695396</v>
       </c>
       <c r="AW40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>4606124.811418904</v>
       </c>
       <c r="AX40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>6076958.4798395857</v>
       </c>
       <c r="AY40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>7746920.1512933196</v>
       </c>
       <c r="AZ40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>9630252.9654727057</v>
       </c>
       <c r="BA40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>11742025.905190803</v>
       </c>
       <c r="BB40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>14098177.112282863</v>
       </c>
       <c r="BC40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>16715559.347712316</v>
       </c>
       <c r="BD40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>19611987.698113948</v>
       </c>
       <c r="BE40" s="89">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>22806289.635755222</v>
       </c>
       <c r="BG40" s="27" t="s">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="BH42" s="20">
         <f>+Main!G4</f>
-        <v>1515.2</v>
+        <v>1570.61</v>
       </c>
     </row>
     <row r="43" spans="2:60" s="35" customFormat="1">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="BH45" s="36">
         <f>+BH41/BH42-1</f>
-        <v>2.5397511407883488E-2</v>
+        <v>-1.0777781062628389E-2</v>
       </c>
     </row>
     <row r="46" spans="2:60" s="35" customFormat="1">
@@ -9732,95 +9732,95 @@
         <v>120</v>
       </c>
       <c r="C47" s="34">
-        <f t="shared" ref="C47:N47" si="120">+SUM(C41:C46)</f>
+        <f t="shared" ref="C47:N47" si="127">+SUM(C41:C46)</f>
         <v>664234</v>
       </c>
       <c r="D47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>663965</v>
       </c>
       <c r="E47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>655936</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>629535</v>
       </c>
       <c r="G47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>630439</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>720674</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>793071</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>814794</v>
       </c>
       <c r="K47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>837746</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>832402</v>
       </c>
       <c r="M47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>954756</v>
       </c>
       <c r="N47" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>1072204</v>
       </c>
       <c r="O47" s="34">
-        <f t="shared" ref="O47:W47" si="121">+SUM(O41:O46)</f>
+        <f t="shared" ref="O47:W47" si="128">+SUM(O41:O46)</f>
         <v>1075501</v>
       </c>
       <c r="P47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1150343</v>
       </c>
       <c r="Q47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1211280</v>
       </c>
       <c r="R47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1420237</v>
       </c>
       <c r="S47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1456851</v>
       </c>
       <c r="T47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1447810</v>
       </c>
       <c r="U47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1518606</v>
       </c>
       <c r="V47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1381564</v>
       </c>
       <c r="W47" s="34">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1096493</v>
       </c>
       <c r="X47" s="34">
-        <f t="shared" ref="X47:Y47" si="122">+SUM(X41:X46)</f>
+        <f t="shared" ref="X47:Y47" si="129">+SUM(X41:X46)</f>
         <v>1046299</v>
       </c>
       <c r="Y47" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1077432</v>
       </c>
       <c r="Z47" s="34"/>
@@ -10434,83 +10434,83 @@
         <v>127</v>
       </c>
       <c r="C55" s="34">
-        <f t="shared" ref="C55:D55" si="123">+SUM(C47:C54)</f>
+        <f t="shared" ref="C55:D55" si="130">+SUM(C47:C54)</f>
         <v>2062532</v>
       </c>
       <c r="D55" s="34">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>2068551</v>
       </c>
       <c r="E55" s="34">
-        <f t="shared" ref="E55:F55" si="124">+SUM(E47:E54)</f>
+        <f t="shared" ref="E55:F55" si="131">+SUM(E47:E54)</f>
         <v>2064377</v>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>2045692</v>
       </c>
       <c r="G55" s="34">
-        <f t="shared" ref="G55:M55" si="125">+SUM(G47:G54)</f>
+        <f t="shared" ref="G55:M55" si="132">+SUM(G47:G54)</f>
         <v>2097444</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>2128622</v>
       </c>
       <c r="I55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>2230872</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>2265518</v>
       </c>
       <c r="K55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>4625482</v>
       </c>
       <c r="L55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>4659307</v>
       </c>
       <c r="M55" s="34">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>4937937</v>
       </c>
       <c r="N55" s="34">
-        <f t="shared" ref="N55:V55" si="126">+SUM(N47:N54)</f>
+        <f t="shared" ref="N55:V55" si="133">+SUM(N47:N54)</f>
         <v>5104604</v>
       </c>
       <c r="O55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>5206488</v>
       </c>
       <c r="P55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>5370129</v>
       </c>
       <c r="Q55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>5631640</v>
       </c>
       <c r="R55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>5962896</v>
       </c>
       <c r="S55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>6149059</v>
       </c>
       <c r="T55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>6320454</v>
       </c>
       <c r="U55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>6627567</v>
       </c>
       <c r="V55" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>6652958</v>
       </c>
       <c r="W55" s="34">
@@ -11081,87 +11081,87 @@
         <v>267785</v>
       </c>
       <c r="E63" s="34">
-        <f t="shared" ref="E63:W63" si="127">+SUM(E57:E62)</f>
+        <f t="shared" ref="E63:W63" si="134">+SUM(E57:E62)</f>
         <v>323402</v>
       </c>
       <c r="F63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>323893</v>
       </c>
       <c r="G63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>367320</v>
       </c>
       <c r="H63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>355161</v>
       </c>
       <c r="I63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>402786</v>
       </c>
       <c r="J63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>449990</v>
       </c>
       <c r="K63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>581667</v>
       </c>
       <c r="L63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>548268</v>
       </c>
       <c r="M63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>634019</v>
       </c>
       <c r="N63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>666593</v>
       </c>
       <c r="O63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>665795</v>
       </c>
       <c r="P63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>723178</v>
       </c>
       <c r="Q63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>801717</v>
       </c>
       <c r="R63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>822199</v>
       </c>
       <c r="S63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>833994</v>
       </c>
       <c r="T63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>835486</v>
       </c>
       <c r="U63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>850964</v>
       </c>
       <c r="V63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>873682</v>
       </c>
       <c r="W63" s="34">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>833738</v>
       </c>
       <c r="X63" s="34">
-        <f t="shared" ref="X63:Y63" si="128">+SUM(X57:X62)</f>
+        <f t="shared" ref="X63:Y63" si="135">+SUM(X57:X62)</f>
         <v>831623</v>
       </c>
       <c r="Y63" s="34">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>817857</v>
       </c>
       <c r="Z63" s="34"/>
@@ -11511,95 +11511,95 @@
         <v>137</v>
       </c>
       <c r="C68" s="34">
-        <f t="shared" ref="C68:D68" si="129">+SUM(C63:C67)</f>
+        <f t="shared" ref="C68:D68" si="136">+SUM(C63:C67)</f>
         <v>654540</v>
       </c>
       <c r="D68" s="34">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>618355</v>
       </c>
       <c r="E68" s="34">
-        <f t="shared" ref="E68:F68" si="130">+SUM(E63:E67)</f>
+        <f t="shared" ref="E68:F68" si="137">+SUM(E63:E67)</f>
         <v>677251</v>
       </c>
       <c r="F68" s="34">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>681247</v>
       </c>
       <c r="G68" s="34">
-        <f t="shared" ref="G68:H68" si="131">+SUM(G63:G67)</f>
+        <f t="shared" ref="G68:H68" si="138">+SUM(G63:G67)</f>
         <v>733399</v>
       </c>
       <c r="H68" s="34">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>736615</v>
       </c>
       <c r="I68" s="34">
-        <f t="shared" ref="I68:K68" si="132">+SUM(I63:I67)</f>
+        <f t="shared" ref="I68:K68" si="139">+SUM(I63:I67)</f>
         <v>795035</v>
       </c>
       <c r="J68" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>824179</v>
       </c>
       <c r="K68" s="34">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>3141683</v>
       </c>
       <c r="L68" s="34">
-        <f t="shared" ref="L68:M68" si="133">+SUM(L63:L67)</f>
+        <f t="shared" ref="L68:M68" si="140">+SUM(L63:L67)</f>
         <v>3121258</v>
       </c>
       <c r="M68" s="34">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>3315490</v>
       </c>
       <c r="N68" s="34">
-        <f t="shared" ref="N68:U68" si="134">+SUM(N63:N67)</f>
+        <f t="shared" ref="N68:U68" si="141">+SUM(N63:N67)</f>
         <v>3421578</v>
       </c>
       <c r="O68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>3534468</v>
       </c>
       <c r="P68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>3665633</v>
       </c>
       <c r="Q68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>3826054</v>
       </c>
       <c r="R68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>3962761</v>
       </c>
       <c r="S68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>4051518</v>
       </c>
       <c r="T68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>4146296</v>
       </c>
       <c r="U68" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>4316659</v>
       </c>
       <c r="V68" s="34">
-        <f t="shared" ref="V68:W68" si="135">+SUM(V63:V67)</f>
+        <f t="shared" ref="V68:W68" si="142">+SUM(V63:V67)</f>
         <v>4355584</v>
       </c>
       <c r="W68" s="34">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>4333297</v>
       </c>
       <c r="X68" s="34">
-        <f t="shared" ref="X68:Y68" si="136">+SUM(X63:X67)</f>
+        <f t="shared" ref="X68:Y68" si="143">+SUM(X63:X67)</f>
         <v>4391137</v>
       </c>
       <c r="Y68" s="34">
-        <f t="shared" si="136"/>
+        <f t="shared" si="143"/>
         <v>4490056</v>
       </c>
       <c r="Z68" s="34"/>
@@ -11715,95 +11715,95 @@
         <v>211</v>
       </c>
       <c r="C70" s="34">
-        <f t="shared" ref="C70:I70" si="137">+C68+C69</f>
+        <f t="shared" ref="C70:I70" si="144">+C68+C69</f>
         <v>2062262</v>
       </c>
       <c r="D70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2068551</v>
       </c>
       <c r="E70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2064377</v>
       </c>
       <c r="F70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2045692</v>
       </c>
       <c r="G70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2097444</v>
       </c>
       <c r="H70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2128622</v>
       </c>
       <c r="I70" s="34">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>2230872</v>
       </c>
       <c r="J70" s="34">
-        <f t="shared" ref="J70:K70" si="138">+J68+J69</f>
+        <f t="shared" ref="J70:K70" si="145">+J68+J69</f>
         <v>2265518</v>
       </c>
       <c r="K70" s="34">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>4625482</v>
       </c>
       <c r="L70" s="34">
-        <f t="shared" ref="L70:M70" si="139">+L68+L69</f>
+        <f t="shared" ref="L70:M70" si="146">+L68+L69</f>
         <v>4659307</v>
       </c>
       <c r="M70" s="34">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>4937937</v>
       </c>
       <c r="N70" s="34">
-        <f t="shared" ref="N70:U70" si="140">+N68+N69</f>
+        <f t="shared" ref="N70:U70" si="147">+N68+N69</f>
         <v>5104604</v>
       </c>
       <c r="O70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>5206488</v>
       </c>
       <c r="P70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>5370129</v>
       </c>
       <c r="Q70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>5631640</v>
       </c>
       <c r="R70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>5982896</v>
       </c>
       <c r="S70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>6149049</v>
       </c>
       <c r="T70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>6320454</v>
       </c>
       <c r="U70" s="34">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>6627567</v>
       </c>
       <c r="V70" s="34">
-        <f t="shared" ref="V70:W70" si="141">+V68+V69</f>
+        <f t="shared" ref="V70:W70" si="148">+V68+V69</f>
         <v>6652958</v>
       </c>
       <c r="W70" s="34">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>6467257</v>
       </c>
       <c r="X70" s="34">
-        <f t="shared" ref="X70:Y70" si="142">+X68+X69</f>
+        <f t="shared" ref="X70:Y70" si="149">+X68+X69</f>
         <v>6545336</v>
       </c>
       <c r="Y70" s="34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>6817437</v>
       </c>
       <c r="AA70" s="73"/>
@@ -11833,15 +11833,15 @@
         <v>140</v>
       </c>
       <c r="F72" s="42">
-        <f t="shared" ref="F72:H72" si="143">SUM(C27:F27)/F69</f>
+        <f t="shared" ref="F72:H72" si="150">SUM(C27:F27)/F69</f>
         <v>0.27500778704894663</v>
       </c>
       <c r="G72" s="42">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0.28485790424802698</v>
       </c>
       <c r="H72" s="42">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0.26487869673069175</v>
       </c>
       <c r="I72" s="42">
@@ -11853,63 +11853,63 @@
         <v>0.1224923491281371</v>
       </c>
       <c r="K72" s="42">
-        <f t="shared" ref="K72:S72" si="144">SUM(H27:K27)/K69</f>
+        <f t="shared" ref="K72:S72" si="151">SUM(H27:K27)/K69</f>
         <v>0.13831994764789571</v>
       </c>
       <c r="L72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.16214242849220017</v>
       </c>
       <c r="M72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.19092210716282257</v>
       </c>
       <c r="N72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.20832001406989553</v>
       </c>
       <c r="O72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.20266743220774872</v>
       </c>
       <c r="P72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.15019747772948719</v>
       </c>
       <c r="Q72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.13163205740407824</v>
       </c>
       <c r="R72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.17596150752301207</v>
       </c>
       <c r="S72" s="42">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.19364624408411604</v>
       </c>
       <c r="T72" s="42">
-        <f t="shared" ref="T72" si="145">SUM(Q27:T27)/T69</f>
+        <f t="shared" ref="T72" si="152">SUM(Q27:T27)/T69</f>
         <v>0.26951951054155215</v>
       </c>
       <c r="U72" s="42">
-        <f t="shared" ref="U72" si="146">SUM(R27:U27)/U69</f>
+        <f t="shared" ref="U72" si="153">SUM(R27:U27)/U69</f>
         <v>0.3073112386992472</v>
       </c>
       <c r="V72" s="42">
-        <f t="shared" ref="V72:Y72" si="147">SUM(S27:V27)/V69</f>
+        <f t="shared" ref="V72:Y72" si="154">SUM(S27:V27)/V69</f>
         <v>0.28423060415935758</v>
       </c>
       <c r="W72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.32061378844964294</v>
       </c>
       <c r="X72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.35100981849866236</v>
       </c>
       <c r="Y72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.34753613611179263</v>
       </c>
       <c r="AA72" s="77"/>
@@ -11978,23 +11978,23 @@
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="L75" s="42">
-        <f t="shared" ref="L75:U79" si="148">+L57/K57-1</f>
+        <f t="shared" ref="L75:U79" si="155">+L57/K57-1</f>
         <v>-6.785357862428687E-2</v>
       </c>
       <c r="M75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.19671336370155657</v>
       </c>
       <c r="N75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-2.2509558333262958E-2</v>
       </c>
       <c r="O75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.12612247012502587</v>
       </c>
       <c r="P75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.23078751447214074</v>
       </c>
       <c r="Q75" s="42">
@@ -12002,19 +12002,19 @@
         <v>-1.9928608361418632E-2</v>
       </c>
       <c r="R75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.22459383183748194</v>
       </c>
       <c r="S75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.20843511763259293</v>
       </c>
       <c r="T75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-4.8610404498802717E-2</v>
       </c>
       <c r="U75" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.2243192561906866</v>
       </c>
       <c r="V75" s="42">
@@ -12044,58 +12044,58 @@
     </row>
     <row r="76" spans="2:57" s="42" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B76" s="19" t="str">
-        <f t="shared" ref="B76:B79" si="149">+B58</f>
+        <f t="shared" ref="B76:B79" si="156">+B58</f>
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="L76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.17452731662892995</v>
       </c>
       <c r="M76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.4753643724696357</v>
       </c>
       <c r="N76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.13148470836820658</v>
       </c>
       <c r="O76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>4.4810426540284443E-2</v>
       </c>
       <c r="P76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-1.4870759716646642E-2</v>
       </c>
       <c r="Q76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.49553359016468934</v>
       </c>
       <c r="R76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>4.1959800284281812E-2</v>
       </c>
       <c r="S76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>9.1665271307139973E-2</v>
       </c>
       <c r="T76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>1.5505239841744567E-2</v>
       </c>
       <c r="U76" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.15189423555334425</v>
       </c>
       <c r="V76" s="42">
-        <f t="shared" ref="V76:W79" si="150">+V58/U58-1</f>
+        <f t="shared" ref="V76:W79" si="157">+V58/U58-1</f>
         <v>-0.14932010559839093</v>
       </c>
       <c r="W76" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>6.1876173763123044E-2</v>
       </c>
       <c r="AA76" s="77"/>
@@ -12117,58 +12117,58 @@
     </row>
     <row r="77" spans="2:57" s="42" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B77" s="19" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v xml:space="preserve">Accrued liabilities </v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="L77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>5.8975236410072407E-2</v>
       </c>
       <c r="M77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.11254817582105781</v>
       </c>
       <c r="N77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.10402453970345493</v>
       </c>
       <c r="O77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-5.5190159327014987E-2</v>
       </c>
       <c r="P77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-6.8798304831502177E-3</v>
       </c>
       <c r="Q77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>8.209725840975457E-2</v>
       </c>
       <c r="R77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>4.0541223757220246E-2</v>
       </c>
       <c r="S77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.1155306136083426</v>
       </c>
       <c r="T77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-1.4818680601811463E-2</v>
       </c>
       <c r="U77" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>6.8056513950748965E-2</v>
       </c>
       <c r="V77" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.12933898050680992</v>
       </c>
       <c r="W77" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>-0.21032406444305762</v>
       </c>
       <c r="AA77" s="77"/>
@@ -12190,58 +12190,58 @@
     </row>
     <row r="78" spans="2:57" s="42" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B78" s="19" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="L78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>8.2434136771300404E-2</v>
       </c>
       <c r="M78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.4274201378782223E-4</v>
       </c>
       <c r="N78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.54014787490494909</v>
       </c>
       <c r="O78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.18589211618257262</v>
       </c>
       <c r="P78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.14742125704847808</v>
       </c>
       <c r="Q78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.8597454005667711E-2</v>
       </c>
       <c r="R78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.39667858353285879</v>
       </c>
       <c r="S78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.13740117416829745</v>
       </c>
       <c r="T78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.558145866039907E-2</v>
       </c>
       <c r="U78" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>6.5539392652367745E-2</v>
       </c>
       <c r="V78" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.29834832216437057</v>
       </c>
       <c r="W78" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>-0.1530530664978158</v>
       </c>
       <c r="AA78" s="77"/>
@@ -12263,58 +12263,58 @@
     </row>
     <row r="79" spans="2:57" s="42" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B79" s="19" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>Current op lease liab</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="L79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.2757111597374147E-2</v>
       </c>
       <c r="M79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>3.441176288193093E-2</v>
       </c>
       <c r="N79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>3.7991151185237548E-2</v>
       </c>
       <c r="O79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>3.0143410785553826E-2</v>
       </c>
       <c r="P79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.10561903587167376</v>
       </c>
       <c r="Q79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>1.3281202458467645E-2</v>
       </c>
       <c r="R79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.4727873282786472E-2</v>
       </c>
       <c r="S79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.1147121451874362E-2</v>
       </c>
       <c r="T79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.1809207694441612E-2</v>
       </c>
       <c r="U79" s="42">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>4.8585042547018009E-3</v>
       </c>
       <c r="V79" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>1.8767118183003806E-2</v>
       </c>
       <c r="W79" s="42">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>2.0986406843671812E-2</v>
       </c>
       <c r="AA79" s="77"/>
@@ -12343,43 +12343,43 @@
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="L80" s="42">
-        <f t="shared" ref="L80:U80" si="151">+L63/K63-1</f>
+        <f t="shared" ref="L80:U80" si="158">+L63/K63-1</f>
         <v>-5.7419451335557925E-2</v>
       </c>
       <c r="M80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.15640343773483045</v>
       </c>
       <c r="N80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>5.13770092063488E-2</v>
       </c>
       <c r="O80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>-1.1971322831172415E-3</v>
       </c>
       <c r="P80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>8.6187189750598803E-2</v>
       </c>
       <c r="Q80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.10860258470252138</v>
       </c>
       <c r="R80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>2.5547668316874939E-2</v>
       </c>
       <c r="S80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.4345675438671268E-2</v>
       </c>
       <c r="T80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.788981695312053E-3</v>
       </c>
       <c r="U80" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.8525744297331226E-2</v>
       </c>
       <c r="V80" s="42">
@@ -12416,43 +12416,43 @@
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="L81" s="42">
-        <f t="shared" ref="L81:U81" si="152">+L65/K65-1</f>
+        <f t="shared" ref="L81:U81" si="159">+L65/K65-1</f>
         <v>8.3010428811636228E-3</v>
       </c>
       <c r="M81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>4.259480844211061E-2</v>
       </c>
       <c r="N81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>1.348488328577524E-2</v>
       </c>
       <c r="O81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>3.2259871100899229E-2</v>
       </c>
       <c r="P81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>1.605915556330384E-2</v>
       </c>
       <c r="Q81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>2.9176506437114336E-2</v>
       </c>
       <c r="R81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>2.1152901623580966E-2</v>
       </c>
       <c r="S81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>2.9766662963334189E-2</v>
       </c>
       <c r="T81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>3.1043926404260791E-2</v>
       </c>
       <c r="U81" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>4.4765524930971079E-2</v>
       </c>
       <c r="V81" s="42">
@@ -12489,51 +12489,51 @@
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="L82" s="42">
-        <f t="shared" ref="L82:W82" si="153">+L67/K67-1</f>
+        <f t="shared" ref="L82:W82" si="160">+L67/K67-1</f>
         <v>6.7585673028254245E-3</v>
       </c>
       <c r="M82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0.14550186313361335</v>
       </c>
       <c r="N82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>1.626478029638001E-3</v>
       </c>
       <c r="O82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>6.3664716344047356E-3</v>
       </c>
       <c r="P82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>-5.8113922753816216E-2</v>
       </c>
       <c r="Q82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.2658055744391623E-2</v>
       </c>
       <c r="R82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>2.2856540973246187E-2</v>
       </c>
       <c r="S82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>6.6290804242611578E-2</v>
       </c>
       <c r="T82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.2014292957338375E-2</v>
       </c>
       <c r="U82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>-7.4862557024213405E-3</v>
       </c>
       <c r="V82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>-9.1667648791985856E-2</v>
       </c>
       <c r="W82" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>5.1250778492837767E-2</v>
       </c>
       <c r="AA82" s="77"/>
@@ -12602,39 +12602,39 @@
         <v>Deferred income taxes</v>
       </c>
       <c r="O85" s="42">
-        <f t="shared" ref="O85:W86" si="154">STDEV(L75:O75)</f>
+        <f t="shared" ref="O85:W86" si="161">STDEV(L75:O75)</f>
         <v>0.12410066422103937</v>
       </c>
       <c r="P85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.11232707822684207</v>
       </c>
       <c r="Q85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.12295046819827428</v>
       </c>
       <c r="R85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.1973588550528913</v>
       </c>
       <c r="S85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.21453093999651524</v>
       </c>
       <c r="T85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.17781477457944547</v>
       </c>
       <c r="U85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.21618327571176449</v>
       </c>
       <c r="V85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.15347145850187366</v>
       </c>
       <c r="W85" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.12898559188540487</v>
       </c>
       <c r="AA85" s="77"/>
@@ -12660,39 +12660,39 @@
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="O86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.29679445765339985</v>
       </c>
       <c r="P86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.26492351470193504</v>
       </c>
       <c r="Q86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.27462953059622208</v>
       </c>
       <c r="R86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.2373802919517124</v>
       </c>
       <c r="S86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.23209223642893448</v>
       </c>
       <c r="T86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.22513641179066099</v>
       </c>
       <c r="U86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.10563065880929602</v>
       </c>
       <c r="V86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.12192625526121278</v>
       </c>
       <c r="W86" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.11092359413700548</v>
       </c>
       <c r="AA86" s="77"/>
@@ -12718,39 +12718,39 @@
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="O87" s="42">
-        <f t="shared" ref="O87:W91" si="155">STDEV(L78:O78)</f>
+        <f t="shared" ref="O87:W91" si="162">STDEV(L78:O78)</f>
         <v>0.30842801376349016</v>
       </c>
       <c r="P87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.30825737664218072</v>
       </c>
       <c r="Q87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.30472320429330313</v>
       </c>
       <c r="R87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.24293761708698589</v>
       </c>
       <c r="S87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.22465762438944539</v>
       </c>
       <c r="T87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.22593619323754499</v>
       </c>
       <c r="U87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.22397028749477221</v>
       </c>
       <c r="V87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.17977398583468304</v>
       </c>
       <c r="W87" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.1856642503816143</v>
       </c>
       <c r="AA87" s="77"/>
@@ -12776,39 +12776,39 @@
         <v>TL+E</v>
       </c>
       <c r="O88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>6.5516038370503687E-3</v>
       </c>
       <c r="P88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>3.5862229870672585E-2</v>
       </c>
       <c r="Q88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.0571828191773997E-2</v>
       </c>
       <c r="R88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.2042551892534606E-2</v>
       </c>
       <c r="S88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.3215430045700928E-2</v>
       </c>
       <c r="T88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.8939127032102663E-3</v>
       </c>
       <c r="U88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>8.987101746187923E-3</v>
       </c>
       <c r="V88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>7.965822938511646E-3</v>
       </c>
       <c r="W88" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>7.9358977775194958E-3</v>
       </c>
       <c r="AA88" s="77"/>
@@ -12834,39 +12834,39 @@
         <v>QoQ Change</v>
       </c>
       <c r="O89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>9.0990099090172721E-2</v>
       </c>
       <c r="P89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>6.6087455063084971E-2</v>
       </c>
       <c r="Q89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.7823462714459017E-2</v>
       </c>
       <c r="R89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>5.1222555719250218E-2</v>
       </c>
       <c r="S89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.5870082291762093E-2</v>
       </c>
       <c r="T89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.8338442482296622E-2</v>
       </c>
       <c r="U89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>9.9771823309706895E-3</v>
       </c>
       <c r="V89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.038820212143949E-2</v>
       </c>
       <c r="W89" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>3.2398277211140282E-2</v>
       </c>
       <c r="AA89" s="77"/>
@@ -12892,39 +12892,39 @@
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="O90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.6030332828902691E-2</v>
       </c>
       <c r="P90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.3783836474006222E-2</v>
       </c>
       <c r="Q90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>9.3514227877685725E-3</v>
       </c>
       <c r="R90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>7.4034027628463077E-3</v>
       </c>
       <c r="S90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>6.6133092154039104E-3</v>
       </c>
       <c r="T90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.4895659941568064E-3</v>
       </c>
       <c r="U90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>9.7658621544512523E-3</v>
       </c>
       <c r="V90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.5125079584447351E-2</v>
       </c>
       <c r="W90" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.7836055907021569E-2</v>
       </c>
       <c r="AA90" s="77"/>
@@ -12950,39 +12950,39 @@
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="O91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>7.0331029995739439E-2</v>
       </c>
       <c r="P91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>8.6249287994458412E-2</v>
       </c>
       <c r="Q91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>3.8343689807407134E-2</v>
       </c>
       <c r="R91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>4.0837818268055215E-2</v>
       </c>
       <c r="S91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>5.2746303871153227E-2</v>
       </c>
       <c r="T91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>1.9089536328670661E-2</v>
       </c>
       <c r="U91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>3.037174139132745E-2</v>
       </c>
       <c r="V91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>6.8015212567306485E-2</v>
       </c>
       <c r="W91" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>6.3370459351594438E-2</v>
       </c>
       <c r="AA91" s="77"/>
@@ -13047,27 +13047,27 @@
         <v>1672020</v>
       </c>
       <c r="P93" s="34">
-        <f t="shared" ref="P93:U93" si="156">+P69</f>
+        <f t="shared" ref="P93:U93" si="163">+P69</f>
         <v>1704496</v>
       </c>
       <c r="Q93" s="34">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>1805586</v>
       </c>
       <c r="R93" s="34">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>2020135</v>
       </c>
       <c r="S93" s="34">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>2097531</v>
       </c>
       <c r="T93" s="34">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>2174158</v>
       </c>
       <c r="U93" s="34">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>2310908</v>
       </c>
       <c r="V93" s="34">
@@ -13294,23 +13294,23 @@
         <v>1805586</v>
       </c>
       <c r="Q100" s="34">
-        <f t="shared" ref="Q100:U100" si="157">+SUM(Q93:Q99)</f>
+        <f t="shared" ref="Q100:U100" si="164">+SUM(Q93:Q99)</f>
         <v>1805586</v>
       </c>
       <c r="R100" s="34">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>2097531</v>
       </c>
       <c r="S100" s="34">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>2174158</v>
       </c>
       <c r="T100" s="34">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>2310908</v>
       </c>
       <c r="U100" s="34">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>2310908</v>
       </c>
       <c r="V100" s="34">
@@ -13444,7 +13444,7 @@
         <v>60180</v>
       </c>
       <c r="R103" s="35">
-        <f t="shared" ref="R103:R135" si="158">+AS103-SUM(O103:Q103)</f>
+        <f t="shared" ref="R103:R135" si="165">+AS103-SUM(O103:Q103)</f>
         <v>59956</v>
       </c>
       <c r="S103" s="35">
@@ -13459,7 +13459,7 @@
         <v>63191</v>
       </c>
       <c r="V103" s="35">
-        <f t="shared" ref="V103:V135" si="159">+AT103-SUM(S103:U103)</f>
+        <f t="shared" ref="V103:V135" si="166">+AT103-SUM(S103:U103)</f>
         <v>66262</v>
       </c>
       <c r="W103" s="35">
@@ -13499,7 +13499,7 @@
         <v>-34282</v>
       </c>
       <c r="R104" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>54493</v>
       </c>
       <c r="S104" s="35">
@@ -13513,7 +13513,7 @@
         <v>-155778</v>
       </c>
       <c r="V104" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-11333</v>
       </c>
       <c r="W104" s="35">
@@ -13553,7 +13553,7 @@
         <v>-33924</v>
       </c>
       <c r="R105" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>7676</v>
       </c>
       <c r="S105" s="35">
@@ -13568,7 +13568,7 @@
         <v>28367</v>
       </c>
       <c r="V105" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>4603</v>
       </c>
       <c r="W105" s="35">
@@ -13608,7 +13608,7 @@
         <v>-13890</v>
       </c>
       <c r="R106" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>307</v>
       </c>
       <c r="S106" s="35">
@@ -13623,7 +13623,7 @@
         <v>-7502</v>
       </c>
       <c r="V106" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-240</v>
       </c>
       <c r="W106" s="35">
@@ -13663,7 +13663,7 @@
         <v>60497</v>
       </c>
       <c r="R107" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>22047</v>
       </c>
       <c r="S107" s="35">
@@ -13678,7 +13678,7 @@
         <v>138961</v>
       </c>
       <c r="V107" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>37651</v>
       </c>
       <c r="W107" s="35">
@@ -13718,7 +13718,7 @@
         <v>-38312</v>
       </c>
       <c r="R108" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>1193</v>
       </c>
       <c r="S108" s="35">
@@ -13733,7 +13733,7 @@
         <v>-100146</v>
       </c>
       <c r="V108" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-7133</v>
       </c>
       <c r="W108" s="35">
@@ -13773,7 +13773,7 @@
         <v>27663</v>
       </c>
       <c r="R109" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-26323</v>
       </c>
       <c r="S109" s="35">
@@ -13788,7 +13788,7 @@
         <v>19415</v>
       </c>
       <c r="V109" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-23569</v>
       </c>
       <c r="W109" s="35">
@@ -13828,7 +13828,7 @@
         <v>-21984</v>
       </c>
       <c r="R110" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-1008</v>
       </c>
       <c r="S110" s="35">
@@ -13843,7 +13843,7 @@
         <v>-39282</v>
       </c>
       <c r="V110" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-4396</v>
       </c>
       <c r="W110" s="35">
@@ -13883,7 +13883,7 @@
         <v>-8044</v>
       </c>
       <c r="R111" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-5427</v>
       </c>
       <c r="S111" s="35">
@@ -13898,7 +13898,7 @@
         <v>-20652</v>
       </c>
       <c r="V111" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-7483</v>
       </c>
       <c r="W111" s="35">
@@ -13938,7 +13938,7 @@
         <v>142302</v>
       </c>
       <c r="R112" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>48486</v>
       </c>
       <c r="S112" s="35">
@@ -13953,7 +13953,7 @@
         <v>169814</v>
       </c>
       <c r="V112" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>72209</v>
       </c>
       <c r="W112" s="35">
@@ -13993,7 +13993,7 @@
         <v>-13180</v>
       </c>
       <c r="R113" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-4823</v>
       </c>
       <c r="S113" s="35">
@@ -14008,7 +14008,7 @@
         <v>1784</v>
       </c>
       <c r="V113" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>2092</v>
       </c>
       <c r="W113" s="35">
@@ -14048,7 +14048,7 @@
         <v>-34754</v>
       </c>
       <c r="R114" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-9635</v>
       </c>
       <c r="S114" s="35">
@@ -14063,7 +14063,7 @@
         <v>16187</v>
       </c>
       <c r="V114" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-7272</v>
       </c>
       <c r="W114" s="35">
@@ -14104,7 +14104,7 @@
         <v>65250</v>
       </c>
       <c r="R115" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>8169</v>
       </c>
       <c r="S115" s="35">
@@ -14119,7 +14119,7 @@
         <v>-34261</v>
       </c>
       <c r="V115" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-31362</v>
       </c>
       <c r="W115" s="35">
@@ -14159,7 +14159,7 @@
         <v>10085</v>
       </c>
       <c r="R116" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>3631</v>
       </c>
       <c r="S116" s="35">
@@ -14174,7 +14174,7 @@
         <v>12695</v>
       </c>
       <c r="V116" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>18404</v>
       </c>
       <c r="W116" s="35">
@@ -14214,7 +14214,7 @@
         <v>3434</v>
       </c>
       <c r="R117" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>37551</v>
       </c>
       <c r="S117" s="35">
@@ -14229,7 +14229,7 @@
         <v>8509</v>
       </c>
       <c r="V117" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>37365</v>
       </c>
       <c r="W117" s="35">
@@ -14269,7 +14269,7 @@
         <v>37442</v>
       </c>
       <c r="R118" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-222574</v>
       </c>
       <c r="S118" s="35">
@@ -14284,7 +14284,7 @@
         <v>-33999</v>
       </c>
       <c r="V118" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>229229</v>
       </c>
       <c r="W118" s="35">
@@ -14324,7 +14324,7 @@
         <v>-45601</v>
       </c>
       <c r="R119" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-50085</v>
       </c>
       <c r="S119" s="35">
@@ -14339,7 +14339,7 @@
         <v>10363</v>
       </c>
       <c r="V119" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-115709</v>
       </c>
       <c r="W119" s="35">
@@ -14379,7 +14379,7 @@
         <v>764</v>
       </c>
       <c r="R120" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>431</v>
       </c>
       <c r="S120" s="35">
@@ -14394,7 +14394,7 @@
         <v>-481</v>
       </c>
       <c r="V120" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-4458</v>
       </c>
       <c r="W120" s="35">
@@ -14436,7 +14436,7 @@
         <v>243890</v>
       </c>
       <c r="R121" s="34">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>115024</v>
       </c>
       <c r="S121" s="34">
@@ -14511,7 +14511,7 @@
         <v>-81303</v>
       </c>
       <c r="R123" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-126594</v>
       </c>
       <c r="S123" s="35">
@@ -14526,7 +14526,7 @@
         <v>-108446</v>
       </c>
       <c r="V123" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-121906</v>
       </c>
       <c r="W123" s="35">
@@ -14566,7 +14566,7 @@
         <v>-223965</v>
       </c>
       <c r="R124" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-143349</v>
       </c>
       <c r="S124" s="35">
@@ -14581,7 +14581,7 @@
         <v>-97979</v>
       </c>
       <c r="V124" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-140451</v>
       </c>
       <c r="W124" s="35">
@@ -14621,7 +14621,7 @@
         <v>119927</v>
       </c>
       <c r="R125" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>100573</v>
       </c>
       <c r="S125" s="35">
@@ -14636,7 +14636,7 @@
         <v>81396</v>
       </c>
       <c r="V125" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>102307</v>
       </c>
       <c r="W125" s="35">
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S126" s="35">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="V126" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>1150</v>
       </c>
       <c r="W126" s="35">
@@ -14729,7 +14729,7 @@
         <v>-2500</v>
       </c>
       <c r="R127" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S127" s="35">
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W127" s="35">
@@ -14784,7 +14784,7 @@
         <v>-187841</v>
       </c>
       <c r="R128" s="34">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-169370</v>
       </c>
       <c r="S128" s="34">
@@ -14800,7 +14800,7 @@
         <v>-125029</v>
       </c>
       <c r="V128" s="34">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-158900</v>
       </c>
       <c r="W128" s="34">
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="R130" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S130" s="35">
@@ -14875,7 +14875,7 @@
         <v>-97582</v>
       </c>
       <c r="V130" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-165729</v>
       </c>
       <c r="W130" s="35">
@@ -14915,7 +14915,7 @@
         <v>-29</v>
       </c>
       <c r="R131" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-579</v>
       </c>
       <c r="S131" s="35">
@@ -14930,7 +14930,7 @@
         <v>-4632</v>
       </c>
       <c r="V131" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-16378</v>
       </c>
       <c r="W131" s="35">
@@ -14970,7 +14970,7 @@
         <v>-10</v>
       </c>
       <c r="R132" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-30</v>
       </c>
       <c r="S132" s="35">
@@ -14985,7 +14985,7 @@
         <v>-134</v>
       </c>
       <c r="V132" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>68</v>
       </c>
       <c r="W132" s="35">
@@ -15027,7 +15027,7 @@
         <v>-39</v>
       </c>
       <c r="R133" s="34">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-609</v>
       </c>
       <c r="S133" s="34">
@@ -15043,7 +15043,7 @@
         <v>-102348</v>
       </c>
       <c r="V133" s="34">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-182039</v>
       </c>
       <c r="W133" s="34">
@@ -15102,7 +15102,7 @@
         <v>481</v>
       </c>
       <c r="R134" s="35">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>699</v>
       </c>
       <c r="S134" s="35">
@@ -15117,7 +15117,7 @@
         <v>-572</v>
       </c>
       <c r="V134" s="35">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>-251</v>
       </c>
       <c r="W134" s="35">
@@ -15147,27 +15147,27 @@
       </c>
       <c r="N135" s="34"/>
       <c r="O135" s="34">
-        <f t="shared" ref="O135:T135" si="160">+O121+O128+O133+O134</f>
+        <f t="shared" ref="O135:T135" si="167">+O121+O128+O133+O134</f>
         <v>19790</v>
       </c>
       <c r="P135" s="34">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>105330</v>
       </c>
       <c r="Q135" s="34">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>56491</v>
       </c>
       <c r="R135" s="34">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>-54256</v>
       </c>
       <c r="S135" s="34">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>86803</v>
       </c>
       <c r="T135" s="34">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>22776</v>
       </c>
       <c r="U135" s="34">
@@ -15175,7 +15175,7 @@
         <v>53670</v>
       </c>
       <c r="V135" s="34">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>47145</v>
       </c>
       <c r="W135" s="34">
@@ -15195,11 +15195,11 @@
       <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
       <c r="AR135" s="26">
-        <f t="shared" ref="AR135:AS135" si="161">+AR121+AR128+AR133+AR134</f>
+        <f t="shared" ref="AR135:AS135" si="168">+AR121+AR128+AR133+AR134</f>
         <v>228329</v>
       </c>
       <c r="AS135" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>127355</v>
       </c>
       <c r="AT135" s="32">
@@ -15277,27 +15277,27 @@
         <v>165</v>
       </c>
       <c r="O137" s="35">
-        <f t="shared" ref="O137:T137" si="162">+O135+O136</f>
+        <f t="shared" ref="O137:T137" si="169">+O135+O136</f>
         <v>528271</v>
       </c>
       <c r="P137" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>613811</v>
       </c>
       <c r="Q137" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>564972</v>
       </c>
       <c r="R137" s="35">
-        <f t="shared" ref="R137" si="163">+R135+R136</f>
+        <f t="shared" ref="R137" si="170">+R135+R136</f>
         <v>474015</v>
       </c>
       <c r="S137" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>722639</v>
       </c>
       <c r="T137" s="35">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>658612</v>
       </c>
       <c r="U137" s="35">
@@ -15335,27 +15335,27 @@
       </c>
       <c r="N139" s="34"/>
       <c r="O139" s="34">
-        <f t="shared" ref="O139:T139" si="164">+O121+O123-O107</f>
+        <f t="shared" ref="O139:T139" si="171">+O121+O123-O107</f>
         <v>104508</v>
       </c>
       <c r="P139" s="34">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>34888</v>
       </c>
       <c r="Q139" s="34">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>102090</v>
       </c>
       <c r="R139" s="34">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>-33617</v>
       </c>
       <c r="S139" s="34">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>219629</v>
       </c>
       <c r="T139" s="34">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>180595</v>
       </c>
       <c r="U139" s="34">
@@ -15367,15 +15367,15 @@
         <v>228778</v>
       </c>
       <c r="W139" s="34">
-        <f t="shared" ref="W139:Y139" si="165">+W121+W123-W107</f>
+        <f t="shared" ref="W139:Y139" si="172">+W121+W123-W107</f>
         <v>163140</v>
       </c>
       <c r="X139" s="34">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>158332.49900000001</v>
       </c>
       <c r="Y139" s="34">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>187235.50099999999</v>
       </c>
       <c r="Z139" s="34"/>
@@ -15383,15 +15383,15 @@
       <c r="AB139" s="22"/>
       <c r="AC139" s="22"/>
       <c r="AR139" s="34">
-        <f t="shared" ref="AR139:AT139" si="166">+AR121+AR123-AR107</f>
+        <f t="shared" ref="AR139:AT139" si="173">+AR121+AR123-AR107</f>
         <v>296324</v>
       </c>
       <c r="AS139" s="89">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>207869</v>
       </c>
       <c r="AT139" s="89">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>663214</v>
       </c>
       <c r="AU139" s="32"/>
@@ -15411,58 +15411,58 @@
         <v>166</v>
       </c>
       <c r="O140" s="35">
-        <f t="shared" ref="O140:Y140" si="167">+O27</f>
+        <f t="shared" ref="O140:Y140" si="174">+O27</f>
         <v>76388</v>
       </c>
       <c r="P140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>8175</v>
       </c>
       <c r="Q140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>80244</v>
       </c>
       <c r="R140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>190659</v>
       </c>
       <c r="S140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>127101</v>
       </c>
       <c r="T140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>187974</v>
       </c>
       <c r="U140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>204434</v>
       </c>
       <c r="V140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>133475</v>
       </c>
       <c r="W140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>158294</v>
       </c>
       <c r="X140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>259942</v>
       </c>
       <c r="Y140" s="35">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>257138</v>
       </c>
       <c r="AA140" s="72"/>
       <c r="AB140" s="18"/>
       <c r="AC140" s="18"/>
       <c r="AR140" s="35">
-        <f t="shared" ref="AR140:AS140" si="168">+AR27</f>
+        <f t="shared" ref="AR140:AS140" si="175">+AR27</f>
         <v>350608</v>
       </c>
       <c r="AS140" s="88">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>355466</v>
       </c>
       <c r="AT140" s="88">
@@ -15490,15 +15490,15 @@
       <c r="P142" s="34"/>
       <c r="Q142" s="34"/>
       <c r="R142" s="34">
-        <f t="shared" ref="R142:T142" si="169">+SUM(O139:R139)</f>
+        <f t="shared" ref="R142:T142" si="176">+SUM(O139:R139)</f>
         <v>207869</v>
       </c>
       <c r="S142" s="34">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>322990</v>
       </c>
       <c r="T142" s="34">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>468697</v>
       </c>
       <c r="U142" s="34">
@@ -15506,19 +15506,19 @@
         <v>400819</v>
       </c>
       <c r="V142" s="34">
-        <f t="shared" ref="V142:W142" si="170">+SUM(S139:V139)</f>
+        <f t="shared" ref="V142:W142" si="177">+SUM(S139:V139)</f>
         <v>663214</v>
       </c>
       <c r="W142" s="34">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>606725</v>
       </c>
       <c r="X142" s="34">
-        <f t="shared" ref="X142:X143" si="171">+SUM(U139:X139)</f>
+        <f t="shared" ref="X142:X143" si="178">+SUM(U139:X139)</f>
         <v>584462.49900000007</v>
       </c>
       <c r="Y142" s="34">
-        <f t="shared" ref="Y142:Y143" si="172">+SUM(V139:Y139)</f>
+        <f t="shared" ref="Y142:Y143" si="179">+SUM(V139:Y139)</f>
         <v>737486</v>
       </c>
       <c r="Z142" s="34"/>
@@ -15534,47 +15534,47 @@
         <v>480982.8</v>
       </c>
       <c r="AU142" s="32">
-        <f t="shared" ref="AU142:BE142" si="173">+AT142*1.1</f>
+        <f t="shared" ref="AU142:BE142" si="180">+AT142*1.1</f>
         <v>529081.08000000007</v>
       </c>
       <c r="AV142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>581989.18800000008</v>
       </c>
       <c r="AW142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>640188.10680000018</v>
       </c>
       <c r="AX142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>704206.91748000029</v>
       </c>
       <c r="AY142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>774627.60922800039</v>
       </c>
       <c r="AZ142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>852090.37015080045</v>
       </c>
       <c r="BA142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>937299.40716588055</v>
       </c>
       <c r="BB142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>1031029.3478824687</v>
       </c>
       <c r="BC142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>1134132.2826707156</v>
       </c>
       <c r="BD142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>1247545.5109377874</v>
       </c>
       <c r="BE142" s="32">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>1372300.0620315662</v>
       </c>
     </row>
@@ -15583,15 +15583,15 @@
         <v>169</v>
       </c>
       <c r="R143" s="35">
-        <f t="shared" ref="R143:T143" si="174">+SUM(O140:R140)</f>
+        <f t="shared" ref="R143:T143" si="181">+SUM(O140:R140)</f>
         <v>355466</v>
       </c>
       <c r="S143" s="35">
-        <f t="shared" si="174"/>
+        <f t="shared" si="181"/>
         <v>406179</v>
       </c>
       <c r="T143" s="35">
-        <f t="shared" si="174"/>
+        <f t="shared" si="181"/>
         <v>585978</v>
       </c>
       <c r="U143" s="35">
@@ -15599,19 +15599,19 @@
         <v>710168</v>
       </c>
       <c r="V143" s="35">
-        <f t="shared" ref="V143:W143" si="175">+SUM(S140:V140)</f>
+        <f t="shared" ref="V143:W143" si="182">+SUM(S140:V140)</f>
         <v>652984</v>
       </c>
       <c r="W143" s="35">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>684177</v>
       </c>
       <c r="X143" s="35">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>756145</v>
       </c>
       <c r="Y143" s="35">
-        <f t="shared" si="172"/>
+        <f t="shared" si="179"/>
         <v>808849</v>
       </c>
     </row>
@@ -15624,15 +15624,15 @@
       <c r="P145" s="34"/>
       <c r="Q145" s="34"/>
       <c r="R145" s="34">
-        <f t="shared" ref="R145:T145" si="176">+R142-R143</f>
+        <f t="shared" ref="R145:T145" si="183">+R142-R143</f>
         <v>-147597</v>
       </c>
       <c r="S145" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>-83189</v>
       </c>
       <c r="T145" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="183"/>
         <v>-117281</v>
       </c>
       <c r="U145" s="34">
@@ -15640,19 +15640,19 @@
         <v>-309349</v>
       </c>
       <c r="V145" s="34">
-        <f t="shared" ref="V145:Y145" si="177">+V142-V143</f>
+        <f t="shared" ref="V145:Y145" si="184">+V142-V143</f>
         <v>10230</v>
       </c>
       <c r="W145" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>-77452</v>
       </c>
       <c r="X145" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>-171682.50099999993</v>
       </c>
       <c r="Y145" s="34">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>-71363</v>
       </c>
       <c r="Z145" s="34"/>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="AW8" s="4">
         <f>+Main!G4</f>
-        <v>1515.2</v>
+        <v>1570.61</v>
       </c>
     </row>
     <row r="9" spans="2:49">
@@ -18659,7 +18659,7 @@
         <v>7.3229549014013464E-3</v>
       </c>
       <c r="W36" s="92">
-        <f t="shared" ref="W36:Z49" si="1">STDEV(T4:W4)</f>
+        <f t="shared" ref="W36:Y49" si="1">STDEV(T4:W4)</f>
         <v>1.1266993134116502E-2</v>
       </c>
       <c r="X36" s="92">

--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06625BCA-70CA-5742-8D0A-6ED073AF6996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB82D0-101D-344F-9C39-BD66ACA8A7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14960" yWindow="500" windowWidth="36240" windowHeight="28300" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
   <si>
     <t>Q119</t>
   </si>
@@ -870,7 +870,16 @@
     <t>Meati Foods</t>
   </si>
   <si>
-    <t>Cultivate Next Fund</t>
+    <t xml:space="preserve">50-1 stock split </t>
+  </si>
+  <si>
+    <t>Cultivate Next Fund -- 1st in co history</t>
+  </si>
+  <si>
+    <t>Al pastor  --- shit is nasty imo</t>
+  </si>
+  <si>
+    <t>Years alive</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1012,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1177,6 +1186,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1638,17 +1649,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3C8013-9F59-6546-8AA7-191A6CA15E5B}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="234" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1700,12 +1711,19 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>2598</v>
+        <v>2904.98</v>
       </c>
       <c r="J4" s="4"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
+      <c r="B5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="76">
+        <f ca="1">(TODAY()-C3)/365</f>
+        <v>30.712328767123289</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1724,7 +1742,7 @@
       </c>
       <c r="G6" s="4">
         <f>+G4*G5</f>
-        <v>71240197062</v>
+        <v>79657947521.619995</v>
       </c>
       <c r="J6" s="4"/>
       <c r="M6" s="9"/>
@@ -1763,7 +1781,7 @@
       </c>
       <c r="G9" s="4">
         <f>+G6-G7+G8</f>
-        <v>70679588062</v>
+        <v>79097338521.619995</v>
       </c>
       <c r="J9" s="4"/>
       <c r="M9" s="10"/>
@@ -1792,331 +1810,341 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="57">
-        <v>45350</v>
-      </c>
-      <c r="C15" t="s">
+        <v>45370</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="57">
-        <v>45293</v>
+        <v>45363</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="57">
+        <v>45350</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="57">
+        <v>45293</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="57">
         <v>45273</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="67">
-        <v>44845</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="67">
-        <v>44831</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="67">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="67">
-        <v>44811</v>
+        <v>44831</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="67">
-        <v>44803</v>
+        <v>44817</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="67">
-        <v>44795</v>
+        <v>44811</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="67">
-        <v>44763</v>
+        <v>44803</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="67">
-        <v>44740</v>
+        <v>44795</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="67">
-        <v>44728</v>
+        <v>44763</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="67">
-        <v>44721</v>
+        <v>44740</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="67">
-        <v>44683</v>
+        <v>44728</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="67">
+        <v>44721</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="67">
+        <v>44683</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="67">
         <v>44677</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="68">
-        <v>44670</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="68">
-        <v>44656</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="68">
-        <v>44651</v>
+        <v>44670</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="68">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="68">
-        <v>44636</v>
+        <v>44651</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="68">
-        <v>44630</v>
+        <v>44648</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="68">
-        <v>44615</v>
+        <v>44636</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="68">
-        <v>44607</v>
+        <v>44630</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="68">
-        <v>44564</v>
+        <v>44615</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="68">
-        <v>44546</v>
+        <v>44607</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="68">
-        <v>44448</v>
+        <v>44564</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="68">
-        <v>44440</v>
+        <v>44546</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="68">
-        <v>44427</v>
+        <v>44448</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="68">
-        <v>44377</v>
+        <v>44440</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="68">
+        <v>44427</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="68">
+        <v>44377</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="68">
         <v>44326</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="67">
+    <row r="47" spans="2:3">
+      <c r="B47" s="67">
         <v>44280</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="68"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="68"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="68"/>
     </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="7" t="s">
+    <row r="49" spans="2:15">
+      <c r="B49" s="68"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="68"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="7" t="s">
+    <row r="54" spans="2:15">
+      <c r="B54" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="2:15">
+      <c r="B55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:15">
+      <c r="B56" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="2:15">
-      <c r="L55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="B56" s="7" t="s">
+    <row r="57" spans="2:15">
+      <c r="L57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="2:15">
       <c r="B59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="2:15">
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="2:15">
@@ -2242,39 +2270,47 @@
     <row r="103" spans="13:14">
       <c r="N103" s="12"/>
     </row>
+    <row r="104" spans="13:14">
+      <c r="N104" s="12"/>
+    </row>
     <row r="105" spans="13:14">
-      <c r="M105" s="4"/>
+      <c r="N105" s="12"/>
+    </row>
+    <row r="107" spans="13:14">
+      <c r="M107" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1" display="9/9/21 Press Release" xr:uid="{D879A47D-CEDE-6B45-9E60-9F54FB18B685}"/>
-    <hyperlink ref="B41" r:id="rId2" display="9/1/21 Press Release" xr:uid="{919BA319-D27F-5F45-A159-BD7F47F2F59D}"/>
-    <hyperlink ref="B42" r:id="rId3" display="8/19/21 Press Release " xr:uid="{B211C8DC-3A52-F14F-8F6D-24C0F5F95485}"/>
-    <hyperlink ref="B43" r:id="rId4" display="6/30/21 Press Release" xr:uid="{33BCD7E2-316F-0A41-B77C-80F8C21D0669}"/>
-    <hyperlink ref="B44" r:id="rId5" display="5/10/21 Press Release" xr:uid="{39EC7DB8-A0BC-B149-906C-A4D8AE9C2474}"/>
-    <hyperlink ref="B38" r:id="rId6" display="1/3/2022 Press release" xr:uid="{27C89C1F-6A3B-8E47-9D36-8C4F95C3DD23}"/>
-    <hyperlink ref="B39" r:id="rId7" display="12/16/21 Press release" xr:uid="{332C27BD-6179-A44B-82BA-1BB3D044EC05}"/>
-    <hyperlink ref="B34" r:id="rId8" display="3/16/2022 Press Release" xr:uid="{3D9CDEB0-1E08-1E46-BAE4-80C186F12D19}"/>
-    <hyperlink ref="B53" r:id="rId9" xr:uid="{9BE232BB-5FDC-6C4F-A32E-5212308C52F0}"/>
-    <hyperlink ref="B35" r:id="rId10" display="3/10/22 Press Release" xr:uid="{993F6CD6-AF6A-D34E-A97A-0883743F6E97}"/>
-    <hyperlink ref="B37" r:id="rId11" display="2/15/2022 Press Release" xr:uid="{40FC8D02-2B58-E347-B032-7BA7EFAAD1CA}"/>
+    <hyperlink ref="B42" r:id="rId1" display="9/9/21 Press Release" xr:uid="{D879A47D-CEDE-6B45-9E60-9F54FB18B685}"/>
+    <hyperlink ref="B43" r:id="rId2" display="9/1/21 Press Release" xr:uid="{919BA319-D27F-5F45-A159-BD7F47F2F59D}"/>
+    <hyperlink ref="B44" r:id="rId3" display="8/19/21 Press Release " xr:uid="{B211C8DC-3A52-F14F-8F6D-24C0F5F95485}"/>
+    <hyperlink ref="B45" r:id="rId4" display="6/30/21 Press Release" xr:uid="{33BCD7E2-316F-0A41-B77C-80F8C21D0669}"/>
+    <hyperlink ref="B46" r:id="rId5" display="5/10/21 Press Release" xr:uid="{39EC7DB8-A0BC-B149-906C-A4D8AE9C2474}"/>
+    <hyperlink ref="B40" r:id="rId6" display="1/3/2022 Press release" xr:uid="{27C89C1F-6A3B-8E47-9D36-8C4F95C3DD23}"/>
+    <hyperlink ref="B41" r:id="rId7" display="12/16/21 Press release" xr:uid="{332C27BD-6179-A44B-82BA-1BB3D044EC05}"/>
+    <hyperlink ref="B36" r:id="rId8" display="3/16/2022 Press Release" xr:uid="{3D9CDEB0-1E08-1E46-BAE4-80C186F12D19}"/>
+    <hyperlink ref="B55" r:id="rId9" xr:uid="{9BE232BB-5FDC-6C4F-A32E-5212308C52F0}"/>
+    <hyperlink ref="B37" r:id="rId10" display="3/10/22 Press Release" xr:uid="{993F6CD6-AF6A-D34E-A97A-0883743F6E97}"/>
+    <hyperlink ref="B39" r:id="rId11" display="2/15/2022 Press Release" xr:uid="{40FC8D02-2B58-E347-B032-7BA7EFAAD1CA}"/>
     <hyperlink ref="A1" location="Model!A1" display="Model" xr:uid="{4EBDF202-A121-B14F-A255-3F8E62B44989}"/>
-    <hyperlink ref="B30" r:id="rId12" display="4/19/22 Press Release" xr:uid="{4A0C956C-3152-864B-91A8-4119706762C5}"/>
-    <hyperlink ref="B33" r:id="rId13" display="3/28/22 Press Release" xr:uid="{E98A3860-CE2C-D346-A7F8-3BFECB77F349}"/>
-    <hyperlink ref="B31" r:id="rId14" display="4/5/22 Press Release" xr:uid="{0BE5ACE2-4857-3B4D-A854-8D959D99B602}"/>
-    <hyperlink ref="B29" r:id="rId15" display="4/26/22 Press Release" xr:uid="{F45703FF-7DA6-AD43-A4AB-DA9E06AC4711}"/>
-    <hyperlink ref="B28" r:id="rId16" display="5/2/22 Press Release" xr:uid="{064F4BA5-C4A3-394A-A224-77908E3229CD}"/>
-    <hyperlink ref="B27" r:id="rId17" display="6/9/22 Press Release" xr:uid="{98142C7F-2AA7-8B44-B252-2DE623CB2A48}"/>
-    <hyperlink ref="B26" r:id="rId18" display="6/16/22 Press Release" xr:uid="{C0CF27D7-F5D7-D44D-A046-6D01F37E2A6A}"/>
-    <hyperlink ref="B25" r:id="rId19" display="6/28/22 Press Release" xr:uid="{236EE2B4-06FC-FC43-BCD9-B55CD85EF132}"/>
-    <hyperlink ref="B18" r:id="rId20" display="10/11/2022 Press Releases" xr:uid="{58D60953-E809-8344-80E4-753831B5BCCD}"/>
-    <hyperlink ref="B19" r:id="rId21" display="9/27/2022 Press Release" xr:uid="{06E23F18-D0BF-1441-8ECB-A0DF37C02A7E}"/>
-    <hyperlink ref="B20" r:id="rId22" display="9/13/22 Press Release" xr:uid="{31796C53-3353-614C-850C-37223269C65A}"/>
-    <hyperlink ref="B21" r:id="rId23" display="9/7/22 Press Release" xr:uid="{F5A9EBA8-65D3-B145-BFD3-96A9517114BB}"/>
-    <hyperlink ref="B16" r:id="rId24" display="https://ir.chipotle.com/2024-01-02-CHIPOTLE-AND-STRAVA-TEAM-UP-TO-HELP-FANS-ACHIEVE-WELLNESS-GOALS-ALL-JANUARY" xr:uid="{8F61C397-6067-AC4B-B494-83E922F1BE68}"/>
-    <hyperlink ref="B17" r:id="rId25" display="https://ir.chipotle.com/2023-12-13-CHIPOTLE-INVESTS-IN-AUTONOMOUS-AGRICULTURAL-ROBOTS-AND-CLIMATE-SMART-FERTILIZER-TO-IMPROVE-THE-FUTURE-OF-FARMING" xr:uid="{F5AC78B6-94FC-8546-AB05-921EDE6AB4EE}"/>
-    <hyperlink ref="B45" r:id="rId26" display="https://ir.chipotle.com/2021-03-25-Chipotle-Invests-In-Leading-Autonomous-Delivery-Company-Nuro" xr:uid="{42BFF284-5C82-4F42-B97C-204926615DF4}"/>
-    <hyperlink ref="B15" r:id="rId27" display="https://ir.chipotle.com/2024-02-28-CHIPOTLE-DOUBLES-ITS-COMMITMENT-TO-THE-CULTIVATE-NEXT-VENTURE-FUND-TO-100-MILLION,-MARKING-ITS-TWO-YEAR-ANNIVERSARY" xr:uid="{6B02CC92-51C3-B645-B764-8CD662CC60BB}"/>
+    <hyperlink ref="B32" r:id="rId12" display="4/19/22 Press Release" xr:uid="{4A0C956C-3152-864B-91A8-4119706762C5}"/>
+    <hyperlink ref="B35" r:id="rId13" display="3/28/22 Press Release" xr:uid="{E98A3860-CE2C-D346-A7F8-3BFECB77F349}"/>
+    <hyperlink ref="B33" r:id="rId14" display="4/5/22 Press Release" xr:uid="{0BE5ACE2-4857-3B4D-A854-8D959D99B602}"/>
+    <hyperlink ref="B31" r:id="rId15" display="4/26/22 Press Release" xr:uid="{F45703FF-7DA6-AD43-A4AB-DA9E06AC4711}"/>
+    <hyperlink ref="B30" r:id="rId16" display="5/2/22 Press Release" xr:uid="{064F4BA5-C4A3-394A-A224-77908E3229CD}"/>
+    <hyperlink ref="B29" r:id="rId17" display="6/9/22 Press Release" xr:uid="{98142C7F-2AA7-8B44-B252-2DE623CB2A48}"/>
+    <hyperlink ref="B28" r:id="rId18" display="6/16/22 Press Release" xr:uid="{C0CF27D7-F5D7-D44D-A046-6D01F37E2A6A}"/>
+    <hyperlink ref="B27" r:id="rId19" display="6/28/22 Press Release" xr:uid="{236EE2B4-06FC-FC43-BCD9-B55CD85EF132}"/>
+    <hyperlink ref="B20" r:id="rId20" display="10/11/2022 Press Releases" xr:uid="{58D60953-E809-8344-80E4-753831B5BCCD}"/>
+    <hyperlink ref="B21" r:id="rId21" display="9/27/2022 Press Release" xr:uid="{06E23F18-D0BF-1441-8ECB-A0DF37C02A7E}"/>
+    <hyperlink ref="B22" r:id="rId22" display="9/13/22 Press Release" xr:uid="{31796C53-3353-614C-850C-37223269C65A}"/>
+    <hyperlink ref="B23" r:id="rId23" display="9/7/22 Press Release" xr:uid="{F5A9EBA8-65D3-B145-BFD3-96A9517114BB}"/>
+    <hyperlink ref="B18" r:id="rId24" display="https://ir.chipotle.com/2024-01-02-CHIPOTLE-AND-STRAVA-TEAM-UP-TO-HELP-FANS-ACHIEVE-WELLNESS-GOALS-ALL-JANUARY" xr:uid="{8F61C397-6067-AC4B-B494-83E922F1BE68}"/>
+    <hyperlink ref="B19" r:id="rId25" display="https://ir.chipotle.com/2023-12-13-CHIPOTLE-INVESTS-IN-AUTONOMOUS-AGRICULTURAL-ROBOTS-AND-CLIMATE-SMART-FERTILIZER-TO-IMPROVE-THE-FUTURE-OF-FARMING" xr:uid="{F5AC78B6-94FC-8546-AB05-921EDE6AB4EE}"/>
+    <hyperlink ref="B47" r:id="rId26" display="https://ir.chipotle.com/2021-03-25-Chipotle-Invests-In-Leading-Autonomous-Delivery-Company-Nuro" xr:uid="{42BFF284-5C82-4F42-B97C-204926615DF4}"/>
+    <hyperlink ref="B17" r:id="rId27" display="https://ir.chipotle.com/2024-02-28-CHIPOTLE-DOUBLES-ITS-COMMITMENT-TO-THE-CULTIVATE-NEXT-VENTURE-FUND-TO-100-MILLION,-MARKING-ITS-TWO-YEAR-ANNIVERSARY" xr:uid="{6B02CC92-51C3-B645-B764-8CD662CC60BB}"/>
+    <hyperlink ref="B15" r:id="rId28" display="https://ir.chipotle.com/2024-03-19-CHIPOTLE-BOARD-OF-DIRECTORS-APPROVES-50-FOR-1-STOCK-SPLIT" xr:uid="{B08C3402-BE9C-A34F-ACB4-1730ED1C4966}"/>
+    <hyperlink ref="B16" r:id="rId29" display="https://ir.chipotle.com/2024-03-12-CHICKEN-AL-PASTOR-IS-BACK-CHIPOTLE-REINTRODUCES-ONE-OF-ITS-MOST-POPULAR-MENU-INNOVATIONS" xr:uid="{14879690-4BED-4546-BC50-DB312E87F222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2284,11 +2320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B3FB4-BD2A-5E41-95A2-2CC4EACD5DFD}">
   <dimension ref="B1:IV174"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG7" sqref="BG7"/>
+      <selection pane="bottomRight" activeCell="BU34" sqref="BU34:BU42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2305,7 +2341,8 @@
     <col min="28" max="28" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="38" width="3.6640625" style="17" customWidth="1"/>
+    <col min="31" max="31" width="6.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="38" width="3.6640625" style="17" customWidth="1"/>
     <col min="39" max="40" width="7.6640625" style="20" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="41" max="50" width="9.1640625" style="20" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="51" max="52" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
@@ -2428,7 +2465,9 @@
       <c r="AB2" s="17"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
+      <c r="AE2" s="17">
+        <v>45406</v>
+      </c>
       <c r="AF2" s="17"/>
       <c r="AG2" s="17"/>
       <c r="AH2" s="17"/>
@@ -7443,7 +7482,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:73">
+    <row r="33" spans="2:71">
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
@@ -7515,7 +7554,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:73" s="21" customFormat="1">
+    <row r="34" spans="2:71" s="21" customFormat="1">
       <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
@@ -7714,7 +7753,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:73">
+    <row r="35" spans="2:71">
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
@@ -7823,7 +7862,7 @@
         <v>69515289.672806218</v>
       </c>
     </row>
-    <row r="36" spans="2:73">
+    <row r="36" spans="2:71">
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
@@ -7932,7 +7971,7 @@
         <v>560609</v>
       </c>
     </row>
-    <row r="37" spans="2:73">
+    <row r="37" spans="2:71">
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
@@ -8044,12 +8083,8 @@
         <f>+BS35+BS36</f>
         <v>70075898.672806218</v>
       </c>
-      <c r="BU37" s="20">
-        <f>+BS37/BG27</f>
-        <v>25.88188430281815</v>
-      </c>
-    </row>
-    <row r="38" spans="2:73">
+    </row>
+    <row r="38" spans="2:71">
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
@@ -8160,7 +8195,7 @@
         <v>27421.169000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:73">
+    <row r="39" spans="2:71">
       <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
@@ -8269,17 +8304,17 @@
         <v>2555.5401621574269</v>
       </c>
     </row>
-    <row r="40" spans="2:73">
+    <row r="40" spans="2:71">
       <c r="BD40" s="34"/>
       <c r="BR40" s="22" t="s">
         <v>39</v>
       </c>
       <c r="BS40" s="17">
         <f>+Main!G4</f>
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="41" spans="2:73">
+        <v>2904.98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:71">
       <c r="B41" s="30"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -8348,7 +8383,7 @@
       <c r="BR41" s="45"/>
       <c r="BS41" s="45"/>
     </row>
-    <row r="42" spans="2:73" s="31" customFormat="1">
+    <row r="42" spans="2:71" s="31" customFormat="1">
       <c r="B42" s="10"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -8383,7 +8418,7 @@
       <c r="BR42" s="22"/>
       <c r="BS42" s="17"/>
     </row>
-    <row r="43" spans="2:73" s="31" customFormat="1">
+    <row r="43" spans="2:71" s="31" customFormat="1">
       <c r="B43" s="10"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -8420,10 +8455,10 @@
       </c>
       <c r="BS43" s="23">
         <f>+BS39/BS40-1</f>
-        <v>-1.6343278615309154E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:73" s="44" customFormat="1">
+        <v>-0.12028992896425206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:71" s="44" customFormat="1">
       <c r="B44" s="10" t="s">
         <v>167</v>
       </c>
@@ -8452,7 +8487,7 @@
       </c>
       <c r="X44" s="45">
         <f>+BS40</f>
-        <v>2598</v>
+        <v>2904.98</v>
       </c>
       <c r="Y44" s="45"/>
       <c r="Z44" s="45"/>
@@ -8499,7 +8534,7 @@
       <c r="BR44" s="20"/>
       <c r="BS44" s="20"/>
     </row>
-    <row r="45" spans="2:73" s="44" customFormat="1">
+    <row r="45" spans="2:71" s="44" customFormat="1">
       <c r="B45" s="10" t="s">
         <v>168</v>
       </c>
@@ -8533,7 +8568,7 @@
       </c>
       <c r="X45" s="45">
         <f>+Main!G6/1000</f>
-        <v>71240197.062000006</v>
+        <v>79657947.52161999</v>
       </c>
       <c r="Y45" s="45"/>
       <c r="Z45" s="45"/>
@@ -8580,7 +8615,7 @@
       <c r="BR45" s="20"/>
       <c r="BS45" s="20"/>
     </row>
-    <row r="46" spans="2:73" s="44" customFormat="1">
+    <row r="46" spans="2:71" s="44" customFormat="1">
       <c r="B46" s="10" t="s">
         <v>169</v>
       </c>
@@ -8614,7 +8649,7 @@
       </c>
       <c r="X46" s="45">
         <f>+Main!G9/1000</f>
-        <v>70679588.062000006</v>
+        <v>79097338.52161999</v>
       </c>
       <c r="Y46" s="45"/>
       <c r="Z46" s="45"/>
@@ -8659,7 +8694,7 @@
       <c r="BM46" s="24"/>
       <c r="BN46" s="24"/>
     </row>
-    <row r="47" spans="2:73" s="31" customFormat="1">
+    <row r="47" spans="2:71" s="31" customFormat="1">
       <c r="B47" s="10"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -8692,7 +8727,7 @@
       <c r="BM47" s="55"/>
       <c r="BN47" s="55"/>
     </row>
-    <row r="48" spans="2:73" s="31" customFormat="1">
+    <row r="48" spans="2:71" s="31" customFormat="1">
       <c r="B48" s="10"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>

--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A77190-B018-1843-BE6F-C1C455C6B0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5923EB-18CE-674E-85D3-B51297353EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="500" windowWidth="36240" windowHeight="28300" activeTab="1" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
+    <workbookView xWindow="54100" yWindow="1820" windowWidth="31440" windowHeight="27780" activeTab="1" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="222">
   <si>
     <t>Q119</t>
   </si>
@@ -921,6 +921,9 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -1255,19 +1258,10 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,9 +1297,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1329,6 +1320,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1420,13 +1421,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>13975</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>13840</xdr:rowOff>
@@ -1444,8 +1445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23298728" y="0"/>
-          <a:ext cx="13974" cy="25817931"/>
+          <a:off x="24028401" y="0"/>
+          <a:ext cx="13974" cy="27080080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1795,7 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3C8013-9F59-6546-8AA7-191A6CA15E5B}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
@@ -1853,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>3151.63</v>
+        <v>55.55</v>
       </c>
       <c r="J4" s="4"/>
       <c r="M4" s="8"/>
@@ -1864,13 +1867,13 @@
       </c>
       <c r="C5" s="43">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>30.890410958904109</v>
+        <v>31.12054794520548</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="4">
-        <v>27467</v>
+        <v>1369476</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>209</v>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="G6" s="4">
         <f>+G4*G5</f>
-        <v>86565821.210000008</v>
+        <v>76074391.799999997</v>
       </c>
       <c r="J6" s="4"/>
       <c r="M6" s="9"/>
@@ -1894,7 +1897,8 @@
         <v>15</v>
       </c>
       <c r="G7" s="4">
-        <v>727394</v>
+        <f>806528+972644+27664+0</f>
+        <v>1806836</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>+H5</f>
@@ -1923,7 +1927,7 @@
       </c>
       <c r="G9" s="4">
         <f>+G6-G7+G8</f>
-        <v>85838427.210000008</v>
+        <v>74267555.799999997</v>
       </c>
       <c r="J9" s="4"/>
       <c r="M9" s="10"/>
@@ -2496,11 +2500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B3FB4-BD2A-5E41-95A2-2CC4EACD5DFD}">
   <dimension ref="A1:JG174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BD5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2517,7 +2521,8 @@
     <col min="28" max="28" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="38" width="3.6640625" style="17" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="3.6640625" style="17" customWidth="1"/>
     <col min="39" max="40" width="7.6640625" style="17" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="41" max="50" width="9.1640625" style="17" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="51" max="52" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
@@ -2536,7 +2541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:267" s="4" customFormat="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>219</v>
       </c>
       <c r="C1" s="20"/>
@@ -2592,10 +2597,7 @@
       <c r="BA1" s="20"/>
       <c r="BB1" s="22"/>
       <c r="BC1" s="22"/>
-      <c r="BD1" s="22">
-        <f>3129+53</f>
-        <v>3182</v>
-      </c>
+      <c r="BD1" s="22"/>
       <c r="BE1" s="22"/>
       <c r="BF1" s="22"/>
       <c r="BG1" s="22"/>
@@ -2672,19 +2674,13 @@
         <v>0.87822878228782286</v>
       </c>
       <c r="BB2" s="22"/>
-      <c r="BC2" s="22">
-        <f>3371+66</f>
-        <v>3437</v>
-      </c>
+      <c r="BC2" s="22"/>
       <c r="BD2" s="22"/>
       <c r="BF2" s="22">
         <f>AVERAGE(285,315)</f>
         <v>300</v>
       </c>
-      <c r="BG2" s="22">
-        <f>7000-BF7</f>
-        <v>3263</v>
-      </c>
+      <c r="BG2" s="22"/>
       <c r="BH2" s="22"/>
       <c r="BI2" s="22"/>
       <c r="BJ2" s="22"/>
@@ -2787,6 +2783,9 @@
       </c>
       <c r="AE3" s="25" t="s">
         <v>209</v>
+      </c>
+      <c r="AF3" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="AM3" s="34">
         <f t="shared" ref="AM3:AQ3" si="0">+AN3-1</f>
@@ -4639,23 +4638,23 @@
       <c r="BD10" s="47"/>
       <c r="BE10" s="47"/>
     </row>
-    <row r="11" spans="1:267" s="82" customFormat="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="1:267" s="78" customFormat="1">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="AD11" s="82">
+      <c r="AD11" s="78">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AE11" s="82">
+      <c r="AE11" s="78">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BF11" s="82">
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BF11" s="78">
         <v>0.08</v>
       </c>
     </row>
@@ -4720,6 +4719,9 @@
       <c r="AE12" s="17">
         <v>2684447</v>
       </c>
+      <c r="AF12" s="17">
+        <v>2954913</v>
+      </c>
       <c r="AZ12" s="17">
         <v>4860626</v>
       </c>
@@ -4796,6 +4798,9 @@
       </c>
       <c r="AE13" s="17">
         <v>17401</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>18204</v>
       </c>
       <c r="AZ13" s="17">
         <v>4359</v>
@@ -4922,8 +4927,12 @@
         <v>2516320</v>
       </c>
       <c r="AE14" s="19">
-        <f t="shared" ref="AE14" si="33">+SUM(AE12:AE13)</f>
+        <f t="shared" ref="AE14:AF14" si="33">+SUM(AE12:AE13)</f>
         <v>2701848</v>
+      </c>
+      <c r="AF14" s="19">
+        <f t="shared" si="33"/>
+        <v>2973117</v>
       </c>
       <c r="AM14" s="19">
         <v>627695</v>
@@ -5126,6 +5135,9 @@
       <c r="AE15" s="17">
         <v>779076</v>
       </c>
+      <c r="AF15" s="17">
+        <v>873673</v>
+      </c>
       <c r="AS15" s="17">
         <v>738720</v>
       </c>
@@ -5304,6 +5316,9 @@
       <c r="AE16" s="17">
         <v>659450</v>
       </c>
+      <c r="AF16" s="17">
+        <v>716627</v>
+      </c>
       <c r="AS16" s="17">
         <v>543119</v>
       </c>
@@ -5482,6 +5497,9 @@
       <c r="AE17" s="17">
         <v>135699</v>
       </c>
+      <c r="AF17" s="17">
+        <v>138663</v>
+      </c>
       <c r="AS17" s="17">
         <v>147274</v>
       </c>
@@ -5660,6 +5678,9 @@
       <c r="AE18" s="17">
         <v>385773</v>
       </c>
+      <c r="AF18" s="17">
+        <v>384754</v>
+      </c>
       <c r="AS18" s="17">
         <v>251208</v>
       </c>
@@ -5838,6 +5859,9 @@
       <c r="AE19" s="17">
         <v>204625</v>
       </c>
+      <c r="AF19" s="17">
+        <v>175028</v>
+      </c>
       <c r="AS19" s="17">
         <v>149426</v>
       </c>
@@ -6016,6 +6040,9 @@
       <c r="AE20" s="17">
         <v>83243</v>
       </c>
+      <c r="AF20" s="17">
+        <v>83562</v>
+      </c>
       <c r="AS20" s="17">
         <v>74938</v>
       </c>
@@ -6193,6 +6220,9 @@
       <c r="AE21" s="17">
         <v>7211</v>
       </c>
+      <c r="AF21" s="17">
+        <v>8995</v>
+      </c>
       <c r="AS21" s="17">
         <v>8495</v>
       </c>
@@ -6400,6 +6430,10 @@
         <f>+AE14-SUM(AE15:AE22)</f>
         <v>446771</v>
       </c>
+      <c r="AF23" s="17">
+        <f>+AF14-SUM(AF15:AF22)</f>
+        <v>591815</v>
+      </c>
       <c r="AS23" s="17">
         <f t="shared" ref="AS23:BB23" si="57">+AS14-SUM(AS15:AS22)</f>
         <v>356368</v>
@@ -6590,6 +6624,9 @@
       <c r="AE24" s="17">
         <v>19364</v>
       </c>
+      <c r="AF24" s="17">
+        <v>21861</v>
+      </c>
       <c r="AS24" s="17">
         <v>-857</v>
       </c>
@@ -6791,6 +6828,10 @@
         <f>+AE23+AE24</f>
         <v>466135</v>
       </c>
+      <c r="AF25" s="17">
+        <f>+AF23+AF24</f>
+        <v>613676</v>
+      </c>
       <c r="AS25" s="17">
         <f t="shared" ref="AS25:BD25" si="63">+AS23+AS24</f>
         <v>355511</v>
@@ -6980,6 +7021,9 @@
       </c>
       <c r="AE26" s="17">
         <v>101369</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>152243</v>
       </c>
       <c r="AS26" s="17">
         <v>-134760</v>
@@ -7183,6 +7227,10 @@
         <f>+AE25-AE26</f>
         <v>364766</v>
       </c>
+      <c r="AF27" s="19">
+        <f>+AF25-AF26</f>
+        <v>461433</v>
+      </c>
       <c r="AS27" s="19">
         <f t="shared" ref="AS27:BB27" si="71">+AS25+AS26</f>
         <v>220751</v>
@@ -8182,6 +8230,10 @@
         <f>+AE27/AE29</f>
         <v>13.204677092383434</v>
       </c>
+      <c r="AF28" s="27">
+        <f>+AF27/AF29</f>
+        <v>0.33400433436263588</v>
+      </c>
       <c r="AS28" s="17">
         <v>6.76</v>
       </c>
@@ -8374,6 +8426,9 @@
       </c>
       <c r="AE29" s="17">
         <v>27624</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>1381518</v>
       </c>
       <c r="AS29" s="17">
         <f t="shared" ref="AS29:BB29" si="102">+AS27/AS28</f>
@@ -8523,7 +8578,7 @@
         <v>0.11575818356660927</v>
       </c>
       <c r="AA32" s="47">
-        <f t="shared" ref="AA32:AE39" si="107">+IFERROR(AA12/W12-1,0)</f>
+        <f t="shared" ref="AA32:AF39" si="107">+IFERROR(AA12/W12-1,0)</f>
         <v>0.17611843382245529</v>
       </c>
       <c r="AB32" s="47">
@@ -8542,11 +8597,15 @@
         <f t="shared" si="107"/>
         <v>0.14182761529198751</v>
       </c>
+      <c r="AF32" s="47">
+        <f t="shared" si="107"/>
+        <v>0.18314408476606081</v>
+      </c>
       <c r="BD32" s="47"/>
-      <c r="BR32" s="66" t="s">
+      <c r="BR32" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="BS32" s="67">
+      <c r="BS32" s="64">
         <v>0.01</v>
       </c>
     </row>
@@ -8618,11 +8677,15 @@
         <f t="shared" si="107"/>
         <v>-9.6750327243754208E-3</v>
       </c>
+      <c r="AF33" s="47">
+        <f t="shared" si="107"/>
+        <v>5.2741151977793166E-2</v>
+      </c>
       <c r="BD33" s="47"/>
-      <c r="BR33" s="68" t="s">
+      <c r="BR33" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="BS33" s="69">
+      <c r="BS33" s="66">
         <v>0.01</v>
       </c>
     </row>
@@ -8731,6 +8794,10 @@
         <f t="shared" si="107"/>
         <v>0.14070371277305393</v>
       </c>
+      <c r="AF34" s="46">
+        <f t="shared" si="107"/>
+        <v>0.18224742236065605</v>
+      </c>
       <c r="AU34" s="46">
         <f t="shared" ref="AU34:BD34" si="109">+AU14/AT14-1</f>
         <v>0.17697816070743366</v>
@@ -8815,11 +8882,11 @@
         <f t="shared" si="110"/>
         <v>0.1118168486231057</v>
       </c>
-      <c r="BR34" s="68" t="s">
+      <c r="BR34" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="BS34" s="70">
-        <v>7.4999999999999997E-2</v>
+      <c r="BS34" s="67">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -8926,13 +8993,17 @@
         <f t="shared" si="107"/>
         <v>0.12492365271406469</v>
       </c>
+      <c r="AF35" s="47">
+        <f t="shared" si="107"/>
+        <v>0.18277457680352627</v>
+      </c>
       <c r="BD35" s="47"/>
-      <c r="BR35" s="71" t="s">
+      <c r="BR35" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="BS35" s="72">
+      <c r="BS35" s="69">
         <f>NPV(BS34,BF27:JG27)</f>
-        <v>83392094.631715298</v>
+        <v>91579648.087382197</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -9039,13 +9110,17 @@
         <f t="shared" si="107"/>
         <v>0.12959365803691036</v>
       </c>
+      <c r="AF36" s="47">
+        <f t="shared" si="107"/>
+        <v>0.17157556753716818</v>
+      </c>
       <c r="BD36" s="47"/>
-      <c r="BR36" s="73" t="s">
+      <c r="BR36" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="BS36" s="74">
+      <c r="BS36" s="71">
         <f>Main!G7</f>
-        <v>727394</v>
+        <v>1806836</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -9152,13 +9227,17 @@
         <f t="shared" si="107"/>
         <v>0.11291632152610909</v>
       </c>
+      <c r="AF37" s="47">
+        <f t="shared" si="107"/>
+        <v>0.11917964115353885</v>
+      </c>
       <c r="BD37" s="47"/>
-      <c r="BR37" s="68" t="s">
+      <c r="BR37" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="BS37" s="75">
+      <c r="BS37" s="72">
         <f>+BS35+BS36</f>
-        <v>84119488.631715298</v>
+        <v>93386484.087382197</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -9265,13 +9344,17 @@
         <f t="shared" si="107"/>
         <v>6.2132784150041642E-2</v>
       </c>
+      <c r="AF38" s="47">
+        <f t="shared" si="107"/>
+        <v>0.10021818265004701</v>
+      </c>
       <c r="BD38" s="47"/>
-      <c r="BR38" s="68" t="s">
+      <c r="BR38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="BS38" s="75">
+      <c r="BS38" s="72">
         <f>+Main!G5</f>
-        <v>27467</v>
+        <v>1369476</v>
       </c>
     </row>
     <row r="39" spans="1:71">
@@ -9378,15 +9461,19 @@
         <f t="shared" si="107"/>
         <v>0.37943238506134547</v>
       </c>
+      <c r="AF39" s="47">
+        <f t="shared" si="107"/>
+        <v>0.11841836213066159</v>
+      </c>
       <c r="BD39" s="47"/>
       <c r="BE39" s="47"/>
       <c r="BF39" s="47"/>
-      <c r="BR39" s="68" t="s">
+      <c r="BR39" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="BS39" s="75">
+      <c r="BS39" s="72">
         <f>+BS37/BS38</f>
-        <v>3062.5655743880038</v>
+        <v>68.191398817783011</v>
       </c>
     </row>
     <row r="40" spans="1:71" s="47" customFormat="1">
@@ -9508,6 +9595,10 @@
         <f>+AE23/AE14</f>
         <v>0.16535756267562055</v>
       </c>
+      <c r="AF40" s="47">
+        <f>+AF23/AF14</f>
+        <v>0.19905540212510978</v>
+      </c>
       <c r="AS40" s="47">
         <f t="shared" ref="AS40:AW40" si="112">+AS23/AS14</f>
         <v>0.15702157433991262</v>
@@ -9600,12 +9691,12 @@
         <f>+BO23/BO14</f>
         <v>0.16169365422129583</v>
       </c>
-      <c r="BR40" s="76" t="s">
+      <c r="BR40" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="BS40" s="77">
+      <c r="BS40" s="72">
         <f>+Main!G4</f>
-        <v>3151.63</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="41" spans="1:71">
@@ -9674,12 +9765,12 @@
       <c r="BL41" s="23"/>
       <c r="BM41" s="23"/>
       <c r="BN41" s="23"/>
-      <c r="BR41" s="78" t="s">
+      <c r="BR41" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="BS41" s="79">
+      <c r="BS41" s="75">
         <f>+BS39/BS40-1</f>
-        <v>-2.8259797505416628E-2</v>
+        <v>0.22756793551364551</v>
       </c>
     </row>
     <row r="42" spans="1:71" s="26" customFormat="1">
@@ -9734,7 +9825,7 @@
       </c>
       <c r="X44" s="33">
         <f>+BS40</f>
-        <v>3151.63</v>
+        <v>55.55</v>
       </c>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
@@ -9775,9 +9866,9 @@
       <c r="BR44" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="BS44" s="85">
+      <c r="BS44" s="81">
         <f>+Main!$G$9/Model!BE27</f>
-        <v>67.743629551411217</v>
+        <v>58.611905545466954</v>
       </c>
     </row>
     <row r="45" spans="1:71" s="24" customFormat="1">
@@ -9815,7 +9906,7 @@
       </c>
       <c r="X45" s="33">
         <f>+Main!G6/1000</f>
-        <v>86565.821210000009</v>
+        <v>76074.391799999998</v>
       </c>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
@@ -9856,9 +9947,9 @@
       <c r="BR45" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="BS45" s="85">
+      <c r="BS45" s="81">
         <f>+Main!$G$9/Model!BF27</f>
-        <v>36.590049159184296</v>
+        <v>31.657773866316656</v>
       </c>
     </row>
     <row r="46" spans="1:71" s="24" customFormat="1">
@@ -9896,7 +9987,7 @@
       </c>
       <c r="X46" s="33">
         <f>+Main!G9/1000</f>
-        <v>85838.427210000009</v>
+        <v>74267.555800000002</v>
       </c>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
@@ -9937,9 +10028,9 @@
       <c r="BR46" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="BS46" s="85">
+      <c r="BS46" s="81">
         <f>+Main!$G$9/Model!BG27</f>
-        <v>31.653311537686115</v>
+        <v>27.386499931187252</v>
       </c>
     </row>
     <row r="47" spans="1:71" s="26" customFormat="1">
@@ -10105,48 +10196,52 @@
         <f t="shared" si="119"/>
         <v>2222821</v>
       </c>
+      <c r="AF50" s="17">
+        <f t="shared" ref="AF50" si="120">+AF51+AF59+AF60+AF56</f>
+        <v>2490123</v>
+      </c>
       <c r="BE50" s="17">
         <f>+AE50</f>
         <v>2222821</v>
       </c>
       <c r="BF50" s="17">
-        <f t="shared" ref="BF50:BO50" si="120">+BE50+BF27</f>
+        <f t="shared" ref="BF50:BO50" si="121">+BE50+BF27</f>
         <v>4568771.0378521383</v>
       </c>
       <c r="BG50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7280601.9029356111</v>
       </c>
       <c r="BH50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>10394937.723508351</v>
       </c>
       <c r="BI50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>13951495.016740199</v>
       </c>
       <c r="BJ50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>17993322.113293312</v>
       </c>
       <c r="BK50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>22567056.182580225</v>
       </c>
       <c r="BL50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>27723199.108881813</v>
       </c>
       <c r="BM50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>33516413.555167086</v>
       </c>
       <c r="BN50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>40005840.644015081</v>
       </c>
       <c r="BO50" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>47255440.783891782</v>
       </c>
     </row>
@@ -10241,6 +10336,9 @@
       <c r="AE51" s="17">
         <v>727394</v>
       </c>
+      <c r="AF51" s="17">
+        <v>806528</v>
+      </c>
     </row>
     <row r="52" spans="2:67">
       <c r="B52" s="4" t="s">
@@ -10333,6 +10431,9 @@
       <c r="AE52" s="17">
         <v>89836</v>
       </c>
+      <c r="AF52" s="17">
+        <v>97542</v>
+      </c>
     </row>
     <row r="53" spans="2:67">
       <c r="B53" s="4" t="s">
@@ -10425,6 +10526,9 @@
       <c r="AE53" s="17">
         <v>37947</v>
       </c>
+      <c r="AF53" s="17">
+        <v>35560</v>
+      </c>
     </row>
     <row r="54" spans="2:67">
       <c r="B54" s="4" t="s">
@@ -10517,6 +10621,9 @@
       <c r="AE54" s="17">
         <v>98118</v>
       </c>
+      <c r="AF54" s="17">
+        <v>91852</v>
+      </c>
     </row>
     <row r="55" spans="2:67">
       <c r="B55" s="4" t="s">
@@ -10609,6 +10716,9 @@
       <c r="AE55" s="17">
         <v>0</v>
       </c>
+      <c r="AF55" s="17">
+        <v>71529</v>
+      </c>
     </row>
     <row r="56" spans="2:67">
       <c r="B56" s="4" t="s">
@@ -10701,126 +10811,133 @@
       <c r="AE56" s="17">
         <v>692474</v>
       </c>
+      <c r="AF56" s="17">
+        <v>683287</v>
+      </c>
     </row>
     <row r="57" spans="2:67">
       <c r="B57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="17">
-        <f t="shared" ref="C57:N57" si="121">+SUM(C51:C56)</f>
+        <f t="shared" ref="C57:N57" si="122">+SUM(C51:C56)</f>
         <v>664234</v>
       </c>
       <c r="D57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>663965</v>
       </c>
       <c r="E57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>655936</v>
       </c>
       <c r="F57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>629535</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>630439</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>720674</v>
       </c>
       <c r="I57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>793071</v>
       </c>
       <c r="J57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>814794</v>
       </c>
       <c r="K57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>837746</v>
       </c>
       <c r="L57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>832402</v>
       </c>
       <c r="M57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>954756</v>
       </c>
       <c r="N57" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>1072204</v>
       </c>
       <c r="O57" s="17">
-        <f t="shared" ref="O57:W57" si="122">+SUM(O51:O56)</f>
+        <f t="shared" ref="O57:W57" si="123">+SUM(O51:O56)</f>
         <v>1075501</v>
       </c>
       <c r="P57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1150343</v>
       </c>
       <c r="Q57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1211280</v>
       </c>
       <c r="R57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1420237</v>
       </c>
       <c r="S57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1456851</v>
       </c>
       <c r="T57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1447810</v>
       </c>
       <c r="U57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1518606</v>
       </c>
       <c r="V57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1381564</v>
       </c>
       <c r="W57" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>1096493</v>
       </c>
       <c r="X57" s="17">
-        <f t="shared" ref="X57:Z57" si="123">+SUM(X51:X56)</f>
+        <f t="shared" ref="X57:Z57" si="124">+SUM(X51:X56)</f>
         <v>1046299</v>
       </c>
       <c r="Y57" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1077432</v>
       </c>
       <c r="Z57" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1175837</v>
       </c>
       <c r="AA57" s="17">
-        <f t="shared" ref="AA57:AB57" si="124">+SUM(AA51:AA56)</f>
+        <f t="shared" ref="AA57:AB57" si="125">+SUM(AA51:AA56)</f>
         <v>1261442</v>
       </c>
       <c r="AB57" s="17">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1556419</v>
       </c>
       <c r="AC57" s="17">
-        <f t="shared" ref="AC57:AE57" si="125">+SUM(AC51:AC56)</f>
+        <f t="shared" ref="AC57:AE57" si="126">+SUM(AC51:AC56)</f>
         <v>1669343</v>
       </c>
       <c r="AD57" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>1620713</v>
       </c>
       <c r="AE57" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>1645769</v>
+      </c>
+      <c r="AF57" s="17">
+        <f t="shared" ref="AF57" si="127">+SUM(AF51:AF56)</f>
+        <v>1786298</v>
       </c>
       <c r="BN57" s="33"/>
     </row>
@@ -10915,6 +11032,9 @@
       <c r="AE58" s="17">
         <v>2202739</v>
       </c>
+      <c r="AF58" s="17">
+        <v>2265694</v>
+      </c>
     </row>
     <row r="59" spans="2:67">
       <c r="B59" s="4" t="s">
@@ -11007,6 +11127,9 @@
       <c r="AE59" s="17">
         <v>776815</v>
       </c>
+      <c r="AF59" s="17">
+        <v>972644</v>
+      </c>
     </row>
     <row r="60" spans="2:67">
       <c r="B60" s="4" t="s">
@@ -11099,6 +11222,9 @@
       <c r="AE60" s="17">
         <v>26138</v>
       </c>
+      <c r="AF60" s="17">
+        <v>27664</v>
+      </c>
     </row>
     <row r="61" spans="2:67">
       <c r="B61" s="4" t="s">
@@ -11223,6 +11349,9 @@
       <c r="AE62" s="17">
         <v>3670983</v>
       </c>
+      <c r="AF62" s="17">
+        <v>3770997</v>
+      </c>
     </row>
     <row r="63" spans="2:67">
       <c r="B63" s="4" t="s">
@@ -11315,6 +11444,9 @@
       <c r="AE63" s="17">
         <v>66866</v>
       </c>
+      <c r="AF63" s="17">
+        <v>74599</v>
+      </c>
     </row>
     <row r="64" spans="2:67">
       <c r="B64" s="4" t="s">
@@ -11407,129 +11539,136 @@
       <c r="AE64" s="17">
         <v>21939</v>
       </c>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64" s="17">
+        <v>21939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32">
       <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="17">
-        <f t="shared" ref="C65:D65" si="126">+SUM(C57:C64)</f>
+        <f t="shared" ref="C65:D65" si="128">+SUM(C57:C64)</f>
         <v>2062532</v>
       </c>
       <c r="D65" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2068551</v>
       </c>
       <c r="E65" s="17">
-        <f t="shared" ref="E65:F65" si="127">+SUM(E57:E64)</f>
+        <f t="shared" ref="E65:F65" si="129">+SUM(E57:E64)</f>
         <v>2064377</v>
       </c>
       <c r="F65" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>2045692</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" ref="G65:M65" si="128">+SUM(G57:G64)</f>
+        <f t="shared" ref="G65:M65" si="130">+SUM(G57:G64)</f>
         <v>2097444</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2128622</v>
       </c>
       <c r="I65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2230872</v>
       </c>
       <c r="J65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2265518</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>4625482</v>
       </c>
       <c r="L65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>4659307</v>
       </c>
       <c r="M65" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>4937937</v>
       </c>
       <c r="N65" s="17">
-        <f t="shared" ref="N65:V65" si="129">+SUM(N57:N64)</f>
+        <f t="shared" ref="N65:V65" si="131">+SUM(N57:N64)</f>
         <v>5104604</v>
       </c>
       <c r="O65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5206488</v>
       </c>
       <c r="P65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5370129</v>
       </c>
       <c r="Q65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5631640</v>
       </c>
       <c r="R65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5962896</v>
       </c>
       <c r="S65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>6149059</v>
       </c>
       <c r="T65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>6320454</v>
       </c>
       <c r="U65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>6627567</v>
       </c>
       <c r="V65" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>6652958</v>
       </c>
       <c r="W65" s="17">
-        <f t="shared" ref="W65:AE65" si="130">+SUM(W57:W64)</f>
+        <f t="shared" ref="W65:AE65" si="132">+SUM(W57:W64)</f>
         <v>6467257</v>
       </c>
       <c r="X65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>6545336</v>
       </c>
       <c r="Y65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>6817437</v>
       </c>
       <c r="Z65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>6927504</v>
       </c>
       <c r="AA65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>7053372</v>
       </c>
       <c r="AB65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>7552435</v>
       </c>
       <c r="AC65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>7911493</v>
       </c>
       <c r="AD65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>8044362</v>
       </c>
       <c r="AE65" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>8411249</v>
       </c>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF65" s="17">
+        <f t="shared" ref="AF65" si="133">+SUM(AF57:AF64)</f>
+        <v>8919835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32">
       <c r="B67" s="4" t="s">
         <v>68</v>
       </c>
@@ -11620,8 +11759,11 @@
       <c r="AE67" s="17">
         <v>196866</v>
       </c>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67" s="17">
+        <v>203480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32">
       <c r="B68" s="4" t="s">
         <v>69</v>
       </c>
@@ -11712,8 +11854,11 @@
       <c r="AE68" s="17">
         <v>142425</v>
       </c>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68" s="17">
+        <v>223410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32">
       <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
@@ -11804,8 +11949,11 @@
       <c r="AE69" s="17">
         <v>171612</v>
       </c>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69" s="17">
+        <v>169631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32">
       <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
@@ -11896,8 +12044,11 @@
       <c r="AE70" s="17">
         <v>187317</v>
       </c>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70" s="17">
+        <v>182331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32">
       <c r="B71" s="4" t="s">
         <v>72</v>
       </c>
@@ -11988,8 +12139,11 @@
       <c r="AE71" s="17">
         <v>254144</v>
       </c>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" s="17">
+        <v>264304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32">
       <c r="B72" s="4" t="s">
         <v>145</v>
       </c>
@@ -12029,8 +12183,11 @@
       <c r="AE72" s="17">
         <v>44989</v>
       </c>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AF72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32">
       <c r="B73" s="4" t="s">
         <v>73</v>
       </c>
@@ -12043,115 +12200,119 @@
         <v>267785</v>
       </c>
       <c r="E73" s="17">
-        <f t="shared" ref="E73:W73" si="131">+SUM(E67:E72)</f>
+        <f t="shared" ref="E73:W73" si="134">+SUM(E67:E72)</f>
         <v>323402</v>
       </c>
       <c r="F73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>323893</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>367320</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>355161</v>
       </c>
       <c r="I73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>402786</v>
       </c>
       <c r="J73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>449990</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>581667</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>548268</v>
       </c>
       <c r="M73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>634019</v>
       </c>
       <c r="N73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>666593</v>
       </c>
       <c r="O73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>665795</v>
       </c>
       <c r="P73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>723178</v>
       </c>
       <c r="Q73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>801717</v>
       </c>
       <c r="R73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>822199</v>
       </c>
       <c r="S73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>833994</v>
       </c>
       <c r="T73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>835486</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>850964</v>
       </c>
       <c r="V73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>873682</v>
       </c>
       <c r="W73" s="17">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>833738</v>
       </c>
       <c r="X73" s="17">
-        <f t="shared" ref="X73:Z73" si="132">+SUM(X67:X72)</f>
+        <f t="shared" ref="X73:Z73" si="135">+SUM(X67:X72)</f>
         <v>831623</v>
       </c>
       <c r="Y73" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>817857</v>
       </c>
       <c r="Z73" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>921880</v>
       </c>
       <c r="AA73" s="17">
-        <f t="shared" ref="AA73:AB73" si="133">+SUM(AA67:AA72)</f>
+        <f t="shared" ref="AA73:AB73" si="136">+SUM(AA67:AA72)</f>
         <v>894092</v>
       </c>
       <c r="AB73" s="17">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>982250</v>
       </c>
       <c r="AC73" s="17">
-        <f t="shared" ref="AC73:AE73" si="134">+SUM(AC67:AC72)</f>
+        <f t="shared" ref="AC73:AE73" si="137">+SUM(AC67:AC72)</f>
         <v>1087707</v>
       </c>
       <c r="AD73" s="17">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>1030625</v>
       </c>
       <c r="AE73" s="17">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>997353</v>
       </c>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AF73" s="17">
+        <f t="shared" ref="AF73" si="138">+SUM(AF67:AF72)</f>
+        <v>1043156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32">
       <c r="B74" s="4" t="s">
         <v>143</v>
       </c>
@@ -12189,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="B75" s="4" t="s">
         <v>74</v>
       </c>
@@ -12280,8 +12441,11 @@
       <c r="AE75" s="17">
         <v>3903353</v>
       </c>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AF75" s="17">
+        <v>4014454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32">
       <c r="B76" s="4" t="s">
         <v>75</v>
       </c>
@@ -12372,8 +12536,11 @@
       <c r="AE76" s="17">
         <v>84229</v>
       </c>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AF76" s="17">
+        <v>83298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32">
       <c r="B77" s="4" t="s">
         <v>76</v>
       </c>
@@ -12464,129 +12631,136 @@
       <c r="AE77" s="17">
         <v>64985</v>
       </c>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AF77" s="17">
+        <v>67107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32">
       <c r="B78" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="17">
-        <f t="shared" ref="C78:D78" si="135">+SUM(C73:C77)</f>
+        <f t="shared" ref="C78:D78" si="139">+SUM(C73:C77)</f>
         <v>654540</v>
       </c>
       <c r="D78" s="17">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>618355</v>
       </c>
       <c r="E78" s="17">
-        <f t="shared" ref="E78:F78" si="136">+SUM(E73:E77)</f>
+        <f t="shared" ref="E78:F78" si="140">+SUM(E73:E77)</f>
         <v>677251</v>
       </c>
       <c r="F78" s="17">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>681247</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" ref="G78:H78" si="137">+SUM(G73:G77)</f>
+        <f t="shared" ref="G78:H78" si="141">+SUM(G73:G77)</f>
         <v>733399</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>736615</v>
       </c>
       <c r="I78" s="17">
-        <f t="shared" ref="I78:K78" si="138">+SUM(I73:I77)</f>
+        <f t="shared" ref="I78:K78" si="142">+SUM(I73:I77)</f>
         <v>795035</v>
       </c>
       <c r="J78" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>824179</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>3141683</v>
       </c>
       <c r="L78" s="17">
-        <f t="shared" ref="L78:M78" si="139">+SUM(L73:L77)</f>
+        <f t="shared" ref="L78:M78" si="143">+SUM(L73:L77)</f>
         <v>3121258</v>
       </c>
       <c r="M78" s="17">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>3315490</v>
       </c>
       <c r="N78" s="17">
-        <f t="shared" ref="N78:U78" si="140">+SUM(N73:N77)</f>
+        <f t="shared" ref="N78:U78" si="144">+SUM(N73:N77)</f>
         <v>3421578</v>
       </c>
       <c r="O78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3534468</v>
       </c>
       <c r="P78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3665633</v>
       </c>
       <c r="Q78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3826054</v>
       </c>
       <c r="R78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3962761</v>
       </c>
       <c r="S78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>4051518</v>
       </c>
       <c r="T78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>4146296</v>
       </c>
       <c r="U78" s="17">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>4316659</v>
       </c>
       <c r="V78" s="17">
-        <f t="shared" ref="V78:W78" si="141">+SUM(V73:V77)</f>
+        <f t="shared" ref="V78:W78" si="145">+SUM(V73:V77)</f>
         <v>4355584</v>
       </c>
       <c r="W78" s="17">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>4333297</v>
       </c>
       <c r="X78" s="17">
-        <f t="shared" ref="X78:Z78" si="142">+SUM(X73:X77)</f>
+        <f t="shared" ref="X78:Z78" si="146">+SUM(X73:X77)</f>
         <v>4391137</v>
       </c>
       <c r="Y78" s="17">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>4490056</v>
       </c>
       <c r="Z78" s="17">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>4559481</v>
       </c>
       <c r="AA78" s="17">
-        <f t="shared" ref="AA78:AB78" si="143">+SUM(AA73:AA77)</f>
+        <f t="shared" ref="AA78:AB78" si="147">+SUM(AA73:AA77)</f>
         <v>4571687</v>
       </c>
       <c r="AB78" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>4785549</v>
       </c>
       <c r="AC78" s="17">
-        <f t="shared" ref="AC78:AE78" si="144">+SUM(AC73:AC77)</f>
+        <f t="shared" ref="AC78:AE78" si="148">+SUM(AC73:AC77)</f>
         <v>5025179</v>
       </c>
       <c r="AD78" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>4982155</v>
       </c>
       <c r="AE78" s="17">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>5049920</v>
       </c>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AF78" s="17">
+        <f t="shared" ref="AF78" si="149">+SUM(AF73:AF77)</f>
+        <v>5208015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32">
       <c r="B79" s="4" t="s">
         <v>78</v>
       </c>
@@ -12677,144 +12851,151 @@
       <c r="AE79" s="17">
         <v>3361329</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" s="19" customFormat="1">
+      <c r="AF79" s="17">
+        <v>3711820</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="19" customFormat="1">
       <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C80" s="19">
-        <f t="shared" ref="C80:I80" si="145">+C78+C79</f>
+        <f t="shared" ref="C80:I80" si="150">+C78+C79</f>
         <v>2062262</v>
       </c>
       <c r="D80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2068551</v>
       </c>
       <c r="E80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2064377</v>
       </c>
       <c r="F80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2045692</v>
       </c>
       <c r="G80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2097444</v>
       </c>
       <c r="H80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2128622</v>
       </c>
       <c r="I80" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2230872</v>
       </c>
       <c r="J80" s="19">
-        <f t="shared" ref="J80:K80" si="146">+J78+J79</f>
+        <f t="shared" ref="J80:K80" si="151">+J78+J79</f>
         <v>2265518</v>
       </c>
       <c r="K80" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>4625482</v>
       </c>
       <c r="L80" s="19">
-        <f t="shared" ref="L80:M80" si="147">+L78+L79</f>
+        <f t="shared" ref="L80:M80" si="152">+L78+L79</f>
         <v>4659307</v>
       </c>
       <c r="M80" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>4937937</v>
       </c>
       <c r="N80" s="19">
-        <f t="shared" ref="N80:U80" si="148">+N78+N79</f>
+        <f t="shared" ref="N80:U80" si="153">+N78+N79</f>
         <v>5104604</v>
       </c>
       <c r="O80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>5206488</v>
       </c>
       <c r="P80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>5370129</v>
       </c>
       <c r="Q80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>5631640</v>
       </c>
       <c r="R80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>5982896</v>
       </c>
       <c r="S80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>6149049</v>
       </c>
       <c r="T80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>6320454</v>
       </c>
       <c r="U80" s="19">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>6627567</v>
       </c>
       <c r="V80" s="19">
-        <f t="shared" ref="V80:W80" si="149">+V78+V79</f>
+        <f t="shared" ref="V80:W80" si="154">+V78+V79</f>
         <v>6652958</v>
       </c>
       <c r="W80" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>6467257</v>
       </c>
       <c r="X80" s="19">
-        <f t="shared" ref="X80:Z80" si="150">+X78+X79</f>
+        <f t="shared" ref="X80:Z80" si="155">+X78+X79</f>
         <v>6545336</v>
       </c>
       <c r="Y80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>6817437</v>
       </c>
       <c r="Z80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>6927504</v>
       </c>
       <c r="AA80" s="19">
-        <f t="shared" ref="AA80:AB80" si="151">+AA78+AA79</f>
+        <f t="shared" ref="AA80:AB80" si="156">+AA78+AA79</f>
         <v>7053372</v>
       </c>
       <c r="AB80" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>7552435</v>
       </c>
       <c r="AC80" s="19">
-        <f t="shared" ref="AC80:AE80" si="152">+AC78+AC79</f>
+        <f t="shared" ref="AC80:AE80" si="157">+AC78+AC79</f>
         <v>7911493</v>
       </c>
       <c r="AD80" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>8044362</v>
       </c>
       <c r="AE80" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>8411249</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" s="47" customFormat="1">
+      <c r="AF80" s="19">
+        <f t="shared" ref="AF80" si="158">+AF78+AF79</f>
+        <v>8919835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" s="47" customFormat="1">
       <c r="A82" s="30"/>
       <c r="B82" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F82" s="47">
-        <f t="shared" ref="F82:H82" si="153">SUM(C27:F27)/F79</f>
+        <f t="shared" ref="F82:H82" si="159">SUM(C27:F27)/F79</f>
         <v>0.28478832052592812</v>
       </c>
       <c r="G82" s="47">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0.29552764021714828</v>
       </c>
       <c r="H82" s="47">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0.30816870892172238</v>
       </c>
       <c r="I82" s="47">
@@ -12826,118 +13007,122 @@
         <v>0.16872644117726643</v>
       </c>
       <c r="K82" s="47">
-        <f t="shared" ref="K82:S82" si="154">SUM(H27:K27)/K79</f>
+        <f t="shared" ref="K82:S82" si="160">SUM(H27:K27)/K79</f>
         <v>0.18463484609438341</v>
       </c>
       <c r="L82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.18027384043031139</v>
       </c>
       <c r="M82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.20778552396472735</v>
       </c>
       <c r="N82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.22204172722227702</v>
       </c>
       <c r="O82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.2179112690039593</v>
       </c>
       <c r="P82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.16567830021308352</v>
       </c>
       <c r="Q82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.14738926863633192</v>
       </c>
       <c r="R82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.19109762466369823</v>
       </c>
       <c r="S82" s="47">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0.20647513672026779</v>
       </c>
       <c r="T82" s="47">
-        <f t="shared" ref="T82" si="155">SUM(Q27:T27)/T79</f>
+        <f t="shared" ref="T82" si="161">SUM(Q27:T27)/T79</f>
         <v>0.28138111397607718</v>
       </c>
       <c r="U82" s="47">
-        <f t="shared" ref="U82" si="156">SUM(R27:U27)/U79</f>
+        <f t="shared" ref="U82" si="162">SUM(R27:U27)/U79</f>
         <v>0.31702863117008551</v>
       </c>
       <c r="V82" s="47">
-        <f t="shared" ref="V82:Y82" si="157">SUM(S27:V27)/V79</f>
+        <f t="shared" ref="V82:Y82" si="163">SUM(S27:V27)/V79</f>
         <v>0.29262758262259431</v>
       </c>
       <c r="W82" s="47">
-        <f t="shared" si="157"/>
+        <f t="shared" si="163"/>
         <v>0.32901741363474479</v>
       </c>
       <c r="X82" s="47">
-        <f t="shared" si="157"/>
+        <f t="shared" si="163"/>
         <v>0.35952713746501602</v>
       </c>
       <c r="Y82" s="47">
-        <f t="shared" si="157"/>
+        <f t="shared" si="163"/>
         <v>0.35615225869765199</v>
       </c>
       <c r="Z82" s="47">
-        <f t="shared" ref="Z82" si="158">SUM(W27:Z27)/Z79</f>
+        <f t="shared" ref="Z82" si="164">SUM(W27:Z27)/Z79</f>
         <v>0.38861109034836233</v>
       </c>
       <c r="AA82" s="47">
-        <f t="shared" ref="AA82" si="159">SUM(X27:AA27)/AA79</f>
+        <f t="shared" ref="AA82" si="165">SUM(X27:AA27)/AA79</f>
         <v>0.42617858430864514</v>
       </c>
       <c r="AB82" s="47">
-        <f t="shared" ref="AB82" si="160">SUM(Y27:AB27)/AB79</f>
+        <f t="shared" ref="AB82" si="166">SUM(Y27:AB27)/AB79</f>
         <v>0.41600846583487716</v>
       </c>
       <c r="AC82" s="47">
-        <f t="shared" ref="AC82" si="161">SUM(Z27:AC27)/AC79</f>
+        <f t="shared" ref="AC82" si="167">SUM(Z27:AC27)/AC79</f>
         <v>0.41852861469680708</v>
       </c>
       <c r="AD82" s="47">
-        <f t="shared" ref="AD82:AE82" si="162">SUM(AA27:AD27)/AD79</f>
+        <f t="shared" ref="AD82:AF82" si="168">SUM(AA27:AD27)/AD79</f>
         <v>0.41378881310113913</v>
       </c>
       <c r="AE82" s="47">
-        <f t="shared" si="162"/>
+        <f t="shared" si="168"/>
         <v>0.39623256158501591</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" hidden="1" outlineLevel="1">
+      <c r="AF82" s="47">
+        <f t="shared" si="168"/>
+        <v>0.38667580863296175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B85" s="4" t="str">
         <f>+B67</f>
         <v>A/P</v>
       </c>
       <c r="L85" s="17">
-        <f t="shared" ref="L85:U89" si="163">+L67/K67-1</f>
+        <f t="shared" ref="L85:U89" si="169">+L67/K67-1</f>
         <v>-6.785357862428687E-2</v>
       </c>
       <c r="M85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.19671336370155657</v>
       </c>
       <c r="N85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-2.2509558333262958E-2</v>
       </c>
       <c r="O85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.12612247012502587</v>
       </c>
       <c r="P85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.23078751447214074</v>
       </c>
       <c r="Q85" s="17">
@@ -12945,19 +13130,19 @@
         <v>-1.9928608361418632E-2</v>
       </c>
       <c r="R85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.22459383183748194</v>
       </c>
       <c r="S85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.20843511763259293</v>
       </c>
       <c r="T85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-4.8610404498802717E-2</v>
       </c>
       <c r="U85" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.2243192561906866</v>
       </c>
       <c r="V85" s="17">
@@ -12969,265 +13154,265 @@
         <v>3.520449126935965E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B86" s="4" t="str">
-        <f t="shared" ref="B86:B89" si="164">+B68</f>
+        <f t="shared" ref="B86:B89" si="170">+B68</f>
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="L86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.17452731662892995</v>
       </c>
       <c r="M86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.4753643724696357</v>
       </c>
       <c r="N86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.13148470836820658</v>
       </c>
       <c r="O86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>4.4810426540284443E-2</v>
       </c>
       <c r="P86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-1.4870759716646642E-2</v>
       </c>
       <c r="Q86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.49553359016468934</v>
       </c>
       <c r="R86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>4.1959800284281812E-2</v>
       </c>
       <c r="S86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>9.1665271307139973E-2</v>
       </c>
       <c r="T86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>1.5505239841744567E-2</v>
       </c>
       <c r="U86" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.15189423555334425</v>
       </c>
       <c r="V86" s="17">
-        <f t="shared" ref="V86:W89" si="165">+V68/U68-1</f>
+        <f t="shared" ref="V86:W89" si="171">+V68/U68-1</f>
         <v>-0.14932010559839093</v>
       </c>
       <c r="W86" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>6.1876173763123044E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B87" s="4" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v xml:space="preserve">Accrued liabilities </v>
       </c>
       <c r="L87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>5.8975236410072407E-2</v>
       </c>
       <c r="M87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.11254817582105781</v>
       </c>
       <c r="N87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.10402453970345493</v>
       </c>
       <c r="O87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-5.5190159327014987E-2</v>
       </c>
       <c r="P87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-6.8798304831502177E-3</v>
       </c>
       <c r="Q87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>8.209725840975457E-2</v>
       </c>
       <c r="R87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>4.0541223757220246E-2</v>
       </c>
       <c r="S87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.1155306136083426</v>
       </c>
       <c r="T87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-1.4818680601811463E-2</v>
       </c>
       <c r="U87" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>6.8056513950748965E-2</v>
       </c>
       <c r="V87" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>0.12933898050680992</v>
       </c>
       <c r="W87" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>-0.21032406444305762</v>
       </c>
     </row>
-    <row r="88" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B88" s="4" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="L88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>8.2434136771300404E-2</v>
       </c>
       <c r="M88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.4274201378782223E-4</v>
       </c>
       <c r="N88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.54014787490494909</v>
       </c>
       <c r="O88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.18589211618257262</v>
       </c>
       <c r="P88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.14742125704847808</v>
       </c>
       <c r="Q88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.8597454005667711E-2</v>
       </c>
       <c r="R88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.39667858353285879</v>
       </c>
       <c r="S88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>-0.13740117416829745</v>
       </c>
       <c r="T88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.558145866039907E-2</v>
       </c>
       <c r="U88" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>6.5539392652367745E-2</v>
       </c>
       <c r="V88" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>0.29834832216437057</v>
       </c>
       <c r="W88" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>-0.1530530664978158</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B89" s="4" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>Current op lease liab</v>
       </c>
       <c r="L89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.2757111597374147E-2</v>
       </c>
       <c r="M89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>3.441176288193093E-2</v>
       </c>
       <c r="N89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>3.7991151185237548E-2</v>
       </c>
       <c r="O89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>3.0143410785553826E-2</v>
       </c>
       <c r="P89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0.10561903587167376</v>
       </c>
       <c r="Q89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>1.3281202458467645E-2</v>
       </c>
       <c r="R89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.4727873282786472E-2</v>
       </c>
       <c r="S89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.1147121451874362E-2</v>
       </c>
       <c r="T89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>2.1809207694441612E-2</v>
       </c>
       <c r="U89" s="17">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>4.8585042547018009E-3</v>
       </c>
       <c r="V89" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>1.8767118183003806E-2</v>
       </c>
       <c r="W89" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="171"/>
         <v>2.0986406843671812E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B90" s="4" t="str">
         <f>+B75</f>
         <v>Long Term Op Lease</v>
       </c>
       <c r="L90" s="17">
-        <f t="shared" ref="L90:U90" si="166">+L73/K73-1</f>
+        <f t="shared" ref="L90:U90" si="172">+L73/K73-1</f>
         <v>-5.7419451335557925E-2</v>
       </c>
       <c r="M90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>0.15640343773483045</v>
       </c>
       <c r="N90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>5.13770092063488E-2</v>
       </c>
       <c r="O90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>-1.1971322831172415E-3</v>
       </c>
       <c r="P90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>8.6187189750598803E-2</v>
       </c>
       <c r="Q90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>0.10860258470252138</v>
       </c>
       <c r="R90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>2.5547668316874939E-2</v>
       </c>
       <c r="S90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>1.4345675438671268E-2</v>
       </c>
       <c r="T90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>1.788981695312053E-3</v>
       </c>
       <c r="U90" s="17">
-        <f t="shared" si="166"/>
+        <f t="shared" si="172"/>
         <v>1.8525744297331226E-2</v>
       </c>
       <c r="V90" s="17">
@@ -13239,49 +13424,49 @@
         <v>-4.5719151819540782E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B91" s="4" t="str">
         <f>+B77</f>
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="L91" s="17">
-        <f t="shared" ref="L91:U91" si="167">+L75/K75-1</f>
+        <f t="shared" ref="L91:U91" si="173">+L75/K75-1</f>
         <v>8.3010428811636228E-3</v>
       </c>
       <c r="M91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>4.259480844211061E-2</v>
       </c>
       <c r="N91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>1.348488328577524E-2</v>
       </c>
       <c r="O91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>3.2259871100899229E-2</v>
       </c>
       <c r="P91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>1.605915556330384E-2</v>
       </c>
       <c r="Q91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>2.9176506437114336E-2</v>
       </c>
       <c r="R91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>2.1152901623580966E-2</v>
       </c>
       <c r="S91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>2.9766662963334189E-2</v>
       </c>
       <c r="T91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>3.1043926404260791E-2</v>
       </c>
       <c r="U91" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>4.4765524930971079E-2</v>
       </c>
       <c r="V91" s="17">
@@ -13293,147 +13478,147 @@
         <v>9.0010876541410934E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B92" s="4" t="str">
         <f>+B79</f>
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="L92" s="17">
-        <f t="shared" ref="L92:W92" si="168">+L77/K77-1</f>
+        <f t="shared" ref="L92:W92" si="174">+L77/K77-1</f>
         <v>6.7585673028254245E-3</v>
       </c>
       <c r="M92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>0.14550186313361335</v>
       </c>
       <c r="N92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>1.626478029638001E-3</v>
       </c>
       <c r="O92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>6.3664716344047356E-3</v>
       </c>
       <c r="P92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>-5.8113922753816216E-2</v>
       </c>
       <c r="Q92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>3.2658055744391623E-2</v>
       </c>
       <c r="R92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>2.2856540973246187E-2</v>
       </c>
       <c r="S92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>6.6290804242611578E-2</v>
       </c>
       <c r="T92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>3.2014292957338375E-2</v>
       </c>
       <c r="U92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>-7.4862557024213405E-3</v>
       </c>
       <c r="V92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>-9.1667648791985856E-2</v>
       </c>
       <c r="W92" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="174"/>
         <v>5.1250778492837767E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1" outlineLevel="1"/>
-    <row r="94" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:32" hidden="1" outlineLevel="1"/>
+    <row r="94" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B94" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B95" s="4" t="str">
         <f>+B76</f>
         <v>Deferred income taxes</v>
       </c>
       <c r="O95" s="17">
-        <f t="shared" ref="O95:W96" si="169">STDEV(L85:O85)</f>
+        <f t="shared" ref="O95:W96" si="175">STDEV(L85:O85)</f>
         <v>0.12410066422103937</v>
       </c>
       <c r="P95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.11232707822684207</v>
       </c>
       <c r="Q95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.12295046819827428</v>
       </c>
       <c r="R95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.1973588550528913</v>
       </c>
       <c r="S95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.21453093999651524</v>
       </c>
       <c r="T95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.17781477457944547</v>
       </c>
       <c r="U95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.21618327571176449</v>
       </c>
       <c r="V95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.15347145850187366</v>
       </c>
       <c r="W95" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.12898559188540487</v>
       </c>
     </row>
-    <row r="96" spans="1:31" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B96" s="4" t="str">
         <f>+B77</f>
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="O96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.29679445765339985</v>
       </c>
       <c r="P96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.26492351470193504</v>
       </c>
       <c r="Q96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.27462953059622208</v>
       </c>
       <c r="R96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.2373802919517124</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.23209223642893448</v>
       </c>
       <c r="T96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.22513641179066099</v>
       </c>
       <c r="U96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.10563065880929602</v>
       </c>
       <c r="V96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.12192625526121278</v>
       </c>
       <c r="W96" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>0.11092359413700548</v>
       </c>
     </row>
@@ -13443,39 +13628,39 @@
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="O97" s="17">
-        <f t="shared" ref="O97:W101" si="170">STDEV(L88:O88)</f>
+        <f t="shared" ref="O97:W101" si="176">STDEV(L88:O88)</f>
         <v>0.30842801376349016</v>
       </c>
       <c r="P97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.30825737664218072</v>
       </c>
       <c r="Q97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.30472320429330313</v>
       </c>
       <c r="R97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.24293761708698589</v>
       </c>
       <c r="S97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.22465762438944539</v>
       </c>
       <c r="T97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.22593619323754499</v>
       </c>
       <c r="U97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.22397028749477221</v>
       </c>
       <c r="V97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.17977398583468304</v>
       </c>
       <c r="W97" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>0.1856642503816143</v>
       </c>
     </row>
@@ -13485,39 +13670,39 @@
         <v>TL+E</v>
       </c>
       <c r="O98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>6.5516038370503687E-3</v>
       </c>
       <c r="P98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>3.5862229870672585E-2</v>
       </c>
       <c r="Q98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.0571828191773997E-2</v>
       </c>
       <c r="R98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.2042551892534606E-2</v>
       </c>
       <c r="S98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.3215430045700928E-2</v>
       </c>
       <c r="T98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.8939127032102663E-3</v>
       </c>
       <c r="U98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>8.987101746187923E-3</v>
       </c>
       <c r="V98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>7.965822938511646E-3</v>
       </c>
       <c r="W98" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>7.9358977775194958E-3</v>
       </c>
     </row>
@@ -13527,39 +13712,39 @@
         <v>QoQ Change</v>
       </c>
       <c r="O99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>9.0990099090172721E-2</v>
       </c>
       <c r="P99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>6.6087455063084971E-2</v>
       </c>
       <c r="Q99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.7823462714459017E-2</v>
       </c>
       <c r="R99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>5.1222555719250218E-2</v>
       </c>
       <c r="S99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.5870082291762093E-2</v>
       </c>
       <c r="T99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.8338442482296622E-2</v>
       </c>
       <c r="U99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>9.9771823309706895E-3</v>
       </c>
       <c r="V99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.038820212143949E-2</v>
       </c>
       <c r="W99" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>3.2398277211140282E-2</v>
       </c>
     </row>
@@ -13569,39 +13754,39 @@
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="O100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.6030332828902691E-2</v>
       </c>
       <c r="P100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.3783836474006222E-2</v>
       </c>
       <c r="Q100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>9.3514227877685725E-3</v>
       </c>
       <c r="R100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>7.4034027628463077E-3</v>
       </c>
       <c r="S100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>6.6133092154039104E-3</v>
       </c>
       <c r="T100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.4895659941568064E-3</v>
       </c>
       <c r="U100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>9.7658621544512523E-3</v>
       </c>
       <c r="V100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.5125079584447351E-2</v>
       </c>
       <c r="W100" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.7836055907021569E-2</v>
       </c>
     </row>
@@ -13611,39 +13796,39 @@
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="O101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>7.0331029995739439E-2</v>
       </c>
       <c r="P101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>8.6249287994458412E-2</v>
       </c>
       <c r="Q101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>3.8343689807407134E-2</v>
       </c>
       <c r="R101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>4.0837818268055215E-2</v>
       </c>
       <c r="S101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>5.2746303871153227E-2</v>
       </c>
       <c r="T101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>1.9089536328670661E-2</v>
       </c>
       <c r="U101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>3.037174139132745E-2</v>
       </c>
       <c r="V101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>6.8015212567306485E-2</v>
       </c>
       <c r="W101" s="17">
-        <f t="shared" si="170"/>
+        <f t="shared" si="176"/>
         <v>6.3370459351594438E-2</v>
       </c>
     </row>
@@ -13662,27 +13847,27 @@
         <v>1672020</v>
       </c>
       <c r="P103" s="19">
-        <f t="shared" ref="P103:U103" si="171">+P79</f>
+        <f t="shared" ref="P103:U103" si="177">+P79</f>
         <v>1704496</v>
       </c>
       <c r="Q103" s="19">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>1805586</v>
       </c>
       <c r="R103" s="19">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>2020135</v>
       </c>
       <c r="S103" s="19">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>2097531</v>
       </c>
       <c r="T103" s="19">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>2174158</v>
       </c>
       <c r="U103" s="19">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>2310908</v>
       </c>
       <c r="V103" s="19">
@@ -13891,23 +14076,23 @@
         <v>1805586</v>
       </c>
       <c r="Q110" s="19">
-        <f t="shared" ref="Q110:U110" si="172">+SUM(Q103:Q109)</f>
+        <f t="shared" ref="Q110:U110" si="178">+SUM(Q103:Q109)</f>
         <v>1805586</v>
       </c>
       <c r="R110" s="19">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>2097531</v>
       </c>
       <c r="S110" s="19">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>2174158</v>
       </c>
       <c r="T110" s="19">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>2310908</v>
       </c>
       <c r="U110" s="19">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>2310908</v>
       </c>
       <c r="V110" s="19">
@@ -13990,7 +14175,7 @@
         <v>60180</v>
       </c>
       <c r="R113" s="17">
-        <f t="shared" ref="R113:R145" si="173">+BB113-SUM(O113:Q113)</f>
+        <f t="shared" ref="R113:R145" si="179">+BB113-SUM(O113:Q113)</f>
         <v>59956</v>
       </c>
       <c r="S113" s="17">
@@ -14005,7 +14190,7 @@
         <v>63191</v>
       </c>
       <c r="V113" s="17">
-        <f t="shared" ref="V113:V145" si="174">+BC113-SUM(S113:U113)</f>
+        <f t="shared" ref="V113:V145" si="180">+BC113-SUM(S113:U113)</f>
         <v>66262</v>
       </c>
       <c r="W113" s="17">
@@ -14045,7 +14230,7 @@
         <v>-34282</v>
       </c>
       <c r="R114" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>54493</v>
       </c>
       <c r="S114" s="17">
@@ -14059,7 +14244,7 @@
         <v>-155778</v>
       </c>
       <c r="V114" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-11333</v>
       </c>
       <c r="W114" s="17">
@@ -14099,7 +14284,7 @@
         <v>-33924</v>
       </c>
       <c r="R115" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>7676</v>
       </c>
       <c r="S115" s="17">
@@ -14114,7 +14299,7 @@
         <v>28367</v>
       </c>
       <c r="V115" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>4603</v>
       </c>
       <c r="W115" s="17">
@@ -14154,7 +14339,7 @@
         <v>-13890</v>
       </c>
       <c r="R116" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>307</v>
       </c>
       <c r="S116" s="17">
@@ -14169,7 +14354,7 @@
         <v>-7502</v>
       </c>
       <c r="V116" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-240</v>
       </c>
       <c r="W116" s="17">
@@ -14209,7 +14394,7 @@
         <v>60497</v>
       </c>
       <c r="R117" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>22047</v>
       </c>
       <c r="S117" s="17">
@@ -14224,7 +14409,7 @@
         <v>138961</v>
       </c>
       <c r="V117" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>37651</v>
       </c>
       <c r="W117" s="17">
@@ -14264,7 +14449,7 @@
         <v>-38312</v>
       </c>
       <c r="R118" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>1193</v>
       </c>
       <c r="S118" s="17">
@@ -14279,7 +14464,7 @@
         <v>-100146</v>
       </c>
       <c r="V118" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-7133</v>
       </c>
       <c r="W118" s="17">
@@ -14319,7 +14504,7 @@
         <v>27663</v>
       </c>
       <c r="R119" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-26323</v>
       </c>
       <c r="S119" s="17">
@@ -14334,7 +14519,7 @@
         <v>19415</v>
       </c>
       <c r="V119" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-23569</v>
       </c>
       <c r="W119" s="17">
@@ -14374,7 +14559,7 @@
         <v>-21984</v>
       </c>
       <c r="R120" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-1008</v>
       </c>
       <c r="S120" s="17">
@@ -14389,7 +14574,7 @@
         <v>-39282</v>
       </c>
       <c r="V120" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-4396</v>
       </c>
       <c r="W120" s="17">
@@ -14429,7 +14614,7 @@
         <v>-8044</v>
       </c>
       <c r="R121" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-5427</v>
       </c>
       <c r="S121" s="17">
@@ -14444,7 +14629,7 @@
         <v>-20652</v>
       </c>
       <c r="V121" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-7483</v>
       </c>
       <c r="W121" s="17">
@@ -14484,7 +14669,7 @@
         <v>142302</v>
       </c>
       <c r="R122" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>48486</v>
       </c>
       <c r="S122" s="17">
@@ -14499,7 +14684,7 @@
         <v>169814</v>
       </c>
       <c r="V122" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>72209</v>
       </c>
       <c r="W122" s="17">
@@ -14539,7 +14724,7 @@
         <v>-13180</v>
       </c>
       <c r="R123" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-4823</v>
       </c>
       <c r="S123" s="17">
@@ -14554,7 +14739,7 @@
         <v>1784</v>
       </c>
       <c r="V123" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>2092</v>
       </c>
       <c r="W123" s="17">
@@ -14594,7 +14779,7 @@
         <v>-34754</v>
       </c>
       <c r="R124" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-9635</v>
       </c>
       <c r="S124" s="17">
@@ -14609,7 +14794,7 @@
         <v>16187</v>
       </c>
       <c r="V124" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-7272</v>
       </c>
       <c r="W124" s="17">
@@ -14650,7 +14835,7 @@
         <v>65250</v>
       </c>
       <c r="R125" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>8169</v>
       </c>
       <c r="S125" s="17">
@@ -14665,7 +14850,7 @@
         <v>-34261</v>
       </c>
       <c r="V125" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-31362</v>
       </c>
       <c r="W125" s="17">
@@ -14705,7 +14890,7 @@
         <v>10085</v>
       </c>
       <c r="R126" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>3631</v>
       </c>
       <c r="S126" s="17">
@@ -14720,7 +14905,7 @@
         <v>12695</v>
       </c>
       <c r="V126" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>18404</v>
       </c>
       <c r="W126" s="17">
@@ -14760,7 +14945,7 @@
         <v>3434</v>
       </c>
       <c r="R127" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>37551</v>
       </c>
       <c r="S127" s="17">
@@ -14775,7 +14960,7 @@
         <v>8509</v>
       </c>
       <c r="V127" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>37365</v>
       </c>
       <c r="W127" s="17">
@@ -14815,7 +15000,7 @@
         <v>37442</v>
       </c>
       <c r="R128" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-222574</v>
       </c>
       <c r="S128" s="17">
@@ -14830,7 +15015,7 @@
         <v>-33999</v>
       </c>
       <c r="V128" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>229229</v>
       </c>
       <c r="W128" s="17">
@@ -14870,7 +15055,7 @@
         <v>-45601</v>
       </c>
       <c r="R129" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-50085</v>
       </c>
       <c r="S129" s="17">
@@ -14885,7 +15070,7 @@
         <v>10363</v>
       </c>
       <c r="V129" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-115709</v>
       </c>
       <c r="W129" s="17">
@@ -14925,7 +15110,7 @@
         <v>764</v>
       </c>
       <c r="R130" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>431</v>
       </c>
       <c r="S130" s="17">
@@ -14940,7 +15125,7 @@
         <v>-481</v>
       </c>
       <c r="V130" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-4458</v>
       </c>
       <c r="W130" s="17">
@@ -14982,7 +15167,7 @@
         <v>243890</v>
       </c>
       <c r="R131" s="19">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>115024</v>
       </c>
       <c r="S131" s="19">
@@ -15035,6 +15220,10 @@
       <c r="AE131" s="19">
         <v>569234</v>
       </c>
+      <c r="AF131" s="19">
+        <f>1131812-AE131</f>
+        <v>562578</v>
+      </c>
       <c r="BA131" s="19">
         <f>+SUM(BA112:BA130)</f>
         <v>721632</v>
@@ -15064,7 +15253,7 @@
         <v>-81303</v>
       </c>
       <c r="R133" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-126594</v>
       </c>
       <c r="S133" s="17">
@@ -15079,7 +15268,7 @@
         <v>-108446</v>
       </c>
       <c r="V133" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-121906</v>
       </c>
       <c r="W133" s="17">
@@ -15115,6 +15304,10 @@
       <c r="AE133" s="17">
         <v>-132703</v>
       </c>
+      <c r="AF133" s="17">
+        <f>+-273193-AE133</f>
+        <v>-140490</v>
+      </c>
       <c r="BA133" s="17">
         <v>-333912</v>
       </c>
@@ -15141,7 +15334,7 @@
         <v>-223965</v>
       </c>
       <c r="R134" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-143349</v>
       </c>
       <c r="S134" s="17">
@@ -15156,7 +15349,7 @@
         <v>-97979</v>
       </c>
       <c r="V134" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-140451</v>
       </c>
       <c r="W134" s="17">
@@ -15196,7 +15389,7 @@
         <v>119927</v>
       </c>
       <c r="R135" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>100573</v>
       </c>
       <c r="S135" s="17">
@@ -15211,7 +15404,7 @@
         <v>81396</v>
       </c>
       <c r="V135" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>102307</v>
       </c>
       <c r="W135" s="17">
@@ -15251,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="R136" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="S136" s="17">
@@ -15266,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="V136" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>1150</v>
       </c>
       <c r="W136" s="17">
@@ -15304,7 +15497,7 @@
         <v>-2500</v>
       </c>
       <c r="R137" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="S137" s="17">
@@ -15319,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="V137" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="W137" s="17">
@@ -15359,7 +15552,7 @@
         <v>-187841</v>
       </c>
       <c r="R138" s="19">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-169370</v>
       </c>
       <c r="S138" s="19">
@@ -15375,7 +15568,7 @@
         <v>-125029</v>
       </c>
       <c r="V138" s="19">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-158900</v>
       </c>
       <c r="W138" s="19">
@@ -15419,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="S140" s="17">
@@ -15435,7 +15628,7 @@
         <v>-97582</v>
       </c>
       <c r="V140" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-165729</v>
       </c>
       <c r="W140" s="17">
@@ -15475,7 +15668,7 @@
         <v>-29</v>
       </c>
       <c r="R141" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-579</v>
       </c>
       <c r="S141" s="17">
@@ -15490,7 +15683,7 @@
         <v>-4632</v>
       </c>
       <c r="V141" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-16378</v>
       </c>
       <c r="W141" s="17">
@@ -15530,7 +15723,7 @@
         <v>-10</v>
       </c>
       <c r="R142" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-30</v>
       </c>
       <c r="S142" s="17">
@@ -15545,7 +15738,7 @@
         <v>-134</v>
       </c>
       <c r="V142" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>68</v>
       </c>
       <c r="W142" s="17">
@@ -15587,7 +15780,7 @@
         <v>-39</v>
       </c>
       <c r="R143" s="19">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-609</v>
       </c>
       <c r="S143" s="19">
@@ -15603,7 +15796,7 @@
         <v>-102348</v>
       </c>
       <c r="V143" s="19">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-182039</v>
       </c>
       <c r="W143" s="19">
@@ -15647,7 +15840,7 @@
         <v>481</v>
       </c>
       <c r="R144" s="17">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>699</v>
       </c>
       <c r="S144" s="17">
@@ -15662,7 +15855,7 @@
         <v>-572</v>
       </c>
       <c r="V144" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>-251</v>
       </c>
       <c r="W144" s="17">
@@ -15692,27 +15885,27 @@
         <v>102</v>
       </c>
       <c r="O145" s="19">
-        <f t="shared" ref="O145:T145" si="175">+O131+O138+O143+O144</f>
+        <f t="shared" ref="O145:T145" si="181">+O131+O138+O143+O144</f>
         <v>19790</v>
       </c>
       <c r="P145" s="19">
-        <f t="shared" si="175"/>
+        <f t="shared" si="181"/>
         <v>105330</v>
       </c>
       <c r="Q145" s="19">
-        <f t="shared" si="175"/>
+        <f t="shared" si="181"/>
         <v>56491</v>
       </c>
       <c r="R145" s="19">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>-54256</v>
       </c>
       <c r="S145" s="19">
-        <f t="shared" si="175"/>
+        <f t="shared" si="181"/>
         <v>86803</v>
       </c>
       <c r="T145" s="19">
-        <f t="shared" si="175"/>
+        <f t="shared" si="181"/>
         <v>22776</v>
       </c>
       <c r="U145" s="19">
@@ -15720,7 +15913,7 @@
         <v>53670</v>
       </c>
       <c r="V145" s="19">
-        <f t="shared" si="174"/>
+        <f t="shared" si="180"/>
         <v>47145</v>
       </c>
       <c r="W145" s="19">
@@ -15736,11 +15929,11 @@
         <v>-546701.42099999997</v>
       </c>
       <c r="BA145" s="19">
-        <f t="shared" ref="BA145:BB145" si="176">+BA131+BA138+BA143+BA144</f>
+        <f t="shared" ref="BA145:BB145" si="182">+BA131+BA138+BA143+BA144</f>
         <v>228329</v>
       </c>
       <c r="BB145" s="19">
-        <f t="shared" si="176"/>
+        <f t="shared" si="182"/>
         <v>127355</v>
       </c>
       <c r="BC145" s="19">
@@ -15807,27 +16000,27 @@
         <v>104</v>
       </c>
       <c r="O147" s="17">
-        <f t="shared" ref="O147:T147" si="177">+O145+O146</f>
+        <f t="shared" ref="O147:T147" si="183">+O145+O146</f>
         <v>528271</v>
       </c>
       <c r="P147" s="17">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>613811</v>
       </c>
       <c r="Q147" s="17">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>564972</v>
       </c>
       <c r="R147" s="17">
-        <f t="shared" ref="R147" si="178">+R145+R146</f>
+        <f t="shared" ref="R147" si="184">+R145+R146</f>
         <v>474015</v>
       </c>
       <c r="S147" s="17">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>722639</v>
       </c>
       <c r="T147" s="17">
-        <f t="shared" si="177"/>
+        <f t="shared" si="183"/>
         <v>658612</v>
       </c>
       <c r="U147" s="17">
@@ -15865,43 +16058,43 @@
         <v>184</v>
       </c>
       <c r="O149" s="19">
-        <f t="shared" ref="O149:X149" si="179">+O131+O133</f>
+        <f t="shared" ref="O149:X149" si="185">+O131+O133</f>
         <v>104418</v>
       </c>
       <c r="P149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>35060</v>
       </c>
       <c r="Q149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>162587</v>
       </c>
       <c r="R149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>-11570</v>
       </c>
       <c r="S149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>219354</v>
       </c>
       <c r="T149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>180650</v>
       </c>
       <c r="U149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>173173</v>
       </c>
       <c r="V149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>266429</v>
       </c>
       <c r="W149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>186730</v>
       </c>
       <c r="X149" s="19">
-        <f t="shared" si="179"/>
+        <f t="shared" si="185"/>
         <v>186963.49900000001</v>
       </c>
       <c r="Y149" s="19">
@@ -15909,39 +16102,43 @@
         <v>212385.50099999999</v>
       </c>
       <c r="Z149" s="19">
-        <f t="shared" ref="Z149:AD149" si="180">+Z131+Z133</f>
+        <f t="shared" ref="Z149:AD149" si="186">+Z131+Z133</f>
         <v>257936</v>
       </c>
       <c r="AA149" s="19">
-        <f t="shared" si="180"/>
+        <f t="shared" si="186"/>
         <v>334667</v>
       </c>
       <c r="AB149" s="19">
-        <f t="shared" si="180"/>
+        <f t="shared" si="186"/>
         <v>445278</v>
       </c>
       <c r="AC149" s="19">
-        <f t="shared" si="180"/>
+        <f t="shared" si="186"/>
         <v>349272</v>
       </c>
       <c r="AD149" s="19">
-        <f t="shared" si="180"/>
+        <f t="shared" si="186"/>
         <v>93529</v>
       </c>
       <c r="AE149" s="19">
-        <f t="shared" ref="AE149" si="181">+AE131+AE133</f>
+        <f t="shared" ref="AE149:AF149" si="187">+AE131+AE133</f>
         <v>436531</v>
       </c>
+      <c r="AF149" s="19">
+        <f t="shared" si="187"/>
+        <v>422088</v>
+      </c>
       <c r="BA149" s="19">
-        <f t="shared" ref="BA149:BC149" si="182">+BA131+BA133-BA117</f>
+        <f t="shared" ref="BA149:BC149" si="188">+BA131+BA133-BA117</f>
         <v>296324</v>
       </c>
       <c r="BB149" s="19">
-        <f t="shared" si="182"/>
+        <f t="shared" si="188"/>
         <v>207869</v>
       </c>
       <c r="BC149" s="19">
-        <f t="shared" si="182"/>
+        <f t="shared" si="188"/>
         <v>663214</v>
       </c>
     </row>
@@ -15950,79 +16147,83 @@
         <v>105</v>
       </c>
       <c r="O150" s="17">
-        <f t="shared" ref="O150:Y150" si="183">+O27</f>
+        <f t="shared" ref="O150:Y150" si="189">+O27</f>
         <v>85724</v>
       </c>
       <c r="P150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>13561</v>
       </c>
       <c r="Q150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>88235</v>
       </c>
       <c r="R150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>198523</v>
       </c>
       <c r="S150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>132769</v>
       </c>
       <c r="T150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>192240</v>
       </c>
       <c r="U150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>209092</v>
       </c>
       <c r="V150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>138174</v>
       </c>
       <c r="W150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>162604</v>
       </c>
       <c r="X150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>264623</v>
       </c>
       <c r="Y150" s="17">
-        <f t="shared" si="183"/>
+        <f t="shared" si="189"/>
         <v>263501</v>
       </c>
       <c r="Z150" s="17">
-        <f t="shared" ref="Z150:AD150" si="184">+Z27</f>
+        <f t="shared" ref="Z150:AD150" si="190">+Z27</f>
         <v>229512</v>
       </c>
       <c r="AA150" s="17">
-        <f t="shared" si="184"/>
+        <f t="shared" si="190"/>
         <v>300005</v>
       </c>
       <c r="AB150" s="17">
-        <f t="shared" si="184"/>
+        <f t="shared" si="190"/>
         <v>358030</v>
       </c>
       <c r="AC150" s="17">
-        <f t="shared" si="184"/>
+        <f t="shared" si="190"/>
         <v>320458</v>
       </c>
       <c r="AD150" s="17">
-        <f t="shared" si="184"/>
+        <f t="shared" si="190"/>
         <v>288614</v>
       </c>
       <c r="AE150" s="17">
-        <f t="shared" ref="AE150" si="185">+AE27</f>
+        <f t="shared" ref="AE150:AF150" si="191">+AE27</f>
         <v>364766</v>
       </c>
+      <c r="AF150" s="17">
+        <f t="shared" si="191"/>
+        <v>461433</v>
+      </c>
       <c r="BA150" s="17">
-        <f t="shared" ref="BA150:BB150" si="186">+BA27</f>
+        <f t="shared" ref="BA150:BB150" si="192">+BA27</f>
         <v>373702</v>
       </c>
       <c r="BB150" s="17">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>386043</v>
       </c>
       <c r="BC150" s="17">
@@ -16036,15 +16237,15 @@
         <v>106</v>
       </c>
       <c r="R152" s="19">
-        <f t="shared" ref="R152:T152" si="187">+SUM(O149:R149)</f>
+        <f t="shared" ref="R152:T152" si="193">+SUM(O149:R149)</f>
         <v>290495</v>
       </c>
       <c r="S152" s="19">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>405431</v>
       </c>
       <c r="T152" s="19">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>551021</v>
       </c>
       <c r="U152" s="19">
@@ -16052,44 +16253,48 @@
         <v>561607</v>
       </c>
       <c r="V152" s="19">
-        <f t="shared" ref="V152:W152" si="188">+SUM(S149:V149)</f>
+        <f t="shared" ref="V152:W152" si="194">+SUM(S149:V149)</f>
         <v>839606</v>
       </c>
       <c r="W152" s="19">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>806982</v>
       </c>
       <c r="X152" s="19">
-        <f t="shared" ref="X152:X153" si="189">+SUM(U149:X149)</f>
+        <f t="shared" ref="X152:X153" si="195">+SUM(U149:X149)</f>
         <v>813295.49900000007</v>
       </c>
       <c r="Y152" s="19">
-        <f t="shared" ref="Y152:Y153" si="190">+SUM(V149:Y149)</f>
+        <f t="shared" ref="Y152:Y153" si="196">+SUM(V149:Y149)</f>
         <v>852508</v>
       </c>
       <c r="Z152" s="19">
-        <f t="shared" ref="Z152:Z153" si="191">+SUM(W149:Z149)</f>
+        <f t="shared" ref="Z152:Z153" si="197">+SUM(W149:Z149)</f>
         <v>844015</v>
       </c>
       <c r="AA152" s="19">
-        <f t="shared" ref="AA152:AA153" si="192">+SUM(X149:AA149)</f>
+        <f t="shared" ref="AA152:AA153" si="198">+SUM(X149:AA149)</f>
         <v>991952</v>
       </c>
       <c r="AB152" s="19">
-        <f t="shared" ref="AB152:AB153" si="193">+SUM(Y149:AB149)</f>
+        <f t="shared" ref="AB152:AB153" si="199">+SUM(Y149:AB149)</f>
         <v>1250266.5009999999</v>
       </c>
       <c r="AC152" s="19">
-        <f t="shared" ref="AC152:AC153" si="194">+SUM(Z149:AC149)</f>
+        <f t="shared" ref="AC152:AC153" si="200">+SUM(Z149:AC149)</f>
         <v>1387153</v>
       </c>
       <c r="AD152" s="19">
-        <f t="shared" ref="AD152:AE153" si="195">+SUM(AA149:AD149)</f>
+        <f t="shared" ref="AD152:AF153" si="201">+SUM(AA149:AD149)</f>
         <v>1222746</v>
       </c>
       <c r="AE152" s="19">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>1324610</v>
+      </c>
+      <c r="AF152" s="19">
+        <f t="shared" si="201"/>
+        <v>1301420</v>
       </c>
       <c r="BB152" s="19">
         <f>+U152</f>
@@ -16100,47 +16305,47 @@
         <v>673928.4</v>
       </c>
       <c r="BD152" s="19">
-        <f t="shared" ref="BD152:BN152" si="196">+BC152*1.1</f>
+        <f t="shared" ref="BD152:BN152" si="202">+BC152*1.1</f>
         <v>741321.24000000011</v>
       </c>
       <c r="BE152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>815453.36400000018</v>
       </c>
       <c r="BF152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>896998.70040000032</v>
       </c>
       <c r="BG152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>986698.57044000039</v>
       </c>
       <c r="BH152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1085368.4274840006</v>
       </c>
       <c r="BI152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1193905.2702324006</v>
       </c>
       <c r="BJ152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1313295.7972556408</v>
       </c>
       <c r="BK152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1444625.3769812051</v>
       </c>
       <c r="BL152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1589087.9146793257</v>
       </c>
       <c r="BM152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1747996.7061472584</v>
       </c>
       <c r="BN152" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>1922796.3767619843</v>
       </c>
     </row>
@@ -16149,15 +16354,15 @@
         <v>107</v>
       </c>
       <c r="R153" s="17">
-        <f t="shared" ref="R153:T153" si="197">+SUM(O150:R150)</f>
+        <f t="shared" ref="R153:T153" si="203">+SUM(O150:R150)</f>
         <v>386043</v>
       </c>
       <c r="S153" s="17">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>433088</v>
       </c>
       <c r="T153" s="17">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>611767</v>
       </c>
       <c r="U153" s="17">
@@ -16165,44 +16370,48 @@
         <v>732624</v>
       </c>
       <c r="V153" s="17">
-        <f t="shared" ref="V153:W153" si="198">+SUM(S150:V150)</f>
+        <f t="shared" ref="V153:W153" si="204">+SUM(S150:V150)</f>
         <v>672275</v>
       </c>
       <c r="W153" s="17">
+        <f t="shared" si="204"/>
+        <v>702110</v>
+      </c>
+      <c r="X153" s="17">
+        <f t="shared" si="195"/>
+        <v>774493</v>
+      </c>
+      <c r="Y153" s="17">
+        <f t="shared" si="196"/>
+        <v>828902</v>
+      </c>
+      <c r="Z153" s="17">
+        <f t="shared" si="197"/>
+        <v>920240</v>
+      </c>
+      <c r="AA153" s="17">
         <f t="shared" si="198"/>
-        <v>702110</v>
-      </c>
-      <c r="X153" s="17">
-        <f t="shared" si="189"/>
-        <v>774493</v>
-      </c>
-      <c r="Y153" s="17">
-        <f t="shared" si="190"/>
-        <v>828902</v>
-      </c>
-      <c r="Z153" s="17">
-        <f t="shared" si="191"/>
-        <v>920240</v>
-      </c>
-      <c r="AA153" s="17">
-        <f t="shared" si="192"/>
         <v>1057641</v>
       </c>
       <c r="AB153" s="17">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>1151048</v>
       </c>
       <c r="AC153" s="17">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>1208005</v>
       </c>
       <c r="AD153" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>1267107</v>
       </c>
       <c r="AE153" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>1331868</v>
+      </c>
+      <c r="AF153" s="17">
+        <f t="shared" si="201"/>
+        <v>1435271</v>
       </c>
     </row>
     <row r="155" spans="1:66" s="19" customFormat="1">
@@ -16211,15 +16420,15 @@
         <v>108</v>
       </c>
       <c r="R155" s="19">
-        <f t="shared" ref="R155:T155" si="199">+R152-R153</f>
+        <f t="shared" ref="R155:T155" si="205">+R152-R153</f>
         <v>-95548</v>
       </c>
       <c r="S155" s="19">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>-27657</v>
       </c>
       <c r="T155" s="19">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>-60746</v>
       </c>
       <c r="U155" s="19">
@@ -16227,43 +16436,43 @@
         <v>-171017</v>
       </c>
       <c r="V155" s="19">
-        <f t="shared" ref="V155:Y155" si="200">+V152-V153</f>
+        <f t="shared" ref="V155:Y155" si="206">+V152-V153</f>
         <v>167331</v>
       </c>
       <c r="W155" s="19">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>104872</v>
       </c>
       <c r="X155" s="19">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>38802.499000000069</v>
       </c>
       <c r="Y155" s="19">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>23606</v>
       </c>
       <c r="Z155" s="19">
-        <f t="shared" ref="Z155:AD155" si="201">+Z152-Z153</f>
+        <f t="shared" ref="Z155:AD155" si="207">+Z152-Z153</f>
         <v>-76225</v>
       </c>
       <c r="AA155" s="19">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>-65689</v>
       </c>
       <c r="AB155" s="19">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>99218.500999999931</v>
       </c>
       <c r="AC155" s="19">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>179148</v>
       </c>
       <c r="AD155" s="19">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>-44361</v>
       </c>
       <c r="AE155" s="19">
-        <f t="shared" ref="AE155" si="202">+AE152-AE153</f>
+        <f t="shared" ref="AE155" si="208">+AE152-AE153</f>
         <v>-7258</v>
       </c>
     </row>
@@ -16297,153 +16506,153 @@
       </c>
     </row>
     <row r="165" spans="2:68">
-      <c r="B165"/>
-      <c r="C165" s="61"/>
-      <c r="D165" s="61"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="61"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="61"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="61"/>
-      <c r="L165" s="61"/>
-      <c r="M165" s="61"/>
+      <c r="B165" s="83"/>
+      <c r="C165" s="84"/>
+      <c r="D165" s="84"/>
+      <c r="E165" s="84"/>
+      <c r="F165" s="84"/>
+      <c r="G165" s="84"/>
+      <c r="H165" s="84"/>
+      <c r="I165" s="84"/>
+      <c r="J165" s="84"/>
+      <c r="K165" s="84"/>
+      <c r="L165" s="84"/>
+      <c r="M165" s="84"/>
     </row>
     <row r="166" spans="2:68">
       <c r="B166" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="BF166" s="62">
+      <c r="BF166" s="61">
         <v>7000</v>
       </c>
-      <c r="BG166" s="63"/>
-      <c r="BH166" s="63"/>
-      <c r="BI166" s="63"/>
-      <c r="BJ166" s="63"/>
-      <c r="BK166" s="63"/>
-      <c r="BL166" s="63"/>
-      <c r="BM166" s="63"/>
-      <c r="BN166" s="63"/>
-      <c r="BO166" s="63"/>
-      <c r="BP166" s="63"/>
+      <c r="BG166" s="85"/>
+      <c r="BH166" s="85"/>
+      <c r="BI166" s="85"/>
+      <c r="BJ166" s="85"/>
+      <c r="BK166" s="85"/>
+      <c r="BL166" s="85"/>
+      <c r="BM166" s="85"/>
+      <c r="BN166" s="85"/>
+      <c r="BO166" s="85"/>
+      <c r="BP166" s="85"/>
     </row>
     <row r="167" spans="2:68">
       <c r="B167" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BF167" s="62">
+      <c r="BF167" s="61">
         <v>3437</v>
       </c>
-      <c r="BG167" s="63"/>
-      <c r="BH167" s="63"/>
-      <c r="BI167" s="63"/>
-      <c r="BJ167" s="63"/>
-      <c r="BK167" s="63"/>
-      <c r="BL167" s="63"/>
-      <c r="BM167" s="63"/>
-      <c r="BN167" s="63"/>
-      <c r="BO167" s="63"/>
-      <c r="BP167" s="63"/>
+      <c r="BG167" s="85"/>
+      <c r="BH167" s="85"/>
+      <c r="BI167" s="85"/>
+      <c r="BJ167" s="85"/>
+      <c r="BK167" s="85"/>
+      <c r="BL167" s="85"/>
+      <c r="BM167" s="85"/>
+      <c r="BN167" s="85"/>
+      <c r="BO167" s="85"/>
+      <c r="BP167" s="85"/>
     </row>
     <row r="168" spans="2:68">
       <c r="B168" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="BF168" s="64">
+      <c r="BF168" s="62">
         <v>300</v>
       </c>
-      <c r="BG168" s="64">
+      <c r="BG168" s="62">
         <v>301</v>
       </c>
-      <c r="BH168" s="64">
+      <c r="BH168" s="62">
         <v>302</v>
       </c>
-      <c r="BI168" s="64">
+      <c r="BI168" s="62">
         <v>303</v>
       </c>
-      <c r="BJ168" s="64">
+      <c r="BJ168" s="62">
         <v>304</v>
       </c>
-      <c r="BK168" s="64">
+      <c r="BK168" s="62">
         <v>305</v>
       </c>
-      <c r="BL168" s="64">
+      <c r="BL168" s="62">
         <v>306</v>
       </c>
-      <c r="BM168" s="64">
+      <c r="BM168" s="62">
         <v>307</v>
       </c>
-      <c r="BN168" s="64">
+      <c r="BN168" s="62">
         <v>308</v>
       </c>
-      <c r="BO168" s="64">
+      <c r="BO168" s="62">
         <v>309</v>
       </c>
-      <c r="BP168" s="64">
+      <c r="BP168" s="62">
         <v>310</v>
       </c>
     </row>
     <row r="169" spans="2:68">
-      <c r="B169"/>
-      <c r="BF169" s="63"/>
-      <c r="BG169" s="63"/>
-      <c r="BH169" s="63"/>
-      <c r="BI169" s="63"/>
-      <c r="BJ169" s="63"/>
-      <c r="BK169" s="63"/>
-      <c r="BL169" s="63"/>
-      <c r="BM169" s="63"/>
-      <c r="BN169" s="63"/>
-      <c r="BO169" s="63"/>
-      <c r="BP169" s="63"/>
+      <c r="B169" s="83"/>
+      <c r="BF169" s="85"/>
+      <c r="BG169" s="85"/>
+      <c r="BH169" s="85"/>
+      <c r="BI169" s="85"/>
+      <c r="BJ169" s="85"/>
+      <c r="BK169" s="85"/>
+      <c r="BL169" s="85"/>
+      <c r="BM169" s="85"/>
+      <c r="BN169" s="85"/>
+      <c r="BO169" s="85"/>
+      <c r="BP169" s="85"/>
     </row>
     <row r="170" spans="2:68">
       <c r="B170" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="BF170" s="65">
-        <f t="shared" ref="BF170:BP170" si="203">($BF$166-$BF$167)/BF168</f>
+      <c r="BF170" s="86">
+        <f t="shared" ref="BF170:BP170" si="209">($BF$166-$BF$167)/BF168</f>
         <v>11.876666666666667</v>
       </c>
-      <c r="BG170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BG170" s="86">
+        <f t="shared" si="209"/>
         <v>11.837209302325581</v>
       </c>
-      <c r="BH170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BH170" s="86">
+        <f t="shared" si="209"/>
         <v>11.798013245033113</v>
       </c>
-      <c r="BI170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BI170" s="86">
+        <f t="shared" si="209"/>
         <v>11.759075907590759</v>
       </c>
-      <c r="BJ170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BJ170" s="86">
+        <f t="shared" si="209"/>
         <v>11.720394736842104</v>
       </c>
-      <c r="BK170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BK170" s="86">
+        <f t="shared" si="209"/>
         <v>11.681967213114755</v>
       </c>
-      <c r="BL170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BL170" s="86">
+        <f t="shared" si="209"/>
         <v>11.643790849673202</v>
       </c>
-      <c r="BM170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BM170" s="86">
+        <f t="shared" si="209"/>
         <v>11.60586319218241</v>
       </c>
-      <c r="BN170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BN170" s="86">
+        <f t="shared" si="209"/>
         <v>11.568181818181818</v>
       </c>
-      <c r="BO170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BO170" s="86">
+        <f t="shared" si="209"/>
         <v>11.53074433656958</v>
       </c>
-      <c r="BP170" s="65">
-        <f t="shared" si="203"/>
+      <c r="BP170" s="86">
+        <f t="shared" si="209"/>
         <v>11.493548387096775</v>
       </c>
     </row>
@@ -16451,89 +16660,89 @@
       <c r="B171" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="BF171" s="65"/>
-      <c r="BG171" s="65">
-        <f t="shared" ref="BG171:BP171" si="204">+BF170-BG170</f>
+      <c r="BF171" s="86"/>
+      <c r="BG171" s="86">
+        <f t="shared" ref="BG171:BP171" si="210">+BF170-BG170</f>
         <v>3.9457364341085821E-2</v>
       </c>
-      <c r="BH171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BH171" s="86">
+        <f t="shared" si="210"/>
         <v>3.9196057292468112E-2</v>
       </c>
-      <c r="BI171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BI171" s="86">
+        <f t="shared" si="210"/>
         <v>3.8937337442353837E-2</v>
       </c>
-      <c r="BJ171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BJ171" s="86">
+        <f t="shared" si="210"/>
         <v>3.8681170748654736E-2</v>
       </c>
-      <c r="BK171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BK171" s="86">
+        <f t="shared" si="210"/>
         <v>3.8427523727349922E-2</v>
       </c>
-      <c r="BL171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BL171" s="86">
+        <f t="shared" si="210"/>
         <v>3.8176363441552397E-2</v>
       </c>
-      <c r="BM171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BM171" s="86">
+        <f t="shared" si="210"/>
         <v>3.7927657490792299E-2</v>
       </c>
-      <c r="BN171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BN171" s="86">
+        <f t="shared" si="210"/>
         <v>3.7681374000591461E-2</v>
       </c>
-      <c r="BO171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BO171" s="86">
+        <f t="shared" si="210"/>
         <v>3.7437481612238699E-2</v>
       </c>
-      <c r="BP171" s="65">
-        <f t="shared" si="204"/>
+      <c r="BP171" s="86">
+        <f t="shared" si="210"/>
         <v>3.7195949472804912E-2</v>
       </c>
     </row>
     <row r="172" spans="2:68">
-      <c r="B172"/>
-      <c r="C172" s="61"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="61"/>
-      <c r="F172" s="61"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="61"/>
-      <c r="I172" s="61"/>
-      <c r="J172" s="61"/>
-      <c r="K172" s="61"/>
-      <c r="L172" s="61"/>
-      <c r="M172" s="61"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="84"/>
+      <c r="D172" s="84"/>
+      <c r="E172" s="84"/>
+      <c r="F172" s="84"/>
+      <c r="G172" s="84"/>
+      <c r="H172" s="84"/>
+      <c r="I172" s="84"/>
+      <c r="J172" s="84"/>
+      <c r="K172" s="84"/>
+      <c r="L172" s="84"/>
+      <c r="M172" s="84"/>
     </row>
     <row r="173" spans="2:68">
-      <c r="B173"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
-      <c r="I173" s="61"/>
-      <c r="J173" s="61"/>
-      <c r="K173" s="61"/>
-      <c r="L173" s="61"/>
-      <c r="M173" s="61"/>
+      <c r="B173" s="83"/>
+      <c r="C173" s="84"/>
+      <c r="D173" s="84"/>
+      <c r="E173" s="84"/>
+      <c r="F173" s="84"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="84"/>
+      <c r="J173" s="84"/>
+      <c r="K173" s="84"/>
+      <c r="L173" s="84"/>
+      <c r="M173" s="84"/>
     </row>
     <row r="174" spans="2:68">
-      <c r="B174"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="61"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="61"/>
-      <c r="I174" s="61"/>
-      <c r="J174" s="61"/>
-      <c r="K174" s="61"/>
-      <c r="L174" s="61"/>
-      <c r="M174" s="61"/>
+      <c r="B174" s="83"/>
+      <c r="C174" s="84"/>
+      <c r="D174" s="84"/>
+      <c r="E174" s="84"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="84"/>
+      <c r="J174" s="84"/>
+      <c r="K174" s="84"/>
+      <c r="L174" s="84"/>
+      <c r="M174" s="84"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BS41">

--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711F85F-0BE2-A74D-B008-A0A274911A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CAAC6-6859-BA48-AE5D-A5C80DDDA804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28540" yWindow="500" windowWidth="27720" windowHeight="28060" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
+    <workbookView xWindow="13840" yWindow="740" windowWidth="27720" windowHeight="28060" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -40,6 +40,8 @@
   <authors>
     <author>tc={3CBE3620-C3B8-A044-96A3-38AC130F2666}</author>
     <author>Brannon, Jameel A.</author>
+    <author>tc={A4C5B233-AE29-A64A-B28B-FD93BC95FBEE}</author>
+    <author>tc={AD85D290-4C90-824C-A415-2DEABA02E8FF}</author>
     <author>tc={DCBA0E59-473D-A04B-B3FC-B879059D8E1E}</author>
   </authors>
   <commentList>
@@ -119,7 +121,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF29" authorId="2" shapeId="0" xr:uid="{DCBA0E59-473D-A04B-B3FC-B879059D8E1E}">
+    <comment ref="AE6" authorId="2" shapeId="0" xr:uid="{A4C5B233-AE29-A64A-B28B-FD93BC95FBEE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    43 chipotlanes</t>
+      </text>
+    </comment>
+    <comment ref="AF6" authorId="3" shapeId="0" xr:uid="{AD85D290-4C90-824C-A415-2DEABA02E8FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    46 chipotlanes</t>
+      </text>
+    </comment>
+    <comment ref="BF29" authorId="4" shapeId="0" xr:uid="{DCBA0E59-473D-A04B-B3FC-B879059D8E1E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -395,9 +413,6 @@
     <t>Relocations</t>
   </si>
   <si>
-    <t>Opened</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -911,9 +926,6 @@
     <t>Smoked Brisket</t>
   </si>
   <si>
-    <t xml:space="preserve">Acquisition of treausury stock </t>
-  </si>
-  <si>
     <t>Q324</t>
   </si>
   <si>
@@ -957,13 +969,19 @@
   </si>
   <si>
     <t>ir.chipotle.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition of treasury stock </t>
+  </si>
+  <si>
+    <t>Openings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0\x"/>
@@ -972,6 +990,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1191,7 +1210,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1414,6 +1433,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1872,6 +1904,12 @@
   <threadedComment ref="BF2" dT="2024-05-27T00:53:54.81" personId="{2E55D6BB-A26C-7041-BB27-C132C32F7E95}" id="{EEA83C40-93FE-B143-8700-87B76C9B544A}" parentId="{3CBE3620-C3B8-A044-96A3-38AC130F2666}">
     <text>285-315 openings = latest Q124 guidance</text>
   </threadedComment>
+  <threadedComment ref="AE6" dT="2024-09-18T01:03:36.19" personId="{2E55D6BB-A26C-7041-BB27-C132C32F7E95}" id="{A4C5B233-AE29-A64A-B28B-FD93BC95FBEE}">
+    <text>43 chipotlanes</text>
+  </threadedComment>
+  <threadedComment ref="AF6" dT="2024-09-18T01:09:28.78" personId="{2E55D6BB-A26C-7041-BB27-C132C32F7E95}" id="{AD85D290-4C90-824C-A415-2DEABA02E8FF}">
+    <text>46 chipotlanes</text>
+  </threadedComment>
   <threadedComment ref="BF29" dT="2024-02-17T04:22:24.01" personId="{2E55D6BB-A26C-7041-BB27-C132C32F7E95}" id="{DCBA0E59-473D-A04B-B3FC-B879059D8E1E}">
     <text>Tax guidance</text>
   </threadedComment>
@@ -1883,7 +1921,7 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1894,7 +1932,7 @@
     <col min="5" max="5" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="8"/>
+    <col min="8" max="8" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="8"/>
     <col min="11" max="11" width="12.33203125" style="8" customWidth="1"/>
@@ -1906,13 +1944,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="96"/>
@@ -1920,13 +1958,13 @@
     <row r="3" spans="1:12">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="32">
         <v>34163</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="12"/>
@@ -1934,27 +1972,27 @@
     <row r="4" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9">
-        <v>57.66</v>
+        <v>58.5</v>
       </c>
       <c r="I4" s="9"/>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="98">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>31.2</v>
+        <v>31.216438356164385</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
@@ -1963,34 +2001,34 @@
         <v>1371372</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I5" s="9"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="9">
         <f>+F4*F5</f>
-        <v>79073309.519999996</v>
+        <v>80225262</v>
       </c>
       <c r="I6" s="9"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>15</v>
@@ -2003,6 +2041,10 @@
         <f>+G5</f>
         <v>Q224</v>
       </c>
+      <c r="H7" s="8">
+        <f>+F7*1000</f>
+        <v>2490123000</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="L7" s="14"/>
     </row>
@@ -2026,7 +2068,7 @@
       </c>
       <c r="F9" s="9">
         <f>+F6-F7+F8</f>
-        <v>76583186.519999996</v>
+        <v>77735139</v>
       </c>
       <c r="I9" s="9"/>
       <c r="L9" s="15"/>
@@ -2043,10 +2085,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="E14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2055,83 +2097,83 @@
         <v>45551</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16" s="18">
         <v>45545</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="18">
         <v>45531</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="87"/>
       <c r="E18" s="18">
         <v>45517</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="87"/>
       <c r="E19" s="19">
         <v>45406</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="87"/>
       <c r="E20" s="19">
         <v>45404</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" s="87"/>
       <c r="E21" s="18">
         <v>45390</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2141,43 +2183,43 @@
         <v>45370</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="87"/>
       <c r="E23" s="18">
         <v>45363</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="87"/>
       <c r="E24" s="18">
         <v>45350</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="87"/>
       <c r="E25" s="18">
         <v>45293</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2187,7 +2229,7 @@
         <v>45273</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -2197,7 +2239,7 @@
         <v>44845</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -2205,7 +2247,7 @@
         <v>44831</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2213,7 +2255,7 @@
         <v>44817</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2221,7 +2263,7 @@
         <v>44811</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2229,7 +2271,7 @@
         <v>44803</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -2237,7 +2279,7 @@
         <v>44795</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="5:6">
@@ -2245,7 +2287,7 @@
         <v>44763</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="5:6">
@@ -2253,7 +2295,7 @@
         <v>44740</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="5:6">
@@ -2261,7 +2303,7 @@
         <v>44728</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="5:6">
@@ -2269,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="5:6">
@@ -2277,7 +2319,7 @@
         <v>44683</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="5:6">
@@ -2285,7 +2327,7 @@
         <v>44677</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="5:6">
@@ -2293,7 +2335,7 @@
         <v>44670</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="5:6">
@@ -2301,7 +2343,7 @@
         <v>44656</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="5:6">
@@ -2309,7 +2351,7 @@
         <v>44651</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="5:6">
@@ -2317,7 +2359,7 @@
         <v>44648</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="5:6">
@@ -2325,7 +2367,7 @@
         <v>44636</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="5:6">
@@ -2333,7 +2375,7 @@
         <v>44630</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="5:6">
@@ -2341,7 +2383,7 @@
         <v>44615</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="5:6">
@@ -2349,7 +2391,7 @@
         <v>44607</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="5:6">
@@ -2357,7 +2399,7 @@
         <v>44564</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="5:6">
@@ -2365,7 +2407,7 @@
         <v>44546</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -2373,7 +2415,7 @@
         <v>44448</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:13">
@@ -2381,7 +2423,7 @@
         <v>44440</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:13">
@@ -2389,7 +2431,7 @@
         <v>44427</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -2397,7 +2439,7 @@
         <v>44377</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -2405,7 +2447,7 @@
         <v>44326</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:13">
@@ -2413,7 +2455,7 @@
         <v>44280</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:13">
@@ -2624,11 +2666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B3FB4-BD2A-5E41-95A2-2CC4EACD5DFD}">
   <dimension ref="A1:JG179"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2646,9 +2688,8 @@
     <col min="28" max="28" width="10" style="25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="34" max="38" width="3.6640625" style="25" customWidth="1"/>
     <col min="39" max="40" width="7.6640625" style="25" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="41" max="50" width="9.1640625" style="25" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -2658,7 +2699,7 @@
     <col min="55" max="55" width="9.5" style="25" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="9.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="59" max="66" width="10.5" style="25" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="11.5" style="25" bestFit="1" customWidth="1"/>
@@ -2669,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:267" s="9" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2738,10 +2779,10 @@
     </row>
     <row r="2" spans="1:267" s="10" customFormat="1">
       <c r="A2" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -2830,36 +2871,36 @@
       <c r="BM2" s="32"/>
       <c r="BN2" s="32"/>
       <c r="BO2" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="IV2" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:267" s="33" customFormat="1">
       <c r="C3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>125</v>
-      </c>
       <c r="G3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>121</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>0</v>
@@ -2898,37 +2939,37 @@
         <v>11</v>
       </c>
       <c r="W3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="Y3" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="33" t="s">
-        <v>132</v>
-      </c>
       <c r="AA3" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB3" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AC3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" s="33" t="s">
-        <v>177</v>
-      </c>
       <c r="AE3" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF3" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG3" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM3" s="34">
         <f t="shared" ref="AM3:AQ3" si="0">+AN3-1</f>
@@ -3841,7 +3882,7 @@
     </row>
     <row r="4" spans="1:267" s="35" customFormat="1">
       <c r="B4" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z4" s="35">
         <v>0.12</v>
@@ -3898,7 +3939,7 @@
     </row>
     <row r="6" spans="1:267">
       <c r="B6" s="15" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C6" s="36">
         <v>57</v>
@@ -3961,6 +4002,18 @@
       </c>
       <c r="X6" s="25">
         <v>42</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>52</v>
       </c>
       <c r="AS6" s="37"/>
       <c r="AT6" s="37"/>
@@ -4050,6 +4103,12 @@
       <c r="X7" s="25">
         <v>-1</v>
       </c>
+      <c r="AE7" s="25">
+        <v>-3</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>-1</v>
+      </c>
       <c r="AS7" s="37"/>
       <c r="AT7" s="37"/>
       <c r="AU7" s="37"/>
@@ -4139,6 +4198,15 @@
       </c>
       <c r="X8" s="25">
         <v>-3</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>-4</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>-3</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>-2</v>
       </c>
       <c r="AS8" s="37"/>
       <c r="AT8" s="37"/>
@@ -4263,6 +4331,7 @@
         <v>3224</v>
       </c>
       <c r="AB9" s="36">
+        <f>+AA9+SUM(AB6:AB8)</f>
         <v>3268</v>
       </c>
       <c r="AC9" s="36">
@@ -4272,9 +4341,11 @@
         <v>3437</v>
       </c>
       <c r="AE9" s="36">
+        <f>+AD9+SUM(AE6:AE8)</f>
         <v>3479</v>
       </c>
       <c r="AF9" s="36">
+        <f>+AE9+SUM(AF6:AF8)</f>
         <v>3530</v>
       </c>
       <c r="AM9" s="36">
@@ -4340,7 +4411,7 @@
         <v>3437</v>
       </c>
       <c r="BF9" s="36">
-        <f t="shared" ref="BF9:BO9" si="11">+BE9+$BF$2</f>
+        <f t="shared" ref="BF9:BN9" si="11">+BE9+$BF$2</f>
         <v>3737</v>
       </c>
       <c r="BG9" s="36">
@@ -4379,9 +4450,9 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:267" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:267" outlineLevel="1">
       <c r="B10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" ref="D10:U10" si="12">+D9-C9</f>
@@ -4612,9 +4683,9 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:267" collapsed="1">
+    <row r="11" spans="1:267">
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:AF11" si="22">+C17/C9</f>
@@ -4851,7 +4922,7 @@
     </row>
     <row r="12" spans="1:267">
       <c r="B12" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD12" s="25">
         <v>3018</v>
@@ -4903,7 +4974,7 @@
     <row r="14" spans="1:267" s="48" customFormat="1">
       <c r="A14" s="46"/>
       <c r="B14" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB14" s="48">
         <v>7.3999999999999996E-2</v>
@@ -6574,7 +6645,7 @@
     </row>
     <row r="25" spans="1:267">
       <c r="B25" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z25" s="51"/>
     </row>
@@ -7596,7 +7667,7 @@
         <v>7921788.1384290829</v>
       </c>
       <c r="BQ30" s="36">
-        <f t="shared" ref="BP30:CU30" si="75">+BP30*(1+$BS$36)</f>
+        <f t="shared" ref="BQ30:CU30" si="75">+BP30*(1+$BS$36)</f>
         <v>8001006.0198133737</v>
       </c>
       <c r="BR30" s="36">
@@ -8394,7 +8465,7 @@
     </row>
     <row r="31" spans="1:267">
       <c r="B31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="53">
         <v>1.6</v>
@@ -8791,7 +8862,7 @@
     </row>
     <row r="34" spans="1:71">
       <c r="B34" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BD34" s="45"/>
       <c r="BR34" s="57"/>
@@ -8871,7 +8942,7 @@
       </c>
       <c r="BD35" s="45"/>
       <c r="BR35" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BS35" s="99">
         <v>0.01</v>
@@ -9747,7 +9818,7 @@
     <row r="43" spans="1:71" s="45" customFormat="1">
       <c r="A43" s="65"/>
       <c r="B43" s="66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C43" s="45">
         <f t="shared" ref="C43:AD43" si="112">+C26/C17</f>
@@ -9874,7 +9945,7 @@
         <v>0.15702157433991262</v>
       </c>
       <c r="AT43" s="45">
-        <f t="shared" ref="AS43:AW43" si="113">+AT26/AT17</f>
+        <f t="shared" ref="AT43:AW43" si="113">+AT26/AT17</f>
         <v>0.16874924942077252</v>
       </c>
       <c r="AU43" s="45">
@@ -9966,7 +10037,7 @@
       </c>
       <c r="BS43" s="64">
         <f>+Main!F4</f>
-        <v>57.66</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="44" spans="1:71">
@@ -10036,20 +10107,20 @@
       <c r="BM44" s="69"/>
       <c r="BN44" s="69"/>
       <c r="BR44" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BS44" s="72">
         <f>+BS42/BS43-1</f>
-        <v>0.25801478876873918</v>
+        <v>0.23995098667359827</v>
       </c>
     </row>
     <row r="45" spans="1:71" s="75" customFormat="1">
       <c r="A45" s="76"/>
       <c r="B45" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C45" s="75">
-        <f t="shared" ref="C45:AF45" si="115">+SUM(C22:C26)</f>
+        <f t="shared" ref="C45:AE45" si="115">+SUM(C22:C26)</f>
         <v>189612</v>
       </c>
       <c r="D45" s="75">
@@ -10558,7 +10629,7 @@
     <row r="49" spans="1:71" s="75" customFormat="1">
       <c r="A49" s="76"/>
       <c r="B49" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -10585,7 +10656,7 @@
       </c>
       <c r="X49" s="77">
         <f>+BS43</f>
-        <v>57.66</v>
+        <v>58.5</v>
       </c>
       <c r="Y49" s="77"/>
       <c r="Z49" s="77"/>
@@ -10630,17 +10701,17 @@
       <c r="BG49" s="77"/>
       <c r="BH49" s="77"/>
       <c r="BR49" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BS49" s="79">
         <f>+Main!$F$9/Model!BE30</f>
-        <v>60.439399766554835</v>
+        <v>61.348519896109799</v>
       </c>
     </row>
     <row r="50" spans="1:71" s="75" customFormat="1">
       <c r="A50" s="76"/>
       <c r="B50" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -10651,28 +10722,28 @@
       <c r="Q50" s="77"/>
       <c r="R50" s="77"/>
       <c r="S50" s="77">
-        <f>+S32*S49/1000</f>
+        <f t="shared" ref="S50:X50" si="127">+S32*S49/1000</f>
         <v>42513.230514606745</v>
       </c>
       <c r="T50" s="77">
-        <f>+T32*T49/1000</f>
+        <f t="shared" si="127"/>
         <v>40129.122990000003</v>
       </c>
       <c r="U50" s="77">
-        <f>+U32*U49/1000</f>
+        <f t="shared" si="127"/>
         <v>51618.056250000001</v>
       </c>
       <c r="V50" s="77">
-        <f>+V32*V49/1000</f>
+        <f t="shared" si="127"/>
         <v>49849.8894</v>
       </c>
       <c r="W50" s="77">
-        <f>+W32*W49/1000</f>
+        <f t="shared" si="127"/>
         <v>42175.56525</v>
       </c>
       <c r="X50" s="77">
-        <f>+X32*X49/1000</f>
-        <v>1619.7847199999999</v>
+        <f t="shared" si="127"/>
+        <v>1643.3820000000001</v>
       </c>
       <c r="Y50" s="77"/>
       <c r="Z50" s="77"/>
@@ -10720,17 +10791,17 @@
       <c r="BG50" s="77"/>
       <c r="BH50" s="77"/>
       <c r="BR50" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BS50" s="79">
         <f>+Main!$F$9/Model!BF30</f>
-        <v>32.598049781504351</v>
+        <v>33.088384618631565</v>
       </c>
     </row>
     <row r="51" spans="1:71" s="75" customFormat="1">
       <c r="A51" s="76"/>
       <c r="B51" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
@@ -10741,28 +10812,28 @@
       <c r="Q51" s="77"/>
       <c r="R51" s="77"/>
       <c r="S51" s="77">
-        <f>+S50-(S55/1000)</f>
+        <f t="shared" ref="S51:X51" si="128">+S50-(S55/1000)</f>
         <v>41316.078514606743</v>
       </c>
       <c r="T51" s="77">
-        <f>+T50-(T55/1000)</f>
+        <f t="shared" si="128"/>
         <v>38959.702990000005</v>
       </c>
       <c r="U51" s="77">
-        <f>+U50-(U55/1000)</f>
+        <f t="shared" si="128"/>
         <v>50379.178250000004</v>
       </c>
       <c r="V51" s="77">
-        <f>+V50-(V55/1000)</f>
+        <f t="shared" si="128"/>
         <v>48468.403400000003</v>
       </c>
       <c r="W51" s="77">
-        <f>+W50-(W55/1000)</f>
+        <f t="shared" si="128"/>
         <v>40955.363250000002</v>
       </c>
       <c r="X51" s="77">
-        <f>+X50-(X55/1000)</f>
-        <v>467.36171999999988</v>
+        <f t="shared" si="128"/>
+        <v>490.95900000000006</v>
       </c>
       <c r="Y51" s="77"/>
       <c r="Z51" s="77"/>
@@ -10810,22 +10881,82 @@
       <c r="BG51" s="77"/>
       <c r="BH51" s="77"/>
       <c r="BR51" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BS51" s="79">
         <f>+Main!$F$9/Model!BG30</f>
-        <v>28.204928349595733</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71" s="57" customFormat="1">
-      <c r="A52" s="73"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="AA52" s="74"/>
-      <c r="AM52" s="36"/>
+        <v>28.629182531707286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:71" s="103" customFormat="1">
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="AA52" s="104"/>
+      <c r="AM52" s="102"/>
+      <c r="AQ52" s="103">
+        <f>+AQ17/1000000</f>
+        <v>1.5184169999999999</v>
+      </c>
+      <c r="AR52" s="103">
+        <f t="shared" ref="AR52:BE52" si="129">+AR17/1000000</f>
+        <v>1.8359220000000001</v>
+      </c>
+      <c r="AS52" s="103">
+        <f t="shared" si="129"/>
+        <v>2.2695479999999999</v>
+      </c>
+      <c r="AT52" s="103">
+        <f t="shared" si="129"/>
+        <v>2.7312240000000001</v>
+      </c>
+      <c r="AU52" s="103">
+        <f t="shared" si="129"/>
+        <v>3.214591</v>
+      </c>
+      <c r="AV52" s="103">
+        <f t="shared" si="129"/>
+        <v>4.1082689999999999</v>
+      </c>
+      <c r="AW52" s="103">
+        <f t="shared" si="129"/>
+        <v>4.5012230000000004</v>
+      </c>
+      <c r="AX52" s="103">
+        <f t="shared" si="129"/>
+        <v>3.9043839999999999</v>
+      </c>
+      <c r="AY52" s="103">
+        <f t="shared" si="129"/>
+        <v>4.4764119999999998</v>
+      </c>
+      <c r="AZ52" s="103">
+        <f t="shared" si="129"/>
+        <v>4.8649849999999999</v>
+      </c>
+      <c r="BA52" s="103">
+        <f t="shared" si="129"/>
+        <v>5.5863690000000004</v>
+      </c>
+      <c r="BB52" s="103">
+        <f t="shared" si="129"/>
+        <v>5.9846339999999998</v>
+      </c>
+      <c r="BC52" s="103">
+        <f t="shared" si="129"/>
+        <v>7.5470610000000002</v>
+      </c>
+      <c r="BD52" s="103">
+        <f t="shared" si="129"/>
+        <v>8.6346520000000009</v>
+      </c>
+      <c r="BE52" s="103">
+        <f t="shared" si="129"/>
+        <v>9.8716489999999997</v>
+      </c>
     </row>
     <row r="53" spans="1:71" s="57" customFormat="1">
       <c r="A53" s="73"/>
@@ -10862,78 +10993,78 @@
     </row>
     <row r="55" spans="1:71">
       <c r="B55" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="25">
         <f>+C56+C64+C65+C61</f>
         <v>577040</v>
       </c>
       <c r="D55" s="25">
-        <f t="shared" ref="D55:N55" si="127">+D56+D64+D65+D61</f>
+        <f t="shared" ref="D55:N55" si="130">+D56+D64+D65+D61</f>
         <v>569603</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" ref="E55:F55" si="128">+E56+E64+E65+E61</f>
+        <f t="shared" ref="E55:F55" si="131">+E56+E64+E65+E61</f>
         <v>548357</v>
       </c>
       <c r="F55" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>538552</v>
       </c>
       <c r="G55" s="25">
-        <f t="shared" ref="G55:H55" si="129">+G56+G64+G65+G61</f>
+        <f t="shared" ref="G55:H55" si="132">+G56+G64+G65+G61</f>
         <v>579977</v>
       </c>
       <c r="H55" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>573927</v>
       </c>
       <c r="I55" s="25">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>700395</v>
       </c>
       <c r="J55" s="25">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>706997</v>
       </c>
       <c r="K55" s="25">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>763406</v>
       </c>
       <c r="L55" s="25">
-        <f t="shared" ref="L55:M55" si="130">+L56+L64+L65+L61</f>
+        <f t="shared" ref="L55:M55" si="133">+L56+L64+L65+L61</f>
         <v>746323</v>
       </c>
       <c r="M55" s="25">
+        <f t="shared" si="133"/>
+        <v>844058</v>
+      </c>
+      <c r="N55" s="25">
         <f t="shared" si="130"/>
-        <v>844058</v>
-      </c>
-      <c r="N55" s="25">
-        <f t="shared" si="127"/>
         <v>908637</v>
       </c>
       <c r="O55" s="25">
-        <f t="shared" ref="O55:T55" si="131">+O56+O64+O65+O61</f>
+        <f t="shared" ref="O55:T55" si="134">+O56+O64+O65+O61</f>
         <v>909249</v>
       </c>
       <c r="P55" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>934642</v>
       </c>
       <c r="Q55" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1094285</v>
       </c>
       <c r="R55" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1081780</v>
       </c>
       <c r="S55" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1197152</v>
       </c>
       <c r="T55" s="25">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1169420</v>
       </c>
       <c r="U55" s="25">
@@ -10941,11 +11072,11 @@
         <v>1238878</v>
       </c>
       <c r="V55" s="25">
-        <f t="shared" ref="V55:AE55" si="132">+V56+V64+V65+V61</f>
+        <f t="shared" ref="V55:AE55" si="135">+V56+V64+V65+V61</f>
         <v>1381486</v>
       </c>
       <c r="W55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1220202</v>
       </c>
       <c r="X55" s="25">
@@ -10953,31 +11084,31 @@
         <v>1152423</v>
       </c>
       <c r="Y55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1257495</v>
       </c>
       <c r="Z55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1312157</v>
       </c>
       <c r="AA55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1455741</v>
       </c>
       <c r="AB55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1811876</v>
       </c>
       <c r="AC55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1952568</v>
       </c>
       <c r="AD55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>1885489</v>
       </c>
       <c r="AE55" s="25">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2222821</v>
       </c>
       <c r="AF55" s="25">
@@ -10989,49 +11120,49 @@
         <v>2490123</v>
       </c>
       <c r="BF55" s="25">
-        <f t="shared" ref="BF55:BO55" si="133">+BE55+BF30</f>
+        <f t="shared" ref="BF55:BO55" si="136">+BE55+BF30</f>
         <v>4839441.0430521388</v>
       </c>
       <c r="BG55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>7554682.3502011318</v>
       </c>
       <c r="BH55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>10672471.584409418</v>
       </c>
       <c r="BI55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>14232525.804288618</v>
       </c>
       <c r="BJ55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>18277893.888764843</v>
       </c>
       <c r="BK55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>22855213.562422697</v>
       </c>
       <c r="BL55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>28014987.271710299</v>
       </c>
       <c r="BM55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>33811878.248847209</v>
       </c>
       <c r="BN55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>40305028.192835569</v>
       </c>
       <c r="BO55" s="25">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>48148382.785339609</v>
       </c>
     </row>
     <row r="56" spans="1:71">
       <c r="B56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="25">
         <v>122413</v>
@@ -11126,7 +11257,7 @@
     </row>
     <row r="57" spans="1:71">
       <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="25">
         <v>21852</v>
@@ -11221,7 +11352,7 @@
     </row>
     <row r="58" spans="1:71">
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="25">
         <v>18319</v>
@@ -11316,7 +11447,7 @@
     </row>
     <row r="59" spans="1:71">
       <c r="B59" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="25">
         <v>47023</v>
@@ -11411,7 +11542,7 @@
     </row>
     <row r="60" spans="1:71">
       <c r="B60" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="25">
         <v>0</v>
@@ -11506,7 +11637,7 @@
     </row>
     <row r="61" spans="1:71">
       <c r="B61" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="25">
         <v>454627</v>
@@ -11601,133 +11732,133 @@
     </row>
     <row r="62" spans="1:71">
       <c r="B62" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="25">
-        <f t="shared" ref="C62:N62" si="134">+SUM(C56:C61)</f>
+        <f t="shared" ref="C62:N62" si="137">+SUM(C56:C61)</f>
         <v>664234</v>
       </c>
       <c r="D62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>663965</v>
       </c>
       <c r="E62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>655936</v>
       </c>
       <c r="F62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>629535</v>
       </c>
       <c r="G62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>630439</v>
       </c>
       <c r="H62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>720674</v>
       </c>
       <c r="I62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>793071</v>
       </c>
       <c r="J62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>814794</v>
       </c>
       <c r="K62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>837746</v>
       </c>
       <c r="L62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>832402</v>
       </c>
       <c r="M62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>954756</v>
       </c>
       <c r="N62" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>1072204</v>
       </c>
       <c r="O62" s="25">
-        <f t="shared" ref="O62:W62" si="135">+SUM(O56:O61)</f>
+        <f t="shared" ref="O62:W62" si="138">+SUM(O56:O61)</f>
         <v>1075501</v>
       </c>
       <c r="P62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1150343</v>
       </c>
       <c r="Q62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1211280</v>
       </c>
       <c r="R62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1420237</v>
       </c>
       <c r="S62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1456851</v>
       </c>
       <c r="T62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1447810</v>
       </c>
       <c r="U62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1518606</v>
       </c>
       <c r="V62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1381564</v>
       </c>
       <c r="W62" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1096493</v>
       </c>
       <c r="X62" s="25">
-        <f t="shared" ref="X62:Z62" si="136">+SUM(X56:X61)</f>
+        <f t="shared" ref="X62:Z62" si="139">+SUM(X56:X61)</f>
         <v>1046299</v>
       </c>
       <c r="Y62" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>1077432</v>
       </c>
       <c r="Z62" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>1175837</v>
       </c>
       <c r="AA62" s="25">
-        <f t="shared" ref="AA62:AB62" si="137">+SUM(AA56:AA61)</f>
+        <f t="shared" ref="AA62:AB62" si="140">+SUM(AA56:AA61)</f>
         <v>1261442</v>
       </c>
       <c r="AB62" s="25">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>1556419</v>
       </c>
       <c r="AC62" s="25">
-        <f t="shared" ref="AC62:AE62" si="138">+SUM(AC56:AC61)</f>
+        <f t="shared" ref="AC62:AE62" si="141">+SUM(AC56:AC61)</f>
         <v>1669343</v>
       </c>
       <c r="AD62" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v>1620713</v>
       </c>
       <c r="AE62" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v>1645769</v>
       </c>
       <c r="AF62" s="25">
-        <f t="shared" ref="AF62" si="139">+SUM(AF56:AF61)</f>
+        <f t="shared" ref="AF62" si="142">+SUM(AF56:AF61)</f>
         <v>1786298</v>
       </c>
       <c r="BN62" s="77"/>
     </row>
     <row r="63" spans="1:71">
       <c r="B63" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="25">
         <v>1322622</v>
@@ -11822,7 +11953,7 @@
     </row>
     <row r="64" spans="1:71">
       <c r="B64" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="25">
         <v>0</v>
@@ -11917,7 +12048,7 @@
     </row>
     <row r="65" spans="2:32">
       <c r="B65" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="25">
         <v>0</v>
@@ -12012,7 +12143,7 @@
     </row>
     <row r="66" spans="2:32">
       <c r="B66" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="25">
         <v>0</v>
@@ -12044,7 +12175,7 @@
     </row>
     <row r="67" spans="2:32">
       <c r="B67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="25">
         <v>0</v>
@@ -12139,7 +12270,7 @@
     </row>
     <row r="68" spans="2:32">
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="25">
         <v>53737</v>
@@ -12234,7 +12365,7 @@
     </row>
     <row r="69" spans="2:32">
       <c r="B69" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="25">
         <v>21939</v>
@@ -12329,132 +12460,132 @@
     </row>
     <row r="70" spans="2:32">
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="25">
-        <f t="shared" ref="C70:D70" si="140">+SUM(C62:C69)</f>
+        <f t="shared" ref="C70:D70" si="143">+SUM(C62:C69)</f>
         <v>2062532</v>
       </c>
       <c r="D70" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>2068551</v>
       </c>
       <c r="E70" s="25">
-        <f t="shared" ref="E70:F70" si="141">+SUM(E62:E69)</f>
+        <f t="shared" ref="E70:F70" si="144">+SUM(E62:E69)</f>
         <v>2064377</v>
       </c>
       <c r="F70" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2045692</v>
       </c>
       <c r="G70" s="25">
-        <f t="shared" ref="G70:M70" si="142">+SUM(G62:G69)</f>
+        <f t="shared" ref="G70:M70" si="145">+SUM(G62:G69)</f>
         <v>2097444</v>
       </c>
       <c r="H70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>2128622</v>
       </c>
       <c r="I70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>2230872</v>
       </c>
       <c r="J70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>2265518</v>
       </c>
       <c r="K70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>4625482</v>
       </c>
       <c r="L70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>4659307</v>
       </c>
       <c r="M70" s="25">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>4937937</v>
       </c>
       <c r="N70" s="25">
-        <f t="shared" ref="N70:V70" si="143">+SUM(N62:N69)</f>
+        <f t="shared" ref="N70:V70" si="146">+SUM(N62:N69)</f>
         <v>5104604</v>
       </c>
       <c r="O70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>5206488</v>
       </c>
       <c r="P70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>5370129</v>
       </c>
       <c r="Q70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>5631640</v>
       </c>
       <c r="R70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>5962896</v>
       </c>
       <c r="S70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>6149059</v>
       </c>
       <c r="T70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>6320454</v>
       </c>
       <c r="U70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>6627567</v>
       </c>
       <c r="V70" s="25">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>6652958</v>
       </c>
       <c r="W70" s="25">
-        <f t="shared" ref="W70:AE70" si="144">+SUM(W62:W69)</f>
+        <f t="shared" ref="W70:AE70" si="147">+SUM(W62:W69)</f>
         <v>6467257</v>
       </c>
       <c r="X70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>6545336</v>
       </c>
       <c r="Y70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>6817437</v>
       </c>
       <c r="Z70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>6927504</v>
       </c>
       <c r="AA70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>7053372</v>
       </c>
       <c r="AB70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>7552435</v>
       </c>
       <c r="AC70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>7911493</v>
       </c>
       <c r="AD70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>8044362</v>
       </c>
       <c r="AE70" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>8411249</v>
       </c>
       <c r="AF70" s="25">
-        <f t="shared" ref="AF70" si="145">+SUM(AF62:AF69)</f>
+        <f t="shared" ref="AF70" si="148">+SUM(AF62:AF69)</f>
         <v>8919835</v>
       </c>
     </row>
     <row r="72" spans="2:32">
       <c r="B72" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="25">
         <v>83840</v>
@@ -12549,7 +12680,7 @@
     </row>
     <row r="73" spans="2:32">
       <c r="B73" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="25">
         <v>96730</v>
@@ -12644,7 +12775,7 @@
     </row>
     <row r="74" spans="2:32">
       <c r="B74" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="25">
         <v>101114</v>
@@ -12739,7 +12870,7 @@
     </row>
     <row r="75" spans="2:32">
       <c r="B75" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="25">
         <v>0</v>
@@ -12834,7 +12965,7 @@
     </row>
     <row r="76" spans="2:32">
       <c r="B76" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="25">
         <v>0</v>
@@ -12929,7 +13060,7 @@
     </row>
     <row r="77" spans="2:32">
       <c r="B77" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="25">
         <v>24639</v>
@@ -12973,7 +13104,7 @@
     </row>
     <row r="78" spans="2:32">
       <c r="B78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="25">
         <f>+SUM(C72:C77)</f>
@@ -12984,121 +13115,121 @@
         <v>267785</v>
       </c>
       <c r="E78" s="25">
-        <f t="shared" ref="E78:W78" si="146">+SUM(E72:E77)</f>
+        <f t="shared" ref="E78:W78" si="149">+SUM(E72:E77)</f>
         <v>323402</v>
       </c>
       <c r="F78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>323893</v>
       </c>
       <c r="G78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>367320</v>
       </c>
       <c r="H78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>355161</v>
       </c>
       <c r="I78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>402786</v>
       </c>
       <c r="J78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>449990</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>581667</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>548268</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>634019</v>
       </c>
       <c r="N78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>666593</v>
       </c>
       <c r="O78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>665795</v>
       </c>
       <c r="P78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>723178</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>801717</v>
       </c>
       <c r="R78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>822199</v>
       </c>
       <c r="S78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>833994</v>
       </c>
       <c r="T78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>835486</v>
       </c>
       <c r="U78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>850964</v>
       </c>
       <c r="V78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>873682</v>
       </c>
       <c r="W78" s="25">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>833738</v>
       </c>
       <c r="X78" s="25">
-        <f t="shared" ref="X78:Z78" si="147">+SUM(X72:X77)</f>
+        <f t="shared" ref="X78:Z78" si="150">+SUM(X72:X77)</f>
         <v>831623</v>
       </c>
       <c r="Y78" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>817857</v>
       </c>
       <c r="Z78" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>921880</v>
       </c>
       <c r="AA78" s="25">
-        <f t="shared" ref="AA78:AB78" si="148">+SUM(AA72:AA77)</f>
+        <f t="shared" ref="AA78:AB78" si="151">+SUM(AA72:AA77)</f>
         <v>894092</v>
       </c>
       <c r="AB78" s="25">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>982250</v>
       </c>
       <c r="AC78" s="25">
-        <f t="shared" ref="AC78:AE78" si="149">+SUM(AC72:AC77)</f>
+        <f t="shared" ref="AC78:AE78" si="152">+SUM(AC72:AC77)</f>
         <v>1087707</v>
       </c>
       <c r="AD78" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>1030625</v>
       </c>
       <c r="AE78" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>997353</v>
       </c>
       <c r="AF78" s="25">
-        <f t="shared" ref="AF78" si="150">+SUM(AF72:AF77)</f>
+        <f t="shared" ref="AF78" si="153">+SUM(AF72:AF77)</f>
         <v>1043156</v>
       </c>
     </row>
     <row r="79" spans="2:32">
       <c r="B79" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="25">
         <v>297843</v>
@@ -13136,7 +13267,7 @@
     </row>
     <row r="80" spans="2:32">
       <c r="B80" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="25">
         <v>0</v>
@@ -13231,7 +13362,7 @@
     </row>
     <row r="81" spans="1:32">
       <c r="B81" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="25">
         <v>15741</v>
@@ -13326,7 +13457,7 @@
     </row>
     <row r="82" spans="1:32">
       <c r="B82" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="25">
         <v>34633</v>
@@ -13421,132 +13552,132 @@
     </row>
     <row r="83" spans="1:32">
       <c r="B83" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="25">
-        <f t="shared" ref="C83:D83" si="151">+SUM(C78:C82)</f>
+        <f t="shared" ref="C83:D83" si="154">+SUM(C78:C82)</f>
         <v>654540</v>
       </c>
       <c r="D83" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>618355</v>
       </c>
       <c r="E83" s="25">
-        <f t="shared" ref="E83:F83" si="152">+SUM(E78:E82)</f>
+        <f t="shared" ref="E83:F83" si="155">+SUM(E78:E82)</f>
         <v>677251</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>681247</v>
       </c>
       <c r="G83" s="25">
-        <f t="shared" ref="G83:H83" si="153">+SUM(G78:G82)</f>
+        <f t="shared" ref="G83:H83" si="156">+SUM(G78:G82)</f>
         <v>733399</v>
       </c>
       <c r="H83" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>736615</v>
       </c>
       <c r="I83" s="25">
-        <f t="shared" ref="I83:K83" si="154">+SUM(I78:I82)</f>
+        <f t="shared" ref="I83:K83" si="157">+SUM(I78:I82)</f>
         <v>795035</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>824179</v>
       </c>
       <c r="K83" s="25">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>3141683</v>
       </c>
       <c r="L83" s="25">
-        <f t="shared" ref="L83:M83" si="155">+SUM(L78:L82)</f>
+        <f t="shared" ref="L83:M83" si="158">+SUM(L78:L82)</f>
         <v>3121258</v>
       </c>
       <c r="M83" s="25">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>3315490</v>
       </c>
       <c r="N83" s="25">
-        <f t="shared" ref="N83:U83" si="156">+SUM(N78:N82)</f>
+        <f t="shared" ref="N83:U83" si="159">+SUM(N78:N82)</f>
         <v>3421578</v>
       </c>
       <c r="O83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>3534468</v>
       </c>
       <c r="P83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>3665633</v>
       </c>
       <c r="Q83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>3826054</v>
       </c>
       <c r="R83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>3962761</v>
       </c>
       <c r="S83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>4051518</v>
       </c>
       <c r="T83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>4146296</v>
       </c>
       <c r="U83" s="25">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>4316659</v>
       </c>
       <c r="V83" s="25">
-        <f t="shared" ref="V83:W83" si="157">+SUM(V78:V82)</f>
+        <f t="shared" ref="V83:W83" si="160">+SUM(V78:V82)</f>
         <v>4355584</v>
       </c>
       <c r="W83" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>4333297</v>
       </c>
       <c r="X83" s="25">
-        <f t="shared" ref="X83:Z83" si="158">+SUM(X78:X82)</f>
+        <f t="shared" ref="X83:Z83" si="161">+SUM(X78:X82)</f>
         <v>4391137</v>
       </c>
       <c r="Y83" s="25">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>4490056</v>
       </c>
       <c r="Z83" s="25">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>4559481</v>
       </c>
       <c r="AA83" s="25">
-        <f t="shared" ref="AA83:AB83" si="159">+SUM(AA78:AA82)</f>
+        <f t="shared" ref="AA83:AB83" si="162">+SUM(AA78:AA82)</f>
         <v>4571687</v>
       </c>
       <c r="AB83" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>4785549</v>
       </c>
       <c r="AC83" s="25">
-        <f t="shared" ref="AC83:AE83" si="160">+SUM(AC78:AC82)</f>
+        <f t="shared" ref="AC83:AE83" si="163">+SUM(AC78:AC82)</f>
         <v>5025179</v>
       </c>
       <c r="AD83" s="25">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>4982155</v>
       </c>
       <c r="AE83" s="25">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>5049920</v>
       </c>
       <c r="AF83" s="25">
-        <f t="shared" ref="AF83" si="161">+SUM(AF78:AF82)</f>
+        <f t="shared" ref="AF83" si="164">+SUM(AF78:AF82)</f>
         <v>5208015</v>
       </c>
     </row>
     <row r="84" spans="1:32">
       <c r="B84" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="25">
         <v>1407722</v>
@@ -13642,144 +13773,144 @@
     <row r="85" spans="1:32" s="36" customFormat="1">
       <c r="A85" s="40"/>
       <c r="B85" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="36">
-        <f t="shared" ref="C85:I85" si="162">+C83+C84</f>
+        <f t="shared" ref="C85:I85" si="165">+C83+C84</f>
         <v>2062262</v>
       </c>
       <c r="D85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2068551</v>
       </c>
       <c r="E85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2064377</v>
       </c>
       <c r="F85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2045692</v>
       </c>
       <c r="G85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2097444</v>
       </c>
       <c r="H85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2128622</v>
       </c>
       <c r="I85" s="36">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>2230872</v>
       </c>
       <c r="J85" s="36">
-        <f t="shared" ref="J85:K85" si="163">+J83+J84</f>
+        <f t="shared" ref="J85:K85" si="166">+J83+J84</f>
         <v>2265518</v>
       </c>
       <c r="K85" s="36">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>4625482</v>
       </c>
       <c r="L85" s="36">
-        <f t="shared" ref="L85:M85" si="164">+L83+L84</f>
+        <f t="shared" ref="L85:M85" si="167">+L83+L84</f>
         <v>4659307</v>
       </c>
       <c r="M85" s="36">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>4937937</v>
       </c>
       <c r="N85" s="36">
-        <f t="shared" ref="N85:U85" si="165">+N83+N84</f>
+        <f t="shared" ref="N85:U85" si="168">+N83+N84</f>
         <v>5104604</v>
       </c>
       <c r="O85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>5206488</v>
       </c>
       <c r="P85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>5370129</v>
       </c>
       <c r="Q85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>5631640</v>
       </c>
       <c r="R85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>5982896</v>
       </c>
       <c r="S85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>6149049</v>
       </c>
       <c r="T85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>6320454</v>
       </c>
       <c r="U85" s="36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>6627567</v>
       </c>
       <c r="V85" s="36">
-        <f t="shared" ref="V85:W85" si="166">+V83+V84</f>
+        <f t="shared" ref="V85:W85" si="169">+V83+V84</f>
         <v>6652958</v>
       </c>
       <c r="W85" s="36">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>6467257</v>
       </c>
       <c r="X85" s="36">
-        <f t="shared" ref="X85:Z85" si="167">+X83+X84</f>
+        <f t="shared" ref="X85:Z85" si="170">+X83+X84</f>
         <v>6545336</v>
       </c>
       <c r="Y85" s="36">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>6817437</v>
       </c>
       <c r="Z85" s="36">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>6927504</v>
       </c>
       <c r="AA85" s="36">
-        <f t="shared" ref="AA85:AB85" si="168">+AA83+AA84</f>
+        <f t="shared" ref="AA85:AB85" si="171">+AA83+AA84</f>
         <v>7053372</v>
       </c>
       <c r="AB85" s="36">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>7552435</v>
       </c>
       <c r="AC85" s="36">
-        <f t="shared" ref="AC85:AE85" si="169">+AC83+AC84</f>
+        <f t="shared" ref="AC85:AE85" si="172">+AC83+AC84</f>
         <v>7911493</v>
       </c>
       <c r="AD85" s="36">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>8044362</v>
       </c>
       <c r="AE85" s="36">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>8411249</v>
       </c>
       <c r="AF85" s="36">
-        <f t="shared" ref="AF85" si="170">+AF83+AF84</f>
+        <f t="shared" ref="AF85" si="173">+AF83+AF84</f>
         <v>8919835</v>
       </c>
     </row>
     <row r="87" spans="1:32" s="45" customFormat="1">
       <c r="A87" s="65"/>
       <c r="B87" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F87" s="45">
-        <f t="shared" ref="F87:H87" si="171">SUM(C30:F30)/F84</f>
+        <f t="shared" ref="F87:H87" si="174">SUM(C30:F30)/F84</f>
         <v>0.28478832052592812</v>
       </c>
       <c r="G87" s="45">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.29552764021714828</v>
       </c>
       <c r="H87" s="45">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.30816870892172238</v>
       </c>
       <c r="I87" s="45">
@@ -13791,97 +13922,97 @@
         <v>0.16872644117726643</v>
       </c>
       <c r="K87" s="45">
-        <f t="shared" ref="K87:S87" si="172">SUM(H30:K30)/K84</f>
+        <f t="shared" ref="K87:S87" si="175">SUM(H30:K30)/K84</f>
         <v>0.18463484609438341</v>
       </c>
       <c r="L87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.18027384043031139</v>
       </c>
       <c r="M87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.20778552396472735</v>
       </c>
       <c r="N87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.22204172722227702</v>
       </c>
       <c r="O87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.2179112690039593</v>
       </c>
       <c r="P87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.16567830021308352</v>
       </c>
       <c r="Q87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.14738926863633192</v>
       </c>
       <c r="R87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.19109762466369823</v>
       </c>
       <c r="S87" s="45">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.20647513672026779</v>
       </c>
       <c r="T87" s="45">
-        <f t="shared" ref="T87" si="173">SUM(Q30:T30)/T84</f>
+        <f t="shared" ref="T87" si="176">SUM(Q30:T30)/T84</f>
         <v>0.28138111397607718</v>
       </c>
       <c r="U87" s="45">
-        <f t="shared" ref="U87" si="174">SUM(R30:U30)/U84</f>
+        <f t="shared" ref="U87" si="177">SUM(R30:U30)/U84</f>
         <v>0.31702863117008551</v>
       </c>
       <c r="V87" s="45">
-        <f t="shared" ref="V87:Y87" si="175">SUM(S30:V30)/V84</f>
+        <f t="shared" ref="V87:Y87" si="178">SUM(S30:V30)/V84</f>
         <v>0.29262758262259431</v>
       </c>
       <c r="W87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.32901741363474479</v>
       </c>
       <c r="X87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.35952713746501602</v>
       </c>
       <c r="Y87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.35615225869765199</v>
       </c>
       <c r="Z87" s="45">
-        <f t="shared" ref="Z87" si="176">SUM(W30:Z30)/Z84</f>
+        <f t="shared" ref="Z87" si="179">SUM(W30:Z30)/Z84</f>
         <v>0.38861109034836233</v>
       </c>
       <c r="AA87" s="45">
-        <f t="shared" ref="AA87" si="177">SUM(X30:AA30)/AA84</f>
+        <f t="shared" ref="AA87" si="180">SUM(X30:AA30)/AA84</f>
         <v>0.42617858430864514</v>
       </c>
       <c r="AB87" s="45">
-        <f t="shared" ref="AB87" si="178">SUM(Y30:AB30)/AB84</f>
+        <f t="shared" ref="AB87" si="181">SUM(Y30:AB30)/AB84</f>
         <v>0.41600846583487716</v>
       </c>
       <c r="AC87" s="45">
-        <f t="shared" ref="AC87" si="179">SUM(Z30:AC30)/AC84</f>
+        <f t="shared" ref="AC87" si="182">SUM(Z30:AC30)/AC84</f>
         <v>0.41852861469680708</v>
       </c>
       <c r="AD87" s="45">
-        <f t="shared" ref="AD87:AF87" si="180">SUM(AA30:AD30)/AD84</f>
+        <f t="shared" ref="AD87:AF87" si="183">SUM(AA30:AD30)/AD84</f>
         <v>0.41378881310113913</v>
       </c>
       <c r="AE87" s="45">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.39623256158501591</v>
       </c>
       <c r="AF87" s="45">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.38667580863296175</v>
       </c>
     </row>
     <row r="89" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B89" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:32" hidden="1" outlineLevel="1">
@@ -13890,23 +14021,23 @@
         <v>A/P</v>
       </c>
       <c r="L90" s="25">
-        <f t="shared" ref="L90:U94" si="181">+L72/K72-1</f>
+        <f t="shared" ref="L90:U94" si="184">+L72/K72-1</f>
         <v>-6.785357862428687E-2</v>
       </c>
       <c r="M90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.19671336370155657</v>
       </c>
       <c r="N90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-2.2509558333262958E-2</v>
       </c>
       <c r="O90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.12612247012502587</v>
       </c>
       <c r="P90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.23078751447214074</v>
       </c>
       <c r="Q90" s="25">
@@ -13914,19 +14045,19 @@
         <v>-1.9928608361418632E-2</v>
       </c>
       <c r="R90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.22459383183748194</v>
       </c>
       <c r="S90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.20843511763259293</v>
       </c>
       <c r="T90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-4.8610404498802717E-2</v>
       </c>
       <c r="U90" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.2243192561906866</v>
       </c>
       <c r="V90" s="25">
@@ -13940,217 +14071,217 @@
     </row>
     <row r="91" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B91" s="9" t="str">
-        <f t="shared" ref="B91:B94" si="182">+B73</f>
+        <f t="shared" ref="B91:B94" si="185">+B73</f>
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="L91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.17452731662892995</v>
       </c>
       <c r="M91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.4753643724696357</v>
       </c>
       <c r="N91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.13148470836820658</v>
       </c>
       <c r="O91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>4.4810426540284443E-2</v>
       </c>
       <c r="P91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-1.4870759716646642E-2</v>
       </c>
       <c r="Q91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.49553359016468934</v>
       </c>
       <c r="R91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>4.1959800284281812E-2</v>
       </c>
       <c r="S91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>9.1665271307139973E-2</v>
       </c>
       <c r="T91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>1.5505239841744567E-2</v>
       </c>
       <c r="U91" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.15189423555334425</v>
       </c>
       <c r="V91" s="25">
-        <f t="shared" ref="V91:W94" si="183">+V73/U73-1</f>
+        <f t="shared" ref="V91:W94" si="186">+V73/U73-1</f>
         <v>-0.14932010559839093</v>
       </c>
       <c r="W91" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>6.1876173763123044E-2</v>
       </c>
     </row>
     <row r="92" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B92" s="9" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v xml:space="preserve">Accrued liabilities </v>
       </c>
       <c r="L92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>5.8975236410072407E-2</v>
       </c>
       <c r="M92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.11254817582105781</v>
       </c>
       <c r="N92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.10402453970345493</v>
       </c>
       <c r="O92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-5.5190159327014987E-2</v>
       </c>
       <c r="P92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-6.8798304831502177E-3</v>
       </c>
       <c r="Q92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>8.209725840975457E-2</v>
       </c>
       <c r="R92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>4.0541223757220246E-2</v>
       </c>
       <c r="S92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.1155306136083426</v>
       </c>
       <c r="T92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-1.4818680601811463E-2</v>
       </c>
       <c r="U92" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>6.8056513950748965E-2</v>
       </c>
       <c r="V92" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0.12933898050680992</v>
       </c>
       <c r="W92" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>-0.21032406444305762</v>
       </c>
     </row>
     <row r="93" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B93" s="9" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="L93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>8.2434136771300404E-2</v>
       </c>
       <c r="M93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.4274201378782223E-4</v>
       </c>
       <c r="N93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.54014787490494909</v>
       </c>
       <c r="O93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.18589211618257262</v>
       </c>
       <c r="P93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.14742125704847808</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.8597454005667711E-2</v>
       </c>
       <c r="R93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.39667858353285879</v>
       </c>
       <c r="S93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>-0.13740117416829745</v>
       </c>
       <c r="T93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.558145866039907E-2</v>
       </c>
       <c r="U93" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>6.5539392652367745E-2</v>
       </c>
       <c r="V93" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0.29834832216437057</v>
       </c>
       <c r="W93" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>-0.1530530664978158</v>
       </c>
     </row>
     <row r="94" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B94" s="9" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>Current op lease liab</v>
       </c>
       <c r="L94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.2757111597374147E-2</v>
       </c>
       <c r="M94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>3.441176288193093E-2</v>
       </c>
       <c r="N94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>3.7991151185237548E-2</v>
       </c>
       <c r="O94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>3.0143410785553826E-2</v>
       </c>
       <c r="P94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.10561903587167376</v>
       </c>
       <c r="Q94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>1.3281202458467645E-2</v>
       </c>
       <c r="R94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.4727873282786472E-2</v>
       </c>
       <c r="S94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.1147121451874362E-2</v>
       </c>
       <c r="T94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>2.1809207694441612E-2</v>
       </c>
       <c r="U94" s="25">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>4.8585042547018009E-3</v>
       </c>
       <c r="V94" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>1.8767118183003806E-2</v>
       </c>
       <c r="W94" s="25">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>2.0986406843671812E-2</v>
       </c>
     </row>
@@ -14160,43 +14291,43 @@
         <v>Long Term Op Lease</v>
       </c>
       <c r="L95" s="25">
-        <f t="shared" ref="L95:U95" si="184">+L78/K78-1</f>
+        <f t="shared" ref="L95:U95" si="187">+L78/K78-1</f>
         <v>-5.7419451335557925E-2</v>
       </c>
       <c r="M95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.15640343773483045</v>
       </c>
       <c r="N95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>5.13770092063488E-2</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>-1.1971322831172415E-3</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>8.6187189750598803E-2</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.10860258470252138</v>
       </c>
       <c r="R95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>2.5547668316874939E-2</v>
       </c>
       <c r="S95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>1.4345675438671268E-2</v>
       </c>
       <c r="T95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>1.788981695312053E-3</v>
       </c>
       <c r="U95" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>1.8525744297331226E-2</v>
       </c>
       <c r="V95" s="25">
@@ -14214,43 +14345,43 @@
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="L96" s="25">
-        <f t="shared" ref="L96:U96" si="185">+L80/K80-1</f>
+        <f t="shared" ref="L96:U96" si="188">+L80/K80-1</f>
         <v>8.3010428811636228E-3</v>
       </c>
       <c r="M96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>4.259480844211061E-2</v>
       </c>
       <c r="N96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>1.348488328577524E-2</v>
       </c>
       <c r="O96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>3.2259871100899229E-2</v>
       </c>
       <c r="P96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>1.605915556330384E-2</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>2.9176506437114336E-2</v>
       </c>
       <c r="R96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>2.1152901623580966E-2</v>
       </c>
       <c r="S96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>2.9766662963334189E-2</v>
       </c>
       <c r="T96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>3.1043926404260791E-2</v>
       </c>
       <c r="U96" s="25">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>4.4765524930971079E-2</v>
       </c>
       <c r="V96" s="25">
@@ -14262,365 +14393,365 @@
         <v>9.0010876541410934E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B97" s="9" t="str">
         <f>+B84</f>
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="L97" s="25">
-        <f t="shared" ref="L97:W97" si="186">+L82/K82-1</f>
+        <f t="shared" ref="L97:W97" si="189">+L82/K82-1</f>
         <v>6.7585673028254245E-3</v>
       </c>
       <c r="M97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.14550186313361335</v>
       </c>
       <c r="N97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>1.626478029638001E-3</v>
       </c>
       <c r="O97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>6.3664716344047356E-3</v>
       </c>
       <c r="P97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>-5.8113922753816216E-2</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>3.2658055744391623E-2</v>
       </c>
       <c r="R97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>2.2856540973246187E-2</v>
       </c>
       <c r="S97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>6.6290804242611578E-2</v>
       </c>
       <c r="T97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>3.2014292957338375E-2</v>
       </c>
       <c r="U97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>-7.4862557024213405E-3</v>
       </c>
       <c r="V97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>-9.1667648791985856E-2</v>
       </c>
       <c r="W97" s="25">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>5.1250778492837767E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" outlineLevel="1"/>
-    <row r="99" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="98" spans="1:32" hidden="1" outlineLevel="1"/>
+    <row r="99" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B99" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" hidden="1" outlineLevel="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B100" s="9" t="str">
         <f>+B81</f>
         <v>Deferred income taxes</v>
       </c>
       <c r="O100" s="25">
-        <f t="shared" ref="O100:W101" si="187">STDEV(L90:O90)</f>
+        <f t="shared" ref="O100:W101" si="190">STDEV(L90:O90)</f>
         <v>0.12410066422103937</v>
       </c>
       <c r="P100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.11232707822684207</v>
       </c>
       <c r="Q100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.12295046819827428</v>
       </c>
       <c r="R100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.1973588550528913</v>
       </c>
       <c r="S100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.21453093999651524</v>
       </c>
       <c r="T100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.17781477457944547</v>
       </c>
       <c r="U100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.21618327571176449</v>
       </c>
       <c r="V100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.15347145850187366</v>
       </c>
       <c r="W100" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.12898559188540487</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="101" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B101" s="9" t="str">
         <f>+B82</f>
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="O101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.29679445765339985</v>
       </c>
       <c r="P101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.26492351470193504</v>
       </c>
       <c r="Q101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.27462953059622208</v>
       </c>
       <c r="R101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.2373802919517124</v>
       </c>
       <c r="S101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.23209223642893448</v>
       </c>
       <c r="T101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.22513641179066099</v>
       </c>
       <c r="U101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.10563065880929602</v>
       </c>
       <c r="V101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.12192625526121278</v>
       </c>
       <c r="W101" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.11092359413700548</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="102" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B102" s="9" t="str">
         <f>+B84</f>
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="O102" s="25">
-        <f t="shared" ref="O102:W106" si="188">STDEV(L93:O93)</f>
+        <f t="shared" ref="O102:W106" si="191">STDEV(L93:O93)</f>
         <v>0.30842801376349016</v>
       </c>
       <c r="P102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.30825737664218072</v>
       </c>
       <c r="Q102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.30472320429330313</v>
       </c>
       <c r="R102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.24293761708698589</v>
       </c>
       <c r="S102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.22465762438944539</v>
       </c>
       <c r="T102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.22593619323754499</v>
       </c>
       <c r="U102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.22397028749477221</v>
       </c>
       <c r="V102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.17977398583468304</v>
       </c>
       <c r="W102" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.1856642503816143</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="103" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B103" s="9" t="str">
         <f>+B85</f>
         <v>TL+E</v>
       </c>
       <c r="O103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>6.5516038370503687E-3</v>
       </c>
       <c r="P103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>3.5862229870672585E-2</v>
       </c>
       <c r="Q103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.0571828191773997E-2</v>
       </c>
       <c r="R103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.2042551892534606E-2</v>
       </c>
       <c r="S103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.3215430045700928E-2</v>
       </c>
       <c r="T103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.8939127032102663E-3</v>
       </c>
       <c r="U103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>8.987101746187923E-3</v>
       </c>
       <c r="V103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>7.965822938511646E-3</v>
       </c>
       <c r="W103" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>7.9358977775194958E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="104" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B104" s="9" t="str">
         <f>+B89</f>
         <v>QoQ Change</v>
       </c>
       <c r="O104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>9.0990099090172721E-2</v>
       </c>
       <c r="P104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>6.6087455063084971E-2</v>
       </c>
       <c r="Q104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.7823462714459017E-2</v>
       </c>
       <c r="R104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>5.1222555719250218E-2</v>
       </c>
       <c r="S104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.5870082291762093E-2</v>
       </c>
       <c r="T104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.8338442482296622E-2</v>
       </c>
       <c r="U104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>9.9771823309706895E-3</v>
       </c>
       <c r="V104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.038820212143949E-2</v>
       </c>
       <c r="W104" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>3.2398277211140282E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="105" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B105" s="9" t="str">
         <f>+B91</f>
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="O105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.6030332828902691E-2</v>
       </c>
       <c r="P105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.3783836474006222E-2</v>
       </c>
       <c r="Q105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>9.3514227877685725E-3</v>
       </c>
       <c r="R105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>7.4034027628463077E-3</v>
       </c>
       <c r="S105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>6.6133092154039104E-3</v>
       </c>
       <c r="T105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.4895659941568064E-3</v>
       </c>
       <c r="U105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>9.7658621544512523E-3</v>
       </c>
       <c r="V105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.5125079584447351E-2</v>
       </c>
       <c r="W105" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.7836055907021569E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:32" hidden="1" outlineLevel="1">
       <c r="B106" s="9" t="str">
         <f>+B93</f>
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="O106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>7.0331029995739439E-2</v>
       </c>
       <c r="P106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>8.6249287994458412E-2</v>
       </c>
       <c r="Q106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>3.8343689807407134E-2</v>
       </c>
       <c r="R106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>4.0837818268055215E-2</v>
       </c>
       <c r="S106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>5.2746303871153227E-2</v>
       </c>
       <c r="T106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>1.9089536328670661E-2</v>
       </c>
       <c r="U106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>3.037174139132745E-2</v>
       </c>
       <c r="V106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>6.8015212567306485E-2</v>
       </c>
       <c r="W106" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>6.3370459351594438E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" collapsed="1"/>
-    <row r="108" spans="1:23" s="36" customFormat="1">
+    <row r="107" spans="1:32" collapsed="1"/>
+    <row r="108" spans="1:32" s="36" customFormat="1">
       <c r="A108" s="40"/>
       <c r="B108" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N108" s="36">
         <f>+N84</f>
@@ -14631,28 +14762,28 @@
         <v>1672020</v>
       </c>
       <c r="P108" s="36">
-        <f t="shared" ref="P108:U108" si="189">+P84</f>
+        <f t="shared" ref="P108:T108" si="192">+P84</f>
         <v>1704496</v>
       </c>
       <c r="Q108" s="36">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>1805586</v>
       </c>
       <c r="R108" s="36">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>2020135</v>
       </c>
       <c r="S108" s="36">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>2097531</v>
       </c>
       <c r="T108" s="36">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>2174158</v>
       </c>
       <c r="U108" s="36">
-        <f t="shared" si="189"/>
-        <v>2310908</v>
+        <f>+T84</f>
+        <v>2174158</v>
       </c>
       <c r="V108" s="36">
         <v>2020135</v>
@@ -14661,10 +14792,46 @@
         <f>+V115</f>
         <v>2297374</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" s="36">
+        <f>+W115</f>
+        <v>2133960</v>
+      </c>
+      <c r="Y108" s="36">
+        <f>+X115</f>
+        <v>2154199</v>
+      </c>
+      <c r="Z108" s="36">
+        <f>+V84</f>
+        <v>2297374</v>
+      </c>
+      <c r="AA108" s="36">
+        <f>+Z84</f>
+        <v>2368023</v>
+      </c>
+      <c r="AB108" s="36">
+        <f>+AA84</f>
+        <v>2481685</v>
+      </c>
+      <c r="AC108" s="36">
+        <f>+AB115</f>
+        <v>2766886</v>
+      </c>
+      <c r="AD108" s="36">
+        <f>+Z84</f>
+        <v>2368023</v>
+      </c>
+      <c r="AE108" s="36">
+        <f>+AD84</f>
+        <v>3062207</v>
+      </c>
+      <c r="AF108" s="36">
+        <f>+AE84</f>
+        <v>3361329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32">
       <c r="B109" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N109" s="25">
         <v>-1051</v>
@@ -14697,9 +14864,9 @@
         <v>24077</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:32">
       <c r="B110" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N110" s="25">
         <v>17708</v>
@@ -14719,16 +14886,46 @@
       <c r="T110" s="25">
         <v>36693</v>
       </c>
+      <c r="U110" s="25">
+        <v>36693</v>
+      </c>
       <c r="V110" s="25">
         <v>704</v>
       </c>
       <c r="W110" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" s="25">
+        <v>29142</v>
+      </c>
+      <c r="Y110" s="25">
+        <v>25587</v>
+      </c>
+      <c r="Z110" s="25">
+        <v>99821</v>
+      </c>
+      <c r="AA110" s="25">
+        <v>20670</v>
+      </c>
+      <c r="AB110" s="25">
+        <v>31467</v>
+      </c>
+      <c r="AC110" s="25">
+        <v>36614</v>
+      </c>
+      <c r="AD110" s="25">
+        <v>126686</v>
+      </c>
+      <c r="AE110" s="25">
+        <v>36681</v>
+      </c>
+      <c r="AF110" s="25">
+        <v>46160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32">
       <c r="B111" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N111" s="25">
         <v>-179</v>
@@ -14748,16 +14945,46 @@
       <c r="T111" s="25">
         <v>-81</v>
       </c>
+      <c r="U111" s="25">
+        <v>-81</v>
+      </c>
       <c r="V111" s="25">
         <v>-554027</v>
       </c>
       <c r="W111" s="25">
         <v>-59</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" s="25">
+        <v>-167</v>
+      </c>
+      <c r="Y111" s="25">
+        <v>48</v>
+      </c>
+      <c r="Z111" s="25">
+        <v>173</v>
+      </c>
+      <c r="AA111" s="25">
+        <v>-290</v>
+      </c>
+      <c r="AB111" s="25">
+        <v>-216</v>
+      </c>
+      <c r="AC111" s="25">
+        <v>321</v>
+      </c>
+      <c r="AD111" s="25">
+        <v>172</v>
+      </c>
+      <c r="AE111" s="25">
+        <v>2110</v>
+      </c>
+      <c r="AF111" s="25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32">
       <c r="B112" s="9" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="N112" s="25">
         <v>-102031</v>
@@ -14777,11 +15004,41 @@
       <c r="T112" s="25">
         <v>-103340</v>
       </c>
+      <c r="U112" s="25">
+        <v>-103340</v>
+      </c>
       <c r="V112" s="25">
         <v>652984</v>
       </c>
       <c r="W112" s="25">
         <v>-345921</v>
+      </c>
+      <c r="X112" s="25">
+        <v>-267198</v>
+      </c>
+      <c r="Y112" s="25">
+        <v>-107334</v>
+      </c>
+      <c r="Z112" s="25">
+        <v>-925912</v>
+      </c>
+      <c r="AA112" s="25">
+        <v>-198819</v>
+      </c>
+      <c r="AB112" s="25">
+        <v>-88319</v>
+      </c>
+      <c r="AC112" s="25">
+        <v>-229596</v>
+      </c>
+      <c r="AD112" s="25">
+        <v>-662642</v>
+      </c>
+      <c r="AE112" s="25">
+        <v>-97663</v>
+      </c>
+      <c r="AF112" s="25">
+        <v>-151877</v>
       </c>
     </row>
     <row r="113" spans="1:57">
@@ -14806,16 +15063,46 @@
       <c r="T113" s="25">
         <v>204434</v>
       </c>
+      <c r="U113" s="25">
+        <v>204434</v>
+      </c>
       <c r="V113" s="25">
         <v>-1125</v>
       </c>
       <c r="W113" s="25">
         <v>158294</v>
       </c>
+      <c r="X113" s="25">
+        <v>259942</v>
+      </c>
+      <c r="Y113" s="25">
+        <v>257138</v>
+      </c>
+      <c r="Z113" s="25">
+        <v>899101</v>
+      </c>
+      <c r="AA113" s="25">
+        <v>291644</v>
+      </c>
+      <c r="AB113" s="25">
+        <v>341790</v>
+      </c>
+      <c r="AC113" s="25">
+        <v>313217</v>
+      </c>
+      <c r="AD113" s="25">
+        <v>1228767</v>
+      </c>
+      <c r="AE113" s="25">
+        <v>359287</v>
+      </c>
+      <c r="AF113" s="25">
+        <v>455671</v>
+      </c>
     </row>
     <row r="114" spans="1:57">
       <c r="B114" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N114" s="25">
         <v>-1841</v>
@@ -14835,17 +15122,47 @@
       <c r="T114" s="25">
         <v>-956</v>
       </c>
+      <c r="U114" s="25">
+        <v>-956</v>
+      </c>
       <c r="V114" s="25">
         <v>0</v>
       </c>
       <c r="W114" s="25">
         <v>195</v>
+      </c>
+      <c r="X114" s="25">
+        <v>-1480</v>
+      </c>
+      <c r="Y114" s="25">
+        <v>-2257</v>
+      </c>
+      <c r="Z114" s="25">
+        <v>-2534</v>
+      </c>
+      <c r="AA114" s="25">
+        <v>457</v>
+      </c>
+      <c r="AB114" s="25">
+        <v>479</v>
+      </c>
+      <c r="AC114" s="25">
+        <v>-1128</v>
+      </c>
+      <c r="AD114" s="25">
+        <v>1231</v>
+      </c>
+      <c r="AE114" s="25">
+        <v>-1293</v>
+      </c>
+      <c r="AF114" s="25">
+        <v>-564</v>
       </c>
     </row>
     <row r="115" spans="1:57" s="36" customFormat="1">
       <c r="A115" s="40"/>
       <c r="B115" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N115" s="36">
         <f>+SUM(N108:N114)</f>
@@ -14860,32 +15177,68 @@
         <v>1805586</v>
       </c>
       <c r="Q115" s="36">
-        <f t="shared" ref="Q115:U115" si="190">+SUM(Q108:Q114)</f>
+        <f t="shared" ref="Q115:U115" si="193">+SUM(Q108:Q114)</f>
         <v>1805586</v>
       </c>
       <c r="R115" s="36">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>2097531</v>
       </c>
       <c r="S115" s="36">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>2174158</v>
       </c>
       <c r="T115" s="36">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>2310908</v>
       </c>
       <c r="U115" s="36">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>2310908</v>
       </c>
       <c r="V115" s="36">
-        <f>+SUM(V108:V114)</f>
+        <f t="shared" ref="V115:AF115" si="194">+SUM(V108:V114)</f>
         <v>2297374</v>
       </c>
       <c r="W115" s="36">
-        <f>+SUM(W108:W114)</f>
+        <f t="shared" si="194"/>
         <v>2133960</v>
+      </c>
+      <c r="X115" s="36">
+        <f t="shared" si="194"/>
+        <v>2154199</v>
+      </c>
+      <c r="Y115" s="36">
+        <f t="shared" si="194"/>
+        <v>2327381</v>
+      </c>
+      <c r="Z115" s="36">
+        <f t="shared" si="194"/>
+        <v>2368023</v>
+      </c>
+      <c r="AA115" s="36">
+        <f t="shared" si="194"/>
+        <v>2481685</v>
+      </c>
+      <c r="AB115" s="36">
+        <f t="shared" si="194"/>
+        <v>2766886</v>
+      </c>
+      <c r="AC115" s="36">
+        <f t="shared" si="194"/>
+        <v>2886314</v>
+      </c>
+      <c r="AD115" s="36">
+        <f t="shared" si="194"/>
+        <v>3062237</v>
+      </c>
+      <c r="AE115" s="36">
+        <f t="shared" si="194"/>
+        <v>3361329</v>
+      </c>
+      <c r="AF115" s="36">
+        <f t="shared" si="194"/>
+        <v>3711820</v>
       </c>
     </row>
     <row r="117" spans="1:57">
@@ -14975,7 +15328,7 @@
         <v>60180</v>
       </c>
       <c r="R118" s="25">
-        <f t="shared" ref="R118:R150" si="191">+BB118-SUM(O118:Q118)</f>
+        <f t="shared" ref="R118:R150" si="195">+BB118-SUM(O118:Q118)</f>
         <v>59956</v>
       </c>
       <c r="S118" s="25">
@@ -14990,7 +15343,7 @@
         <v>63191</v>
       </c>
       <c r="V118" s="25">
-        <f t="shared" ref="V118:V150" si="192">+BC118-SUM(S118:U118)</f>
+        <f t="shared" ref="V118:V150" si="196">+BC118-SUM(S118:U118)</f>
         <v>66262</v>
       </c>
       <c r="W118" s="25">
@@ -15032,7 +15385,7 @@
     </row>
     <row r="119" spans="1:57">
       <c r="B119" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O119" s="25">
         <v>42961</v>
@@ -15046,7 +15399,7 @@
         <v>-34282</v>
       </c>
       <c r="R119" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>54493</v>
       </c>
       <c r="S119" s="25">
@@ -15060,7 +15413,7 @@
         <v>-155778</v>
       </c>
       <c r="V119" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-11333</v>
       </c>
       <c r="W119" s="25">
@@ -15102,7 +15455,7 @@
     </row>
     <row r="120" spans="1:57">
       <c r="B120" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O120" s="25">
         <v>27343</v>
@@ -15116,7 +15469,7 @@
         <v>-33924</v>
       </c>
       <c r="R120" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>7676</v>
       </c>
       <c r="S120" s="25">
@@ -15131,7 +15484,7 @@
         <v>28367</v>
       </c>
       <c r="V120" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>4603</v>
       </c>
       <c r="W120" s="25">
@@ -15173,7 +15526,7 @@
     </row>
     <row r="121" spans="1:57">
       <c r="B121" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O121" s="25">
         <v>8805</v>
@@ -15187,7 +15540,7 @@
         <v>-13890</v>
       </c>
       <c r="R121" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>307</v>
       </c>
       <c r="S121" s="25">
@@ -15202,7 +15555,7 @@
         <v>-7502</v>
       </c>
       <c r="V121" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-240</v>
       </c>
       <c r="W121" s="25">
@@ -15244,7 +15597,7 @@
     </row>
     <row r="122" spans="1:57">
       <c r="B122" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O122" s="25">
         <v>-90</v>
@@ -15258,7 +15611,7 @@
         <v>60497</v>
       </c>
       <c r="R122" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>22047</v>
       </c>
       <c r="S122" s="25">
@@ -15273,7 +15626,7 @@
         <v>138961</v>
       </c>
       <c r="V122" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>37651</v>
       </c>
       <c r="W122" s="25">
@@ -15315,7 +15668,7 @@
     </row>
     <row r="123" spans="1:57">
       <c r="B123" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O123" s="25">
         <v>17395</v>
@@ -15329,7 +15682,7 @@
         <v>-38312</v>
       </c>
       <c r="R123" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>1193</v>
       </c>
       <c r="S123" s="25">
@@ -15344,7 +15697,7 @@
         <v>-100146</v>
       </c>
       <c r="V123" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-7133</v>
       </c>
       <c r="W123" s="25">
@@ -15386,7 +15739,7 @@
     </row>
     <row r="124" spans="1:57">
       <c r="B124" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O124" s="25">
         <v>707</v>
@@ -15400,7 +15753,7 @@
         <v>27663</v>
       </c>
       <c r="R124" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-26323</v>
       </c>
       <c r="S124" s="25">
@@ -15415,7 +15768,7 @@
         <v>19415</v>
       </c>
       <c r="V124" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-23569</v>
       </c>
       <c r="W124" s="25">
@@ -15457,7 +15810,7 @@
     </row>
     <row r="125" spans="1:57">
       <c r="B125" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O125" s="25">
         <v>25967</v>
@@ -15471,7 +15824,7 @@
         <v>-21984</v>
       </c>
       <c r="R125" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-1008</v>
       </c>
       <c r="S125" s="25">
@@ -15486,7 +15839,7 @@
         <v>-39282</v>
       </c>
       <c r="V125" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-4396</v>
       </c>
       <c r="W125" s="25">
@@ -15528,7 +15881,7 @@
     </row>
     <row r="126" spans="1:57">
       <c r="B126" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O126" s="25">
         <v>2734</v>
@@ -15542,7 +15895,7 @@
         <v>-8044</v>
       </c>
       <c r="R126" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-5427</v>
       </c>
       <c r="S126" s="25">
@@ -15557,7 +15910,7 @@
         <v>-20652</v>
       </c>
       <c r="V126" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-7483</v>
       </c>
       <c r="W126" s="25">
@@ -15599,7 +15952,7 @@
     </row>
     <row r="127" spans="1:57">
       <c r="B127" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O127" s="25">
         <v>-4158</v>
@@ -15613,7 +15966,7 @@
         <v>142302</v>
       </c>
       <c r="R127" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>48486</v>
       </c>
       <c r="S127" s="25">
@@ -15628,7 +15981,7 @@
         <v>169814</v>
       </c>
       <c r="V127" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>72209</v>
       </c>
       <c r="W127" s="25">
@@ -15670,7 +16023,7 @@
     </row>
     <row r="128" spans="1:57">
       <c r="B128" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O128" s="25">
         <v>-5133</v>
@@ -15684,7 +16037,7 @@
         <v>-13180</v>
       </c>
       <c r="R128" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-4823</v>
       </c>
       <c r="S128" s="25">
@@ -15699,7 +16052,7 @@
         <v>1784</v>
       </c>
       <c r="V128" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>2092</v>
       </c>
       <c r="W128" s="25">
@@ -15741,7 +16094,7 @@
     </row>
     <row r="129" spans="1:66">
       <c r="B129" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O129" s="25">
         <v>20245</v>
@@ -15755,7 +16108,7 @@
         <v>-34754</v>
       </c>
       <c r="R129" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-9635</v>
       </c>
       <c r="S129" s="25">
@@ -15770,7 +16123,7 @@
         <v>16187</v>
       </c>
       <c r="V129" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-7272</v>
       </c>
       <c r="W129" s="25">
@@ -15813,7 +16166,7 @@
     </row>
     <row r="130" spans="1:66">
       <c r="B130" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O130" s="25">
         <v>5839</v>
@@ -15827,7 +16180,7 @@
         <v>65250</v>
       </c>
       <c r="R130" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>8169</v>
       </c>
       <c r="S130" s="25">
@@ -15842,7 +16195,7 @@
         <v>-34261</v>
       </c>
       <c r="V130" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-31362</v>
       </c>
       <c r="W130" s="25">
@@ -15884,7 +16237,7 @@
     </row>
     <row r="131" spans="1:66">
       <c r="B131" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O131" s="25">
         <v>-9389</v>
@@ -15898,7 +16251,7 @@
         <v>10085</v>
       </c>
       <c r="R131" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>3631</v>
       </c>
       <c r="S131" s="25">
@@ -15913,7 +16266,7 @@
         <v>12695</v>
       </c>
       <c r="V131" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>18404</v>
       </c>
       <c r="W131" s="25">
@@ -15955,7 +16308,7 @@
     </row>
     <row r="132" spans="1:66">
       <c r="B132" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O132" s="25">
         <v>-15924</v>
@@ -15969,7 +16322,7 @@
         <v>3434</v>
       </c>
       <c r="R132" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>37551</v>
       </c>
       <c r="S132" s="25">
@@ -15984,7 +16337,7 @@
         <v>8509</v>
       </c>
       <c r="V132" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>37365</v>
       </c>
       <c r="W132" s="25">
@@ -16026,7 +16379,7 @@
     </row>
     <row r="133" spans="1:66">
       <c r="B133" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O133" s="25">
         <v>-29179</v>
@@ -16040,7 +16393,7 @@
         <v>37442</v>
       </c>
       <c r="R133" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-222574</v>
       </c>
       <c r="S133" s="25">
@@ -16055,7 +16408,7 @@
         <v>-33999</v>
       </c>
       <c r="V133" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>229229</v>
       </c>
       <c r="W133" s="25">
@@ -16097,7 +16450,7 @@
     </row>
     <row r="134" spans="1:66">
       <c r="B134" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O134" s="25">
         <v>-40918</v>
@@ -16111,7 +16464,7 @@
         <v>-45601</v>
       </c>
       <c r="R134" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-50085</v>
       </c>
       <c r="S134" s="25">
@@ -16126,7 +16479,7 @@
         <v>10363</v>
       </c>
       <c r="V134" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-115709</v>
       </c>
       <c r="W134" s="25">
@@ -16168,7 +16521,7 @@
     </row>
     <row r="135" spans="1:66">
       <c r="B135" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O135" s="25">
         <v>104</v>
@@ -16182,7 +16535,7 @@
         <v>764</v>
       </c>
       <c r="R135" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>431</v>
       </c>
       <c r="S135" s="25">
@@ -16197,7 +16550,7 @@
         <v>-481</v>
       </c>
       <c r="V135" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-4458</v>
       </c>
       <c r="W135" s="25">
@@ -16255,7 +16608,7 @@
         <v>243890</v>
       </c>
       <c r="R136" s="36">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>115024</v>
       </c>
       <c r="S136" s="36">
@@ -16351,7 +16704,7 @@
         <v>-81303</v>
       </c>
       <c r="R138" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-126594</v>
       </c>
       <c r="S138" s="25">
@@ -16366,7 +16719,7 @@
         <v>-108446</v>
       </c>
       <c r="V138" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-121906</v>
       </c>
       <c r="W138" s="25">
@@ -16424,7 +16777,7 @@
     </row>
     <row r="139" spans="1:66">
       <c r="B139" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O139" s="25">
         <v>-80746</v>
@@ -16438,7 +16791,7 @@
         <v>-223965</v>
       </c>
       <c r="R139" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-143349</v>
       </c>
       <c r="S139" s="25">
@@ -16453,7 +16806,7 @@
         <v>-97979</v>
       </c>
       <c r="V139" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-140451</v>
       </c>
       <c r="W139" s="25">
@@ -16495,7 +16848,7 @@
     </row>
     <row r="140" spans="1:66">
       <c r="B140" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O140" s="25">
         <v>99037</v>
@@ -16509,7 +16862,7 @@
         <v>119927</v>
       </c>
       <c r="R140" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>100573</v>
       </c>
       <c r="S140" s="25">
@@ -16524,7 +16877,7 @@
         <v>81396</v>
       </c>
       <c r="V140" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>102307</v>
       </c>
       <c r="W140" s="25">
@@ -16566,7 +16919,7 @@
     </row>
     <row r="141" spans="1:66">
       <c r="B141" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O141" s="25">
         <v>0</v>
@@ -16580,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="S141" s="25">
@@ -16595,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="V141" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>1150</v>
       </c>
       <c r="W141" s="25">
@@ -16625,7 +16978,7 @@
     </row>
     <row r="142" spans="1:66">
       <c r="B142" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O142" s="25">
         <v>0</v>
@@ -16639,7 +16992,7 @@
         <v>-2500</v>
       </c>
       <c r="R142" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="S142" s="25">
@@ -16654,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="V142" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="W142" s="25">
@@ -16685,7 +17038,7 @@
     <row r="143" spans="1:66" s="36" customFormat="1">
       <c r="A143" s="40"/>
       <c r="B143" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O143" s="36">
         <f>+SUM(O138:O142)</f>
@@ -16700,7 +17053,7 @@
         <v>-187841</v>
       </c>
       <c r="R143" s="36">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-169370</v>
       </c>
       <c r="S143" s="36">
@@ -16716,7 +17069,7 @@
         <v>-125029</v>
       </c>
       <c r="V143" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-158900</v>
       </c>
       <c r="W143" s="36">
@@ -16766,7 +17119,7 @@
     </row>
     <row r="145" spans="1:57">
       <c r="B145" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O145" s="25">
         <v>-54401</v>
@@ -16780,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="S145" s="25">
@@ -16796,7 +17149,7 @@
         <v>-97582</v>
       </c>
       <c r="V145" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-165729</v>
       </c>
       <c r="W145" s="25">
@@ -16838,7 +17191,7 @@
     </row>
     <row r="146" spans="1:57">
       <c r="B146" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O146" s="25">
         <v>-47630</v>
@@ -16852,7 +17205,7 @@
         <v>-29</v>
       </c>
       <c r="R146" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-579</v>
       </c>
       <c r="S146" s="25">
@@ -16867,7 +17220,7 @@
         <v>-4632</v>
       </c>
       <c r="V146" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-16378</v>
       </c>
       <c r="W146" s="25">
@@ -16909,7 +17262,7 @@
     </row>
     <row r="147" spans="1:57">
       <c r="B147" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O147" s="25">
         <v>-69</v>
@@ -16923,7 +17276,7 @@
         <v>-10</v>
       </c>
       <c r="R147" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-30</v>
       </c>
       <c r="S147" s="25">
@@ -16938,7 +17291,7 @@
         <v>-134</v>
       </c>
       <c r="V147" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>68</v>
       </c>
       <c r="W147" s="25">
@@ -16981,7 +17334,7 @@
     <row r="148" spans="1:57" s="36" customFormat="1">
       <c r="A148" s="40"/>
       <c r="B148" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O148" s="36">
         <f>+SUM(O145:O147)</f>
@@ -16996,7 +17349,7 @@
         <v>-39</v>
       </c>
       <c r="R148" s="36">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-609</v>
       </c>
       <c r="S148" s="36">
@@ -17012,47 +17365,47 @@
         <v>-102348</v>
       </c>
       <c r="V148" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-182039</v>
       </c>
       <c r="W148" s="36">
-        <f>+SUM(W145:W147)</f>
+        <f t="shared" ref="W148:AF148" si="197">+SUM(W145:W147)</f>
         <v>-349478</v>
       </c>
       <c r="X148" s="36">
-        <f>+SUM(X145:X147)</f>
+        <f t="shared" si="197"/>
         <v>-263937.58799999999</v>
       </c>
       <c r="Y148" s="36">
-        <f>+SUM(Y145:Y147)</f>
+        <f t="shared" si="197"/>
         <v>-109319.412</v>
       </c>
       <c r="Z148" s="36">
-        <f>+SUM(Z145:Z147)</f>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="AA148" s="36">
-        <f>+SUM(AA145:AA147)</f>
+        <f t="shared" si="197"/>
         <v>-193883</v>
       </c>
       <c r="AB148" s="36">
-        <f>+SUM(AB145:AB147)</f>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="AC148" s="36">
-        <f>+SUM(AC145:AC147)</f>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="AD148" s="36">
-        <f>+SUM(AD145:AD147)</f>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="AE148" s="36">
-        <f>+SUM(AE145:AE147)</f>
+        <f t="shared" si="197"/>
         <v>-100074</v>
       </c>
       <c r="AF148" s="36">
-        <f>+SUM(AF145:AF147)</f>
+        <f t="shared" si="197"/>
         <v>-145334</v>
       </c>
       <c r="BA148" s="36">
@@ -17078,7 +17431,7 @@
     </row>
     <row r="149" spans="1:57">
       <c r="B149" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O149" s="25">
         <v>-819</v>
@@ -17092,7 +17445,7 @@
         <v>481</v>
       </c>
       <c r="R149" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>699</v>
       </c>
       <c r="S149" s="25">
@@ -17107,7 +17460,7 @@
         <v>-572</v>
       </c>
       <c r="V149" s="25">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-251</v>
       </c>
       <c r="W149" s="25">
@@ -17150,30 +17503,30 @@
     <row r="150" spans="1:57" s="36" customFormat="1">
       <c r="A150" s="40"/>
       <c r="B150" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O150" s="36">
-        <f t="shared" ref="O150:T150" si="193">+O136+O143+O148+O149</f>
+        <f t="shared" ref="O150:T150" si="198">+O136+O143+O148+O149</f>
         <v>19790</v>
       </c>
       <c r="P150" s="36">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>105330</v>
       </c>
       <c r="Q150" s="36">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>56491</v>
       </c>
       <c r="R150" s="36">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-54256</v>
       </c>
       <c r="S150" s="36">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>86803</v>
       </c>
       <c r="T150" s="36">
-        <f t="shared" si="193"/>
+        <f t="shared" si="198"/>
         <v>22776</v>
       </c>
       <c r="U150" s="36">
@@ -17181,7 +17534,7 @@
         <v>53670</v>
       </c>
       <c r="V150" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>47145</v>
       </c>
       <c r="W150" s="36">
@@ -17197,23 +17550,23 @@
         <v>-546701.42099999997</v>
       </c>
       <c r="Z150" s="36">
-        <f t="shared" ref="Z150:AD150" si="194">+Z136+Z143+Z148+Z149</f>
+        <f t="shared" ref="Z150:AD150" si="199">+Z136+Z143+Z148+Z149</f>
         <v>401582</v>
       </c>
       <c r="AA150" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>25894</v>
       </c>
       <c r="AB150" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>582510</v>
       </c>
       <c r="AC150" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>480472</v>
       </c>
       <c r="AD150" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="199"/>
         <v>265459</v>
       </c>
       <c r="AE150" s="36">
@@ -17225,11 +17578,11 @@
         <v>80660</v>
       </c>
       <c r="BA150" s="36">
-        <f t="shared" ref="BA150:BB150" si="195">+BA136+BA143+BA148+BA149</f>
+        <f t="shared" ref="BA150:BB150" si="200">+BA136+BA143+BA148+BA149</f>
         <v>228329</v>
       </c>
       <c r="BB150" s="36">
-        <f t="shared" si="195"/>
+        <f t="shared" si="200"/>
         <v>127355</v>
       </c>
       <c r="BC150" s="36">
@@ -17247,7 +17600,7 @@
     </row>
     <row r="151" spans="1:57">
       <c r="B151" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O151" s="25">
         <f>+N56+N65</f>
@@ -17321,30 +17674,30 @@
     </row>
     <row r="152" spans="1:57">
       <c r="B152" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O152" s="25">
-        <f t="shared" ref="O152:T152" si="196">+O150+O151</f>
+        <f t="shared" ref="O152:T152" si="201">+O150+O151</f>
         <v>528271</v>
       </c>
       <c r="P152" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>613811</v>
       </c>
       <c r="Q152" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>564972</v>
       </c>
       <c r="R152" s="25">
-        <f t="shared" ref="R152" si="197">+R150+R151</f>
+        <f t="shared" ref="R152" si="202">+R150+R151</f>
         <v>474015</v>
       </c>
       <c r="S152" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>722639</v>
       </c>
       <c r="T152" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="201"/>
         <v>658612</v>
       </c>
       <c r="U152" s="25">
@@ -17403,7 +17756,7 @@
     <row r="154" spans="1:57" s="36" customFormat="1">
       <c r="A154" s="40"/>
       <c r="B154" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O154" s="36">
         <f>+O136+O138</f>
@@ -17414,172 +17767,172 @@
         <v>35060</v>
       </c>
       <c r="Q154" s="36">
-        <f t="shared" ref="Q154:AF154" si="198">+Q136+Q138</f>
+        <f t="shared" ref="Q154:AF154" si="203">+Q136+Q138</f>
         <v>162587</v>
       </c>
       <c r="R154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>-11570</v>
       </c>
       <c r="S154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>219354</v>
       </c>
       <c r="T154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>180650</v>
       </c>
       <c r="U154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>173173</v>
       </c>
       <c r="V154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>266429</v>
       </c>
       <c r="W154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>186730</v>
       </c>
       <c r="X154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>186963.49900000001</v>
       </c>
       <c r="Y154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>212385.50099999999</v>
       </c>
       <c r="Z154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>257936</v>
       </c>
       <c r="AA154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>334667</v>
       </c>
       <c r="AB154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>445278</v>
       </c>
       <c r="AC154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>349272</v>
       </c>
       <c r="AD154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>93529</v>
       </c>
       <c r="AE154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>436531</v>
       </c>
       <c r="AF154" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="203"/>
         <v>422088</v>
       </c>
       <c r="BA154" s="36">
-        <f t="shared" ref="BA154:BC154" si="199">+BA136+BA138</f>
+        <f t="shared" ref="BA154:BC154" si="204">+BA136+BA138</f>
         <v>387720</v>
       </c>
       <c r="BB154" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>290495</v>
       </c>
       <c r="BC154" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="204"/>
         <v>839606</v>
       </c>
       <c r="BD154" s="36">
-        <f t="shared" ref="BD154:BE154" si="200">+BD136+BD138</f>
+        <f t="shared" ref="BD154:BE154" si="205">+BD136+BD138</f>
         <v>844015</v>
       </c>
       <c r="BE154" s="36">
-        <f t="shared" si="200"/>
+        <f t="shared" si="205"/>
         <v>1222746</v>
       </c>
     </row>
     <row r="155" spans="1:57">
       <c r="B155" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O155" s="25">
-        <f t="shared" ref="O155:Y155" si="201">+O30</f>
+        <f t="shared" ref="O155:Y155" si="206">+O30</f>
         <v>85724</v>
       </c>
       <c r="P155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>13561</v>
       </c>
       <c r="Q155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>88235</v>
       </c>
       <c r="R155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>198523</v>
       </c>
       <c r="S155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>132769</v>
       </c>
       <c r="T155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>192240</v>
       </c>
       <c r="U155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>209092</v>
       </c>
       <c r="V155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>138174</v>
       </c>
       <c r="W155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>162604</v>
       </c>
       <c r="X155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>264623</v>
       </c>
       <c r="Y155" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="206"/>
         <v>263501</v>
       </c>
       <c r="Z155" s="25">
-        <f t="shared" ref="Z155:AD155" si="202">+Z30</f>
+        <f t="shared" ref="Z155:AD155" si="207">+Z30</f>
         <v>229512</v>
       </c>
       <c r="AA155" s="25">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>300005</v>
       </c>
       <c r="AB155" s="25">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>358030</v>
       </c>
       <c r="AC155" s="25">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>320458</v>
       </c>
       <c r="AD155" s="25">
-        <f t="shared" si="202"/>
+        <f t="shared" si="207"/>
         <v>288614</v>
       </c>
       <c r="AE155" s="25">
-        <f t="shared" ref="AE155:AF155" si="203">+AE30</f>
+        <f t="shared" ref="AE155:AF155" si="208">+AE30</f>
         <v>364766</v>
       </c>
       <c r="AF155" s="25">
-        <f t="shared" si="203"/>
+        <f t="shared" si="208"/>
         <v>461433</v>
       </c>
       <c r="BA155" s="25">
-        <f t="shared" ref="BA155:BB155" si="204">+BA30</f>
+        <f t="shared" ref="BA155:BB155" si="209">+BA30</f>
         <v>373702</v>
       </c>
       <c r="BB155" s="25">
-        <f t="shared" si="204"/>
+        <f t="shared" si="209"/>
         <v>386043</v>
       </c>
       <c r="BC155" s="25">
@@ -17598,18 +17951,18 @@
     <row r="157" spans="1:57" s="36" customFormat="1">
       <c r="A157" s="40"/>
       <c r="B157" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R157" s="36">
-        <f t="shared" ref="R157:T157" si="205">+SUM(O154:R154)</f>
+        <f t="shared" ref="R157:T157" si="210">+SUM(O154:R154)</f>
         <v>290495</v>
       </c>
       <c r="S157" s="36">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>405431</v>
       </c>
       <c r="T157" s="36">
-        <f t="shared" si="205"/>
+        <f t="shared" si="210"/>
         <v>551021</v>
       </c>
       <c r="U157" s="36">
@@ -17617,47 +17970,47 @@
         <v>561607</v>
       </c>
       <c r="V157" s="36">
-        <f t="shared" ref="V157:W157" si="206">+SUM(S154:V154)</f>
+        <f t="shared" ref="V157:W157" si="211">+SUM(S154:V154)</f>
         <v>839606</v>
       </c>
       <c r="W157" s="36">
-        <f t="shared" si="206"/>
+        <f t="shared" si="211"/>
         <v>806982</v>
       </c>
       <c r="X157" s="36">
-        <f t="shared" ref="X157:X158" si="207">+SUM(U154:X154)</f>
+        <f t="shared" ref="X157:X158" si="212">+SUM(U154:X154)</f>
         <v>813295.49900000007</v>
       </c>
       <c r="Y157" s="36">
-        <f t="shared" ref="Y157:Y158" si="208">+SUM(V154:Y154)</f>
+        <f t="shared" ref="Y157:Y158" si="213">+SUM(V154:Y154)</f>
         <v>852508</v>
       </c>
       <c r="Z157" s="36">
-        <f t="shared" ref="Z157:Z158" si="209">+SUM(W154:Z154)</f>
+        <f t="shared" ref="Z157:Z158" si="214">+SUM(W154:Z154)</f>
         <v>844015</v>
       </c>
       <c r="AA157" s="36">
-        <f t="shared" ref="AA157:AA158" si="210">+SUM(X154:AA154)</f>
+        <f t="shared" ref="AA157:AA158" si="215">+SUM(X154:AA154)</f>
         <v>991952</v>
       </c>
       <c r="AB157" s="36">
-        <f t="shared" ref="AB157:AB158" si="211">+SUM(Y154:AB154)</f>
+        <f t="shared" ref="AB157:AB158" si="216">+SUM(Y154:AB154)</f>
         <v>1250266.5009999999</v>
       </c>
       <c r="AC157" s="36">
-        <f t="shared" ref="AC157:AC158" si="212">+SUM(Z154:AC154)</f>
+        <f t="shared" ref="AC157:AC158" si="217">+SUM(Z154:AC154)</f>
         <v>1387153</v>
       </c>
       <c r="AD157" s="36">
-        <f t="shared" ref="AD157:AF158" si="213">+SUM(AA154:AD154)</f>
+        <f t="shared" ref="AD157:AF158" si="218">+SUM(AA154:AD154)</f>
         <v>1222746</v>
       </c>
       <c r="AE157" s="36">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>1324610</v>
       </c>
       <c r="AF157" s="36">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>1301420</v>
       </c>
       <c r="BB157" s="36">
@@ -17679,18 +18032,18 @@
     </row>
     <row r="158" spans="1:57">
       <c r="B158" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R158" s="25">
-        <f t="shared" ref="R158:T158" si="214">+SUM(O155:R155)</f>
+        <f t="shared" ref="R158:T158" si="219">+SUM(O155:R155)</f>
         <v>386043</v>
       </c>
       <c r="S158" s="25">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>433088</v>
       </c>
       <c r="T158" s="25">
-        <f t="shared" si="214"/>
+        <f t="shared" si="219"/>
         <v>611767</v>
       </c>
       <c r="U158" s="25">
@@ -17698,65 +18051,65 @@
         <v>732624</v>
       </c>
       <c r="V158" s="25">
-        <f t="shared" ref="V158:W158" si="215">+SUM(S155:V155)</f>
+        <f t="shared" ref="V158:W158" si="220">+SUM(S155:V155)</f>
         <v>672275</v>
       </c>
       <c r="W158" s="25">
+        <f t="shared" si="220"/>
+        <v>702110</v>
+      </c>
+      <c r="X158" s="25">
+        <f t="shared" si="212"/>
+        <v>774493</v>
+      </c>
+      <c r="Y158" s="25">
+        <f t="shared" si="213"/>
+        <v>828902</v>
+      </c>
+      <c r="Z158" s="25">
+        <f t="shared" si="214"/>
+        <v>920240</v>
+      </c>
+      <c r="AA158" s="25">
         <f t="shared" si="215"/>
-        <v>702110</v>
-      </c>
-      <c r="X158" s="25">
-        <f t="shared" si="207"/>
-        <v>774493</v>
-      </c>
-      <c r="Y158" s="25">
-        <f t="shared" si="208"/>
-        <v>828902</v>
-      </c>
-      <c r="Z158" s="25">
-        <f t="shared" si="209"/>
-        <v>920240</v>
-      </c>
-      <c r="AA158" s="25">
-        <f t="shared" si="210"/>
         <v>1057641</v>
       </c>
       <c r="AB158" s="25">
-        <f t="shared" si="211"/>
+        <f t="shared" si="216"/>
         <v>1151048</v>
       </c>
       <c r="AC158" s="25">
-        <f t="shared" si="212"/>
+        <f t="shared" si="217"/>
         <v>1208005</v>
       </c>
       <c r="AD158" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>1267107</v>
       </c>
       <c r="AE158" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>1331868</v>
       </c>
       <c r="AF158" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="218"/>
         <v>1435271</v>
       </c>
     </row>
     <row r="160" spans="1:57" s="36" customFormat="1">
       <c r="A160" s="40"/>
       <c r="B160" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R160" s="36">
-        <f t="shared" ref="R160:T160" si="216">+R157-R158</f>
+        <f t="shared" ref="R160:T160" si="221">+R157-R158</f>
         <v>-95548</v>
       </c>
       <c r="S160" s="36">
-        <f t="shared" si="216"/>
+        <f t="shared" si="221"/>
         <v>-27657</v>
       </c>
       <c r="T160" s="36">
-        <f t="shared" si="216"/>
+        <f t="shared" si="221"/>
         <v>-60746</v>
       </c>
       <c r="U160" s="36">
@@ -17764,53 +18117,53 @@
         <v>-171017</v>
       </c>
       <c r="V160" s="36">
-        <f t="shared" ref="V160:Y160" si="217">+V157-V158</f>
+        <f t="shared" ref="V160:Y160" si="222">+V157-V158</f>
         <v>167331</v>
       </c>
       <c r="W160" s="36">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>104872</v>
       </c>
       <c r="X160" s="36">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>38802.499000000069</v>
       </c>
       <c r="Y160" s="36">
-        <f t="shared" si="217"/>
+        <f t="shared" si="222"/>
         <v>23606</v>
       </c>
       <c r="Z160" s="36">
-        <f t="shared" ref="Z160:AD160" si="218">+Z157-Z158</f>
+        <f t="shared" ref="Z160:AD160" si="223">+Z157-Z158</f>
         <v>-76225</v>
       </c>
       <c r="AA160" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>-65689</v>
       </c>
       <c r="AB160" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>99218.500999999931</v>
       </c>
       <c r="AC160" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>179148</v>
       </c>
       <c r="AD160" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="223"/>
         <v>-44361</v>
       </c>
       <c r="AE160" s="36">
-        <f t="shared" ref="AE160:AF160" si="219">+AE157-AE158</f>
+        <f t="shared" ref="AE160:AF160" si="224">+AE157-AE158</f>
         <v>-7258</v>
       </c>
       <c r="AF160" s="36">
-        <f t="shared" si="219"/>
+        <f t="shared" si="224"/>
         <v>-133851</v>
       </c>
     </row>
     <row r="163" spans="2:68">
       <c r="B163" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W163" s="25">
         <v>280766000</v>
@@ -17818,7 +18171,7 @@
     </row>
     <row r="164" spans="2:68">
       <c r="B164" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U164" s="25">
         <v>54451</v>
@@ -17834,7 +18187,7 @@
     </row>
     <row r="166" spans="2:68">
       <c r="B166" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="2:68">
@@ -17853,7 +18206,7 @@
     </row>
     <row r="171" spans="2:68">
       <c r="B171" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BF171" s="82">
         <v>7000</v>
@@ -17889,7 +18242,7 @@
     </row>
     <row r="173" spans="2:68">
       <c r="B173" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BF173" s="84">
         <v>300</v>
@@ -17941,96 +18294,96 @@
     </row>
     <row r="175" spans="2:68">
       <c r="B175" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF175" s="85">
-        <f t="shared" ref="BF175:BP175" si="220">($BF$171-$BF$172)/BF173</f>
+        <f t="shared" ref="BF175:BP175" si="225">($BF$171-$BF$172)/BF173</f>
         <v>11.876666666666667</v>
       </c>
       <c r="BG175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.837209302325581</v>
       </c>
       <c r="BH175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.798013245033113</v>
       </c>
       <c r="BI175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.759075907590759</v>
       </c>
       <c r="BJ175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.720394736842104</v>
       </c>
       <c r="BK175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.681967213114755</v>
       </c>
       <c r="BL175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.643790849673202</v>
       </c>
       <c r="BM175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.60586319218241</v>
       </c>
       <c r="BN175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.568181818181818</v>
       </c>
       <c r="BO175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.53074433656958</v>
       </c>
       <c r="BP175" s="85">
-        <f t="shared" si="220"/>
+        <f t="shared" si="225"/>
         <v>11.493548387096775</v>
       </c>
     </row>
     <row r="176" spans="2:68">
       <c r="B176" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF176" s="85"/>
       <c r="BG176" s="85">
-        <f t="shared" ref="BG176:BP176" si="221">+BF175-BG175</f>
+        <f t="shared" ref="BG176:BP176" si="226">+BF175-BG175</f>
         <v>3.9457364341085821E-2</v>
       </c>
       <c r="BH176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.9196057292468112E-2</v>
       </c>
       <c r="BI176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.8937337442353837E-2</v>
       </c>
       <c r="BJ176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.8681170748654736E-2</v>
       </c>
       <c r="BK176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.8427523727349922E-2</v>
       </c>
       <c r="BL176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.8176363441552397E-2</v>
       </c>
       <c r="BM176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.7927657490792299E-2</v>
       </c>
       <c r="BN176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.7681374000591461E-2</v>
       </c>
       <c r="BO176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.7437481612238699E-2</v>
       </c>
       <c r="BP176" s="85">
-        <f t="shared" si="221"/>
+        <f t="shared" si="226"/>
         <v>3.7195949472804912E-2</v>
       </c>
     </row>
@@ -18087,7 +18440,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AZ17:BB17 B91:E94 B95:E95 B90:E90 B96:E96 B97:E97 BC27:BC30 BC18:BC24 BC26 BC33 BE28 BC31 BC32 BE33 Z15:Z16 AA32:AE38 AA17:AB31 AE17:AE31" formulaRange="1"/>
+    <ignoredError sqref="AZ17:BB17 B91:E94 B95:E95 B90:E90 B96:E96 B97:E97 BC27:BC30 BC18:BC24 BC26 BC33 BE28 BC31 BC32 BE33 Z15:Z16 AA32:AE38 AA17:AB31 AE17:AE31 AF17" formulaRange="1"/>
     <ignoredError sqref="R26:R28 R30 N17:N24 R17 V28 BL28:BN28 P136:Q136 O108 J26:J30 F26:F30 R136:R150 V136:V148 V150 BF28:BK28 N26:N31 AC15:AD16" formula="1"/>
     <ignoredError sqref="Z17:Z24 Z26:Z31 AC17:AD31" formula="1" formulaRange="1"/>
   </ignoredErrors>
@@ -18117,12 +18470,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3">
         <v>600000000</v>
@@ -18130,7 +18483,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5">
         <v>1.75E-3</v>
@@ -18138,7 +18491,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6">
         <v>1.375E-2</v>
@@ -18146,7 +18499,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6">
         <v>1.06E-2</v>

--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CAAC6-6859-BA48-AE5D-A5C80DDDA804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6168CC-2C66-AF4F-A5CF-848F857263E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="740" windowWidth="27720" windowHeight="28060" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
+    <workbookView xWindow="18960" yWindow="740" windowWidth="34720" windowHeight="28060" xr2:uid="{CA65A239-F34F-E142-B5DA-63A84FA73A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Debt" sheetId="10" r:id="rId3"/>
+    <sheet name="Graphs" sheetId="11" r:id="rId3"/>
+    <sheet name="Debt" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="236">
   <si>
     <t>Q119</t>
   </si>
@@ -975,6 +976,15 @@
   </si>
   <si>
     <t>Openings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opens first restaurant in Dubai </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1220,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1448,6 +1458,9 @@
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1480,18 +1493,2481 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Units</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$3:$AF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>Q117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q224</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$4:$AF$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3090</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC70-F341-9B00-77196746C978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1549208591"/>
+        <c:axId val="1549218159"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restaurant Margin </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$3:$AF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>Q117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q224</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.17740162364606499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18847127053066975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16056925343550157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14869831546707504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19531050673242789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19710624388087042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18673362682825487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17003969598248578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20982375248143084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20893565959737309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20794231233663676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1922582875997067</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17640483366553916</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12219341734457456</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19496832174565729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19482804734684739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22322093507313781</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24458267152363652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23528631394011726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20198476716448208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20734368403678424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25214619179438846</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25337912551938474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23963232121082326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2563096876609614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27471557391618662</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26288700247739838</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25366567050295669</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27457133043753756</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2890569055977279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC70-F341-9B00-77196746C978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554294127"/>
+        <c:axId val="629521311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1549208591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549218159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1549218159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549208591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629521311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554294127"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="554294127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="629521311"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$24:$AF$24</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>Q117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q224</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B81-7743-B3F5-FC054E06A4D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$24:$AF$24</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>Q117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q224</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$25:$AF$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1068829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1169409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1128074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1110100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1148397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1266520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1225007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1225061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1308217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1434231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1403697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1440224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1410772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1364738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1601414</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1607710</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1741575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1892538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1952315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1960633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2213339</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2220175</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2180599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2368580</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2514801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2471948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2516320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2701848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2973117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B81-7743-B3F5-FC054E06A4D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="693620928"/>
+        <c:axId val="694017856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="693620928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694017856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694017856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693620928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>682835</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>13968</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>694162</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>25295</xdr:colOff>
       <xdr:row>193</xdr:row>
       <xdr:rowOff>141988</xdr:rowOff>
     </xdr:to>
@@ -1508,8 +3984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37923021" y="0"/>
-          <a:ext cx="11327" cy="30984845"/>
+          <a:off x="39570235" y="0"/>
+          <a:ext cx="11327" cy="29775321"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1590,6 +4066,83 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1196091</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156147</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB10FE92-BD4C-5CE4-A96C-2DC723DDEE72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1181055</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>154153</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3AF722-A454-AADE-EAB7-76D239DCC876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1921,7 +4474,7 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1981,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="9">
-        <v>58.5</v>
+        <v>58.33</v>
       </c>
       <c r="I4" s="9"/>
       <c r="L4" s="13"/>
@@ -1992,7 +4545,7 @@
       </c>
       <c r="C5" s="98">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>31.216438356164385</v>
+        <v>31.273972602739725</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
@@ -2018,7 +4571,7 @@
       </c>
       <c r="F6" s="9">
         <f>+F4*F5</f>
-        <v>80225262</v>
+        <v>79992128.75999999</v>
       </c>
       <c r="I6" s="9"/>
       <c r="L6" s="14"/>
@@ -2068,7 +4621,7 @@
       </c>
       <c r="F9" s="9">
         <f>+F6-F7+F8</f>
-        <v>77735139</v>
+        <v>77502005.75999999</v>
       </c>
       <c r="I9" s="9"/>
       <c r="L9" s="15"/>
@@ -2093,11 +4646,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7"/>
-      <c r="E15" s="18">
-        <v>45551</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>224</v>
+      <c r="E15" s="105">
+        <v>45567</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2108,10 +4661,10 @@
         <v>225</v>
       </c>
       <c r="E16" s="18">
-        <v>45545</v>
+        <v>45551</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -2122,10 +4675,10 @@
         <v>226</v>
       </c>
       <c r="E17" s="18">
-        <v>45531</v>
+        <v>45545</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -2134,10 +4687,10 @@
       </c>
       <c r="C18" s="87"/>
       <c r="E18" s="18">
-        <v>45517</v>
+        <v>45531</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2145,11 +4698,11 @@
         <v>195</v>
       </c>
       <c r="C19" s="87"/>
-      <c r="E19" s="19">
-        <v>45406</v>
+      <c r="E19" s="18">
+        <v>45517</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2158,10 +4711,10 @@
       </c>
       <c r="C20" s="87"/>
       <c r="E20" s="19">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2169,21 +4722,21 @@
         <v>223</v>
       </c>
       <c r="C21" s="87"/>
-      <c r="E21" s="18">
-        <v>45390</v>
+      <c r="E21" s="19">
+        <v>45404</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="86"/>
       <c r="C22" s="87"/>
       <c r="E22" s="18">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -2192,10 +4745,10 @@
       </c>
       <c r="C23" s="87"/>
       <c r="E23" s="18">
-        <v>45363</v>
+        <v>45370</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2204,10 +4757,10 @@
       </c>
       <c r="C24" s="87"/>
       <c r="E24" s="18">
-        <v>45350</v>
+        <v>45363</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2216,245 +4769,253 @@
       </c>
       <c r="C25" s="87"/>
       <c r="E25" s="18">
-        <v>45293</v>
+        <v>45350</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="86"/>
       <c r="C26" s="87"/>
       <c r="E26" s="18">
-        <v>45273</v>
+        <v>45293</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="88"/>
       <c r="C27" s="89"/>
-      <c r="E27" s="20">
-        <v>44845</v>
+      <c r="E27" s="18">
+        <v>45273</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="E28" s="20">
-        <v>44831</v>
+        <v>44845</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="E29" s="20">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="E30" s="20">
-        <v>44811</v>
+        <v>44817</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="E31" s="20">
-        <v>44803</v>
+        <v>44811</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="E32" s="20">
-        <v>44795</v>
+        <v>44803</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" s="20">
-        <v>44763</v>
+        <v>44795</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" s="20">
-        <v>44740</v>
+        <v>44763</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" s="20">
-        <v>44728</v>
+        <v>44740</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" s="20">
-        <v>44721</v>
+        <v>44728</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" s="20">
-        <v>44683</v>
+        <v>44721</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" s="20">
-        <v>44677</v>
+        <v>44683</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" s="20">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" s="20">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" s="20">
-        <v>44651</v>
+        <v>44656</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="5:6">
       <c r="E42" s="20">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="5:6">
       <c r="E43" s="20">
-        <v>44636</v>
+        <v>44648</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" s="20">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="5:6">
       <c r="E45" s="20">
-        <v>44615</v>
+        <v>44630</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="5:6">
       <c r="E46" s="20">
-        <v>44607</v>
+        <v>44615</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="5:6">
       <c r="E47" s="20">
-        <v>44564</v>
+        <v>44607</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="5:6">
       <c r="E48" s="20">
-        <v>44546</v>
+        <v>44564</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="E49" s="20">
-        <v>44448</v>
+        <v>44546</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="E50" s="20">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="E51" s="20">
-        <v>44427</v>
+        <v>44440</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="E52" s="20">
-        <v>44377</v>
+        <v>44427</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="E53" s="20">
-        <v>44326</v>
+        <v>44377</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="E54" s="20">
+        <v>44326</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="E55" s="20">
         <v>44280</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2617,46 +5178,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E49" r:id="rId1" display="9/9/21 Press Release" xr:uid="{D879A47D-CEDE-6B45-9E60-9F54FB18B685}"/>
-    <hyperlink ref="E50" r:id="rId2" display="9/1/21 Press Release" xr:uid="{919BA319-D27F-5F45-A159-BD7F47F2F59D}"/>
-    <hyperlink ref="E51" r:id="rId3" display="8/19/21 Press Release " xr:uid="{B211C8DC-3A52-F14F-8F6D-24C0F5F95485}"/>
-    <hyperlink ref="E52" r:id="rId4" display="6/30/21 Press Release" xr:uid="{33BCD7E2-316F-0A41-B77C-80F8C21D0669}"/>
-    <hyperlink ref="E53" r:id="rId5" display="5/10/21 Press Release" xr:uid="{39EC7DB8-A0BC-B149-906C-A4D8AE9C2474}"/>
-    <hyperlink ref="E47" r:id="rId6" display="1/3/2022 Press release" xr:uid="{27C89C1F-6A3B-8E47-9D36-8C4F95C3DD23}"/>
-    <hyperlink ref="E48" r:id="rId7" display="12/16/21 Press release" xr:uid="{332C27BD-6179-A44B-82BA-1BB3D044EC05}"/>
-    <hyperlink ref="E43" r:id="rId8" display="3/16/2022 Press Release" xr:uid="{3D9CDEB0-1E08-1E46-BAE4-80C186F12D19}"/>
+    <hyperlink ref="E50" r:id="rId1" display="9/9/21 Press Release" xr:uid="{D879A47D-CEDE-6B45-9E60-9F54FB18B685}"/>
+    <hyperlink ref="E51" r:id="rId2" display="9/1/21 Press Release" xr:uid="{919BA319-D27F-5F45-A159-BD7F47F2F59D}"/>
+    <hyperlink ref="E52" r:id="rId3" display="8/19/21 Press Release " xr:uid="{B211C8DC-3A52-F14F-8F6D-24C0F5F95485}"/>
+    <hyperlink ref="E53" r:id="rId4" display="6/30/21 Press Release" xr:uid="{33BCD7E2-316F-0A41-B77C-80F8C21D0669}"/>
+    <hyperlink ref="E54" r:id="rId5" display="5/10/21 Press Release" xr:uid="{39EC7DB8-A0BC-B149-906C-A4D8AE9C2474}"/>
+    <hyperlink ref="E48" r:id="rId6" display="1/3/2022 Press release" xr:uid="{27C89C1F-6A3B-8E47-9D36-8C4F95C3DD23}"/>
+    <hyperlink ref="E49" r:id="rId7" display="12/16/21 Press release" xr:uid="{332C27BD-6179-A44B-82BA-1BB3D044EC05}"/>
+    <hyperlink ref="E44" r:id="rId8" display="3/16/2022 Press Release" xr:uid="{3D9CDEB0-1E08-1E46-BAE4-80C186F12D19}"/>
     <hyperlink ref="B25" r:id="rId9" xr:uid="{9BE232BB-5FDC-6C4F-A32E-5212308C52F0}"/>
-    <hyperlink ref="E44" r:id="rId10" display="3/10/22 Press Release" xr:uid="{993F6CD6-AF6A-D34E-A97A-0883743F6E97}"/>
-    <hyperlink ref="E46" r:id="rId11" display="2/15/2022 Press Release" xr:uid="{40FC8D02-2B58-E347-B032-7BA7EFAAD1CA}"/>
+    <hyperlink ref="E45" r:id="rId10" display="3/10/22 Press Release" xr:uid="{993F6CD6-AF6A-D34E-A97A-0883743F6E97}"/>
+    <hyperlink ref="E47" r:id="rId11" display="2/15/2022 Press Release" xr:uid="{40FC8D02-2B58-E347-B032-7BA7EFAAD1CA}"/>
     <hyperlink ref="A1" location="Model!A1" display="Model" xr:uid="{4EBDF202-A121-B14F-A255-3F8E62B44989}"/>
-    <hyperlink ref="E39" r:id="rId12" display="4/19/22 Press Release" xr:uid="{4A0C956C-3152-864B-91A8-4119706762C5}"/>
-    <hyperlink ref="E42" r:id="rId13" display="3/28/22 Press Release" xr:uid="{E98A3860-CE2C-D346-A7F8-3BFECB77F349}"/>
-    <hyperlink ref="E40" r:id="rId14" display="4/5/22 Press Release" xr:uid="{0BE5ACE2-4857-3B4D-A854-8D959D99B602}"/>
-    <hyperlink ref="E38" r:id="rId15" display="4/26/22 Press Release" xr:uid="{F45703FF-7DA6-AD43-A4AB-DA9E06AC4711}"/>
-    <hyperlink ref="E37" r:id="rId16" display="5/2/22 Press Release" xr:uid="{064F4BA5-C4A3-394A-A224-77908E3229CD}"/>
-    <hyperlink ref="E36" r:id="rId17" display="6/9/22 Press Release" xr:uid="{98142C7F-2AA7-8B44-B252-2DE623CB2A48}"/>
-    <hyperlink ref="E35" r:id="rId18" display="6/16/22 Press Release" xr:uid="{C0CF27D7-F5D7-D44D-A046-6D01F37E2A6A}"/>
-    <hyperlink ref="E34" r:id="rId19" display="6/28/22 Press Release" xr:uid="{236EE2B4-06FC-FC43-BCD9-B55CD85EF132}"/>
-    <hyperlink ref="E27" r:id="rId20" display="10/11/2022 Press Releases" xr:uid="{58D60953-E809-8344-80E4-753831B5BCCD}"/>
-    <hyperlink ref="E28" r:id="rId21" display="9/27/2022 Press Release" xr:uid="{06E23F18-D0BF-1441-8ECB-A0DF37C02A7E}"/>
-    <hyperlink ref="E29" r:id="rId22" display="9/13/22 Press Release" xr:uid="{31796C53-3353-614C-850C-37223269C65A}"/>
-    <hyperlink ref="E30" r:id="rId23" display="9/7/22 Press Release" xr:uid="{F5A9EBA8-65D3-B145-BFD3-96A9517114BB}"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://ir.chipotle.com/2024-01-02-CHIPOTLE-AND-STRAVA-TEAM-UP-TO-HELP-FANS-ACHIEVE-WELLNESS-GOALS-ALL-JANUARY" xr:uid="{8F61C397-6067-AC4B-B494-83E922F1BE68}"/>
-    <hyperlink ref="E26" r:id="rId25" display="https://ir.chipotle.com/2023-12-13-CHIPOTLE-INVESTS-IN-AUTONOMOUS-AGRICULTURAL-ROBOTS-AND-CLIMATE-SMART-FERTILIZER-TO-IMPROVE-THE-FUTURE-OF-FARMING" xr:uid="{F5AC78B6-94FC-8546-AB05-921EDE6AB4EE}"/>
-    <hyperlink ref="E54" r:id="rId26" display="https://ir.chipotle.com/2021-03-25-Chipotle-Invests-In-Leading-Autonomous-Delivery-Company-Nuro" xr:uid="{42BFF284-5C82-4F42-B97C-204926615DF4}"/>
-    <hyperlink ref="E24" r:id="rId27" display="https://ir.chipotle.com/2024-02-28-CHIPOTLE-DOUBLES-ITS-COMMITMENT-TO-THE-CULTIVATE-NEXT-VENTURE-FUND-TO-100-MILLION,-MARKING-ITS-TWO-YEAR-ANNIVERSARY" xr:uid="{6B02CC92-51C3-B645-B764-8CD662CC60BB}"/>
-    <hyperlink ref="E22" r:id="rId28" display="https://ir.chipotle.com/2024-03-19-CHIPOTLE-BOARD-OF-DIRECTORS-APPROVES-50-FOR-1-STOCK-SPLIT" xr:uid="{B08C3402-BE9C-A34F-ACB4-1730ED1C4966}"/>
-    <hyperlink ref="E23" r:id="rId29" display="https://ir.chipotle.com/2024-03-12-CHICKEN-AL-PASTOR-IS-BACK-CHIPOTLE-REINTRODUCES-ONE-OF-ITS-MOST-POPULAR-MENU-INNOVATIONS" xr:uid="{14879690-4BED-4546-BC50-DB312E87F222}"/>
-    <hyperlink ref="E21" r:id="rId30" display="https://ir.chipotle.com/2024-04-08-CHIPOTLE-KICKS-OFF-PARTNERSHIP-WITH-TEKKEN-TM-8,-RETURNS-WITH-NEW-EXCLUSIVE-EXPERIENCES-FOR-THE-FIGHTING-GAME-COMMUNITY-FGC" xr:uid="{B6914D22-F406-D547-89CB-55A89DEC785D}"/>
-    <hyperlink ref="E20" r:id="rId31" display="https://ir.chipotle.com/2024-04-22-CHIPOTLE-INTRODUCES-ITS-REAL-INGREDIENTS-TO-KUWAIT" xr:uid="{DA29A152-4B0B-E245-AAB2-09356D247CBE}"/>
-    <hyperlink ref="E19" r:id="rId32" display="https://ir.chipotle.com/2024-04-24-CHIPOTLE-ANNOUNCES-FIRST-QUARTER-2024-RESULTS" xr:uid="{CFA2226E-2062-1944-8726-C14213316461}"/>
-    <hyperlink ref="E17" r:id="rId33" display="https://ir.chipotle.com/2024-08-27-CHIPOTLE-TESTS-CHIPOTLE-HONEY-CHICKEN-IN-SELECT-MARKETS" xr:uid="{95684927-3924-1245-AC4C-DC920CE00FC2}"/>
-    <hyperlink ref="E15" r:id="rId34" display="https://newsroom.chipotle.com/2024-09-16-CHIPOTLE-DEBUTS-AUTOCADO-AND-THE-AUGMENTED-MAKELINE-BY-HYPHEN-IN-RESTAURANTS" xr:uid="{B7000FC3-D4EA-F348-BBCE-463594A71A9D}"/>
-    <hyperlink ref="E16" r:id="rId35" display="https://newsroom.chipotle.com/2024-09-10-CHIPOTLE-BRINGS-BACK-SMOKED-BRISKET-IN-THE-U-S-AND-CANADA" xr:uid="{DD136792-852A-A746-A6A8-CE9FAE734150}"/>
-    <hyperlink ref="E18" r:id="rId36" display="https://newsroom.chipotle.com/2024-08-13-CHIPOTLE-ANNOUNCES-CEO-DEPARTURE" xr:uid="{C22FBA2A-265A-E14D-8EAE-D7F258A8DA24}"/>
+    <hyperlink ref="E40" r:id="rId12" display="4/19/22 Press Release" xr:uid="{4A0C956C-3152-864B-91A8-4119706762C5}"/>
+    <hyperlink ref="E43" r:id="rId13" display="3/28/22 Press Release" xr:uid="{E98A3860-CE2C-D346-A7F8-3BFECB77F349}"/>
+    <hyperlink ref="E41" r:id="rId14" display="4/5/22 Press Release" xr:uid="{0BE5ACE2-4857-3B4D-A854-8D959D99B602}"/>
+    <hyperlink ref="E39" r:id="rId15" display="4/26/22 Press Release" xr:uid="{F45703FF-7DA6-AD43-A4AB-DA9E06AC4711}"/>
+    <hyperlink ref="E38" r:id="rId16" display="5/2/22 Press Release" xr:uid="{064F4BA5-C4A3-394A-A224-77908E3229CD}"/>
+    <hyperlink ref="E37" r:id="rId17" display="6/9/22 Press Release" xr:uid="{98142C7F-2AA7-8B44-B252-2DE623CB2A48}"/>
+    <hyperlink ref="E36" r:id="rId18" display="6/16/22 Press Release" xr:uid="{C0CF27D7-F5D7-D44D-A046-6D01F37E2A6A}"/>
+    <hyperlink ref="E35" r:id="rId19" display="6/28/22 Press Release" xr:uid="{236EE2B4-06FC-FC43-BCD9-B55CD85EF132}"/>
+    <hyperlink ref="E28" r:id="rId20" display="10/11/2022 Press Releases" xr:uid="{58D60953-E809-8344-80E4-753831B5BCCD}"/>
+    <hyperlink ref="E29" r:id="rId21" display="9/27/2022 Press Release" xr:uid="{06E23F18-D0BF-1441-8ECB-A0DF37C02A7E}"/>
+    <hyperlink ref="E30" r:id="rId22" display="9/13/22 Press Release" xr:uid="{31796C53-3353-614C-850C-37223269C65A}"/>
+    <hyperlink ref="E31" r:id="rId23" display="9/7/22 Press Release" xr:uid="{F5A9EBA8-65D3-B145-BFD3-96A9517114BB}"/>
+    <hyperlink ref="E26" r:id="rId24" display="https://ir.chipotle.com/2024-01-02-CHIPOTLE-AND-STRAVA-TEAM-UP-TO-HELP-FANS-ACHIEVE-WELLNESS-GOALS-ALL-JANUARY" xr:uid="{8F61C397-6067-AC4B-B494-83E922F1BE68}"/>
+    <hyperlink ref="E27" r:id="rId25" display="https://ir.chipotle.com/2023-12-13-CHIPOTLE-INVESTS-IN-AUTONOMOUS-AGRICULTURAL-ROBOTS-AND-CLIMATE-SMART-FERTILIZER-TO-IMPROVE-THE-FUTURE-OF-FARMING" xr:uid="{F5AC78B6-94FC-8546-AB05-921EDE6AB4EE}"/>
+    <hyperlink ref="E55" r:id="rId26" display="https://ir.chipotle.com/2021-03-25-Chipotle-Invests-In-Leading-Autonomous-Delivery-Company-Nuro" xr:uid="{42BFF284-5C82-4F42-B97C-204926615DF4}"/>
+    <hyperlink ref="E25" r:id="rId27" display="https://ir.chipotle.com/2024-02-28-CHIPOTLE-DOUBLES-ITS-COMMITMENT-TO-THE-CULTIVATE-NEXT-VENTURE-FUND-TO-100-MILLION,-MARKING-ITS-TWO-YEAR-ANNIVERSARY" xr:uid="{6B02CC92-51C3-B645-B764-8CD662CC60BB}"/>
+    <hyperlink ref="E23" r:id="rId28" display="https://ir.chipotle.com/2024-03-19-CHIPOTLE-BOARD-OF-DIRECTORS-APPROVES-50-FOR-1-STOCK-SPLIT" xr:uid="{B08C3402-BE9C-A34F-ACB4-1730ED1C4966}"/>
+    <hyperlink ref="E24" r:id="rId29" display="https://ir.chipotle.com/2024-03-12-CHICKEN-AL-PASTOR-IS-BACK-CHIPOTLE-REINTRODUCES-ONE-OF-ITS-MOST-POPULAR-MENU-INNOVATIONS" xr:uid="{14879690-4BED-4546-BC50-DB312E87F222}"/>
+    <hyperlink ref="E22" r:id="rId30" display="https://ir.chipotle.com/2024-04-08-CHIPOTLE-KICKS-OFF-PARTNERSHIP-WITH-TEKKEN-TM-8,-RETURNS-WITH-NEW-EXCLUSIVE-EXPERIENCES-FOR-THE-FIGHTING-GAME-COMMUNITY-FGC" xr:uid="{B6914D22-F406-D547-89CB-55A89DEC785D}"/>
+    <hyperlink ref="E21" r:id="rId31" display="https://ir.chipotle.com/2024-04-22-CHIPOTLE-INTRODUCES-ITS-REAL-INGREDIENTS-TO-KUWAIT" xr:uid="{DA29A152-4B0B-E245-AAB2-09356D247CBE}"/>
+    <hyperlink ref="E20" r:id="rId32" display="https://ir.chipotle.com/2024-04-24-CHIPOTLE-ANNOUNCES-FIRST-QUARTER-2024-RESULTS" xr:uid="{CFA2226E-2062-1944-8726-C14213316461}"/>
+    <hyperlink ref="E18" r:id="rId33" display="https://ir.chipotle.com/2024-08-27-CHIPOTLE-TESTS-CHIPOTLE-HONEY-CHICKEN-IN-SELECT-MARKETS" xr:uid="{95684927-3924-1245-AC4C-DC920CE00FC2}"/>
+    <hyperlink ref="E16" r:id="rId34" display="https://newsroom.chipotle.com/2024-09-16-CHIPOTLE-DEBUTS-AUTOCADO-AND-THE-AUGMENTED-MAKELINE-BY-HYPHEN-IN-RESTAURANTS" xr:uid="{B7000FC3-D4EA-F348-BBCE-463594A71A9D}"/>
+    <hyperlink ref="E17" r:id="rId35" display="https://newsroom.chipotle.com/2024-09-10-CHIPOTLE-BRINGS-BACK-SMOKED-BRISKET-IN-THE-U-S-AND-CANADA" xr:uid="{DD136792-852A-A746-A6A8-CE9FAE734150}"/>
+    <hyperlink ref="E19" r:id="rId36" display="https://newsroom.chipotle.com/2024-08-13-CHIPOTLE-ANNOUNCES-CEO-DEPARTURE" xr:uid="{C22FBA2A-265A-E14D-8EAE-D7F258A8DA24}"/>
     <hyperlink ref="C17" r:id="rId37" xr:uid="{8AE5B916-8E91-BC4C-BEF7-0A020A25FE99}"/>
     <hyperlink ref="B21" r:id="rId38" xr:uid="{A0D4C4E1-BFD4-5349-BFA6-3B8FECE9E4D6}"/>
     <hyperlink ref="B19" r:id="rId39" xr:uid="{050D932C-E096-0D4B-B445-902F2B82A13B}"/>
+    <hyperlink ref="E15" r:id="rId40" display="https://ir.chipotle.com/2024-10-02-CHIPOTLES-FIRST-RESTAURANT-OPENS-IN-DUBAI-WITH-ALSHAYA-GROUP" xr:uid="{73DB334B-2D29-094A-B455-B1A5F226D879}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2666,11 +5228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B3FB4-BD2A-5E41-95A2-2CC4EACD5DFD}">
   <dimension ref="A1:JG179"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="BV38" sqref="BV38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2699,13 +5261,15 @@
     <col min="55" max="55" width="9.5" style="25" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="9.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="59" max="66" width="10.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="11.5" style="25" bestFit="1" customWidth="1"/>
     <col min="70" max="178" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="179" max="256" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="257" max="16384" width="10.83203125" style="25"/>
+    <col min="257" max="257" width="10.83203125" style="25"/>
+    <col min="258" max="258" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="259" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:267" s="9" customFormat="1">
@@ -3079,803 +5643,803 @@
         <f t="shared" si="4"/>
         <v>2033</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="34">
         <f>+BO3+1</f>
         <v>2034</v>
       </c>
-      <c r="BQ3" s="33">
+      <c r="BQ3" s="34">
         <f t="shared" ref="BQ3:EB3" si="5">+BP3+1</f>
         <v>2035</v>
       </c>
-      <c r="BR3" s="33">
+      <c r="BR3" s="34">
         <f t="shared" si="5"/>
         <v>2036</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="34">
         <f t="shared" si="5"/>
         <v>2037</v>
       </c>
-      <c r="BT3" s="33">
+      <c r="BT3" s="34">
         <f t="shared" si="5"/>
         <v>2038</v>
       </c>
-      <c r="BU3" s="33">
+      <c r="BU3" s="34">
         <f t="shared" si="5"/>
         <v>2039</v>
       </c>
-      <c r="BV3" s="33">
+      <c r="BV3" s="34">
         <f t="shared" si="5"/>
         <v>2040</v>
       </c>
-      <c r="BW3" s="33">
+      <c r="BW3" s="34">
         <f t="shared" si="5"/>
         <v>2041</v>
       </c>
-      <c r="BX3" s="33">
+      <c r="BX3" s="34">
         <f t="shared" si="5"/>
         <v>2042</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="34">
         <f t="shared" si="5"/>
         <v>2043</v>
       </c>
-      <c r="BZ3" s="33">
+      <c r="BZ3" s="34">
         <f t="shared" si="5"/>
         <v>2044</v>
       </c>
-      <c r="CA3" s="33">
+      <c r="CA3" s="34">
         <f t="shared" si="5"/>
         <v>2045</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="34">
         <f t="shared" si="5"/>
         <v>2046</v>
       </c>
-      <c r="CC3" s="33">
+      <c r="CC3" s="34">
         <f t="shared" si="5"/>
         <v>2047</v>
       </c>
-      <c r="CD3" s="33">
+      <c r="CD3" s="34">
         <f t="shared" si="5"/>
         <v>2048</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="34">
         <f t="shared" si="5"/>
         <v>2049</v>
       </c>
-      <c r="CF3" s="33">
+      <c r="CF3" s="34">
         <f t="shared" si="5"/>
         <v>2050</v>
       </c>
-      <c r="CG3" s="33">
+      <c r="CG3" s="34">
         <f t="shared" si="5"/>
         <v>2051</v>
       </c>
-      <c r="CH3" s="33">
+      <c r="CH3" s="34">
         <f t="shared" si="5"/>
         <v>2052</v>
       </c>
-      <c r="CI3" s="33">
+      <c r="CI3" s="34">
         <f t="shared" si="5"/>
         <v>2053</v>
       </c>
-      <c r="CJ3" s="33">
+      <c r="CJ3" s="34">
         <f t="shared" si="5"/>
         <v>2054</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="34">
         <f t="shared" si="5"/>
         <v>2055</v>
       </c>
-      <c r="CL3" s="33">
+      <c r="CL3" s="34">
         <f t="shared" si="5"/>
         <v>2056</v>
       </c>
-      <c r="CM3" s="33">
+      <c r="CM3" s="34">
         <f t="shared" si="5"/>
         <v>2057</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="34">
         <f t="shared" si="5"/>
         <v>2058</v>
       </c>
-      <c r="CO3" s="33">
+      <c r="CO3" s="34">
         <f t="shared" si="5"/>
         <v>2059</v>
       </c>
-      <c r="CP3" s="33">
+      <c r="CP3" s="34">
         <f t="shared" si="5"/>
         <v>2060</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="34">
         <f t="shared" si="5"/>
         <v>2061</v>
       </c>
-      <c r="CR3" s="33">
+      <c r="CR3" s="34">
         <f t="shared" si="5"/>
         <v>2062</v>
       </c>
-      <c r="CS3" s="33">
+      <c r="CS3" s="34">
         <f t="shared" si="5"/>
         <v>2063</v>
       </c>
-      <c r="CT3" s="33">
+      <c r="CT3" s="34">
         <f t="shared" si="5"/>
         <v>2064</v>
       </c>
-      <c r="CU3" s="33">
+      <c r="CU3" s="34">
         <f t="shared" si="5"/>
         <v>2065</v>
       </c>
-      <c r="CV3" s="33">
+      <c r="CV3" s="34">
         <f t="shared" si="5"/>
         <v>2066</v>
       </c>
-      <c r="CW3" s="33">
+      <c r="CW3" s="34">
         <f t="shared" si="5"/>
         <v>2067</v>
       </c>
-      <c r="CX3" s="33">
+      <c r="CX3" s="34">
         <f t="shared" si="5"/>
         <v>2068</v>
       </c>
-      <c r="CY3" s="33">
+      <c r="CY3" s="34">
         <f t="shared" si="5"/>
         <v>2069</v>
       </c>
-      <c r="CZ3" s="33">
+      <c r="CZ3" s="34">
         <f t="shared" si="5"/>
         <v>2070</v>
       </c>
-      <c r="DA3" s="33">
+      <c r="DA3" s="34">
         <f t="shared" si="5"/>
         <v>2071</v>
       </c>
-      <c r="DB3" s="33">
+      <c r="DB3" s="34">
         <f t="shared" si="5"/>
         <v>2072</v>
       </c>
-      <c r="DC3" s="33">
+      <c r="DC3" s="34">
         <f t="shared" si="5"/>
         <v>2073</v>
       </c>
-      <c r="DD3" s="33">
+      <c r="DD3" s="34">
         <f t="shared" si="5"/>
         <v>2074</v>
       </c>
-      <c r="DE3" s="33">
+      <c r="DE3" s="34">
         <f t="shared" si="5"/>
         <v>2075</v>
       </c>
-      <c r="DF3" s="33">
+      <c r="DF3" s="34">
         <f t="shared" si="5"/>
         <v>2076</v>
       </c>
-      <c r="DG3" s="33">
+      <c r="DG3" s="34">
         <f t="shared" si="5"/>
         <v>2077</v>
       </c>
-      <c r="DH3" s="33">
+      <c r="DH3" s="34">
         <f t="shared" si="5"/>
         <v>2078</v>
       </c>
-      <c r="DI3" s="33">
+      <c r="DI3" s="34">
         <f t="shared" si="5"/>
         <v>2079</v>
       </c>
-      <c r="DJ3" s="33">
+      <c r="DJ3" s="34">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="DK3" s="33">
+      <c r="DK3" s="34">
         <f t="shared" si="5"/>
         <v>2081</v>
       </c>
-      <c r="DL3" s="33">
+      <c r="DL3" s="34">
         <f t="shared" si="5"/>
         <v>2082</v>
       </c>
-      <c r="DM3" s="33">
+      <c r="DM3" s="34">
         <f t="shared" si="5"/>
         <v>2083</v>
       </c>
-      <c r="DN3" s="33">
+      <c r="DN3" s="34">
         <f t="shared" si="5"/>
         <v>2084</v>
       </c>
-      <c r="DO3" s="33">
+      <c r="DO3" s="34">
         <f t="shared" si="5"/>
         <v>2085</v>
       </c>
-      <c r="DP3" s="33">
+      <c r="DP3" s="34">
         <f t="shared" si="5"/>
         <v>2086</v>
       </c>
-      <c r="DQ3" s="33">
+      <c r="DQ3" s="34">
         <f t="shared" si="5"/>
         <v>2087</v>
       </c>
-      <c r="DR3" s="33">
+      <c r="DR3" s="34">
         <f t="shared" si="5"/>
         <v>2088</v>
       </c>
-      <c r="DS3" s="33">
+      <c r="DS3" s="34">
         <f t="shared" si="5"/>
         <v>2089</v>
       </c>
-      <c r="DT3" s="33">
+      <c r="DT3" s="34">
         <f t="shared" si="5"/>
         <v>2090</v>
       </c>
-      <c r="DU3" s="33">
+      <c r="DU3" s="34">
         <f t="shared" si="5"/>
         <v>2091</v>
       </c>
-      <c r="DV3" s="33">
+      <c r="DV3" s="34">
         <f t="shared" si="5"/>
         <v>2092</v>
       </c>
-      <c r="DW3" s="33">
+      <c r="DW3" s="34">
         <f t="shared" si="5"/>
         <v>2093</v>
       </c>
-      <c r="DX3" s="33">
+      <c r="DX3" s="34">
         <f t="shared" si="5"/>
         <v>2094</v>
       </c>
-      <c r="DY3" s="33">
+      <c r="DY3" s="34">
         <f t="shared" si="5"/>
         <v>2095</v>
       </c>
-      <c r="DZ3" s="33">
+      <c r="DZ3" s="34">
         <f t="shared" si="5"/>
         <v>2096</v>
       </c>
-      <c r="EA3" s="33">
+      <c r="EA3" s="34">
         <f t="shared" si="5"/>
         <v>2097</v>
       </c>
-      <c r="EB3" s="33">
+      <c r="EB3" s="34">
         <f t="shared" si="5"/>
         <v>2098</v>
       </c>
-      <c r="EC3" s="33">
+      <c r="EC3" s="34">
         <f t="shared" ref="EC3:GN3" si="6">+EB3+1</f>
         <v>2099</v>
       </c>
-      <c r="ED3" s="33">
+      <c r="ED3" s="34">
         <f t="shared" si="6"/>
         <v>2100</v>
       </c>
-      <c r="EE3" s="33">
+      <c r="EE3" s="34">
         <f t="shared" si="6"/>
         <v>2101</v>
       </c>
-      <c r="EF3" s="33">
+      <c r="EF3" s="34">
         <f t="shared" si="6"/>
         <v>2102</v>
       </c>
-      <c r="EG3" s="33">
+      <c r="EG3" s="34">
         <f t="shared" si="6"/>
         <v>2103</v>
       </c>
-      <c r="EH3" s="33">
+      <c r="EH3" s="34">
         <f t="shared" si="6"/>
         <v>2104</v>
       </c>
-      <c r="EI3" s="33">
+      <c r="EI3" s="34">
         <f t="shared" si="6"/>
         <v>2105</v>
       </c>
-      <c r="EJ3" s="33">
+      <c r="EJ3" s="34">
         <f t="shared" si="6"/>
         <v>2106</v>
       </c>
-      <c r="EK3" s="33">
+      <c r="EK3" s="34">
         <f t="shared" si="6"/>
         <v>2107</v>
       </c>
-      <c r="EL3" s="33">
+      <c r="EL3" s="34">
         <f t="shared" si="6"/>
         <v>2108</v>
       </c>
-      <c r="EM3" s="33">
+      <c r="EM3" s="34">
         <f t="shared" si="6"/>
         <v>2109</v>
       </c>
-      <c r="EN3" s="33">
+      <c r="EN3" s="34">
         <f t="shared" si="6"/>
         <v>2110</v>
       </c>
-      <c r="EO3" s="33">
+      <c r="EO3" s="34">
         <f t="shared" si="6"/>
         <v>2111</v>
       </c>
-      <c r="EP3" s="33">
+      <c r="EP3" s="34">
         <f t="shared" si="6"/>
         <v>2112</v>
       </c>
-      <c r="EQ3" s="33">
+      <c r="EQ3" s="34">
         <f t="shared" si="6"/>
         <v>2113</v>
       </c>
-      <c r="ER3" s="33">
+      <c r="ER3" s="34">
         <f t="shared" si="6"/>
         <v>2114</v>
       </c>
-      <c r="ES3" s="33">
+      <c r="ES3" s="34">
         <f t="shared" si="6"/>
         <v>2115</v>
       </c>
-      <c r="ET3" s="33">
+      <c r="ET3" s="34">
         <f t="shared" si="6"/>
         <v>2116</v>
       </c>
-      <c r="EU3" s="33">
+      <c r="EU3" s="34">
         <f t="shared" si="6"/>
         <v>2117</v>
       </c>
-      <c r="EV3" s="33">
+      <c r="EV3" s="34">
         <f t="shared" si="6"/>
         <v>2118</v>
       </c>
-      <c r="EW3" s="33">
+      <c r="EW3" s="34">
         <f t="shared" si="6"/>
         <v>2119</v>
       </c>
-      <c r="EX3" s="33">
+      <c r="EX3" s="34">
         <f t="shared" si="6"/>
         <v>2120</v>
       </c>
-      <c r="EY3" s="33">
+      <c r="EY3" s="34">
         <f t="shared" si="6"/>
         <v>2121</v>
       </c>
-      <c r="EZ3" s="33">
+      <c r="EZ3" s="34">
         <f t="shared" si="6"/>
         <v>2122</v>
       </c>
-      <c r="FA3" s="33">
+      <c r="FA3" s="34">
         <f t="shared" si="6"/>
         <v>2123</v>
       </c>
-      <c r="FB3" s="33">
+      <c r="FB3" s="34">
         <f t="shared" si="6"/>
         <v>2124</v>
       </c>
-      <c r="FC3" s="33">
+      <c r="FC3" s="34">
         <f t="shared" si="6"/>
         <v>2125</v>
       </c>
-      <c r="FD3" s="33">
+      <c r="FD3" s="34">
         <f t="shared" si="6"/>
         <v>2126</v>
       </c>
-      <c r="FE3" s="33">
+      <c r="FE3" s="34">
         <f t="shared" si="6"/>
         <v>2127</v>
       </c>
-      <c r="FF3" s="33">
+      <c r="FF3" s="34">
         <f t="shared" si="6"/>
         <v>2128</v>
       </c>
-      <c r="FG3" s="33">
+      <c r="FG3" s="34">
         <f t="shared" si="6"/>
         <v>2129</v>
       </c>
-      <c r="FH3" s="33">
+      <c r="FH3" s="34">
         <f t="shared" si="6"/>
         <v>2130</v>
       </c>
-      <c r="FI3" s="33">
+      <c r="FI3" s="34">
         <f t="shared" si="6"/>
         <v>2131</v>
       </c>
-      <c r="FJ3" s="33">
+      <c r="FJ3" s="34">
         <f t="shared" si="6"/>
         <v>2132</v>
       </c>
-      <c r="FK3" s="33">
+      <c r="FK3" s="34">
         <f t="shared" si="6"/>
         <v>2133</v>
       </c>
-      <c r="FL3" s="33">
+      <c r="FL3" s="34">
         <f t="shared" si="6"/>
         <v>2134</v>
       </c>
-      <c r="FM3" s="33">
+      <c r="FM3" s="34">
         <f t="shared" si="6"/>
         <v>2135</v>
       </c>
-      <c r="FN3" s="33">
+      <c r="FN3" s="34">
         <f t="shared" si="6"/>
         <v>2136</v>
       </c>
-      <c r="FO3" s="33">
+      <c r="FO3" s="34">
         <f t="shared" si="6"/>
         <v>2137</v>
       </c>
-      <c r="FP3" s="33">
+      <c r="FP3" s="34">
         <f t="shared" si="6"/>
         <v>2138</v>
       </c>
-      <c r="FQ3" s="33">
+      <c r="FQ3" s="34">
         <f t="shared" si="6"/>
         <v>2139</v>
       </c>
-      <c r="FR3" s="33">
+      <c r="FR3" s="34">
         <f t="shared" si="6"/>
         <v>2140</v>
       </c>
-      <c r="FS3" s="33">
+      <c r="FS3" s="34">
         <f t="shared" si="6"/>
         <v>2141</v>
       </c>
-      <c r="FT3" s="33">
+      <c r="FT3" s="34">
         <f t="shared" si="6"/>
         <v>2142</v>
       </c>
-      <c r="FU3" s="33">
+      <c r="FU3" s="34">
         <f t="shared" si="6"/>
         <v>2143</v>
       </c>
-      <c r="FV3" s="33">
+      <c r="FV3" s="34">
         <f t="shared" si="6"/>
         <v>2144</v>
       </c>
-      <c r="FW3" s="33">
+      <c r="FW3" s="34">
         <f t="shared" si="6"/>
         <v>2145</v>
       </c>
-      <c r="FX3" s="33">
+      <c r="FX3" s="34">
         <f t="shared" si="6"/>
         <v>2146</v>
       </c>
-      <c r="FY3" s="33">
+      <c r="FY3" s="34">
         <f t="shared" si="6"/>
         <v>2147</v>
       </c>
-      <c r="FZ3" s="33">
+      <c r="FZ3" s="34">
         <f t="shared" si="6"/>
         <v>2148</v>
       </c>
-      <c r="GA3" s="33">
+      <c r="GA3" s="34">
         <f t="shared" si="6"/>
         <v>2149</v>
       </c>
-      <c r="GB3" s="33">
+      <c r="GB3" s="34">
         <f t="shared" si="6"/>
         <v>2150</v>
       </c>
-      <c r="GC3" s="33">
+      <c r="GC3" s="34">
         <f t="shared" si="6"/>
         <v>2151</v>
       </c>
-      <c r="GD3" s="33">
+      <c r="GD3" s="34">
         <f t="shared" si="6"/>
         <v>2152</v>
       </c>
-      <c r="GE3" s="33">
+      <c r="GE3" s="34">
         <f t="shared" si="6"/>
         <v>2153</v>
       </c>
-      <c r="GF3" s="33">
+      <c r="GF3" s="34">
         <f t="shared" si="6"/>
         <v>2154</v>
       </c>
-      <c r="GG3" s="33">
+      <c r="GG3" s="34">
         <f t="shared" si="6"/>
         <v>2155</v>
       </c>
-      <c r="GH3" s="33">
+      <c r="GH3" s="34">
         <f t="shared" si="6"/>
         <v>2156</v>
       </c>
-      <c r="GI3" s="33">
+      <c r="GI3" s="34">
         <f t="shared" si="6"/>
         <v>2157</v>
       </c>
-      <c r="GJ3" s="33">
+      <c r="GJ3" s="34">
         <f t="shared" si="6"/>
         <v>2158</v>
       </c>
-      <c r="GK3" s="33">
+      <c r="GK3" s="34">
         <f t="shared" si="6"/>
         <v>2159</v>
       </c>
-      <c r="GL3" s="33">
+      <c r="GL3" s="34">
         <f t="shared" si="6"/>
         <v>2160</v>
       </c>
-      <c r="GM3" s="33">
+      <c r="GM3" s="34">
         <f t="shared" si="6"/>
         <v>2161</v>
       </c>
-      <c r="GN3" s="33">
+      <c r="GN3" s="34">
         <f t="shared" si="6"/>
         <v>2162</v>
       </c>
-      <c r="GO3" s="33">
+      <c r="GO3" s="34">
         <f t="shared" ref="GO3:IV3" si="7">+GN3+1</f>
         <v>2163</v>
       </c>
-      <c r="GP3" s="33">
+      <c r="GP3" s="34">
         <f t="shared" si="7"/>
         <v>2164</v>
       </c>
-      <c r="GQ3" s="33">
+      <c r="GQ3" s="34">
         <f t="shared" si="7"/>
         <v>2165</v>
       </c>
-      <c r="GR3" s="33">
+      <c r="GR3" s="34">
         <f t="shared" si="7"/>
         <v>2166</v>
       </c>
-      <c r="GS3" s="33">
+      <c r="GS3" s="34">
         <f t="shared" si="7"/>
         <v>2167</v>
       </c>
-      <c r="GT3" s="33">
+      <c r="GT3" s="34">
         <f t="shared" si="7"/>
         <v>2168</v>
       </c>
-      <c r="GU3" s="33">
+      <c r="GU3" s="34">
         <f t="shared" si="7"/>
         <v>2169</v>
       </c>
-      <c r="GV3" s="33">
+      <c r="GV3" s="34">
         <f t="shared" si="7"/>
         <v>2170</v>
       </c>
-      <c r="GW3" s="33">
+      <c r="GW3" s="34">
         <f t="shared" si="7"/>
         <v>2171</v>
       </c>
-      <c r="GX3" s="33">
+      <c r="GX3" s="34">
         <f t="shared" si="7"/>
         <v>2172</v>
       </c>
-      <c r="GY3" s="33">
+      <c r="GY3" s="34">
         <f t="shared" si="7"/>
         <v>2173</v>
       </c>
-      <c r="GZ3" s="33">
+      <c r="GZ3" s="34">
         <f t="shared" si="7"/>
         <v>2174</v>
       </c>
-      <c r="HA3" s="33">
+      <c r="HA3" s="34">
         <f t="shared" si="7"/>
         <v>2175</v>
       </c>
-      <c r="HB3" s="33">
+      <c r="HB3" s="34">
         <f t="shared" si="7"/>
         <v>2176</v>
       </c>
-      <c r="HC3" s="33">
+      <c r="HC3" s="34">
         <f t="shared" si="7"/>
         <v>2177</v>
       </c>
-      <c r="HD3" s="33">
+      <c r="HD3" s="34">
         <f t="shared" si="7"/>
         <v>2178</v>
       </c>
-      <c r="HE3" s="33">
+      <c r="HE3" s="34">
         <f t="shared" si="7"/>
         <v>2179</v>
       </c>
-      <c r="HF3" s="33">
+      <c r="HF3" s="34">
         <f t="shared" si="7"/>
         <v>2180</v>
       </c>
-      <c r="HG3" s="33">
+      <c r="HG3" s="34">
         <f t="shared" si="7"/>
         <v>2181</v>
       </c>
-      <c r="HH3" s="33">
+      <c r="HH3" s="34">
         <f t="shared" si="7"/>
         <v>2182</v>
       </c>
-      <c r="HI3" s="33">
+      <c r="HI3" s="34">
         <f t="shared" si="7"/>
         <v>2183</v>
       </c>
-      <c r="HJ3" s="33">
+      <c r="HJ3" s="34">
         <f t="shared" si="7"/>
         <v>2184</v>
       </c>
-      <c r="HK3" s="33">
+      <c r="HK3" s="34">
         <f t="shared" si="7"/>
         <v>2185</v>
       </c>
-      <c r="HL3" s="33">
+      <c r="HL3" s="34">
         <f t="shared" si="7"/>
         <v>2186</v>
       </c>
-      <c r="HM3" s="33">
+      <c r="HM3" s="34">
         <f t="shared" si="7"/>
         <v>2187</v>
       </c>
-      <c r="HN3" s="33">
+      <c r="HN3" s="34">
         <f t="shared" si="7"/>
         <v>2188</v>
       </c>
-      <c r="HO3" s="33">
+      <c r="HO3" s="34">
         <f t="shared" si="7"/>
         <v>2189</v>
       </c>
-      <c r="HP3" s="33">
+      <c r="HP3" s="34">
         <f t="shared" si="7"/>
         <v>2190</v>
       </c>
-      <c r="HQ3" s="33">
+      <c r="HQ3" s="34">
         <f t="shared" si="7"/>
         <v>2191</v>
       </c>
-      <c r="HR3" s="33">
+      <c r="HR3" s="34">
         <f t="shared" si="7"/>
         <v>2192</v>
       </c>
-      <c r="HS3" s="33">
+      <c r="HS3" s="34">
         <f t="shared" si="7"/>
         <v>2193</v>
       </c>
-      <c r="HT3" s="33">
+      <c r="HT3" s="34">
         <f t="shared" si="7"/>
         <v>2194</v>
       </c>
-      <c r="HU3" s="33">
+      <c r="HU3" s="34">
         <f t="shared" si="7"/>
         <v>2195</v>
       </c>
-      <c r="HV3" s="33">
+      <c r="HV3" s="34">
         <f t="shared" si="7"/>
         <v>2196</v>
       </c>
-      <c r="HW3" s="33">
+      <c r="HW3" s="34">
         <f t="shared" si="7"/>
         <v>2197</v>
       </c>
-      <c r="HX3" s="33">
+      <c r="HX3" s="34">
         <f t="shared" si="7"/>
         <v>2198</v>
       </c>
-      <c r="HY3" s="33">
+      <c r="HY3" s="34">
         <f t="shared" si="7"/>
         <v>2199</v>
       </c>
-      <c r="HZ3" s="33">
+      <c r="HZ3" s="34">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
-      <c r="IA3" s="33">
+      <c r="IA3" s="34">
         <f t="shared" si="7"/>
         <v>2201</v>
       </c>
-      <c r="IB3" s="33">
+      <c r="IB3" s="34">
         <f t="shared" si="7"/>
         <v>2202</v>
       </c>
-      <c r="IC3" s="33">
+      <c r="IC3" s="34">
         <f t="shared" si="7"/>
         <v>2203</v>
       </c>
-      <c r="ID3" s="33">
+      <c r="ID3" s="34">
         <f t="shared" si="7"/>
         <v>2204</v>
       </c>
-      <c r="IE3" s="33">
+      <c r="IE3" s="34">
         <f t="shared" si="7"/>
         <v>2205</v>
       </c>
-      <c r="IF3" s="33">
+      <c r="IF3" s="34">
         <f t="shared" si="7"/>
         <v>2206</v>
       </c>
-      <c r="IG3" s="33">
+      <c r="IG3" s="34">
         <f t="shared" si="7"/>
         <v>2207</v>
       </c>
-      <c r="IH3" s="33">
+      <c r="IH3" s="34">
         <f t="shared" si="7"/>
         <v>2208</v>
       </c>
-      <c r="II3" s="33">
+      <c r="II3" s="34">
         <f t="shared" si="7"/>
         <v>2209</v>
       </c>
-      <c r="IJ3" s="33">
+      <c r="IJ3" s="34">
         <f t="shared" si="7"/>
         <v>2210</v>
       </c>
-      <c r="IK3" s="33">
+      <c r="IK3" s="34">
         <f t="shared" si="7"/>
         <v>2211</v>
       </c>
-      <c r="IL3" s="33">
+      <c r="IL3" s="34">
         <f t="shared" si="7"/>
         <v>2212</v>
       </c>
-      <c r="IM3" s="33">
+      <c r="IM3" s="34">
         <f t="shared" si="7"/>
         <v>2213</v>
       </c>
-      <c r="IN3" s="33">
+      <c r="IN3" s="34">
         <f t="shared" si="7"/>
         <v>2214</v>
       </c>
-      <c r="IO3" s="33">
+      <c r="IO3" s="34">
         <f t="shared" si="7"/>
         <v>2215</v>
       </c>
-      <c r="IP3" s="33">
+      <c r="IP3" s="34">
         <f t="shared" si="7"/>
         <v>2216</v>
       </c>
-      <c r="IQ3" s="33">
+      <c r="IQ3" s="34">
         <f t="shared" si="7"/>
         <v>2217</v>
       </c>
-      <c r="IR3" s="33">
+      <c r="IR3" s="34">
         <f t="shared" si="7"/>
         <v>2218</v>
       </c>
-      <c r="IS3" s="33">
+      <c r="IS3" s="34">
         <f t="shared" si="7"/>
         <v>2219</v>
       </c>
-      <c r="IT3" s="33">
+      <c r="IT3" s="34">
         <f t="shared" si="7"/>
         <v>2220</v>
       </c>
-      <c r="IU3" s="33">
+      <c r="IU3" s="34">
         <f t="shared" si="7"/>
         <v>2221</v>
       </c>
-      <c r="IV3" s="33">
+      <c r="IV3" s="34">
         <f t="shared" si="7"/>
         <v>2222</v>
       </c>
-      <c r="IW3" s="33">
+      <c r="IW3" s="34">
         <f t="shared" ref="IW3:JG3" si="8">+IV3+1</f>
         <v>2223</v>
       </c>
-      <c r="IX3" s="33">
+      <c r="IX3" s="34">
         <f t="shared" si="8"/>
         <v>2224</v>
       </c>
-      <c r="IY3" s="33">
+      <c r="IY3" s="34">
         <f t="shared" si="8"/>
         <v>2225</v>
       </c>
-      <c r="IZ3" s="33">
+      <c r="IZ3" s="34">
         <f t="shared" si="8"/>
         <v>2226</v>
       </c>
-      <c r="JA3" s="33">
+      <c r="JA3" s="34">
         <f t="shared" si="8"/>
         <v>2227</v>
       </c>
-      <c r="JB3" s="33">
+      <c r="JB3" s="34">
         <f t="shared" si="8"/>
         <v>2228</v>
       </c>
-      <c r="JC3" s="33">
+      <c r="JC3" s="34">
         <f t="shared" si="8"/>
         <v>2229</v>
       </c>
-      <c r="JD3" s="33">
+      <c r="JD3" s="34">
         <f t="shared" si="8"/>
         <v>2230</v>
       </c>
-      <c r="JE3" s="33">
+      <c r="JE3" s="34">
         <f t="shared" si="8"/>
         <v>2231</v>
       </c>
-      <c r="JF3" s="33">
+      <c r="JF3" s="34">
         <f t="shared" si="8"/>
         <v>2232</v>
       </c>
-      <c r="JG3" s="33">
+      <c r="JG3" s="34">
         <f t="shared" si="8"/>
         <v>2233</v>
       </c>
@@ -8860,7 +11424,7 @@
         <v>27710</v>
       </c>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:74">
       <c r="B34" s="56" t="s">
         <v>177</v>
       </c>
@@ -8868,7 +11432,7 @@
       <c r="BR34" s="57"/>
       <c r="BS34" s="57"/>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:74">
       <c r="B35" s="9" t="s">
         <v>18</v>
       </c>
@@ -8948,7 +11512,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="1:74">
       <c r="B36" s="9" t="s">
         <v>19</v>
       </c>
@@ -9028,7 +11592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:71" s="36" customFormat="1">
+    <row r="37" spans="1:74" s="36" customFormat="1">
       <c r="A37" s="40"/>
       <c r="B37" s="15" t="s">
         <v>20</v>
@@ -9228,7 +11792,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="1:74">
       <c r="B38" s="9" t="s">
         <v>21</v>
       </c>
@@ -9344,8 +11908,12 @@
         <f>NPV(BS37,BF30:JG30)</f>
         <v>96985269.773047924</v>
       </c>
-    </row>
-    <row r="39" spans="1:71">
+      <c r="BV38" s="45">
+        <f>1.19672131147541-1</f>
+        <v>0.19672131147540983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:74">
       <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
@@ -9462,7 +12030,7 @@
         <v>2490123</v>
       </c>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="1:74">
       <c r="B40" s="9" t="s">
         <v>23</v>
       </c>
@@ -9579,7 +12147,7 @@
         <v>99475392.773047924</v>
       </c>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="1:74">
       <c r="B41" s="9" t="s">
         <v>24</v>
       </c>
@@ -9696,7 +12264,7 @@
         <v>1371372</v>
       </c>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="1:74">
       <c r="B42" s="9" t="s">
         <v>25</v>
       </c>
@@ -9815,7 +12383,7 @@
         <v>72.537132720405495</v>
       </c>
     </row>
-    <row r="43" spans="1:71" s="45" customFormat="1">
+    <row r="43" spans="1:74" s="45" customFormat="1">
       <c r="A43" s="65"/>
       <c r="B43" s="66" t="s">
         <v>229</v>
@@ -10037,10 +12605,10 @@
       </c>
       <c r="BS43" s="64">
         <f>+Main!F4</f>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:74">
       <c r="B44" s="68"/>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -10111,10 +12679,10 @@
       </c>
       <c r="BS44" s="72">
         <f>+BS42/BS43-1</f>
-        <v>0.23995098667359827</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71" s="75" customFormat="1">
+        <v>0.24356476462207266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:74" s="75" customFormat="1">
       <c r="A45" s="76"/>
       <c r="B45" s="15" t="s">
         <v>228</v>
@@ -10339,7 +12907,7 @@
       <c r="BR45" s="25"/>
       <c r="BS45" s="25"/>
     </row>
-    <row r="46" spans="1:71" s="57" customFormat="1">
+    <row r="46" spans="1:74" s="57" customFormat="1">
       <c r="A46" s="73"/>
       <c r="B46" s="15"/>
       <c r="C46" s="69">
@@ -10556,7 +13124,7 @@
         <v>0.26197163209510388</v>
       </c>
     </row>
-    <row r="47" spans="1:71" s="57" customFormat="1">
+    <row r="47" spans="1:74" s="57" customFormat="1">
       <c r="A47" s="73"/>
       <c r="B47" s="15"/>
       <c r="C47" s="69"/>
@@ -10591,7 +13159,7 @@
       <c r="AF47" s="69"/>
       <c r="AM47" s="36"/>
     </row>
-    <row r="48" spans="1:71" s="57" customFormat="1">
+    <row r="48" spans="1:74" s="57" customFormat="1">
       <c r="A48" s="73"/>
       <c r="B48" s="15"/>
       <c r="C48" s="69"/>
@@ -10656,7 +13224,7 @@
       </c>
       <c r="X49" s="77">
         <f>+BS43</f>
-        <v>58.5</v>
+        <v>58.33</v>
       </c>
       <c r="Y49" s="77"/>
       <c r="Z49" s="77"/>
@@ -10705,7 +13273,7 @@
       </c>
       <c r="BS49" s="79">
         <f>+Main!$F$9/Model!BE30</f>
-        <v>61.348519896109799</v>
+        <v>61.164531298461768</v>
       </c>
     </row>
     <row r="50" spans="1:71" s="75" customFormat="1">
@@ -10743,7 +13311,7 @@
       </c>
       <c r="X50" s="77">
         <f t="shared" si="127"/>
-        <v>1643.3820000000001</v>
+        <v>1638.6063599999998</v>
       </c>
       <c r="Y50" s="77"/>
       <c r="Z50" s="77"/>
@@ -10795,7 +13363,7 @@
       </c>
       <c r="BS50" s="79">
         <f>+Main!$F$9/Model!BF30</f>
-        <v>33.088384618631565</v>
+        <v>32.989150187308198</v>
       </c>
     </row>
     <row r="51" spans="1:71" s="75" customFormat="1">
@@ -10833,7 +13401,7 @@
       </c>
       <c r="X51" s="77">
         <f t="shared" si="128"/>
-        <v>490.95900000000006</v>
+        <v>486.18335999999977</v>
       </c>
       <c r="Y51" s="77"/>
       <c r="Z51" s="77"/>
@@ -10885,7 +13453,7 @@
       </c>
       <c r="BS51" s="79">
         <f>+Main!$F$9/Model!BG30</f>
-        <v>28.629182531707286</v>
+        <v>28.543321566279946</v>
       </c>
     </row>
     <row r="52" spans="1:71" s="103" customFormat="1">
@@ -10897,66 +13465,6 @@
       <c r="F52" s="102"/>
       <c r="AA52" s="104"/>
       <c r="AM52" s="102"/>
-      <c r="AQ52" s="103">
-        <f>+AQ17/1000000</f>
-        <v>1.5184169999999999</v>
-      </c>
-      <c r="AR52" s="103">
-        <f t="shared" ref="AR52:BE52" si="129">+AR17/1000000</f>
-        <v>1.8359220000000001</v>
-      </c>
-      <c r="AS52" s="103">
-        <f t="shared" si="129"/>
-        <v>2.2695479999999999</v>
-      </c>
-      <c r="AT52" s="103">
-        <f t="shared" si="129"/>
-        <v>2.7312240000000001</v>
-      </c>
-      <c r="AU52" s="103">
-        <f t="shared" si="129"/>
-        <v>3.214591</v>
-      </c>
-      <c r="AV52" s="103">
-        <f t="shared" si="129"/>
-        <v>4.1082689999999999</v>
-      </c>
-      <c r="AW52" s="103">
-        <f t="shared" si="129"/>
-        <v>4.5012230000000004</v>
-      </c>
-      <c r="AX52" s="103">
-        <f t="shared" si="129"/>
-        <v>3.9043839999999999</v>
-      </c>
-      <c r="AY52" s="103">
-        <f t="shared" si="129"/>
-        <v>4.4764119999999998</v>
-      </c>
-      <c r="AZ52" s="103">
-        <f t="shared" si="129"/>
-        <v>4.8649849999999999</v>
-      </c>
-      <c r="BA52" s="103">
-        <f t="shared" si="129"/>
-        <v>5.5863690000000004</v>
-      </c>
-      <c r="BB52" s="103">
-        <f t="shared" si="129"/>
-        <v>5.9846339999999998</v>
-      </c>
-      <c r="BC52" s="103">
-        <f t="shared" si="129"/>
-        <v>7.5470610000000002</v>
-      </c>
-      <c r="BD52" s="103">
-        <f t="shared" si="129"/>
-        <v>8.6346520000000009</v>
-      </c>
-      <c r="BE52" s="103">
-        <f t="shared" si="129"/>
-        <v>9.8716489999999997</v>
-      </c>
     </row>
     <row r="53" spans="1:71" s="57" customFormat="1">
       <c r="A53" s="73"/>
@@ -11000,71 +13508,71 @@
         <v>577040</v>
       </c>
       <c r="D55" s="25">
-        <f t="shared" ref="D55:N55" si="130">+D56+D64+D65+D61</f>
+        <f t="shared" ref="D55:N55" si="129">+D56+D64+D65+D61</f>
         <v>569603</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" ref="E55:F55" si="131">+E56+E64+E65+E61</f>
+        <f t="shared" ref="E55:F55" si="130">+E56+E64+E65+E61</f>
         <v>548357</v>
       </c>
       <c r="F55" s="25">
+        <f t="shared" si="130"/>
+        <v>538552</v>
+      </c>
+      <c r="G55" s="25">
+        <f t="shared" ref="G55:H55" si="131">+G56+G64+G65+G61</f>
+        <v>579977</v>
+      </c>
+      <c r="H55" s="25">
         <f t="shared" si="131"/>
-        <v>538552</v>
-      </c>
-      <c r="G55" s="25">
-        <f t="shared" ref="G55:H55" si="132">+G56+G64+G65+G61</f>
-        <v>579977</v>
-      </c>
-      <c r="H55" s="25">
+        <v>573927</v>
+      </c>
+      <c r="I55" s="25">
+        <f t="shared" si="129"/>
+        <v>700395</v>
+      </c>
+      <c r="J55" s="25">
+        <f t="shared" si="129"/>
+        <v>706997</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" si="129"/>
+        <v>763406</v>
+      </c>
+      <c r="L55" s="25">
+        <f t="shared" ref="L55:M55" si="132">+L56+L64+L65+L61</f>
+        <v>746323</v>
+      </c>
+      <c r="M55" s="25">
         <f t="shared" si="132"/>
-        <v>573927</v>
-      </c>
-      <c r="I55" s="25">
-        <f t="shared" si="130"/>
-        <v>700395</v>
-      </c>
-      <c r="J55" s="25">
-        <f t="shared" si="130"/>
-        <v>706997</v>
-      </c>
-      <c r="K55" s="25">
-        <f t="shared" si="130"/>
-        <v>763406</v>
-      </c>
-      <c r="L55" s="25">
-        <f t="shared" ref="L55:M55" si="133">+L56+L64+L65+L61</f>
-        <v>746323</v>
-      </c>
-      <c r="M55" s="25">
+        <v>844058</v>
+      </c>
+      <c r="N55" s="25">
+        <f t="shared" si="129"/>
+        <v>908637</v>
+      </c>
+      <c r="O55" s="25">
+        <f t="shared" ref="O55:T55" si="133">+O56+O64+O65+O61</f>
+        <v>909249</v>
+      </c>
+      <c r="P55" s="25">
         <f t="shared" si="133"/>
-        <v>844058</v>
-      </c>
-      <c r="N55" s="25">
-        <f t="shared" si="130"/>
-        <v>908637</v>
-      </c>
-      <c r="O55" s="25">
-        <f t="shared" ref="O55:T55" si="134">+O56+O64+O65+O61</f>
-        <v>909249</v>
-      </c>
-      <c r="P55" s="25">
-        <f t="shared" si="134"/>
         <v>934642</v>
       </c>
       <c r="Q55" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1094285</v>
       </c>
       <c r="R55" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1081780</v>
       </c>
       <c r="S55" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1197152</v>
       </c>
       <c r="T55" s="25">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1169420</v>
       </c>
       <c r="U55" s="25">
@@ -11072,11 +13580,11 @@
         <v>1238878</v>
       </c>
       <c r="V55" s="25">
-        <f t="shared" ref="V55:AE55" si="135">+V56+V64+V65+V61</f>
+        <f t="shared" ref="V55:AE55" si="134">+V56+V64+V65+V61</f>
         <v>1381486</v>
       </c>
       <c r="W55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1220202</v>
       </c>
       <c r="X55" s="25">
@@ -11084,31 +13592,31 @@
         <v>1152423</v>
       </c>
       <c r="Y55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1257495</v>
       </c>
       <c r="Z55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1312157</v>
       </c>
       <c r="AA55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1455741</v>
       </c>
       <c r="AB55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1811876</v>
       </c>
       <c r="AC55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1952568</v>
       </c>
       <c r="AD55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1885489</v>
       </c>
       <c r="AE55" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2222821</v>
       </c>
       <c r="AF55" s="25">
@@ -11120,44 +13628,47 @@
         <v>2490123</v>
       </c>
       <c r="BF55" s="25">
-        <f t="shared" ref="BF55:BO55" si="136">+BE55+BF30</f>
+        <f t="shared" ref="BF55:BO55" si="135">+BE55+BF30</f>
         <v>4839441.0430521388</v>
       </c>
       <c r="BG55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>7554682.3502011318</v>
       </c>
       <c r="BH55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>10672471.584409418</v>
       </c>
       <c r="BI55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>14232525.804288618</v>
       </c>
       <c r="BJ55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>18277893.888764843</v>
       </c>
       <c r="BK55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>22855213.562422697</v>
       </c>
       <c r="BL55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>28014987.271710299</v>
       </c>
       <c r="BM55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>33811878.248847209</v>
       </c>
       <c r="BN55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>40305028.192835569</v>
       </c>
       <c r="BO55" s="25">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>48148382.785339609</v>
+      </c>
+      <c r="BS55" s="25">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:71">
@@ -11254,6 +13765,9 @@
       <c r="AF56" s="25">
         <v>806528</v>
       </c>
+      <c r="BS56" s="25">
+        <v>71</v>
+      </c>
     </row>
     <row r="57" spans="1:71">
       <c r="B57" s="9" t="s">
@@ -11349,6 +13863,9 @@
       <c r="AF57" s="25">
         <v>97542</v>
       </c>
+      <c r="BS57" s="25">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="1:71">
       <c r="B58" s="9" t="s">
@@ -11444,6 +13961,9 @@
       <c r="AF58" s="25">
         <v>35560</v>
       </c>
+      <c r="BS58" s="25">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="1:71">
       <c r="B59" s="9" t="s">
@@ -11539,6 +14059,9 @@
       <c r="AF59" s="25">
         <v>91852</v>
       </c>
+      <c r="BS59" s="25">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:71">
       <c r="B60" s="9" t="s">
@@ -11634,6 +14157,9 @@
       <c r="AF60" s="25">
         <v>71529</v>
       </c>
+      <c r="BS60" s="25">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:71">
       <c r="B61" s="9" t="s">
@@ -11729,132 +14255,138 @@
       <c r="AF61" s="25">
         <v>683287</v>
       </c>
+      <c r="BS61" s="25">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:71">
       <c r="B62" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="25">
-        <f t="shared" ref="C62:N62" si="137">+SUM(C56:C61)</f>
+        <f t="shared" ref="C62:N62" si="136">+SUM(C56:C61)</f>
         <v>664234</v>
       </c>
       <c r="D62" s="25">
+        <f t="shared" si="136"/>
+        <v>663965</v>
+      </c>
+      <c r="E62" s="25">
+        <f t="shared" si="136"/>
+        <v>655936</v>
+      </c>
+      <c r="F62" s="25">
+        <f t="shared" si="136"/>
+        <v>629535</v>
+      </c>
+      <c r="G62" s="25">
+        <f t="shared" si="136"/>
+        <v>630439</v>
+      </c>
+      <c r="H62" s="25">
+        <f t="shared" si="136"/>
+        <v>720674</v>
+      </c>
+      <c r="I62" s="25">
+        <f t="shared" si="136"/>
+        <v>793071</v>
+      </c>
+      <c r="J62" s="25">
+        <f t="shared" si="136"/>
+        <v>814794</v>
+      </c>
+      <c r="K62" s="25">
+        <f t="shared" si="136"/>
+        <v>837746</v>
+      </c>
+      <c r="L62" s="25">
+        <f t="shared" si="136"/>
+        <v>832402</v>
+      </c>
+      <c r="M62" s="25">
+        <f t="shared" si="136"/>
+        <v>954756</v>
+      </c>
+      <c r="N62" s="25">
+        <f t="shared" si="136"/>
+        <v>1072204</v>
+      </c>
+      <c r="O62" s="25">
+        <f t="shared" ref="O62:W62" si="137">+SUM(O56:O61)</f>
+        <v>1075501</v>
+      </c>
+      <c r="P62" s="25">
         <f t="shared" si="137"/>
-        <v>663965</v>
-      </c>
-      <c r="E62" s="25">
+        <v>1150343</v>
+      </c>
+      <c r="Q62" s="25">
         <f t="shared" si="137"/>
-        <v>655936</v>
-      </c>
-      <c r="F62" s="25">
+        <v>1211280</v>
+      </c>
+      <c r="R62" s="25">
         <f t="shared" si="137"/>
-        <v>629535</v>
-      </c>
-      <c r="G62" s="25">
+        <v>1420237</v>
+      </c>
+      <c r="S62" s="25">
         <f t="shared" si="137"/>
-        <v>630439</v>
-      </c>
-      <c r="H62" s="25">
+        <v>1456851</v>
+      </c>
+      <c r="T62" s="25">
         <f t="shared" si="137"/>
-        <v>720674</v>
-      </c>
-      <c r="I62" s="25">
+        <v>1447810</v>
+      </c>
+      <c r="U62" s="25">
         <f t="shared" si="137"/>
-        <v>793071</v>
-      </c>
-      <c r="J62" s="25">
+        <v>1518606</v>
+      </c>
+      <c r="V62" s="25">
         <f t="shared" si="137"/>
-        <v>814794</v>
-      </c>
-      <c r="K62" s="25">
+        <v>1381564</v>
+      </c>
+      <c r="W62" s="25">
         <f t="shared" si="137"/>
-        <v>837746</v>
-      </c>
-      <c r="L62" s="25">
-        <f t="shared" si="137"/>
-        <v>832402</v>
-      </c>
-      <c r="M62" s="25">
-        <f t="shared" si="137"/>
-        <v>954756</v>
-      </c>
-      <c r="N62" s="25">
-        <f t="shared" si="137"/>
-        <v>1072204</v>
-      </c>
-      <c r="O62" s="25">
-        <f t="shared" ref="O62:W62" si="138">+SUM(O56:O61)</f>
-        <v>1075501</v>
-      </c>
-      <c r="P62" s="25">
+        <v>1096493</v>
+      </c>
+      <c r="X62" s="25">
+        <f t="shared" ref="X62:Z62" si="138">+SUM(X56:X61)</f>
+        <v>1046299</v>
+      </c>
+      <c r="Y62" s="25">
         <f t="shared" si="138"/>
-        <v>1150343</v>
-      </c>
-      <c r="Q62" s="25">
+        <v>1077432</v>
+      </c>
+      <c r="Z62" s="25">
         <f t="shared" si="138"/>
-        <v>1211280</v>
-      </c>
-      <c r="R62" s="25">
-        <f t="shared" si="138"/>
-        <v>1420237</v>
-      </c>
-      <c r="S62" s="25">
-        <f t="shared" si="138"/>
-        <v>1456851</v>
-      </c>
-      <c r="T62" s="25">
-        <f t="shared" si="138"/>
-        <v>1447810</v>
-      </c>
-      <c r="U62" s="25">
-        <f t="shared" si="138"/>
-        <v>1518606</v>
-      </c>
-      <c r="V62" s="25">
-        <f t="shared" si="138"/>
-        <v>1381564</v>
-      </c>
-      <c r="W62" s="25">
-        <f t="shared" si="138"/>
-        <v>1096493</v>
-      </c>
-      <c r="X62" s="25">
-        <f t="shared" ref="X62:Z62" si="139">+SUM(X56:X61)</f>
-        <v>1046299</v>
-      </c>
-      <c r="Y62" s="25">
+        <v>1175837</v>
+      </c>
+      <c r="AA62" s="25">
+        <f t="shared" ref="AA62:AB62" si="139">+SUM(AA56:AA61)</f>
+        <v>1261442</v>
+      </c>
+      <c r="AB62" s="25">
         <f t="shared" si="139"/>
-        <v>1077432</v>
-      </c>
-      <c r="Z62" s="25">
-        <f t="shared" si="139"/>
-        <v>1175837</v>
-      </c>
-      <c r="AA62" s="25">
-        <f t="shared" ref="AA62:AB62" si="140">+SUM(AA56:AA61)</f>
-        <v>1261442</v>
-      </c>
-      <c r="AB62" s="25">
+        <v>1556419</v>
+      </c>
+      <c r="AC62" s="25">
+        <f t="shared" ref="AC62:AE62" si="140">+SUM(AC56:AC61)</f>
+        <v>1669343</v>
+      </c>
+      <c r="AD62" s="25">
         <f t="shared" si="140"/>
-        <v>1556419</v>
-      </c>
-      <c r="AC62" s="25">
-        <f t="shared" ref="AC62:AE62" si="141">+SUM(AC56:AC61)</f>
-        <v>1669343</v>
-      </c>
-      <c r="AD62" s="25">
-        <f t="shared" si="141"/>
         <v>1620713</v>
       </c>
       <c r="AE62" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1645769</v>
       </c>
       <c r="AF62" s="25">
-        <f t="shared" ref="AF62" si="142">+SUM(AF56:AF61)</f>
+        <f t="shared" ref="AF62" si="141">+SUM(AF56:AF61)</f>
         <v>1786298</v>
       </c>
       <c r="BN62" s="77"/>
+      <c r="BS62" s="25">
+        <v>62</v>
+      </c>
     </row>
     <row r="63" spans="1:71">
       <c r="B63" s="9" t="s">
@@ -11950,6 +14482,9 @@
       <c r="AF63" s="25">
         <v>2265694</v>
       </c>
+      <c r="BS63" s="25">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:71">
       <c r="B64" s="9" t="s">
@@ -12045,8 +14580,11 @@
       <c r="AF64" s="25">
         <v>972644</v>
       </c>
-    </row>
-    <row r="65" spans="2:32">
+      <c r="BS64" s="25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:71">
       <c r="B65" s="9" t="s">
         <v>62</v>
       </c>
@@ -12140,8 +14678,11 @@
       <c r="AF65" s="25">
         <v>27664</v>
       </c>
-    </row>
-    <row r="66" spans="2:32">
+      <c r="BS65" s="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:71">
       <c r="B66" s="9" t="s">
         <v>141</v>
       </c>
@@ -12172,8 +14713,11 @@
       <c r="M66" s="25">
         <v>9634</v>
       </c>
-    </row>
-    <row r="67" spans="2:32">
+      <c r="BS66" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:71">
       <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
@@ -12267,8 +14811,11 @@
       <c r="AF67" s="25">
         <v>3770997</v>
       </c>
-    </row>
-    <row r="68" spans="2:32">
+      <c r="BS67" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:71">
       <c r="B68" s="9" t="s">
         <v>64</v>
       </c>
@@ -12362,8 +14909,11 @@
       <c r="AF68" s="25">
         <v>74599</v>
       </c>
-    </row>
-    <row r="69" spans="2:32">
+      <c r="BS68" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:71">
       <c r="B69" s="9" t="s">
         <v>65</v>
       </c>
@@ -12457,133 +15007,144 @@
       <c r="AF69" s="25">
         <v>21939</v>
       </c>
-    </row>
-    <row r="70" spans="2:32">
+      <c r="BS69" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:71">
       <c r="B70" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="25">
-        <f t="shared" ref="C70:D70" si="143">+SUM(C62:C69)</f>
+        <f t="shared" ref="C70:D70" si="142">+SUM(C62:C69)</f>
         <v>2062532</v>
       </c>
       <c r="D70" s="25">
+        <f t="shared" si="142"/>
+        <v>2068551</v>
+      </c>
+      <c r="E70" s="25">
+        <f t="shared" ref="E70:F70" si="143">+SUM(E62:E69)</f>
+        <v>2064377</v>
+      </c>
+      <c r="F70" s="25">
         <f t="shared" si="143"/>
-        <v>2068551</v>
-      </c>
-      <c r="E70" s="25">
-        <f t="shared" ref="E70:F70" si="144">+SUM(E62:E69)</f>
-        <v>2064377</v>
-      </c>
-      <c r="F70" s="25">
+        <v>2045692</v>
+      </c>
+      <c r="G70" s="25">
+        <f t="shared" ref="G70:M70" si="144">+SUM(G62:G69)</f>
+        <v>2097444</v>
+      </c>
+      <c r="H70" s="25">
         <f t="shared" si="144"/>
-        <v>2045692</v>
-      </c>
-      <c r="G70" s="25">
-        <f t="shared" ref="G70:M70" si="145">+SUM(G62:G69)</f>
-        <v>2097444</v>
-      </c>
-      <c r="H70" s="25">
+        <v>2128622</v>
+      </c>
+      <c r="I70" s="25">
+        <f t="shared" si="144"/>
+        <v>2230872</v>
+      </c>
+      <c r="J70" s="25">
+        <f t="shared" si="144"/>
+        <v>2265518</v>
+      </c>
+      <c r="K70" s="25">
+        <f t="shared" si="144"/>
+        <v>4625482</v>
+      </c>
+      <c r="L70" s="25">
+        <f t="shared" si="144"/>
+        <v>4659307</v>
+      </c>
+      <c r="M70" s="25">
+        <f t="shared" si="144"/>
+        <v>4937937</v>
+      </c>
+      <c r="N70" s="25">
+        <f t="shared" ref="N70:V70" si="145">+SUM(N62:N69)</f>
+        <v>5104604</v>
+      </c>
+      <c r="O70" s="25">
         <f t="shared" si="145"/>
-        <v>2128622</v>
-      </c>
-      <c r="I70" s="25">
+        <v>5206488</v>
+      </c>
+      <c r="P70" s="25">
         <f t="shared" si="145"/>
-        <v>2230872</v>
-      </c>
-      <c r="J70" s="25">
+        <v>5370129</v>
+      </c>
+      <c r="Q70" s="25">
         <f t="shared" si="145"/>
-        <v>2265518</v>
-      </c>
-      <c r="K70" s="25">
+        <v>5631640</v>
+      </c>
+      <c r="R70" s="25">
         <f t="shared" si="145"/>
-        <v>4625482</v>
-      </c>
-      <c r="L70" s="25">
+        <v>5962896</v>
+      </c>
+      <c r="S70" s="25">
         <f t="shared" si="145"/>
-        <v>4659307</v>
-      </c>
-      <c r="M70" s="25">
+        <v>6149059</v>
+      </c>
+      <c r="T70" s="25">
         <f t="shared" si="145"/>
-        <v>4937937</v>
-      </c>
-      <c r="N70" s="25">
-        <f t="shared" ref="N70:V70" si="146">+SUM(N62:N69)</f>
-        <v>5104604</v>
-      </c>
-      <c r="O70" s="25">
+        <v>6320454</v>
+      </c>
+      <c r="U70" s="25">
+        <f t="shared" si="145"/>
+        <v>6627567</v>
+      </c>
+      <c r="V70" s="25">
+        <f t="shared" si="145"/>
+        <v>6652958</v>
+      </c>
+      <c r="W70" s="25">
+        <f t="shared" ref="W70:AE70" si="146">+SUM(W62:W69)</f>
+        <v>6467257</v>
+      </c>
+      <c r="X70" s="25">
         <f t="shared" si="146"/>
-        <v>5206488</v>
-      </c>
-      <c r="P70" s="25">
+        <v>6545336</v>
+      </c>
+      <c r="Y70" s="25">
         <f t="shared" si="146"/>
-        <v>5370129</v>
-      </c>
-      <c r="Q70" s="25">
+        <v>6817437</v>
+      </c>
+      <c r="Z70" s="25">
         <f t="shared" si="146"/>
-        <v>5631640</v>
-      </c>
-      <c r="R70" s="25">
+        <v>6927504</v>
+      </c>
+      <c r="AA70" s="25">
         <f t="shared" si="146"/>
-        <v>5962896</v>
-      </c>
-      <c r="S70" s="25">
+        <v>7053372</v>
+      </c>
+      <c r="AB70" s="25">
         <f t="shared" si="146"/>
-        <v>6149059</v>
-      </c>
-      <c r="T70" s="25">
+        <v>7552435</v>
+      </c>
+      <c r="AC70" s="25">
         <f t="shared" si="146"/>
-        <v>6320454</v>
-      </c>
-      <c r="U70" s="25">
+        <v>7911493</v>
+      </c>
+      <c r="AD70" s="25">
         <f t="shared" si="146"/>
-        <v>6627567</v>
-      </c>
-      <c r="V70" s="25">
+        <v>8044362</v>
+      </c>
+      <c r="AE70" s="25">
         <f t="shared" si="146"/>
-        <v>6652958</v>
-      </c>
-      <c r="W70" s="25">
-        <f t="shared" ref="W70:AE70" si="147">+SUM(W62:W69)</f>
-        <v>6467257</v>
-      </c>
-      <c r="X70" s="25">
-        <f t="shared" si="147"/>
-        <v>6545336</v>
-      </c>
-      <c r="Y70" s="25">
-        <f t="shared" si="147"/>
-        <v>6817437</v>
-      </c>
-      <c r="Z70" s="25">
-        <f t="shared" si="147"/>
-        <v>6927504</v>
-      </c>
-      <c r="AA70" s="25">
-        <f t="shared" si="147"/>
-        <v>7053372</v>
-      </c>
-      <c r="AB70" s="25">
-        <f t="shared" si="147"/>
-        <v>7552435</v>
-      </c>
-      <c r="AC70" s="25">
-        <f t="shared" si="147"/>
-        <v>7911493</v>
-      </c>
-      <c r="AD70" s="25">
-        <f t="shared" si="147"/>
-        <v>8044362</v>
-      </c>
-      <c r="AE70" s="25">
-        <f t="shared" si="147"/>
         <v>8411249</v>
       </c>
       <c r="AF70" s="25">
-        <f t="shared" ref="AF70" si="148">+SUM(AF62:AF69)</f>
+        <f t="shared" ref="AF70" si="147">+SUM(AF62:AF69)</f>
         <v>8919835</v>
       </c>
-    </row>
-    <row r="72" spans="2:32">
+      <c r="BS70" s="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:71">
+      <c r="BS71" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:71">
       <c r="B72" s="9" t="s">
         <v>67</v>
       </c>
@@ -12677,8 +15238,11 @@
       <c r="AF72" s="25">
         <v>203480</v>
       </c>
-    </row>
-    <row r="73" spans="2:32">
+      <c r="BS72" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:71">
       <c r="B73" s="9" t="s">
         <v>68</v>
       </c>
@@ -12772,8 +15336,11 @@
       <c r="AF73" s="25">
         <v>223410</v>
       </c>
-    </row>
-    <row r="74" spans="2:32">
+      <c r="BS73" s="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:71">
       <c r="B74" s="9" t="s">
         <v>69</v>
       </c>
@@ -12867,8 +15434,11 @@
       <c r="AF74" s="25">
         <v>169631</v>
       </c>
-    </row>
-    <row r="75" spans="2:32">
+      <c r="BS74" s="25">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:71">
       <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
@@ -12962,8 +15532,11 @@
       <c r="AF75" s="25">
         <v>182331</v>
       </c>
-    </row>
-    <row r="76" spans="2:32">
+      <c r="BS75" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:71">
       <c r="B76" s="9" t="s">
         <v>71</v>
       </c>
@@ -13057,8 +15630,11 @@
       <c r="AF76" s="25">
         <v>264304</v>
       </c>
-    </row>
-    <row r="77" spans="2:32">
+      <c r="BS76" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="2:71">
       <c r="B77" s="9" t="s">
         <v>142</v>
       </c>
@@ -13101,8 +15677,11 @@
       <c r="AF77" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:32">
+      <c r="BS77" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="2:71">
       <c r="B78" s="9" t="s">
         <v>72</v>
       </c>
@@ -13115,119 +15694,122 @@
         <v>267785</v>
       </c>
       <c r="E78" s="25">
-        <f t="shared" ref="E78:W78" si="149">+SUM(E72:E77)</f>
+        <f t="shared" ref="E78:W78" si="148">+SUM(E72:E77)</f>
         <v>323402</v>
       </c>
       <c r="F78" s="25">
+        <f t="shared" si="148"/>
+        <v>323893</v>
+      </c>
+      <c r="G78" s="25">
+        <f t="shared" si="148"/>
+        <v>367320</v>
+      </c>
+      <c r="H78" s="25">
+        <f t="shared" si="148"/>
+        <v>355161</v>
+      </c>
+      <c r="I78" s="25">
+        <f t="shared" si="148"/>
+        <v>402786</v>
+      </c>
+      <c r="J78" s="25">
+        <f t="shared" si="148"/>
+        <v>449990</v>
+      </c>
+      <c r="K78" s="25">
+        <f t="shared" si="148"/>
+        <v>581667</v>
+      </c>
+      <c r="L78" s="25">
+        <f t="shared" si="148"/>
+        <v>548268</v>
+      </c>
+      <c r="M78" s="25">
+        <f t="shared" si="148"/>
+        <v>634019</v>
+      </c>
+      <c r="N78" s="25">
+        <f t="shared" si="148"/>
+        <v>666593</v>
+      </c>
+      <c r="O78" s="25">
+        <f t="shared" si="148"/>
+        <v>665795</v>
+      </c>
+      <c r="P78" s="25">
+        <f t="shared" si="148"/>
+        <v>723178</v>
+      </c>
+      <c r="Q78" s="25">
+        <f t="shared" si="148"/>
+        <v>801717</v>
+      </c>
+      <c r="R78" s="25">
+        <f t="shared" si="148"/>
+        <v>822199</v>
+      </c>
+      <c r="S78" s="25">
+        <f t="shared" si="148"/>
+        <v>833994</v>
+      </c>
+      <c r="T78" s="25">
+        <f t="shared" si="148"/>
+        <v>835486</v>
+      </c>
+      <c r="U78" s="25">
+        <f t="shared" si="148"/>
+        <v>850964</v>
+      </c>
+      <c r="V78" s="25">
+        <f t="shared" si="148"/>
+        <v>873682</v>
+      </c>
+      <c r="W78" s="25">
+        <f t="shared" si="148"/>
+        <v>833738</v>
+      </c>
+      <c r="X78" s="25">
+        <f t="shared" ref="X78:Z78" si="149">+SUM(X72:X77)</f>
+        <v>831623</v>
+      </c>
+      <c r="Y78" s="25">
         <f t="shared" si="149"/>
-        <v>323893</v>
-      </c>
-      <c r="G78" s="25">
+        <v>817857</v>
+      </c>
+      <c r="Z78" s="25">
         <f t="shared" si="149"/>
-        <v>367320</v>
-      </c>
-      <c r="H78" s="25">
-        <f t="shared" si="149"/>
-        <v>355161</v>
-      </c>
-      <c r="I78" s="25">
-        <f t="shared" si="149"/>
-        <v>402786</v>
-      </c>
-      <c r="J78" s="25">
-        <f t="shared" si="149"/>
-        <v>449990</v>
-      </c>
-      <c r="K78" s="25">
-        <f t="shared" si="149"/>
-        <v>581667</v>
-      </c>
-      <c r="L78" s="25">
-        <f t="shared" si="149"/>
-        <v>548268</v>
-      </c>
-      <c r="M78" s="25">
-        <f t="shared" si="149"/>
-        <v>634019</v>
-      </c>
-      <c r="N78" s="25">
-        <f t="shared" si="149"/>
-        <v>666593</v>
-      </c>
-      <c r="O78" s="25">
-        <f t="shared" si="149"/>
-        <v>665795</v>
-      </c>
-      <c r="P78" s="25">
-        <f t="shared" si="149"/>
-        <v>723178</v>
-      </c>
-      <c r="Q78" s="25">
-        <f t="shared" si="149"/>
-        <v>801717</v>
-      </c>
-      <c r="R78" s="25">
-        <f t="shared" si="149"/>
-        <v>822199</v>
-      </c>
-      <c r="S78" s="25">
-        <f t="shared" si="149"/>
-        <v>833994</v>
-      </c>
-      <c r="T78" s="25">
-        <f t="shared" si="149"/>
-        <v>835486</v>
-      </c>
-      <c r="U78" s="25">
-        <f t="shared" si="149"/>
-        <v>850964</v>
-      </c>
-      <c r="V78" s="25">
-        <f t="shared" si="149"/>
-        <v>873682</v>
-      </c>
-      <c r="W78" s="25">
-        <f t="shared" si="149"/>
-        <v>833738</v>
-      </c>
-      <c r="X78" s="25">
-        <f t="shared" ref="X78:Z78" si="150">+SUM(X72:X77)</f>
-        <v>831623</v>
-      </c>
-      <c r="Y78" s="25">
+        <v>921880</v>
+      </c>
+      <c r="AA78" s="25">
+        <f t="shared" ref="AA78:AB78" si="150">+SUM(AA72:AA77)</f>
+        <v>894092</v>
+      </c>
+      <c r="AB78" s="25">
         <f t="shared" si="150"/>
-        <v>817857</v>
-      </c>
-      <c r="Z78" s="25">
-        <f t="shared" si="150"/>
-        <v>921880</v>
-      </c>
-      <c r="AA78" s="25">
-        <f t="shared" ref="AA78:AB78" si="151">+SUM(AA72:AA77)</f>
-        <v>894092</v>
-      </c>
-      <c r="AB78" s="25">
+        <v>982250</v>
+      </c>
+      <c r="AC78" s="25">
+        <f t="shared" ref="AC78:AE78" si="151">+SUM(AC72:AC77)</f>
+        <v>1087707</v>
+      </c>
+      <c r="AD78" s="25">
         <f t="shared" si="151"/>
-        <v>982250</v>
-      </c>
-      <c r="AC78" s="25">
-        <f t="shared" ref="AC78:AE78" si="152">+SUM(AC72:AC77)</f>
-        <v>1087707</v>
-      </c>
-      <c r="AD78" s="25">
-        <f t="shared" si="152"/>
         <v>1030625</v>
       </c>
       <c r="AE78" s="25">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>997353</v>
       </c>
       <c r="AF78" s="25">
-        <f t="shared" ref="AF78" si="153">+SUM(AF72:AF77)</f>
+        <f t="shared" ref="AF78" si="152">+SUM(AF72:AF77)</f>
         <v>1043156</v>
       </c>
-    </row>
-    <row r="79" spans="2:32">
+      <c r="BS78" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:71">
       <c r="B79" s="9" t="s">
         <v>140</v>
       </c>
@@ -13264,8 +15846,11 @@
       <c r="M79" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:32">
+      <c r="BS79" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="2:71">
       <c r="B80" s="9" t="s">
         <v>73</v>
       </c>
@@ -13359,8 +15944,11 @@
       <c r="AF80" s="25">
         <v>4014454</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="BS80" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:71">
       <c r="B81" s="9" t="s">
         <v>74</v>
       </c>
@@ -13454,8 +16042,11 @@
       <c r="AF81" s="25">
         <v>83298</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="BS81" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:71">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -13549,133 +16140,139 @@
       <c r="AF82" s="25">
         <v>67107</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="BS82" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:71">
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="25">
-        <f t="shared" ref="C83:D83" si="154">+SUM(C78:C82)</f>
+        <f t="shared" ref="C83:D83" si="153">+SUM(C78:C82)</f>
         <v>654540</v>
       </c>
       <c r="D83" s="25">
+        <f t="shared" si="153"/>
+        <v>618355</v>
+      </c>
+      <c r="E83" s="25">
+        <f t="shared" ref="E83:F83" si="154">+SUM(E78:E82)</f>
+        <v>677251</v>
+      </c>
+      <c r="F83" s="25">
         <f t="shared" si="154"/>
-        <v>618355</v>
-      </c>
-      <c r="E83" s="25">
-        <f t="shared" ref="E83:F83" si="155">+SUM(E78:E82)</f>
-        <v>677251</v>
-      </c>
-      <c r="F83" s="25">
+        <v>681247</v>
+      </c>
+      <c r="G83" s="25">
+        <f t="shared" ref="G83:H83" si="155">+SUM(G78:G82)</f>
+        <v>733399</v>
+      </c>
+      <c r="H83" s="25">
         <f t="shared" si="155"/>
-        <v>681247</v>
-      </c>
-      <c r="G83" s="25">
-        <f t="shared" ref="G83:H83" si="156">+SUM(G78:G82)</f>
-        <v>733399</v>
-      </c>
-      <c r="H83" s="25">
+        <v>736615</v>
+      </c>
+      <c r="I83" s="25">
+        <f t="shared" ref="I83:K83" si="156">+SUM(I78:I82)</f>
+        <v>795035</v>
+      </c>
+      <c r="J83" s="25">
         <f t="shared" si="156"/>
-        <v>736615</v>
-      </c>
-      <c r="I83" s="25">
-        <f t="shared" ref="I83:K83" si="157">+SUM(I78:I82)</f>
-        <v>795035</v>
-      </c>
-      <c r="J83" s="25">
+        <v>824179</v>
+      </c>
+      <c r="K83" s="25">
+        <f t="shared" si="156"/>
+        <v>3141683</v>
+      </c>
+      <c r="L83" s="25">
+        <f t="shared" ref="L83:M83" si="157">+SUM(L78:L82)</f>
+        <v>3121258</v>
+      </c>
+      <c r="M83" s="25">
         <f t="shared" si="157"/>
-        <v>824179</v>
-      </c>
-      <c r="K83" s="25">
-        <f t="shared" si="157"/>
-        <v>3141683</v>
-      </c>
-      <c r="L83" s="25">
-        <f t="shared" ref="L83:M83" si="158">+SUM(L78:L82)</f>
-        <v>3121258</v>
-      </c>
-      <c r="M83" s="25">
+        <v>3315490</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" ref="N83:U83" si="158">+SUM(N78:N82)</f>
+        <v>3421578</v>
+      </c>
+      <c r="O83" s="25">
         <f t="shared" si="158"/>
-        <v>3315490</v>
-      </c>
-      <c r="N83" s="25">
-        <f t="shared" ref="N83:U83" si="159">+SUM(N78:N82)</f>
-        <v>3421578</v>
-      </c>
-      <c r="O83" s="25">
+        <v>3534468</v>
+      </c>
+      <c r="P83" s="25">
+        <f t="shared" si="158"/>
+        <v>3665633</v>
+      </c>
+      <c r="Q83" s="25">
+        <f t="shared" si="158"/>
+        <v>3826054</v>
+      </c>
+      <c r="R83" s="25">
+        <f t="shared" si="158"/>
+        <v>3962761</v>
+      </c>
+      <c r="S83" s="25">
+        <f t="shared" si="158"/>
+        <v>4051518</v>
+      </c>
+      <c r="T83" s="25">
+        <f t="shared" si="158"/>
+        <v>4146296</v>
+      </c>
+      <c r="U83" s="25">
+        <f t="shared" si="158"/>
+        <v>4316659</v>
+      </c>
+      <c r="V83" s="25">
+        <f t="shared" ref="V83:W83" si="159">+SUM(V78:V82)</f>
+        <v>4355584</v>
+      </c>
+      <c r="W83" s="25">
         <f t="shared" si="159"/>
-        <v>3534468</v>
-      </c>
-      <c r="P83" s="25">
-        <f t="shared" si="159"/>
-        <v>3665633</v>
-      </c>
-      <c r="Q83" s="25">
-        <f t="shared" si="159"/>
-        <v>3826054</v>
-      </c>
-      <c r="R83" s="25">
-        <f t="shared" si="159"/>
-        <v>3962761</v>
-      </c>
-      <c r="S83" s="25">
-        <f t="shared" si="159"/>
-        <v>4051518</v>
-      </c>
-      <c r="T83" s="25">
-        <f t="shared" si="159"/>
-        <v>4146296</v>
-      </c>
-      <c r="U83" s="25">
-        <f t="shared" si="159"/>
-        <v>4316659</v>
-      </c>
-      <c r="V83" s="25">
-        <f t="shared" ref="V83:W83" si="160">+SUM(V78:V82)</f>
-        <v>4355584</v>
-      </c>
-      <c r="W83" s="25">
+        <v>4333297</v>
+      </c>
+      <c r="X83" s="25">
+        <f t="shared" ref="X83:Z83" si="160">+SUM(X78:X82)</f>
+        <v>4391137</v>
+      </c>
+      <c r="Y83" s="25">
         <f t="shared" si="160"/>
-        <v>4333297</v>
-      </c>
-      <c r="X83" s="25">
-        <f t="shared" ref="X83:Z83" si="161">+SUM(X78:X82)</f>
-        <v>4391137</v>
-      </c>
-      <c r="Y83" s="25">
+        <v>4490056</v>
+      </c>
+      <c r="Z83" s="25">
+        <f t="shared" si="160"/>
+        <v>4559481</v>
+      </c>
+      <c r="AA83" s="25">
+        <f t="shared" ref="AA83:AB83" si="161">+SUM(AA78:AA82)</f>
+        <v>4571687</v>
+      </c>
+      <c r="AB83" s="25">
         <f t="shared" si="161"/>
-        <v>4490056</v>
-      </c>
-      <c r="Z83" s="25">
-        <f t="shared" si="161"/>
-        <v>4559481</v>
-      </c>
-      <c r="AA83" s="25">
-        <f t="shared" ref="AA83:AB83" si="162">+SUM(AA78:AA82)</f>
-        <v>4571687</v>
-      </c>
-      <c r="AB83" s="25">
+        <v>4785549</v>
+      </c>
+      <c r="AC83" s="25">
+        <f t="shared" ref="AC83:AE83" si="162">+SUM(AC78:AC82)</f>
+        <v>5025179</v>
+      </c>
+      <c r="AD83" s="25">
         <f t="shared" si="162"/>
-        <v>4785549</v>
-      </c>
-      <c r="AC83" s="25">
-        <f t="shared" ref="AC83:AE83" si="163">+SUM(AC78:AC82)</f>
-        <v>5025179</v>
-      </c>
-      <c r="AD83" s="25">
-        <f t="shared" si="163"/>
         <v>4982155</v>
       </c>
       <c r="AE83" s="25">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>5049920</v>
       </c>
       <c r="AF83" s="25">
-        <f t="shared" ref="AF83" si="164">+SUM(AF78:AF82)</f>
+        <f t="shared" ref="AF83" si="163">+SUM(AF78:AF82)</f>
         <v>5208015</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="BS83" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:71">
       <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
@@ -13769,148 +16366,155 @@
       <c r="AF84" s="25">
         <v>3711820</v>
       </c>
-    </row>
-    <row r="85" spans="1:32" s="36" customFormat="1">
+      <c r="BS84" s="25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:71" s="36" customFormat="1">
       <c r="A85" s="40"/>
       <c r="B85" s="15" t="s">
         <v>139</v>
       </c>
       <c r="C85" s="36">
-        <f t="shared" ref="C85:I85" si="165">+C83+C84</f>
+        <f t="shared" ref="C85:I85" si="164">+C83+C84</f>
         <v>2062262</v>
       </c>
       <c r="D85" s="36">
+        <f t="shared" si="164"/>
+        <v>2068551</v>
+      </c>
+      <c r="E85" s="36">
+        <f t="shared" si="164"/>
+        <v>2064377</v>
+      </c>
+      <c r="F85" s="36">
+        <f t="shared" si="164"/>
+        <v>2045692</v>
+      </c>
+      <c r="G85" s="36">
+        <f t="shared" si="164"/>
+        <v>2097444</v>
+      </c>
+      <c r="H85" s="36">
+        <f t="shared" si="164"/>
+        <v>2128622</v>
+      </c>
+      <c r="I85" s="36">
+        <f t="shared" si="164"/>
+        <v>2230872</v>
+      </c>
+      <c r="J85" s="36">
+        <f t="shared" ref="J85:K85" si="165">+J83+J84</f>
+        <v>2265518</v>
+      </c>
+      <c r="K85" s="36">
         <f t="shared" si="165"/>
-        <v>2068551</v>
-      </c>
-      <c r="E85" s="36">
-        <f t="shared" si="165"/>
-        <v>2064377</v>
-      </c>
-      <c r="F85" s="36">
-        <f t="shared" si="165"/>
-        <v>2045692</v>
-      </c>
-      <c r="G85" s="36">
-        <f t="shared" si="165"/>
-        <v>2097444</v>
-      </c>
-      <c r="H85" s="36">
-        <f t="shared" si="165"/>
-        <v>2128622</v>
-      </c>
-      <c r="I85" s="36">
-        <f t="shared" si="165"/>
-        <v>2230872</v>
-      </c>
-      <c r="J85" s="36">
-        <f t="shared" ref="J85:K85" si="166">+J83+J84</f>
-        <v>2265518</v>
-      </c>
-      <c r="K85" s="36">
+        <v>4625482</v>
+      </c>
+      <c r="L85" s="36">
+        <f t="shared" ref="L85:M85" si="166">+L83+L84</f>
+        <v>4659307</v>
+      </c>
+      <c r="M85" s="36">
         <f t="shared" si="166"/>
-        <v>4625482</v>
-      </c>
-      <c r="L85" s="36">
-        <f t="shared" ref="L85:M85" si="167">+L83+L84</f>
-        <v>4659307</v>
-      </c>
-      <c r="M85" s="36">
+        <v>4937937</v>
+      </c>
+      <c r="N85" s="36">
+        <f t="shared" ref="N85:U85" si="167">+N83+N84</f>
+        <v>5104604</v>
+      </c>
+      <c r="O85" s="36">
         <f t="shared" si="167"/>
-        <v>4937937</v>
-      </c>
-      <c r="N85" s="36">
-        <f t="shared" ref="N85:U85" si="168">+N83+N84</f>
-        <v>5104604</v>
-      </c>
-      <c r="O85" s="36">
+        <v>5206488</v>
+      </c>
+      <c r="P85" s="36">
+        <f t="shared" si="167"/>
+        <v>5370129</v>
+      </c>
+      <c r="Q85" s="36">
+        <f t="shared" si="167"/>
+        <v>5631640</v>
+      </c>
+      <c r="R85" s="36">
+        <f t="shared" si="167"/>
+        <v>5982896</v>
+      </c>
+      <c r="S85" s="36">
+        <f t="shared" si="167"/>
+        <v>6149049</v>
+      </c>
+      <c r="T85" s="36">
+        <f t="shared" si="167"/>
+        <v>6320454</v>
+      </c>
+      <c r="U85" s="36">
+        <f t="shared" si="167"/>
+        <v>6627567</v>
+      </c>
+      <c r="V85" s="36">
+        <f t="shared" ref="V85:W85" si="168">+V83+V84</f>
+        <v>6652958</v>
+      </c>
+      <c r="W85" s="36">
         <f t="shared" si="168"/>
-        <v>5206488</v>
-      </c>
-      <c r="P85" s="36">
-        <f t="shared" si="168"/>
-        <v>5370129</v>
-      </c>
-      <c r="Q85" s="36">
-        <f t="shared" si="168"/>
-        <v>5631640</v>
-      </c>
-      <c r="R85" s="36">
-        <f t="shared" si="168"/>
-        <v>5982896</v>
-      </c>
-      <c r="S85" s="36">
-        <f t="shared" si="168"/>
-        <v>6149049</v>
-      </c>
-      <c r="T85" s="36">
-        <f t="shared" si="168"/>
-        <v>6320454</v>
-      </c>
-      <c r="U85" s="36">
-        <f t="shared" si="168"/>
-        <v>6627567</v>
-      </c>
-      <c r="V85" s="36">
-        <f t="shared" ref="V85:W85" si="169">+V83+V84</f>
-        <v>6652958</v>
-      </c>
-      <c r="W85" s="36">
+        <v>6467257</v>
+      </c>
+      <c r="X85" s="36">
+        <f t="shared" ref="X85:Z85" si="169">+X83+X84</f>
+        <v>6545336</v>
+      </c>
+      <c r="Y85" s="36">
         <f t="shared" si="169"/>
-        <v>6467257</v>
-      </c>
-      <c r="X85" s="36">
-        <f t="shared" ref="X85:Z85" si="170">+X83+X84</f>
-        <v>6545336</v>
-      </c>
-      <c r="Y85" s="36">
+        <v>6817437</v>
+      </c>
+      <c r="Z85" s="36">
+        <f t="shared" si="169"/>
+        <v>6927504</v>
+      </c>
+      <c r="AA85" s="36">
+        <f t="shared" ref="AA85:AB85" si="170">+AA83+AA84</f>
+        <v>7053372</v>
+      </c>
+      <c r="AB85" s="36">
         <f t="shared" si="170"/>
-        <v>6817437</v>
-      </c>
-      <c r="Z85" s="36">
-        <f t="shared" si="170"/>
-        <v>6927504</v>
-      </c>
-      <c r="AA85" s="36">
-        <f t="shared" ref="AA85:AB85" si="171">+AA83+AA84</f>
-        <v>7053372</v>
-      </c>
-      <c r="AB85" s="36">
+        <v>7552435</v>
+      </c>
+      <c r="AC85" s="36">
+        <f t="shared" ref="AC85:AE85" si="171">+AC83+AC84</f>
+        <v>7911493</v>
+      </c>
+      <c r="AD85" s="36">
         <f t="shared" si="171"/>
-        <v>7552435</v>
-      </c>
-      <c r="AC85" s="36">
-        <f t="shared" ref="AC85:AE85" si="172">+AC83+AC84</f>
-        <v>7911493</v>
-      </c>
-      <c r="AD85" s="36">
-        <f t="shared" si="172"/>
         <v>8044362</v>
       </c>
       <c r="AE85" s="36">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>8411249</v>
       </c>
       <c r="AF85" s="36">
-        <f t="shared" ref="AF85" si="173">+AF83+AF84</f>
+        <f t="shared" ref="AF85" si="172">+AF83+AF84</f>
         <v>8919835</v>
       </c>
-    </row>
-    <row r="87" spans="1:32" s="45" customFormat="1">
+      <c r="BS85" s="36">
+        <f>AVERAGE(BS55:BS84)</f>
+        <v>62.016666666666666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:71" s="45" customFormat="1">
       <c r="A87" s="65"/>
       <c r="B87" s="66" t="s">
         <v>78</v>
       </c>
       <c r="F87" s="45">
-        <f t="shared" ref="F87:H87" si="174">SUM(C30:F30)/F84</f>
+        <f t="shared" ref="F87:H87" si="173">SUM(C30:F30)/F84</f>
         <v>0.28478832052592812</v>
       </c>
       <c r="G87" s="45">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.29552764021714828</v>
       </c>
       <c r="H87" s="45">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.30816870892172238</v>
       </c>
       <c r="I87" s="45">
@@ -13922,122 +16526,122 @@
         <v>0.16872644117726643</v>
       </c>
       <c r="K87" s="45">
-        <f t="shared" ref="K87:S87" si="175">SUM(H30:K30)/K84</f>
+        <f t="shared" ref="K87:S87" si="174">SUM(H30:K30)/K84</f>
         <v>0.18463484609438341</v>
       </c>
       <c r="L87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.18027384043031139</v>
       </c>
       <c r="M87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.20778552396472735</v>
       </c>
       <c r="N87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.22204172722227702</v>
       </c>
       <c r="O87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.2179112690039593</v>
       </c>
       <c r="P87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.16567830021308352</v>
       </c>
       <c r="Q87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.14738926863633192</v>
       </c>
       <c r="R87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.19109762466369823</v>
       </c>
       <c r="S87" s="45">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>0.20647513672026779</v>
       </c>
       <c r="T87" s="45">
-        <f t="shared" ref="T87" si="176">SUM(Q30:T30)/T84</f>
+        <f t="shared" ref="T87" si="175">SUM(Q30:T30)/T84</f>
         <v>0.28138111397607718</v>
       </c>
       <c r="U87" s="45">
-        <f t="shared" ref="U87" si="177">SUM(R30:U30)/U84</f>
+        <f t="shared" ref="U87" si="176">SUM(R30:U30)/U84</f>
         <v>0.31702863117008551</v>
       </c>
       <c r="V87" s="45">
-        <f t="shared" ref="V87:Y87" si="178">SUM(S30:V30)/V84</f>
+        <f t="shared" ref="V87:Y87" si="177">SUM(S30:V30)/V84</f>
         <v>0.29262758262259431</v>
       </c>
       <c r="W87" s="45">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.32901741363474479</v>
       </c>
       <c r="X87" s="45">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.35952713746501602</v>
       </c>
       <c r="Y87" s="45">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.35615225869765199</v>
       </c>
       <c r="Z87" s="45">
-        <f t="shared" ref="Z87" si="179">SUM(W30:Z30)/Z84</f>
+        <f t="shared" ref="Z87" si="178">SUM(W30:Z30)/Z84</f>
         <v>0.38861109034836233</v>
       </c>
       <c r="AA87" s="45">
-        <f t="shared" ref="AA87" si="180">SUM(X30:AA30)/AA84</f>
+        <f t="shared" ref="AA87" si="179">SUM(X30:AA30)/AA84</f>
         <v>0.42617858430864514</v>
       </c>
       <c r="AB87" s="45">
-        <f t="shared" ref="AB87" si="181">SUM(Y30:AB30)/AB84</f>
+        <f t="shared" ref="AB87" si="180">SUM(Y30:AB30)/AB84</f>
         <v>0.41600846583487716</v>
       </c>
       <c r="AC87" s="45">
-        <f t="shared" ref="AC87" si="182">SUM(Z30:AC30)/AC84</f>
+        <f t="shared" ref="AC87" si="181">SUM(Z30:AC30)/AC84</f>
         <v>0.41852861469680708</v>
       </c>
       <c r="AD87" s="45">
-        <f t="shared" ref="AD87:AF87" si="183">SUM(AA30:AD30)/AD84</f>
+        <f t="shared" ref="AD87:AF87" si="182">SUM(AA30:AD30)/AD84</f>
         <v>0.41378881310113913</v>
       </c>
       <c r="AE87" s="45">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.39623256158501591</v>
       </c>
       <c r="AF87" s="45">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.38667580863296175</v>
       </c>
     </row>
-    <row r="89" spans="1:32" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:71" hidden="1" outlineLevel="1">
       <c r="B89" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:32" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:71" hidden="1" outlineLevel="1">
       <c r="B90" s="9" t="str">
         <f>+B72</f>
         <v>A/P</v>
       </c>
       <c r="L90" s="25">
-        <f t="shared" ref="L90:U94" si="184">+L72/K72-1</f>
+        <f t="shared" ref="L90:U94" si="183">+L72/K72-1</f>
         <v>-6.785357862428687E-2</v>
       </c>
       <c r="M90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.19671336370155657</v>
       </c>
       <c r="N90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>-2.2509558333262958E-2</v>
       </c>
       <c r="O90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.12612247012502587</v>
       </c>
       <c r="P90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.23078751447214074</v>
       </c>
       <c r="Q90" s="25">
@@ -14045,19 +16649,19 @@
         <v>-1.9928608361418632E-2</v>
       </c>
       <c r="R90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>-0.22459383183748194</v>
       </c>
       <c r="S90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.20843511763259293</v>
       </c>
       <c r="T90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>-4.8610404498802717E-2</v>
       </c>
       <c r="U90" s="25">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.2243192561906866</v>
       </c>
       <c r="V90" s="25">
@@ -14069,265 +16673,265 @@
         <v>3.520449126935965E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:71" hidden="1" outlineLevel="1">
       <c r="B91" s="9" t="str">
-        <f t="shared" ref="B91:B94" si="185">+B73</f>
+        <f t="shared" ref="B91:B94" si="184">+B73</f>
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="L91" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.17452731662892995</v>
+      </c>
+      <c r="M91" s="25">
+        <f t="shared" si="183"/>
+        <v>0.4753643724696357</v>
+      </c>
+      <c r="N91" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.13148470836820658</v>
+      </c>
+      <c r="O91" s="25">
+        <f t="shared" si="183"/>
+        <v>4.4810426540284443E-2</v>
+      </c>
+      <c r="P91" s="25">
+        <f t="shared" si="183"/>
+        <v>-1.4870759716646642E-2</v>
+      </c>
+      <c r="Q91" s="25">
+        <f t="shared" si="183"/>
+        <v>0.49553359016468934</v>
+      </c>
+      <c r="R91" s="25">
+        <f t="shared" si="183"/>
+        <v>4.1959800284281812E-2</v>
+      </c>
+      <c r="S91" s="25">
+        <f t="shared" si="183"/>
+        <v>9.1665271307139973E-2</v>
+      </c>
+      <c r="T91" s="25">
+        <f t="shared" si="183"/>
+        <v>1.5505239841744567E-2</v>
+      </c>
+      <c r="U91" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.15189423555334425</v>
+      </c>
+      <c r="V91" s="25">
+        <f t="shared" ref="V91:W94" si="185">+V73/U73-1</f>
+        <v>-0.14932010559839093</v>
+      </c>
+      <c r="W91" s="25">
+        <f t="shared" si="185"/>
+        <v>6.1876173763123044E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:71" hidden="1" outlineLevel="1">
+      <c r="B92" s="9" t="str">
         <f t="shared" si="184"/>
-        <v>-0.17452731662892995</v>
-      </c>
-      <c r="M91" s="25">
+        <v xml:space="preserve">Accrued liabilities </v>
+      </c>
+      <c r="L92" s="25">
+        <f t="shared" si="183"/>
+        <v>5.8975236410072407E-2</v>
+      </c>
+      <c r="M92" s="25">
+        <f t="shared" si="183"/>
+        <v>0.11254817582105781</v>
+      </c>
+      <c r="N92" s="25">
+        <f t="shared" si="183"/>
+        <v>0.10402453970345493</v>
+      </c>
+      <c r="O92" s="25">
+        <f t="shared" si="183"/>
+        <v>-5.5190159327014987E-2</v>
+      </c>
+      <c r="P92" s="25">
+        <f t="shared" si="183"/>
+        <v>-6.8798304831502177E-3</v>
+      </c>
+      <c r="Q92" s="25">
+        <f t="shared" si="183"/>
+        <v>8.209725840975457E-2</v>
+      </c>
+      <c r="R92" s="25">
+        <f t="shared" si="183"/>
+        <v>4.0541223757220246E-2</v>
+      </c>
+      <c r="S92" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.1155306136083426</v>
+      </c>
+      <c r="T92" s="25">
+        <f t="shared" si="183"/>
+        <v>-1.4818680601811463E-2</v>
+      </c>
+      <c r="U92" s="25">
+        <f t="shared" si="183"/>
+        <v>6.8056513950748965E-2</v>
+      </c>
+      <c r="V92" s="25">
+        <f t="shared" si="185"/>
+        <v>0.12933898050680992</v>
+      </c>
+      <c r="W92" s="25">
+        <f t="shared" si="185"/>
+        <v>-0.21032406444305762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:71" hidden="1" outlineLevel="1">
+      <c r="B93" s="9" t="str">
         <f t="shared" si="184"/>
-        <v>0.4753643724696357</v>
-      </c>
-      <c r="N91" s="25">
+        <v xml:space="preserve">Unearned revenue </v>
+      </c>
+      <c r="L93" s="25">
+        <f t="shared" si="183"/>
+        <v>8.2434136771300404E-2</v>
+      </c>
+      <c r="M93" s="25">
+        <f t="shared" si="183"/>
+        <v>2.4274201378782223E-4</v>
+      </c>
+      <c r="N93" s="25">
+        <f t="shared" si="183"/>
+        <v>0.54014787490494909</v>
+      </c>
+      <c r="O93" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.18589211618257262</v>
+      </c>
+      <c r="P93" s="25">
+        <f t="shared" si="183"/>
+        <v>0.14742125704847808</v>
+      </c>
+      <c r="Q93" s="25">
+        <f t="shared" si="183"/>
+        <v>2.8597454005667711E-2</v>
+      </c>
+      <c r="R93" s="25">
+        <f t="shared" si="183"/>
+        <v>0.39667858353285879</v>
+      </c>
+      <c r="S93" s="25">
+        <f t="shared" si="183"/>
+        <v>-0.13740117416829745</v>
+      </c>
+      <c r="T93" s="25">
+        <f t="shared" si="183"/>
+        <v>2.558145866039907E-2</v>
+      </c>
+      <c r="U93" s="25">
+        <f t="shared" si="183"/>
+        <v>6.5539392652367745E-2</v>
+      </c>
+      <c r="V93" s="25">
+        <f t="shared" si="185"/>
+        <v>0.29834832216437057</v>
+      </c>
+      <c r="W93" s="25">
+        <f t="shared" si="185"/>
+        <v>-0.1530530664978158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:71" hidden="1" outlineLevel="1">
+      <c r="B94" s="9" t="str">
         <f t="shared" si="184"/>
-        <v>-0.13148470836820658</v>
-      </c>
-      <c r="O91" s="25">
-        <f t="shared" si="184"/>
-        <v>4.4810426540284443E-2</v>
-      </c>
-      <c r="P91" s="25">
-        <f t="shared" si="184"/>
-        <v>-1.4870759716646642E-2</v>
-      </c>
-      <c r="Q91" s="25">
-        <f t="shared" si="184"/>
-        <v>0.49553359016468934</v>
-      </c>
-      <c r="R91" s="25">
-        <f t="shared" si="184"/>
-        <v>4.1959800284281812E-2</v>
-      </c>
-      <c r="S91" s="25">
-        <f t="shared" si="184"/>
-        <v>9.1665271307139973E-2</v>
-      </c>
-      <c r="T91" s="25">
-        <f t="shared" si="184"/>
-        <v>1.5505239841744567E-2</v>
-      </c>
-      <c r="U91" s="25">
-        <f t="shared" si="184"/>
-        <v>-0.15189423555334425</v>
-      </c>
-      <c r="V91" s="25">
-        <f t="shared" ref="V91:W94" si="186">+V73/U73-1</f>
-        <v>-0.14932010559839093</v>
-      </c>
-      <c r="W91" s="25">
-        <f t="shared" si="186"/>
-        <v>6.1876173763123044E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" hidden="1" outlineLevel="1">
-      <c r="B92" s="9" t="str">
+        <v>Current op lease liab</v>
+      </c>
+      <c r="L94" s="25">
+        <f t="shared" si="183"/>
+        <v>2.2757111597374147E-2</v>
+      </c>
+      <c r="M94" s="25">
+        <f t="shared" si="183"/>
+        <v>3.441176288193093E-2</v>
+      </c>
+      <c r="N94" s="25">
+        <f t="shared" si="183"/>
+        <v>3.7991151185237548E-2</v>
+      </c>
+      <c r="O94" s="25">
+        <f t="shared" si="183"/>
+        <v>3.0143410785553826E-2</v>
+      </c>
+      <c r="P94" s="25">
+        <f t="shared" si="183"/>
+        <v>0.10561903587167376</v>
+      </c>
+      <c r="Q94" s="25">
+        <f t="shared" si="183"/>
+        <v>1.3281202458467645E-2</v>
+      </c>
+      <c r="R94" s="25">
+        <f t="shared" si="183"/>
+        <v>2.4727873282786472E-2</v>
+      </c>
+      <c r="S94" s="25">
+        <f t="shared" si="183"/>
+        <v>2.1147121451874362E-2</v>
+      </c>
+      <c r="T94" s="25">
+        <f t="shared" si="183"/>
+        <v>2.1809207694441612E-2</v>
+      </c>
+      <c r="U94" s="25">
+        <f t="shared" si="183"/>
+        <v>4.8585042547018009E-3</v>
+      </c>
+      <c r="V94" s="25">
         <f t="shared" si="185"/>
-        <v xml:space="preserve">Accrued liabilities </v>
-      </c>
-      <c r="L92" s="25">
-        <f t="shared" si="184"/>
-        <v>5.8975236410072407E-2</v>
-      </c>
-      <c r="M92" s="25">
-        <f t="shared" si="184"/>
-        <v>0.11254817582105781</v>
-      </c>
-      <c r="N92" s="25">
-        <f t="shared" si="184"/>
-        <v>0.10402453970345493</v>
-      </c>
-      <c r="O92" s="25">
-        <f t="shared" si="184"/>
-        <v>-5.5190159327014987E-2</v>
-      </c>
-      <c r="P92" s="25">
-        <f t="shared" si="184"/>
-        <v>-6.8798304831502177E-3</v>
-      </c>
-      <c r="Q92" s="25">
-        <f t="shared" si="184"/>
-        <v>8.209725840975457E-2</v>
-      </c>
-      <c r="R92" s="25">
-        <f t="shared" si="184"/>
-        <v>4.0541223757220246E-2</v>
-      </c>
-      <c r="S92" s="25">
-        <f t="shared" si="184"/>
-        <v>-0.1155306136083426</v>
-      </c>
-      <c r="T92" s="25">
-        <f t="shared" si="184"/>
-        <v>-1.4818680601811463E-2</v>
-      </c>
-      <c r="U92" s="25">
-        <f t="shared" si="184"/>
-        <v>6.8056513950748965E-2</v>
-      </c>
-      <c r="V92" s="25">
-        <f t="shared" si="186"/>
-        <v>0.12933898050680992</v>
-      </c>
-      <c r="W92" s="25">
-        <f t="shared" si="186"/>
-        <v>-0.21032406444305762</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" hidden="1" outlineLevel="1">
-      <c r="B93" s="9" t="str">
+        <v>1.8767118183003806E-2</v>
+      </c>
+      <c r="W94" s="25">
         <f t="shared" si="185"/>
-        <v xml:space="preserve">Unearned revenue </v>
-      </c>
-      <c r="L93" s="25">
-        <f t="shared" si="184"/>
-        <v>8.2434136771300404E-2</v>
-      </c>
-      <c r="M93" s="25">
-        <f t="shared" si="184"/>
-        <v>2.4274201378782223E-4</v>
-      </c>
-      <c r="N93" s="25">
-        <f t="shared" si="184"/>
-        <v>0.54014787490494909</v>
-      </c>
-      <c r="O93" s="25">
-        <f t="shared" si="184"/>
-        <v>-0.18589211618257262</v>
-      </c>
-      <c r="P93" s="25">
-        <f t="shared" si="184"/>
-        <v>0.14742125704847808</v>
-      </c>
-      <c r="Q93" s="25">
-        <f t="shared" si="184"/>
-        <v>2.8597454005667711E-2</v>
-      </c>
-      <c r="R93" s="25">
-        <f t="shared" si="184"/>
-        <v>0.39667858353285879</v>
-      </c>
-      <c r="S93" s="25">
-        <f t="shared" si="184"/>
-        <v>-0.13740117416829745</v>
-      </c>
-      <c r="T93" s="25">
-        <f t="shared" si="184"/>
-        <v>2.558145866039907E-2</v>
-      </c>
-      <c r="U93" s="25">
-        <f t="shared" si="184"/>
-        <v>6.5539392652367745E-2</v>
-      </c>
-      <c r="V93" s="25">
-        <f t="shared" si="186"/>
-        <v>0.29834832216437057</v>
-      </c>
-      <c r="W93" s="25">
-        <f t="shared" si="186"/>
-        <v>-0.1530530664978158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" hidden="1" outlineLevel="1">
-      <c r="B94" s="9" t="str">
-        <f t="shared" si="185"/>
-        <v>Current op lease liab</v>
-      </c>
-      <c r="L94" s="25">
-        <f t="shared" si="184"/>
-        <v>2.2757111597374147E-2</v>
-      </c>
-      <c r="M94" s="25">
-        <f t="shared" si="184"/>
-        <v>3.441176288193093E-2</v>
-      </c>
-      <c r="N94" s="25">
-        <f t="shared" si="184"/>
-        <v>3.7991151185237548E-2</v>
-      </c>
-      <c r="O94" s="25">
-        <f t="shared" si="184"/>
-        <v>3.0143410785553826E-2</v>
-      </c>
-      <c r="P94" s="25">
-        <f t="shared" si="184"/>
-        <v>0.10561903587167376</v>
-      </c>
-      <c r="Q94" s="25">
-        <f t="shared" si="184"/>
-        <v>1.3281202458467645E-2</v>
-      </c>
-      <c r="R94" s="25">
-        <f t="shared" si="184"/>
-        <v>2.4727873282786472E-2</v>
-      </c>
-      <c r="S94" s="25">
-        <f t="shared" si="184"/>
-        <v>2.1147121451874362E-2</v>
-      </c>
-      <c r="T94" s="25">
-        <f t="shared" si="184"/>
-        <v>2.1809207694441612E-2</v>
-      </c>
-      <c r="U94" s="25">
-        <f t="shared" si="184"/>
-        <v>4.8585042547018009E-3</v>
-      </c>
-      <c r="V94" s="25">
-        <f t="shared" si="186"/>
-        <v>1.8767118183003806E-2</v>
-      </c>
-      <c r="W94" s="25">
-        <f t="shared" si="186"/>
         <v>2.0986406843671812E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:32" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:71" hidden="1" outlineLevel="1">
       <c r="B95" s="9" t="str">
         <f>+B80</f>
         <v>Long Term Op Lease</v>
       </c>
       <c r="L95" s="25">
-        <f t="shared" ref="L95:U95" si="187">+L78/K78-1</f>
+        <f t="shared" ref="L95:U95" si="186">+L78/K78-1</f>
         <v>-5.7419451335557925E-2</v>
       </c>
       <c r="M95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.15640343773483045</v>
       </c>
       <c r="N95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>5.13770092063488E-2</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>-1.1971322831172415E-3</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>8.6187189750598803E-2</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.10860258470252138</v>
       </c>
       <c r="R95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>2.5547668316874939E-2</v>
       </c>
       <c r="S95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1.4345675438671268E-2</v>
       </c>
       <c r="T95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1.788981695312053E-3</v>
       </c>
       <c r="U95" s="25">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1.8525744297331226E-2</v>
       </c>
       <c r="V95" s="25">
@@ -14339,49 +16943,49 @@
         <v>-4.5719151819540782E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:71" hidden="1" outlineLevel="1">
       <c r="B96" s="9" t="str">
         <f>+B82</f>
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="L96" s="25">
-        <f t="shared" ref="L96:U96" si="188">+L80/K80-1</f>
+        <f t="shared" ref="L96:U96" si="187">+L80/K80-1</f>
         <v>8.3010428811636228E-3</v>
       </c>
       <c r="M96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>4.259480844211061E-2</v>
       </c>
       <c r="N96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>1.348488328577524E-2</v>
       </c>
       <c r="O96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>3.2259871100899229E-2</v>
       </c>
       <c r="P96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>1.605915556330384E-2</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>2.9176506437114336E-2</v>
       </c>
       <c r="R96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>2.1152901623580966E-2</v>
       </c>
       <c r="S96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>2.9766662963334189E-2</v>
       </c>
       <c r="T96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>3.1043926404260791E-2</v>
       </c>
       <c r="U96" s="25">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>4.4765524930971079E-2</v>
       </c>
       <c r="V96" s="25">
@@ -14399,51 +17003,51 @@
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="L97" s="25">
-        <f t="shared" ref="L97:W97" si="189">+L82/K82-1</f>
+        <f t="shared" ref="L97:W97" si="188">+L82/K82-1</f>
         <v>6.7585673028254245E-3</v>
       </c>
       <c r="M97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0.14550186313361335</v>
       </c>
       <c r="N97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>1.626478029638001E-3</v>
       </c>
       <c r="O97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>6.3664716344047356E-3</v>
       </c>
       <c r="P97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>-5.8113922753816216E-2</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>3.2658055744391623E-2</v>
       </c>
       <c r="R97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>2.2856540973246187E-2</v>
       </c>
       <c r="S97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>6.6290804242611578E-2</v>
       </c>
       <c r="T97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>3.2014292957338375E-2</v>
       </c>
       <c r="U97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>-7.4862557024213405E-3</v>
       </c>
       <c r="V97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>-9.1667648791985856E-2</v>
       </c>
       <c r="W97" s="25">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>5.1250778492837767E-2</v>
       </c>
     </row>
@@ -14459,39 +17063,39 @@
         <v>Deferred income taxes</v>
       </c>
       <c r="O100" s="25">
-        <f t="shared" ref="O100:W101" si="190">STDEV(L90:O90)</f>
+        <f t="shared" ref="O100:W101" si="189">STDEV(L90:O90)</f>
         <v>0.12410066422103937</v>
       </c>
       <c r="P100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.11232707822684207</v>
       </c>
       <c r="Q100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.12295046819827428</v>
       </c>
       <c r="R100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.1973588550528913</v>
       </c>
       <c r="S100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.21453093999651524</v>
       </c>
       <c r="T100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.17781477457944547</v>
       </c>
       <c r="U100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.21618327571176449</v>
       </c>
       <c r="V100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.15347145850187366</v>
       </c>
       <c r="W100" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.12898559188540487</v>
       </c>
     </row>
@@ -14501,39 +17105,39 @@
         <v xml:space="preserve">Other liabilities </v>
       </c>
       <c r="O101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.29679445765339985</v>
       </c>
       <c r="P101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.26492351470193504</v>
       </c>
       <c r="Q101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.27462953059622208</v>
       </c>
       <c r="R101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.2373802919517124</v>
       </c>
       <c r="S101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.23209223642893448</v>
       </c>
       <c r="T101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.22513641179066099</v>
       </c>
       <c r="U101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.10563065880929602</v>
       </c>
       <c r="V101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.12192625526121278</v>
       </c>
       <c r="W101" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.11092359413700548</v>
       </c>
     </row>
@@ -14543,39 +17147,39 @@
         <v xml:space="preserve">Equity </v>
       </c>
       <c r="O102" s="25">
-        <f t="shared" ref="O102:W106" si="191">STDEV(L93:O93)</f>
+        <f t="shared" ref="O102:W106" si="190">STDEV(L93:O93)</f>
         <v>0.30842801376349016</v>
       </c>
       <c r="P102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.30825737664218072</v>
       </c>
       <c r="Q102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.30472320429330313</v>
       </c>
       <c r="R102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.24293761708698589</v>
       </c>
       <c r="S102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.22465762438944539</v>
       </c>
       <c r="T102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.22593619323754499</v>
       </c>
       <c r="U102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.22397028749477221</v>
       </c>
       <c r="V102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.17977398583468304</v>
       </c>
       <c r="W102" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>0.1856642503816143</v>
       </c>
     </row>
@@ -14585,39 +17189,39 @@
         <v>TL+E</v>
       </c>
       <c r="O103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>6.5516038370503687E-3</v>
       </c>
       <c r="P103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>3.5862229870672585E-2</v>
       </c>
       <c r="Q103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.0571828191773997E-2</v>
       </c>
       <c r="R103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.2042551892534606E-2</v>
       </c>
       <c r="S103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.3215430045700928E-2</v>
       </c>
       <c r="T103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.8939127032102663E-3</v>
       </c>
       <c r="U103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>8.987101746187923E-3</v>
       </c>
       <c r="V103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>7.965822938511646E-3</v>
       </c>
       <c r="W103" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>7.9358977775194958E-3</v>
       </c>
     </row>
@@ -14627,39 +17231,39 @@
         <v>QoQ Change</v>
       </c>
       <c r="O104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>9.0990099090172721E-2</v>
       </c>
       <c r="P104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>6.6087455063084971E-2</v>
       </c>
       <c r="Q104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.7823462714459017E-2</v>
       </c>
       <c r="R104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>5.1222555719250218E-2</v>
       </c>
       <c r="S104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.5870082291762093E-2</v>
       </c>
       <c r="T104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.8338442482296622E-2</v>
       </c>
       <c r="U104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>9.9771823309706895E-3</v>
       </c>
       <c r="V104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.038820212143949E-2</v>
       </c>
       <c r="W104" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>3.2398277211140282E-2</v>
       </c>
     </row>
@@ -14669,39 +17273,39 @@
         <v xml:space="preserve">Accrued payroll &amp; benefits </v>
       </c>
       <c r="O105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.6030332828902691E-2</v>
       </c>
       <c r="P105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.3783836474006222E-2</v>
       </c>
       <c r="Q105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>9.3514227877685725E-3</v>
       </c>
       <c r="R105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>7.4034027628463077E-3</v>
       </c>
       <c r="S105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>6.6133092154039104E-3</v>
       </c>
       <c r="T105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.4895659941568064E-3</v>
       </c>
       <c r="U105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>9.7658621544512523E-3</v>
       </c>
       <c r="V105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.5125079584447351E-2</v>
       </c>
       <c r="W105" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.7836055907021569E-2</v>
       </c>
     </row>
@@ -14711,39 +17315,39 @@
         <v xml:space="preserve">Unearned revenue </v>
       </c>
       <c r="O106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>7.0331029995739439E-2</v>
       </c>
       <c r="P106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>8.6249287994458412E-2</v>
       </c>
       <c r="Q106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>3.8343689807407134E-2</v>
       </c>
       <c r="R106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>4.0837818268055215E-2</v>
       </c>
       <c r="S106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>5.2746303871153227E-2</v>
       </c>
       <c r="T106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>1.9089536328670661E-2</v>
       </c>
       <c r="U106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>3.037174139132745E-2</v>
       </c>
       <c r="V106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>6.8015212567306485E-2</v>
       </c>
       <c r="W106" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>6.3370459351594438E-2</v>
       </c>
     </row>
@@ -14762,23 +17366,23 @@
         <v>1672020</v>
       </c>
       <c r="P108" s="36">
-        <f t="shared" ref="P108:T108" si="192">+P84</f>
+        <f t="shared" ref="P108:T108" si="191">+P84</f>
         <v>1704496</v>
       </c>
       <c r="Q108" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>1805586</v>
       </c>
       <c r="R108" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>2020135</v>
       </c>
       <c r="S108" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>2097531</v>
       </c>
       <c r="T108" s="36">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>2174158</v>
       </c>
       <c r="U108" s="36">
@@ -15177,67 +17781,67 @@
         <v>1805586</v>
       </c>
       <c r="Q115" s="36">
-        <f t="shared" ref="Q115:U115" si="193">+SUM(Q108:Q114)</f>
+        <f t="shared" ref="Q115:U115" si="192">+SUM(Q108:Q114)</f>
         <v>1805586</v>
       </c>
       <c r="R115" s="36">
+        <f t="shared" si="192"/>
+        <v>2097531</v>
+      </c>
+      <c r="S115" s="36">
+        <f t="shared" si="192"/>
+        <v>2174158</v>
+      </c>
+      <c r="T115" s="36">
+        <f t="shared" si="192"/>
+        <v>2310908</v>
+      </c>
+      <c r="U115" s="36">
+        <f t="shared" si="192"/>
+        <v>2310908</v>
+      </c>
+      <c r="V115" s="36">
+        <f t="shared" ref="V115:AF115" si="193">+SUM(V108:V114)</f>
+        <v>2297374</v>
+      </c>
+      <c r="W115" s="36">
         <f t="shared" si="193"/>
-        <v>2097531</v>
-      </c>
-      <c r="S115" s="36">
+        <v>2133960</v>
+      </c>
+      <c r="X115" s="36">
         <f t="shared" si="193"/>
-        <v>2174158</v>
-      </c>
-      <c r="T115" s="36">
+        <v>2154199</v>
+      </c>
+      <c r="Y115" s="36">
         <f t="shared" si="193"/>
-        <v>2310908</v>
-      </c>
-      <c r="U115" s="36">
+        <v>2327381</v>
+      </c>
+      <c r="Z115" s="36">
         <f t="shared" si="193"/>
-        <v>2310908</v>
-      </c>
-      <c r="V115" s="36">
-        <f t="shared" ref="V115:AF115" si="194">+SUM(V108:V114)</f>
-        <v>2297374</v>
-      </c>
-      <c r="W115" s="36">
-        <f t="shared" si="194"/>
-        <v>2133960</v>
-      </c>
-      <c r="X115" s="36">
-        <f t="shared" si="194"/>
-        <v>2154199</v>
-      </c>
-      <c r="Y115" s="36">
-        <f t="shared" si="194"/>
-        <v>2327381</v>
-      </c>
-      <c r="Z115" s="36">
-        <f t="shared" si="194"/>
         <v>2368023</v>
       </c>
       <c r="AA115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>2481685</v>
       </c>
       <c r="AB115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>2766886</v>
       </c>
       <c r="AC115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>2886314</v>
       </c>
       <c r="AD115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>3062237</v>
       </c>
       <c r="AE115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>3361329</v>
       </c>
       <c r="AF115" s="36">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>3711820</v>
       </c>
     </row>
@@ -15328,7 +17932,7 @@
         <v>60180</v>
       </c>
       <c r="R118" s="25">
-        <f t="shared" ref="R118:R150" si="195">+BB118-SUM(O118:Q118)</f>
+        <f t="shared" ref="R118:R150" si="194">+BB118-SUM(O118:Q118)</f>
         <v>59956</v>
       </c>
       <c r="S118" s="25">
@@ -15343,7 +17947,7 @@
         <v>63191</v>
       </c>
       <c r="V118" s="25">
-        <f t="shared" ref="V118:V150" si="196">+BC118-SUM(S118:U118)</f>
+        <f t="shared" ref="V118:V150" si="195">+BC118-SUM(S118:U118)</f>
         <v>66262</v>
       </c>
       <c r="W118" s="25">
@@ -15399,7 +18003,7 @@
         <v>-34282</v>
       </c>
       <c r="R119" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>54493</v>
       </c>
       <c r="S119" s="25">
@@ -15413,7 +18017,7 @@
         <v>-155778</v>
       </c>
       <c r="V119" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-11333</v>
       </c>
       <c r="W119" s="25">
@@ -15469,7 +18073,7 @@
         <v>-33924</v>
       </c>
       <c r="R120" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>7676</v>
       </c>
       <c r="S120" s="25">
@@ -15484,7 +18088,7 @@
         <v>28367</v>
       </c>
       <c r="V120" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>4603</v>
       </c>
       <c r="W120" s="25">
@@ -15540,7 +18144,7 @@
         <v>-13890</v>
       </c>
       <c r="R121" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>307</v>
       </c>
       <c r="S121" s="25">
@@ -15555,7 +18159,7 @@
         <v>-7502</v>
       </c>
       <c r="V121" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-240</v>
       </c>
       <c r="W121" s="25">
@@ -15611,7 +18215,7 @@
         <v>60497</v>
       </c>
       <c r="R122" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>22047</v>
       </c>
       <c r="S122" s="25">
@@ -15626,7 +18230,7 @@
         <v>138961</v>
       </c>
       <c r="V122" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>37651</v>
       </c>
       <c r="W122" s="25">
@@ -15682,7 +18286,7 @@
         <v>-38312</v>
       </c>
       <c r="R123" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>1193</v>
       </c>
       <c r="S123" s="25">
@@ -15697,7 +18301,7 @@
         <v>-100146</v>
       </c>
       <c r="V123" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-7133</v>
       </c>
       <c r="W123" s="25">
@@ -15753,7 +18357,7 @@
         <v>27663</v>
       </c>
       <c r="R124" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-26323</v>
       </c>
       <c r="S124" s="25">
@@ -15768,7 +18372,7 @@
         <v>19415</v>
       </c>
       <c r="V124" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-23569</v>
       </c>
       <c r="W124" s="25">
@@ -15824,7 +18428,7 @@
         <v>-21984</v>
       </c>
       <c r="R125" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-1008</v>
       </c>
       <c r="S125" s="25">
@@ -15839,7 +18443,7 @@
         <v>-39282</v>
       </c>
       <c r="V125" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-4396</v>
       </c>
       <c r="W125" s="25">
@@ -15895,7 +18499,7 @@
         <v>-8044</v>
       </c>
       <c r="R126" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-5427</v>
       </c>
       <c r="S126" s="25">
@@ -15910,7 +18514,7 @@
         <v>-20652</v>
       </c>
       <c r="V126" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-7483</v>
       </c>
       <c r="W126" s="25">
@@ -15966,7 +18570,7 @@
         <v>142302</v>
       </c>
       <c r="R127" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>48486</v>
       </c>
       <c r="S127" s="25">
@@ -15981,7 +18585,7 @@
         <v>169814</v>
       </c>
       <c r="V127" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>72209</v>
       </c>
       <c r="W127" s="25">
@@ -16037,7 +18641,7 @@
         <v>-13180</v>
       </c>
       <c r="R128" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-4823</v>
       </c>
       <c r="S128" s="25">
@@ -16052,7 +18656,7 @@
         <v>1784</v>
       </c>
       <c r="V128" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>2092</v>
       </c>
       <c r="W128" s="25">
@@ -16108,7 +18712,7 @@
         <v>-34754</v>
       </c>
       <c r="R129" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-9635</v>
       </c>
       <c r="S129" s="25">
@@ -16123,7 +18727,7 @@
         <v>16187</v>
       </c>
       <c r="V129" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-7272</v>
       </c>
       <c r="W129" s="25">
@@ -16180,7 +18784,7 @@
         <v>65250</v>
       </c>
       <c r="R130" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>8169</v>
       </c>
       <c r="S130" s="25">
@@ -16195,7 +18799,7 @@
         <v>-34261</v>
       </c>
       <c r="V130" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-31362</v>
       </c>
       <c r="W130" s="25">
@@ -16251,7 +18855,7 @@
         <v>10085</v>
       </c>
       <c r="R131" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>3631</v>
       </c>
       <c r="S131" s="25">
@@ -16266,7 +18870,7 @@
         <v>12695</v>
       </c>
       <c r="V131" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>18404</v>
       </c>
       <c r="W131" s="25">
@@ -16322,7 +18926,7 @@
         <v>3434</v>
       </c>
       <c r="R132" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>37551</v>
       </c>
       <c r="S132" s="25">
@@ -16337,7 +18941,7 @@
         <v>8509</v>
       </c>
       <c r="V132" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>37365</v>
       </c>
       <c r="W132" s="25">
@@ -16393,7 +18997,7 @@
         <v>37442</v>
       </c>
       <c r="R133" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-222574</v>
       </c>
       <c r="S133" s="25">
@@ -16408,7 +19012,7 @@
         <v>-33999</v>
       </c>
       <c r="V133" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>229229</v>
       </c>
       <c r="W133" s="25">
@@ -16464,7 +19068,7 @@
         <v>-45601</v>
       </c>
       <c r="R134" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-50085</v>
       </c>
       <c r="S134" s="25">
@@ -16479,7 +19083,7 @@
         <v>10363</v>
       </c>
       <c r="V134" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-115709</v>
       </c>
       <c r="W134" s="25">
@@ -16535,7 +19139,7 @@
         <v>764</v>
       </c>
       <c r="R135" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>431</v>
       </c>
       <c r="S135" s="25">
@@ -16550,7 +19154,7 @@
         <v>-481</v>
       </c>
       <c r="V135" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-4458</v>
       </c>
       <c r="W135" s="25">
@@ -16608,7 +19212,7 @@
         <v>243890</v>
       </c>
       <c r="R136" s="36">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>115024</v>
       </c>
       <c r="S136" s="36">
@@ -16704,7 +19308,7 @@
         <v>-81303</v>
       </c>
       <c r="R138" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-126594</v>
       </c>
       <c r="S138" s="25">
@@ -16719,7 +19323,7 @@
         <v>-108446</v>
       </c>
       <c r="V138" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-121906</v>
       </c>
       <c r="W138" s="25">
@@ -16791,7 +19395,7 @@
         <v>-223965</v>
       </c>
       <c r="R139" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-143349</v>
       </c>
       <c r="S139" s="25">
@@ -16806,7 +19410,7 @@
         <v>-97979</v>
       </c>
       <c r="V139" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-140451</v>
       </c>
       <c r="W139" s="25">
@@ -16862,7 +19466,7 @@
         <v>119927</v>
       </c>
       <c r="R140" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>100573</v>
       </c>
       <c r="S140" s="25">
@@ -16877,7 +19481,7 @@
         <v>81396</v>
       </c>
       <c r="V140" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>102307</v>
       </c>
       <c r="W140" s="25">
@@ -16933,7 +19537,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="S141" s="25">
@@ -16948,7 +19552,7 @@
         <v>0</v>
       </c>
       <c r="V141" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>1150</v>
       </c>
       <c r="W141" s="25">
@@ -16992,7 +19596,7 @@
         <v>-2500</v>
       </c>
       <c r="R142" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="S142" s="25">
@@ -17007,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="V142" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="W142" s="25">
@@ -17053,7 +19657,7 @@
         <v>-187841</v>
       </c>
       <c r="R143" s="36">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-169370</v>
       </c>
       <c r="S143" s="36">
@@ -17069,7 +19673,7 @@
         <v>-125029</v>
       </c>
       <c r="V143" s="36">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-158900</v>
       </c>
       <c r="W143" s="36">
@@ -17133,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="S145" s="25">
@@ -17149,7 +19753,7 @@
         <v>-97582</v>
       </c>
       <c r="V145" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-165729</v>
       </c>
       <c r="W145" s="25">
@@ -17205,7 +19809,7 @@
         <v>-29</v>
       </c>
       <c r="R146" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-579</v>
       </c>
       <c r="S146" s="25">
@@ -17220,7 +19824,7 @@
         <v>-4632</v>
       </c>
       <c r="V146" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-16378</v>
       </c>
       <c r="W146" s="25">
@@ -17276,7 +19880,7 @@
         <v>-10</v>
       </c>
       <c r="R147" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-30</v>
       </c>
       <c r="S147" s="25">
@@ -17291,7 +19895,7 @@
         <v>-134</v>
       </c>
       <c r="V147" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>68</v>
       </c>
       <c r="W147" s="25">
@@ -17349,7 +19953,7 @@
         <v>-39</v>
       </c>
       <c r="R148" s="36">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-609</v>
       </c>
       <c r="S148" s="36">
@@ -17365,47 +19969,47 @@
         <v>-102348</v>
       </c>
       <c r="V148" s="36">
+        <f t="shared" si="195"/>
+        <v>-182039</v>
+      </c>
+      <c r="W148" s="36">
+        <f t="shared" ref="W148:AF148" si="196">+SUM(W145:W147)</f>
+        <v>-349478</v>
+      </c>
+      <c r="X148" s="36">
         <f t="shared" si="196"/>
-        <v>-182039</v>
-      </c>
-      <c r="W148" s="36">
-        <f t="shared" ref="W148:AF148" si="197">+SUM(W145:W147)</f>
-        <v>-349478</v>
-      </c>
-      <c r="X148" s="36">
-        <f t="shared" si="197"/>
         <v>-263937.58799999999</v>
       </c>
       <c r="Y148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>-109319.412</v>
       </c>
       <c r="Z148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AA148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>-193883</v>
       </c>
       <c r="AB148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AC148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AD148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="AE148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>-100074</v>
       </c>
       <c r="AF148" s="36">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>-145334</v>
       </c>
       <c r="BA148" s="36">
@@ -17445,7 +20049,7 @@
         <v>481</v>
       </c>
       <c r="R149" s="25">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>699</v>
       </c>
       <c r="S149" s="25">
@@ -17460,7 +20064,7 @@
         <v>-572</v>
       </c>
       <c r="V149" s="25">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>-251</v>
       </c>
       <c r="W149" s="25">
@@ -17506,27 +20110,27 @@
         <v>101</v>
       </c>
       <c r="O150" s="36">
-        <f t="shared" ref="O150:T150" si="198">+O136+O143+O148+O149</f>
+        <f t="shared" ref="O150:T150" si="197">+O136+O143+O148+O149</f>
         <v>19790</v>
       </c>
       <c r="P150" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>105330</v>
       </c>
       <c r="Q150" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>56491</v>
       </c>
       <c r="R150" s="36">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>-54256</v>
       </c>
       <c r="S150" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>86803</v>
       </c>
       <c r="T150" s="36">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>22776</v>
       </c>
       <c r="U150" s="36">
@@ -17534,7 +20138,7 @@
         <v>53670</v>
       </c>
       <c r="V150" s="36">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>47145</v>
       </c>
       <c r="W150" s="36">
@@ -17550,23 +20154,23 @@
         <v>-546701.42099999997</v>
       </c>
       <c r="Z150" s="36">
-        <f t="shared" ref="Z150:AD150" si="199">+Z136+Z143+Z148+Z149</f>
+        <f t="shared" ref="Z150:AD150" si="198">+Z136+Z143+Z148+Z149</f>
         <v>401582</v>
       </c>
       <c r="AA150" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>25894</v>
       </c>
       <c r="AB150" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>582510</v>
       </c>
       <c r="AC150" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>480472</v>
       </c>
       <c r="AD150" s="36">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>265459</v>
       </c>
       <c r="AE150" s="36">
@@ -17578,11 +20182,11 @@
         <v>80660</v>
       </c>
       <c r="BA150" s="36">
-        <f t="shared" ref="BA150:BB150" si="200">+BA136+BA143+BA148+BA149</f>
+        <f t="shared" ref="BA150:BB150" si="199">+BA136+BA143+BA148+BA149</f>
         <v>228329</v>
       </c>
       <c r="BB150" s="36">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>127355</v>
       </c>
       <c r="BC150" s="36">
@@ -17677,27 +20281,27 @@
         <v>103</v>
       </c>
       <c r="O152" s="25">
-        <f t="shared" ref="O152:T152" si="201">+O150+O151</f>
+        <f t="shared" ref="O152:T152" si="200">+O150+O151</f>
         <v>528271</v>
       </c>
       <c r="P152" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>613811</v>
       </c>
       <c r="Q152" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>564972</v>
       </c>
       <c r="R152" s="25">
-        <f t="shared" ref="R152" si="202">+R150+R151</f>
+        <f t="shared" ref="R152" si="201">+R150+R151</f>
         <v>474015</v>
       </c>
       <c r="S152" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>722639</v>
       </c>
       <c r="T152" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>658612</v>
       </c>
       <c r="U152" s="25">
@@ -17767,87 +20371,87 @@
         <v>35060</v>
       </c>
       <c r="Q154" s="36">
-        <f t="shared" ref="Q154:AF154" si="203">+Q136+Q138</f>
+        <f t="shared" ref="Q154:AF154" si="202">+Q136+Q138</f>
         <v>162587</v>
       </c>
       <c r="R154" s="36">
+        <f t="shared" si="202"/>
+        <v>-11570</v>
+      </c>
+      <c r="S154" s="36">
+        <f t="shared" si="202"/>
+        <v>219354</v>
+      </c>
+      <c r="T154" s="36">
+        <f t="shared" si="202"/>
+        <v>180650</v>
+      </c>
+      <c r="U154" s="36">
+        <f t="shared" si="202"/>
+        <v>173173</v>
+      </c>
+      <c r="V154" s="36">
+        <f t="shared" si="202"/>
+        <v>266429</v>
+      </c>
+      <c r="W154" s="36">
+        <f t="shared" si="202"/>
+        <v>186730</v>
+      </c>
+      <c r="X154" s="36">
+        <f t="shared" si="202"/>
+        <v>186963.49900000001</v>
+      </c>
+      <c r="Y154" s="36">
+        <f t="shared" si="202"/>
+        <v>212385.50099999999</v>
+      </c>
+      <c r="Z154" s="36">
+        <f t="shared" si="202"/>
+        <v>257936</v>
+      </c>
+      <c r="AA154" s="36">
+        <f t="shared" si="202"/>
+        <v>334667</v>
+      </c>
+      <c r="AB154" s="36">
+        <f t="shared" si="202"/>
+        <v>445278</v>
+      </c>
+      <c r="AC154" s="36">
+        <f t="shared" si="202"/>
+        <v>349272</v>
+      </c>
+      <c r="AD154" s="36">
+        <f t="shared" si="202"/>
+        <v>93529</v>
+      </c>
+      <c r="AE154" s="36">
+        <f t="shared" si="202"/>
+        <v>436531</v>
+      </c>
+      <c r="AF154" s="36">
+        <f t="shared" si="202"/>
+        <v>422088</v>
+      </c>
+      <c r="BA154" s="36">
+        <f t="shared" ref="BA154:BC154" si="203">+BA136+BA138</f>
+        <v>387720</v>
+      </c>
+      <c r="BB154" s="36">
         <f t="shared" si="203"/>
-        <v>-11570</v>
-      </c>
-      <c r="S154" s="36">
+        <v>290495</v>
+      </c>
+      <c r="BC154" s="36">
         <f t="shared" si="203"/>
-        <v>219354</v>
-      </c>
-      <c r="T154" s="36">
-        <f t="shared" si="203"/>
-        <v>180650</v>
-      </c>
-      <c r="U154" s="36">
-        <f t="shared" si="203"/>
-        <v>173173</v>
-      </c>
-      <c r="V154" s="36">
-        <f t="shared" si="203"/>
-        <v>266429</v>
-      </c>
-      <c r="W154" s="36">
-        <f t="shared" si="203"/>
-        <v>186730</v>
-      </c>
-      <c r="X154" s="36">
-        <f t="shared" si="203"/>
-        <v>186963.49900000001</v>
-      </c>
-      <c r="Y154" s="36">
-        <f t="shared" si="203"/>
-        <v>212385.50099999999</v>
-      </c>
-      <c r="Z154" s="36">
-        <f t="shared" si="203"/>
-        <v>257936</v>
-      </c>
-      <c r="AA154" s="36">
-        <f t="shared" si="203"/>
-        <v>334667</v>
-      </c>
-      <c r="AB154" s="36">
-        <f t="shared" si="203"/>
-        <v>445278</v>
-      </c>
-      <c r="AC154" s="36">
-        <f t="shared" si="203"/>
-        <v>349272</v>
-      </c>
-      <c r="AD154" s="36">
-        <f t="shared" si="203"/>
-        <v>93529</v>
-      </c>
-      <c r="AE154" s="36">
-        <f t="shared" si="203"/>
-        <v>436531</v>
-      </c>
-      <c r="AF154" s="36">
-        <f t="shared" si="203"/>
-        <v>422088</v>
-      </c>
-      <c r="BA154" s="36">
-        <f t="shared" ref="BA154:BC154" si="204">+BA136+BA138</f>
-        <v>387720</v>
-      </c>
-      <c r="BB154" s="36">
+        <v>839606</v>
+      </c>
+      <c r="BD154" s="36">
+        <f t="shared" ref="BD154:BE154" si="204">+BD136+BD138</f>
+        <v>844015</v>
+      </c>
+      <c r="BE154" s="36">
         <f t="shared" si="204"/>
-        <v>290495</v>
-      </c>
-      <c r="BC154" s="36">
-        <f t="shared" si="204"/>
-        <v>839606</v>
-      </c>
-      <c r="BD154" s="36">
-        <f t="shared" ref="BD154:BE154" si="205">+BD136+BD138</f>
-        <v>844015</v>
-      </c>
-      <c r="BE154" s="36">
-        <f t="shared" si="205"/>
         <v>1222746</v>
       </c>
     </row>
@@ -17856,83 +20460,83 @@
         <v>104</v>
       </c>
       <c r="O155" s="25">
-        <f t="shared" ref="O155:Y155" si="206">+O30</f>
+        <f t="shared" ref="O155:Y155" si="205">+O30</f>
         <v>85724</v>
       </c>
       <c r="P155" s="25">
+        <f t="shared" si="205"/>
+        <v>13561</v>
+      </c>
+      <c r="Q155" s="25">
+        <f t="shared" si="205"/>
+        <v>88235</v>
+      </c>
+      <c r="R155" s="25">
+        <f t="shared" si="205"/>
+        <v>198523</v>
+      </c>
+      <c r="S155" s="25">
+        <f t="shared" si="205"/>
+        <v>132769</v>
+      </c>
+      <c r="T155" s="25">
+        <f t="shared" si="205"/>
+        <v>192240</v>
+      </c>
+      <c r="U155" s="25">
+        <f t="shared" si="205"/>
+        <v>209092</v>
+      </c>
+      <c r="V155" s="25">
+        <f t="shared" si="205"/>
+        <v>138174</v>
+      </c>
+      <c r="W155" s="25">
+        <f t="shared" si="205"/>
+        <v>162604</v>
+      </c>
+      <c r="X155" s="25">
+        <f t="shared" si="205"/>
+        <v>264623</v>
+      </c>
+      <c r="Y155" s="25">
+        <f t="shared" si="205"/>
+        <v>263501</v>
+      </c>
+      <c r="Z155" s="25">
+        <f t="shared" ref="Z155:AD155" si="206">+Z30</f>
+        <v>229512</v>
+      </c>
+      <c r="AA155" s="25">
         <f t="shared" si="206"/>
-        <v>13561</v>
-      </c>
-      <c r="Q155" s="25">
+        <v>300005</v>
+      </c>
+      <c r="AB155" s="25">
         <f t="shared" si="206"/>
-        <v>88235</v>
-      </c>
-      <c r="R155" s="25">
+        <v>358030</v>
+      </c>
+      <c r="AC155" s="25">
         <f t="shared" si="206"/>
-        <v>198523</v>
-      </c>
-      <c r="S155" s="25">
+        <v>320458</v>
+      </c>
+      <c r="AD155" s="25">
         <f t="shared" si="206"/>
-        <v>132769</v>
-      </c>
-      <c r="T155" s="25">
-        <f t="shared" si="206"/>
-        <v>192240</v>
-      </c>
-      <c r="U155" s="25">
-        <f t="shared" si="206"/>
-        <v>209092</v>
-      </c>
-      <c r="V155" s="25">
-        <f t="shared" si="206"/>
-        <v>138174</v>
-      </c>
-      <c r="W155" s="25">
-        <f t="shared" si="206"/>
-        <v>162604</v>
-      </c>
-      <c r="X155" s="25">
-        <f t="shared" si="206"/>
-        <v>264623</v>
-      </c>
-      <c r="Y155" s="25">
-        <f t="shared" si="206"/>
-        <v>263501</v>
-      </c>
-      <c r="Z155" s="25">
-        <f t="shared" ref="Z155:AD155" si="207">+Z30</f>
-        <v>229512</v>
-      </c>
-      <c r="AA155" s="25">
+        <v>288614</v>
+      </c>
+      <c r="AE155" s="25">
+        <f t="shared" ref="AE155:AF155" si="207">+AE30</f>
+        <v>364766</v>
+      </c>
+      <c r="AF155" s="25">
         <f t="shared" si="207"/>
-        <v>300005</v>
-      </c>
-      <c r="AB155" s="25">
-        <f t="shared" si="207"/>
-        <v>358030</v>
-      </c>
-      <c r="AC155" s="25">
-        <f t="shared" si="207"/>
-        <v>320458</v>
-      </c>
-      <c r="AD155" s="25">
-        <f t="shared" si="207"/>
-        <v>288614</v>
-      </c>
-      <c r="AE155" s="25">
-        <f t="shared" ref="AE155:AF155" si="208">+AE30</f>
-        <v>364766</v>
-      </c>
-      <c r="AF155" s="25">
+        <v>461433</v>
+      </c>
+      <c r="BA155" s="25">
+        <f t="shared" ref="BA155:BB155" si="208">+BA30</f>
+        <v>373702</v>
+      </c>
+      <c r="BB155" s="25">
         <f t="shared" si="208"/>
-        <v>461433</v>
-      </c>
-      <c r="BA155" s="25">
-        <f t="shared" ref="BA155:BB155" si="209">+BA30</f>
-        <v>373702</v>
-      </c>
-      <c r="BB155" s="25">
-        <f t="shared" si="209"/>
         <v>386043</v>
       </c>
       <c r="BC155" s="25">
@@ -17954,15 +20558,15 @@
         <v>105</v>
       </c>
       <c r="R157" s="36">
-        <f t="shared" ref="R157:T157" si="210">+SUM(O154:R154)</f>
+        <f t="shared" ref="R157:T157" si="209">+SUM(O154:R154)</f>
         <v>290495</v>
       </c>
       <c r="S157" s="36">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>405431</v>
       </c>
       <c r="T157" s="36">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>551021</v>
       </c>
       <c r="U157" s="36">
@@ -17970,47 +20574,47 @@
         <v>561607</v>
       </c>
       <c r="V157" s="36">
-        <f t="shared" ref="V157:W157" si="211">+SUM(S154:V154)</f>
+        <f t="shared" ref="V157:W157" si="210">+SUM(S154:V154)</f>
         <v>839606</v>
       </c>
       <c r="W157" s="36">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>806982</v>
       </c>
       <c r="X157" s="36">
-        <f t="shared" ref="X157:X158" si="212">+SUM(U154:X154)</f>
+        <f t="shared" ref="X157:X158" si="211">+SUM(U154:X154)</f>
         <v>813295.49900000007</v>
       </c>
       <c r="Y157" s="36">
-        <f t="shared" ref="Y157:Y158" si="213">+SUM(V154:Y154)</f>
+        <f t="shared" ref="Y157:Y158" si="212">+SUM(V154:Y154)</f>
         <v>852508</v>
       </c>
       <c r="Z157" s="36">
-        <f t="shared" ref="Z157:Z158" si="214">+SUM(W154:Z154)</f>
+        <f t="shared" ref="Z157:Z158" si="213">+SUM(W154:Z154)</f>
         <v>844015</v>
       </c>
       <c r="AA157" s="36">
-        <f t="shared" ref="AA157:AA158" si="215">+SUM(X154:AA154)</f>
+        <f t="shared" ref="AA157:AA158" si="214">+SUM(X154:AA154)</f>
         <v>991952</v>
       </c>
       <c r="AB157" s="36">
-        <f t="shared" ref="AB157:AB158" si="216">+SUM(Y154:AB154)</f>
+        <f t="shared" ref="AB157:AB158" si="215">+SUM(Y154:AB154)</f>
         <v>1250266.5009999999</v>
       </c>
       <c r="AC157" s="36">
-        <f t="shared" ref="AC157:AC158" si="217">+SUM(Z154:AC154)</f>
+        <f t="shared" ref="AC157:AC158" si="216">+SUM(Z154:AC154)</f>
         <v>1387153</v>
       </c>
       <c r="AD157" s="36">
-        <f t="shared" ref="AD157:AF158" si="218">+SUM(AA154:AD154)</f>
+        <f t="shared" ref="AD157:AF158" si="217">+SUM(AA154:AD154)</f>
         <v>1222746</v>
       </c>
       <c r="AE157" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>1324610</v>
       </c>
       <c r="AF157" s="36">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>1301420</v>
       </c>
       <c r="BB157" s="36">
@@ -18035,15 +20639,15 @@
         <v>106</v>
       </c>
       <c r="R158" s="25">
-        <f t="shared" ref="R158:T158" si="219">+SUM(O155:R155)</f>
+        <f t="shared" ref="R158:T158" si="218">+SUM(O155:R155)</f>
         <v>386043</v>
       </c>
       <c r="S158" s="25">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>433088</v>
       </c>
       <c r="T158" s="25">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>611767</v>
       </c>
       <c r="U158" s="25">
@@ -18051,47 +20655,47 @@
         <v>732624</v>
       </c>
       <c r="V158" s="25">
-        <f t="shared" ref="V158:W158" si="220">+SUM(S155:V155)</f>
+        <f t="shared" ref="V158:W158" si="219">+SUM(S155:V155)</f>
         <v>672275</v>
       </c>
       <c r="W158" s="25">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>702110</v>
       </c>
       <c r="X158" s="25">
+        <f t="shared" si="211"/>
+        <v>774493</v>
+      </c>
+      <c r="Y158" s="25">
         <f t="shared" si="212"/>
-        <v>774493</v>
-      </c>
-      <c r="Y158" s="25">
+        <v>828902</v>
+      </c>
+      <c r="Z158" s="25">
         <f t="shared" si="213"/>
-        <v>828902</v>
-      </c>
-      <c r="Z158" s="25">
+        <v>920240</v>
+      </c>
+      <c r="AA158" s="25">
         <f t="shared" si="214"/>
-        <v>920240</v>
-      </c>
-      <c r="AA158" s="25">
+        <v>1057641</v>
+      </c>
+      <c r="AB158" s="25">
         <f t="shared" si="215"/>
-        <v>1057641</v>
-      </c>
-      <c r="AB158" s="25">
+        <v>1151048</v>
+      </c>
+      <c r="AC158" s="25">
         <f t="shared" si="216"/>
-        <v>1151048</v>
-      </c>
-      <c r="AC158" s="25">
+        <v>1208005</v>
+      </c>
+      <c r="AD158" s="25">
         <f t="shared" si="217"/>
-        <v>1208005</v>
-      </c>
-      <c r="AD158" s="25">
-        <f t="shared" si="218"/>
         <v>1267107</v>
       </c>
       <c r="AE158" s="25">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>1331868</v>
       </c>
       <c r="AF158" s="25">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>1435271</v>
       </c>
     </row>
@@ -18101,15 +20705,15 @@
         <v>107</v>
       </c>
       <c r="R160" s="36">
-        <f t="shared" ref="R160:T160" si="221">+R157-R158</f>
+        <f t="shared" ref="R160:T160" si="220">+R157-R158</f>
         <v>-95548</v>
       </c>
       <c r="S160" s="36">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>-27657</v>
       </c>
       <c r="T160" s="36">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>-60746</v>
       </c>
       <c r="U160" s="36">
@@ -18117,47 +20721,47 @@
         <v>-171017</v>
       </c>
       <c r="V160" s="36">
-        <f t="shared" ref="V160:Y160" si="222">+V157-V158</f>
+        <f t="shared" ref="V160:Y160" si="221">+V157-V158</f>
         <v>167331</v>
       </c>
       <c r="W160" s="36">
+        <f t="shared" si="221"/>
+        <v>104872</v>
+      </c>
+      <c r="X160" s="36">
+        <f t="shared" si="221"/>
+        <v>38802.499000000069</v>
+      </c>
+      <c r="Y160" s="36">
+        <f t="shared" si="221"/>
+        <v>23606</v>
+      </c>
+      <c r="Z160" s="36">
+        <f t="shared" ref="Z160:AD160" si="222">+Z157-Z158</f>
+        <v>-76225</v>
+      </c>
+      <c r="AA160" s="36">
         <f t="shared" si="222"/>
-        <v>104872</v>
-      </c>
-      <c r="X160" s="36">
+        <v>-65689</v>
+      </c>
+      <c r="AB160" s="36">
         <f t="shared" si="222"/>
-        <v>38802.499000000069</v>
-      </c>
-      <c r="Y160" s="36">
+        <v>99218.500999999931</v>
+      </c>
+      <c r="AC160" s="36">
         <f t="shared" si="222"/>
-        <v>23606</v>
-      </c>
-      <c r="Z160" s="36">
-        <f t="shared" ref="Z160:AD160" si="223">+Z157-Z158</f>
-        <v>-76225</v>
-      </c>
-      <c r="AA160" s="36">
+        <v>179148</v>
+      </c>
+      <c r="AD160" s="36">
+        <f t="shared" si="222"/>
+        <v>-44361</v>
+      </c>
+      <c r="AE160" s="36">
+        <f t="shared" ref="AE160:AF160" si="223">+AE157-AE158</f>
+        <v>-7258</v>
+      </c>
+      <c r="AF160" s="36">
         <f t="shared" si="223"/>
-        <v>-65689</v>
-      </c>
-      <c r="AB160" s="36">
-        <f t="shared" si="223"/>
-        <v>99218.500999999931</v>
-      </c>
-      <c r="AC160" s="36">
-        <f t="shared" si="223"/>
-        <v>179148</v>
-      </c>
-      <c r="AD160" s="36">
-        <f t="shared" si="223"/>
-        <v>-44361</v>
-      </c>
-      <c r="AE160" s="36">
-        <f t="shared" ref="AE160:AF160" si="224">+AE157-AE158</f>
-        <v>-7258</v>
-      </c>
-      <c r="AF160" s="36">
-        <f t="shared" si="224"/>
         <v>-133851</v>
       </c>
     </row>
@@ -18297,47 +20901,47 @@
         <v>190</v>
       </c>
       <c r="BF175" s="85">
-        <f t="shared" ref="BF175:BP175" si="225">($BF$171-$BF$172)/BF173</f>
+        <f t="shared" ref="BF175:BP175" si="224">($BF$171-$BF$172)/BF173</f>
         <v>11.876666666666667</v>
       </c>
       <c r="BG175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.837209302325581</v>
       </c>
       <c r="BH175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.798013245033113</v>
       </c>
       <c r="BI175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.759075907590759</v>
       </c>
       <c r="BJ175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.720394736842104</v>
       </c>
       <c r="BK175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.681967213114755</v>
       </c>
       <c r="BL175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.643790849673202</v>
       </c>
       <c r="BM175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.60586319218241</v>
       </c>
       <c r="BN175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.568181818181818</v>
       </c>
       <c r="BO175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.53074433656958</v>
       </c>
       <c r="BP175" s="85">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>11.493548387096775</v>
       </c>
     </row>
@@ -18347,43 +20951,43 @@
       </c>
       <c r="BF176" s="85"/>
       <c r="BG176" s="85">
-        <f t="shared" ref="BG176:BP176" si="226">+BF175-BG175</f>
+        <f t="shared" ref="BG176:BP176" si="225">+BF175-BG175</f>
         <v>3.9457364341085821E-2</v>
       </c>
       <c r="BH176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.9196057292468112E-2</v>
       </c>
       <c r="BI176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.8937337442353837E-2</v>
       </c>
       <c r="BJ176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.8681170748654736E-2</v>
       </c>
       <c r="BK176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.8427523727349922E-2</v>
       </c>
       <c r="BL176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.8176363441552397E-2</v>
       </c>
       <c r="BM176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.7927657490792299E-2</v>
       </c>
       <c r="BN176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.7681374000591461E-2</v>
       </c>
       <c r="BO176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.7437481612238699E-2</v>
       </c>
       <c r="BP176" s="85">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>3.7195949472804912E-2</v>
       </c>
     </row>
@@ -18450,6 +21054,619 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B62A883-22E3-9445-B01A-C9AD214F5C26}">
+  <dimension ref="B3:AF25"/>
+  <sheetViews>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="C25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="31" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:32">
+      <c r="C3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32">
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="106">
+        <f>+Model!C9</f>
+        <v>2291</v>
+      </c>
+      <c r="D4" s="106">
+        <f>+Model!D9</f>
+        <v>2339</v>
+      </c>
+      <c r="E4" s="106">
+        <f>+Model!E9</f>
+        <v>2374</v>
+      </c>
+      <c r="F4" s="106">
+        <f>+Model!F9</f>
+        <v>2408</v>
+      </c>
+      <c r="G4" s="106">
+        <f>+Model!G9</f>
+        <v>2441</v>
+      </c>
+      <c r="H4" s="106">
+        <f>+Model!H9</f>
+        <v>2467</v>
+      </c>
+      <c r="I4" s="106">
+        <f>+Model!I9</f>
+        <v>2463</v>
+      </c>
+      <c r="J4" s="106">
+        <f>+Model!J9</f>
+        <v>2491</v>
+      </c>
+      <c r="K4" s="106">
+        <f>+Model!K9</f>
+        <v>2504</v>
+      </c>
+      <c r="L4" s="106">
+        <f>+Model!L9</f>
+        <v>2523</v>
+      </c>
+      <c r="M4" s="106">
+        <f>+Model!M9</f>
+        <v>2546</v>
+      </c>
+      <c r="N4" s="106">
+        <f>+Model!N9</f>
+        <v>2622</v>
+      </c>
+      <c r="O4" s="106">
+        <f>+Model!O9</f>
+        <v>2638</v>
+      </c>
+      <c r="P4" s="106">
+        <f>+Model!P9</f>
+        <v>2669</v>
+      </c>
+      <c r="Q4" s="106">
+        <f>+Model!Q9</f>
+        <v>2710</v>
+      </c>
+      <c r="R4" s="106">
+        <f>+Model!R9</f>
+        <v>2768</v>
+      </c>
+      <c r="S4" s="106">
+        <f>+Model!S9</f>
+        <v>2803</v>
+      </c>
+      <c r="T4" s="106">
+        <f>+Model!T9</f>
+        <v>2853</v>
+      </c>
+      <c r="U4" s="106">
+        <f>+Model!U9</f>
+        <v>2892</v>
+      </c>
+      <c r="V4" s="106">
+        <f>+Model!V9</f>
+        <v>2966</v>
+      </c>
+      <c r="W4" s="106">
+        <f>+Model!W9</f>
+        <v>3014</v>
+      </c>
+      <c r="X4" s="106">
+        <f>+Model!X9</f>
+        <v>3052</v>
+      </c>
+      <c r="Y4" s="106">
+        <f>+Model!Y9</f>
+        <v>3090</v>
+      </c>
+      <c r="Z4" s="106">
+        <f>+Model!Z9</f>
+        <v>3187</v>
+      </c>
+      <c r="AA4" s="106">
+        <f>+Model!AA9</f>
+        <v>3224</v>
+      </c>
+      <c r="AB4" s="106">
+        <f>+Model!AB9</f>
+        <v>3268</v>
+      </c>
+      <c r="AC4" s="106">
+        <f>+Model!AC9</f>
+        <v>3321</v>
+      </c>
+      <c r="AD4" s="106">
+        <f>+Model!AD9</f>
+        <v>3437</v>
+      </c>
+      <c r="AE4" s="106">
+        <f>+Model!AE9</f>
+        <v>3479</v>
+      </c>
+      <c r="AF4" s="106">
+        <f>+Model!AF9</f>
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="107">
+        <f>+Model!C46</f>
+        <v>0.17740162364606499</v>
+      </c>
+      <c r="D5" s="107">
+        <f>+Model!D46</f>
+        <v>0.18847127053066975</v>
+      </c>
+      <c r="E5" s="107">
+        <f>+Model!E46</f>
+        <v>0.16056925343550157</v>
+      </c>
+      <c r="F5" s="107">
+        <f>+Model!F46</f>
+        <v>0.14869831546707504</v>
+      </c>
+      <c r="G5" s="107">
+        <f>+Model!G46</f>
+        <v>0.19531050673242789</v>
+      </c>
+      <c r="H5" s="107">
+        <f>+Model!H46</f>
+        <v>0.19710624388087042</v>
+      </c>
+      <c r="I5" s="107">
+        <f>+Model!I46</f>
+        <v>0.18673362682825487</v>
+      </c>
+      <c r="J5" s="107">
+        <f>+Model!J46</f>
+        <v>0.17003969598248578</v>
+      </c>
+      <c r="K5" s="107">
+        <f>+Model!K46</f>
+        <v>0.20982375248143084</v>
+      </c>
+      <c r="L5" s="107">
+        <f>+Model!L46</f>
+        <v>0.20893565959737309</v>
+      </c>
+      <c r="M5" s="107">
+        <f>+Model!M46</f>
+        <v>0.20794231233663676</v>
+      </c>
+      <c r="N5" s="107">
+        <f>+Model!N46</f>
+        <v>0.1922582875997067</v>
+      </c>
+      <c r="O5" s="107">
+        <f>+Model!O46</f>
+        <v>0.17640483366553916</v>
+      </c>
+      <c r="P5" s="107">
+        <f>+Model!P46</f>
+        <v>0.12219341734457456</v>
+      </c>
+      <c r="Q5" s="107">
+        <f>+Model!Q46</f>
+        <v>0.19496832174565729</v>
+      </c>
+      <c r="R5" s="107">
+        <f>+Model!R46</f>
+        <v>0.19482804734684739</v>
+      </c>
+      <c r="S5" s="107">
+        <f>+Model!S46</f>
+        <v>0.22322093507313781</v>
+      </c>
+      <c r="T5" s="107">
+        <f>+Model!T46</f>
+        <v>0.24458267152363652</v>
+      </c>
+      <c r="U5" s="107">
+        <f>+Model!U46</f>
+        <v>0.23528631394011726</v>
+      </c>
+      <c r="V5" s="107">
+        <f>+Model!V46</f>
+        <v>0.20198476716448208</v>
+      </c>
+      <c r="W5" s="107">
+        <f>+Model!W46</f>
+        <v>0.20734368403678424</v>
+      </c>
+      <c r="X5" s="107">
+        <f>+Model!X46</f>
+        <v>0.25214619179438846</v>
+      </c>
+      <c r="Y5" s="107">
+        <f>+Model!Y46</f>
+        <v>0.25337912551938474</v>
+      </c>
+      <c r="Z5" s="107">
+        <f>+Model!Z46</f>
+        <v>0.23963232121082326</v>
+      </c>
+      <c r="AA5" s="107">
+        <f>+Model!AA46</f>
+        <v>0.2563096876609614</v>
+      </c>
+      <c r="AB5" s="107">
+        <f>+Model!AB46</f>
+        <v>0.27471557391618662</v>
+      </c>
+      <c r="AC5" s="107">
+        <f>+Model!AC46</f>
+        <v>0.26288700247739838</v>
+      </c>
+      <c r="AD5" s="107">
+        <f>+Model!AD46</f>
+        <v>0.25366567050295669</v>
+      </c>
+      <c r="AE5" s="107">
+        <f>+Model!AE46</f>
+        <v>0.27457133043753756</v>
+      </c>
+      <c r="AF5" s="107">
+        <f>+Model!AF46</f>
+        <v>0.2890569055977279</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
+      <c r="C24" s="106" t="str">
+        <f>+C3</f>
+        <v>Q117</v>
+      </c>
+      <c r="D24" s="106" t="str">
+        <f t="shared" ref="D24:AF24" si="0">+D3</f>
+        <v>Q217</v>
+      </c>
+      <c r="E24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q317</v>
+      </c>
+      <c r="F24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q417</v>
+      </c>
+      <c r="G24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q118</v>
+      </c>
+      <c r="H24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q218</v>
+      </c>
+      <c r="I24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q318</v>
+      </c>
+      <c r="J24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q418</v>
+      </c>
+      <c r="K24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q119</v>
+      </c>
+      <c r="L24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q219</v>
+      </c>
+      <c r="M24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q319</v>
+      </c>
+      <c r="N24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q419</v>
+      </c>
+      <c r="O24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120</v>
+      </c>
+      <c r="P24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q220</v>
+      </c>
+      <c r="Q24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q320</v>
+      </c>
+      <c r="R24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q420</v>
+      </c>
+      <c r="S24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q121</v>
+      </c>
+      <c r="T24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q221</v>
+      </c>
+      <c r="U24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q321</v>
+      </c>
+      <c r="V24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q421</v>
+      </c>
+      <c r="W24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q122</v>
+      </c>
+      <c r="X24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q222</v>
+      </c>
+      <c r="Y24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="Z24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q422</v>
+      </c>
+      <c r="AA24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q123</v>
+      </c>
+      <c r="AB24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q223</v>
+      </c>
+      <c r="AC24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q323</v>
+      </c>
+      <c r="AD24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q423</v>
+      </c>
+      <c r="AE24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q124</v>
+      </c>
+      <c r="AF24" s="106" t="str">
+        <f t="shared" si="0"/>
+        <v>Q224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="106">
+        <f>+Model!C17</f>
+        <v>1068829</v>
+      </c>
+      <c r="D25" s="106">
+        <f>+Model!D17</f>
+        <v>1169409</v>
+      </c>
+      <c r="E25" s="106">
+        <f>+Model!E17</f>
+        <v>1128074</v>
+      </c>
+      <c r="F25" s="106">
+        <f>+Model!F17</f>
+        <v>1110100</v>
+      </c>
+      <c r="G25" s="106">
+        <f>+Model!G17</f>
+        <v>1148397</v>
+      </c>
+      <c r="H25" s="106">
+        <f>+Model!H17</f>
+        <v>1266520</v>
+      </c>
+      <c r="I25" s="106">
+        <f>+Model!I17</f>
+        <v>1225007</v>
+      </c>
+      <c r="J25" s="106">
+        <f>+Model!J17</f>
+        <v>1225061</v>
+      </c>
+      <c r="K25" s="106">
+        <f>+Model!K17</f>
+        <v>1308217</v>
+      </c>
+      <c r="L25" s="106">
+        <f>+Model!L17</f>
+        <v>1434231</v>
+      </c>
+      <c r="M25" s="106">
+        <f>+Model!M17</f>
+        <v>1403697</v>
+      </c>
+      <c r="N25" s="106">
+        <f>+Model!N17</f>
+        <v>1440224</v>
+      </c>
+      <c r="O25" s="106">
+        <f>+Model!O17</f>
+        <v>1410772</v>
+      </c>
+      <c r="P25" s="106">
+        <f>+Model!P17</f>
+        <v>1364738</v>
+      </c>
+      <c r="Q25" s="106">
+        <f>+Model!Q17</f>
+        <v>1601414</v>
+      </c>
+      <c r="R25" s="106">
+        <f>+Model!R17</f>
+        <v>1607710</v>
+      </c>
+      <c r="S25" s="106">
+        <f>+Model!S17</f>
+        <v>1741575</v>
+      </c>
+      <c r="T25" s="106">
+        <f>+Model!T17</f>
+        <v>1892538</v>
+      </c>
+      <c r="U25" s="106">
+        <f>+Model!U17</f>
+        <v>1952315</v>
+      </c>
+      <c r="V25" s="106">
+        <f>+Model!V17</f>
+        <v>1960633</v>
+      </c>
+      <c r="W25" s="106">
+        <f>+Model!W17</f>
+        <v>2020539</v>
+      </c>
+      <c r="X25" s="106">
+        <f>+Model!X17</f>
+        <v>2213339</v>
+      </c>
+      <c r="Y25" s="106">
+        <f>+Model!Y17</f>
+        <v>2220175</v>
+      </c>
+      <c r="Z25" s="106">
+        <f>+Model!Z17</f>
+        <v>2180599</v>
+      </c>
+      <c r="AA25" s="106">
+        <f>+Model!AA17</f>
+        <v>2368580</v>
+      </c>
+      <c r="AB25" s="106">
+        <f>+Model!AB17</f>
+        <v>2514801</v>
+      </c>
+      <c r="AC25" s="106">
+        <f>+Model!AC17</f>
+        <v>2471948</v>
+      </c>
+      <c r="AD25" s="106">
+        <f>+Model!AD17</f>
+        <v>2516320</v>
+      </c>
+      <c r="AE25" s="106">
+        <f>+Model!AE17</f>
+        <v>2701848</v>
+      </c>
+      <c r="AF25" s="106">
+        <f>+Model!AF17</f>
+        <v>2973117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C291572-665D-DA4E-94FB-897703668EA5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
